--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:GR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,604 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>0.2879278424498841</v>
+      </c>
+      <c r="B1" t="n">
+        <v>3.032917448393836</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6.938970245718306</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2.493783375877912</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-2.995270403835879</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.6948393950982852</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.7394121453760447</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-0.7206583099386735</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.2952621049829379</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-0.01405880052535969</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-0.04718997084873428</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.02394257247877265</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-0.01037649250415691</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-0.003362951114676107</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-0.006064602598763074</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-0.007005432771582604</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-0.007690920394071835</v>
+      </c>
+      <c r="R1" t="n">
+        <v>-0.007853487662263799</v>
+      </c>
+      <c r="S1" t="n">
+        <v>-0.007520062784727445</v>
+      </c>
+      <c r="T1" t="n">
+        <v>-0.006538336452917392</v>
+      </c>
+      <c r="U1" t="n">
+        <v>-0.005042965124975457</v>
+      </c>
+      <c r="V1" t="n">
+        <v>-0.005644444484741967</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.1193836586237704</v>
+      </c>
+      <c r="X1" t="n">
+        <v>2.142589354558359</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>6.537308950517367</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>4.013883587304656</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-2.810369122857558</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.1783083145468346</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>1.202822945543864</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.7648134506890276</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1863514912270723</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.1050827153474672</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>-0.05115597191426362</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.06581558645874597</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.02787109061872233</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.03458704495000398</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.03325003650916205</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.03195498336738942</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.0305350760698017</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.02901215442620252</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.0274566739142957</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.02604979282823462</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.02450848151018079</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.02290785875039067</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.06383970180522841</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>1.475386962855712</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>5.872993496273643</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>5.333397155806427</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>-2.095310167379633</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>-1.136864475573328</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>1.514371498797921</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>-0.6449400995861141</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>-0.0160447930745535</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.2040583317148431</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>-0.09007244294328869</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.04832853965322076</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.01317275063257317</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>0.0132844872075507</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>0.01345575309082657</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>0.01211923159448598</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>0.01161613040952726</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>0.01139004027759088</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>0.01157132618470781</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>0.0122542220780253</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>0.01317657183563622</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>0.0156101422390157</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.02521554324277021</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.9526453569076508</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>5.018754302587544</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>6.325353833813528</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>-0.8966397435844226</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>-2.007738965737333</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>1.617657392656283</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>-0.3014375577098529</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>-0.2344806920501045</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>0.3167776174047591</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>-0.07681729084640107</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>0.05248783836127721</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>0.03559061894168424</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>0.02591304722487427</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>0.02802539807802646</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>0.02484477442153892</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>0.02237797673367005</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>0.0193884612670739</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>0.0160844349142653</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>0.01249940108260895</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>0.008692539503934954</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>0.00610949055217495</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>0.0008619409777932104</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.5561196817615569</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>4.062997468131182</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>6.866550896033129</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>0.5707160048941489</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>-2.688986790148954</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>1.375844116272831</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>0.1281084350731251</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>-0.5082173384948858</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>0.3395070639815334</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>-0.07484990559751233</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>0.00956163754987658</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>0.03423356566892873</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>0.02001031138729089</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>0.03186978974283947</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>0.03476109224555073</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>0.03813670751986356</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>0.04000128542408804</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>0.04053416581157884</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>0.03986575077276759</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>0.03828337683606883</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>0.0365863320554034</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>0.02969087900995633</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>0.3307435676920188</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>3.161966342729339</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>6.978948355473086</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>2.217865129695226</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>-2.978732648905749</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0.8293359326217759</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0.6581544865175085</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>-0.6878379502443823</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0.3219318112651099</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>-0.01034361246111098</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>-0.01940987449060063</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0.04882568489419184</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0.02177475009122067</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0.03451821951901787</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0.03765331088426607</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0.04262683286272918</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0.04767323033671755</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0.05283484566834083</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0.05782130077737613</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0.06252351830631808</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0.06662732381297808</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0.06675581318038414</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0.211369021990414</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>2.348338186791202</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>6.694412841132394</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>3.82154269114285</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>-2.82674034862071</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0.02560632153172512</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>1.163065809265233</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>-0.7457519449646375</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0.223652961555777</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0.08686974886531118</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>-0.05377449801541131</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>0.05061803818264074</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0.009272493083362563</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0.01541782799955795</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0.0157489105472473</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0.01933817694688515</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0.02512562839607424</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0.03257801327591208</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0.04112881550720682</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0.05034061713167021</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0.05931141114150257</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0.06712857477572612</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0.1266566551540786</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>1.641665372352978</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>6.070940695961876</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>5.19394232633665</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>-2.190116598211169</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>-0.9068040418132981</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>1.535246547036871</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>-0.6254761766738116</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0.07291091417540338</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0.2315845224758989</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>-0.0456056376160079</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0.08602638922231602</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0.04520452243953552</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0.04354435253025005</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>0.04132621755980136</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>0.0389108258020147</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>0.0378988495447191</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>0.0376329863491967</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>0.03801710978197621</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>0.03894818654167803</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>0.03997273071447922</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>0.04220312297866679</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>0.05504986803119841</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>1.05763052184469</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>5.199544025677681</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>6.205543357081423</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>-1.107276770096579</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>-1.847057985764238</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>1.641030220863206</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>-0.3518980021502474</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>-0.1753806005020255</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>0.3178290131689149</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>-0.06448130468333391</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>0.06717822795715045</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>0.04353006753603979</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>0.03293513282372772</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>0.03166293214847855</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>0.02580736574857726</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>0.02088867782995732</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>0.01597930428327508</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>0.01146124331564931</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>0.007560044156005212</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>0.004495512400127485</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>0.002492407963564571</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>0.001774904954790893</v>
       </c>
     </row>
   </sheetData>

--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR1"/>
+  <dimension ref="A1:SF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,604 +423,1504 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.2879278424498841</v>
+        <v>1.115034503403323</v>
       </c>
       <c r="B1" t="n">
-        <v>3.032917448393836</v>
+        <v>0.6784273053693061</v>
       </c>
       <c r="C1" t="n">
-        <v>6.938970245718306</v>
+        <v>0.06698835435431198</v>
       </c>
       <c r="D1" t="n">
-        <v>2.493783375877912</v>
+        <v>-0.113260751681409</v>
       </c>
       <c r="E1" t="n">
-        <v>-2.995270403835879</v>
+        <v>0.004725574766366763</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6948393950982852</v>
+        <v>0.1058830281938421</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7394121453760447</v>
+        <v>0.1318214969248819</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.7206583099386735</v>
+        <v>0.1429239516100592</v>
       </c>
       <c r="I1" t="n">
-        <v>0.2952621049829379</v>
+        <v>0.1582756021334658</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.01405880052535969</v>
+        <v>0.18067519574671</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.04718997084873428</v>
+        <v>0.2121877813890183</v>
       </c>
       <c r="L1" t="n">
-        <v>0.02394257247877265</v>
+        <v>0.2535595324566011</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.01037649250415691</v>
+        <v>0.3043838153912794</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.003362951114676107</v>
+        <v>0.3621320882680187</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.006064602598763074</v>
+        <v>0.4193504778294347</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.007005432771582604</v>
+        <v>0.4690184868076837</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.007690920394071835</v>
+        <v>0.5050757598448279</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.007853487662263799</v>
+        <v>0.5224159446987438</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.007520062784727445</v>
+        <v>0.5167882796360799</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.006538336452917392</v>
+        <v>0.4871460225128578</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.005042965124975457</v>
+        <v>0.4409462114254677</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.005644444484741967</v>
+        <v>0.3858926591530832</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1193836586237704</v>
+        <v>0.3285543281509972</v>
       </c>
       <c r="X1" t="n">
-        <v>2.142589354558359</v>
+        <v>0.2743653305506213</v>
       </c>
       <c r="Y1" t="n">
-        <v>6.537308950517367</v>
+        <v>0.2276249281594883</v>
       </c>
       <c r="Z1" t="n">
-        <v>4.013883587304656</v>
+        <v>0.1914768906474035</v>
       </c>
       <c r="AA1" t="n">
-        <v>-2.810369122857558</v>
+        <v>0.166514545307839</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.1783083145468346</v>
+        <v>0.1505350020018418</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.202822945543864</v>
+        <v>0.1413541295199043</v>
       </c>
       <c r="AD1" t="n">
-        <v>-0.7648134506890276</v>
+        <v>0.1370707971690767</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.1863514912270723</v>
+        <v>0.1360680562590231</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.1050827153474672</v>
+        <v>0.1370267187587967</v>
       </c>
       <c r="AG1" t="n">
-        <v>-0.05115597191426362</v>
+        <v>0.1389279721999892</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.06581558645874597</v>
+        <v>0.1412728778393792</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.02787109061872233</v>
+        <v>0.1438167566992685</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.03458704495000398</v>
+        <v>0.1463752511575563</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.03325003650916205</v>
+        <v>0.1488747620201519</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.03195498336738942</v>
+        <v>0.1513524485209749</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.0305350760698017</v>
+        <v>0.1539562283219549</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.02901215442620252</v>
+        <v>0.156944777513032</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.0274566739142957</v>
+        <v>0.160425604356105</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.02604979282823462</v>
+        <v>0.1669590743533447</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.02450848151018079</v>
+        <v>0.1806604207657449</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.02290785875039067</v>
+        <v>0.2051415534593584</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.06383970180522841</v>
+        <v>0.2435042956168679</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.475386962855712</v>
+        <v>0.2977961156529727</v>
       </c>
       <c r="AU1" t="n">
-        <v>5.872993496273643</v>
+        <v>0.3569321064811049</v>
       </c>
       <c r="AV1" t="n">
-        <v>5.333397155806427</v>
+        <v>0.4023971390196382</v>
       </c>
       <c r="AW1" t="n">
-        <v>-2.095310167379633</v>
+        <v>0.4204444968053908</v>
       </c>
       <c r="AX1" t="n">
-        <v>-1.136864475573328</v>
+        <v>0.4025409910476075</v>
       </c>
       <c r="AY1" t="n">
-        <v>1.514371498797921</v>
+        <v>0.3550960317586318</v>
       </c>
       <c r="AZ1" t="n">
-        <v>-0.6449400995861141</v>
+        <v>0.2984269523189527</v>
       </c>
       <c r="BA1" t="n">
-        <v>-0.0160447930745535</v>
+        <v>0.2478299602261289</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.2040583317148431</v>
+        <v>0.2122106628142836</v>
       </c>
       <c r="BC1" t="n">
-        <v>-0.09007244294328869</v>
+        <v>0.1947490016553112</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.04832853965322076</v>
+        <v>0.1709536543576142</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.01317275063257317</v>
+        <v>0.1177627491615615</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.0132844872075507</v>
+        <v>0.0346813600876943</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.01345575309082657</v>
+        <v>0.1517108602150747</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.01211923159448598</v>
+        <v>0.6576251883662096</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.01161613040952726</v>
+        <v>1.163687156825391</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.01139004027759088</v>
+        <v>0.8608061824581248</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.01157132618470781</v>
+        <v>0.212098356413682</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.0122542220780253</v>
+        <v>-0.03265451599887192</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.01317657183563622</v>
+        <v>0.06398789498610914</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.0156101422390157</v>
+        <v>0.1719612192283854</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.02521554324277021</v>
+        <v>0.2060895984130061</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.9526453569076508</v>
+        <v>0.2167588607170743</v>
       </c>
       <c r="BQ1" t="n">
-        <v>5.018754302587544</v>
+        <v>0.2303957397567362</v>
       </c>
       <c r="BR1" t="n">
-        <v>6.325353833813528</v>
+        <v>0.2533035408436464</v>
       </c>
       <c r="BS1" t="n">
-        <v>-0.8966397435844226</v>
+        <v>0.2844217812832938</v>
       </c>
       <c r="BT1" t="n">
-        <v>-2.007738965737333</v>
+        <v>0.3256179248985778</v>
       </c>
       <c r="BU1" t="n">
-        <v>1.617657392656283</v>
+        <v>0.3760627587584564</v>
       </c>
       <c r="BV1" t="n">
-        <v>-0.3014375577098529</v>
+        <v>0.4330620359492701</v>
       </c>
       <c r="BW1" t="n">
-        <v>-0.2344806920501045</v>
+        <v>0.4911263413142236</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.3167776174047591</v>
+        <v>0.5417364848536963</v>
       </c>
       <c r="BY1" t="n">
-        <v>-0.07681729084640107</v>
+        <v>0.5778806641226893</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.05248783836127721</v>
+        <v>0.5943439871398558</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.03559061894168424</v>
+        <v>0.5875341871978577</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.02591304722487427</v>
+        <v>0.5560486529276406</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.02802539807802646</v>
+        <v>0.5079020786595281</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.02484477442153892</v>
+        <v>0.4516475427046468</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.02237797673367005</v>
+        <v>0.3942433270483908</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.0193884612670739</v>
+        <v>0.3410529173504241</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.0160844349142653</v>
+        <v>0.2958450029446764</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.01249940108260895</v>
+        <v>0.2607934768393453</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.008692539503934954</v>
+        <v>0.236450743995354</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.00610949055217495</v>
+        <v>0.2211857478606811</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.0008619409777932104</v>
+        <v>0.2125326818609166</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.5561196817615569</v>
+        <v>0.2084130231972749</v>
       </c>
       <c r="CM1" t="n">
-        <v>4.062997468131182</v>
+        <v>0.2071702983834219</v>
       </c>
       <c r="CN1" t="n">
-        <v>6.866550896033129</v>
+        <v>0.2075599054992676</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.5707160048941489</v>
+        <v>0.20874479319081</v>
       </c>
       <c r="CP1" t="n">
-        <v>-2.688986790148954</v>
+        <v>0.2102954663512135</v>
       </c>
       <c r="CQ1" t="n">
-        <v>1.375844116272831</v>
+        <v>0.2120584173763943</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.1281084350731251</v>
+        <v>0.2138095288236445</v>
       </c>
       <c r="CS1" t="n">
-        <v>-0.5082173384948858</v>
+        <v>0.2154375627776812</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.3395070639815334</v>
+        <v>0.2169983982816541</v>
       </c>
       <c r="CU1" t="n">
-        <v>-0.07484990559751233</v>
+        <v>0.2187150313371453</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.00956163754987658</v>
+        <v>0.2209775749041695</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.03423356566892873</v>
+        <v>0.2243828767663771</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.02001031138729089</v>
+        <v>0.2318236200050232</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.03186978974283947</v>
+        <v>0.2474636042758861</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.03476109224555073</v>
+        <v>0.2753747914539383</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.03813670751986356</v>
+        <v>0.3196738138818581</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.04000128542408804</v>
+        <v>0.3766590261000603</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.04053416581157884</v>
+        <v>0.4300586691747046</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.03986575077276759</v>
+        <v>0.4644555199079115</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.03828337683606883</v>
+        <v>0.4663315001737289</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.0365863320554034</v>
+        <v>0.4302533203244363</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.02969087900995633</v>
+        <v>0.3749979403716763</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3307435676920188</v>
+        <v>0.3191578075560636</v>
       </c>
       <c r="DI1" t="n">
-        <v>3.161966342729339</v>
+        <v>0.2744971072576258</v>
       </c>
       <c r="DJ1" t="n">
-        <v>6.978948355473086</v>
+        <v>0.2461516137920957</v>
       </c>
       <c r="DK1" t="n">
-        <v>2.217865129695226</v>
+        <v>0.2316823621830965</v>
       </c>
       <c r="DL1" t="n">
-        <v>-2.978732648905749</v>
+        <v>0.19291754180849</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.8293359326217759</v>
+        <v>0.1158097782070444</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.6581544865175085</v>
+        <v>0.08945689805237443</v>
       </c>
       <c r="DO1" t="n">
-        <v>-0.6878379502443823</v>
+        <v>0.4464921915735541</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.3219318112651099</v>
+        <v>1.052614343539449</v>
       </c>
       <c r="DQ1" t="n">
-        <v>-0.01034361246111098</v>
+        <v>1.115773699798524</v>
       </c>
       <c r="DR1" t="n">
-        <v>-0.01940987449060063</v>
+        <v>0.4790069882161755</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.04882568489419184</v>
+        <v>0.02071737888482309</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.02177475009122067</v>
+        <v>0.006998693645683568</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.03451821951901787</v>
+        <v>0.1429026578352088</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.03765331088426607</v>
+        <v>0.2055579756700784</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.04262683286272918</v>
+        <v>0.2212217746838939</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.04767323033671755</v>
+        <v>0.2323092003043224</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.05283484566834083</v>
+        <v>0.2499314821110706</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.05782130077737613</v>
+        <v>0.2750479784935967</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.06252351830631808</v>
+        <v>0.3094975837299574</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.06662732381297808</v>
+        <v>0.3537432441295545</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.06675581318038414</v>
+        <v>0.407467986946694</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.211369021990414</v>
+        <v>0.4643534388184249</v>
       </c>
       <c r="EE1" t="n">
-        <v>2.348338186791202</v>
+        <v>0.5175168591125281</v>
       </c>
       <c r="EF1" t="n">
-        <v>6.694412841132394</v>
+        <v>0.5607929796354572</v>
       </c>
       <c r="EG1" t="n">
-        <v>3.82154269114285</v>
+        <v>0.5887294130546302</v>
       </c>
       <c r="EH1" t="n">
-        <v>-2.82674034862071</v>
+        <v>0.5965866504444072</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.02560632153172512</v>
+        <v>0.5800633426436599</v>
       </c>
       <c r="EJ1" t="n">
-        <v>1.163065809265233</v>
+        <v>0.5406655024269714</v>
       </c>
       <c r="EK1" t="n">
-        <v>-0.7457519449646375</v>
+        <v>0.487417710369573</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.223652961555777</v>
+        <v>0.4282378856154016</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.08686974886531118</v>
+        <v>0.3694949909227493</v>
       </c>
       <c r="EN1" t="n">
-        <v>-0.05377449801541131</v>
+        <v>0.3160090326642657</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.05061803818264074</v>
+        <v>0.2710510608269572</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.009272493083362563</v>
+        <v>0.236343169012188</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.01541782799955795</v>
+        <v>0.2120728826732369</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.0157489105472473</v>
+        <v>0.1965729454170352</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.01933817694688515</v>
+        <v>0.1875020672716899</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.02512562839607424</v>
+        <v>0.1828742340010866</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.03257801327591208</v>
+        <v>0.1810957624544336</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.04112881550720682</v>
+        <v>0.1809678681520107</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.05034061713167021</v>
+        <v>0.1816866652851696</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.05931141114150257</v>
+        <v>0.1828439873765396</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.06712857477572612</v>
+        <v>0.1842659915867145</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.1266566551540786</v>
+        <v>0.1856770473987406</v>
       </c>
       <c r="FA1" t="n">
-        <v>1.641665372352978</v>
+        <v>0.1869305961902175</v>
       </c>
       <c r="FB1" t="n">
-        <v>6.070940695961876</v>
+        <v>0.1880549677413868</v>
       </c>
       <c r="FC1" t="n">
-        <v>5.19394232633665</v>
+        <v>0.1892533802351316</v>
       </c>
       <c r="FD1" t="n">
-        <v>-2.190116598211169</v>
+        <v>0.1909039402569758</v>
       </c>
       <c r="FE1" t="n">
-        <v>-0.9068040418132981</v>
+        <v>0.1935606130457446</v>
       </c>
       <c r="FF1" t="n">
-        <v>1.535246547036871</v>
+        <v>0.1995071640634205</v>
       </c>
       <c r="FG1" t="n">
-        <v>-0.6254761766738116</v>
+        <v>0.2128298814766383</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.07291091417540338</v>
+        <v>0.2375965212290991</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.2315845224758989</v>
+        <v>0.2778428597308977</v>
       </c>
       <c r="FJ1" t="n">
-        <v>-0.0456056376160079</v>
+        <v>0.3315925739449356</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.08602638922231602</v>
+        <v>0.3852799617816727</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.04520452243953552</v>
+        <v>0.4238177271458321</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.04354435253025005</v>
+        <v>0.4316320764392712</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.04132621755980136</v>
+        <v>0.4018687969749364</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.0389108258020147</v>
+        <v>0.3491745015933415</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.0378988495447191</v>
+        <v>0.2896400374797183</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.0376329863491967</v>
+        <v>0.2374432731194235</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.03801710978197621</v>
+        <v>0.2012432424138124</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.03894818654167803</v>
+        <v>0.1806349092914229</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.03997273071447922</v>
+        <v>0.1582037325166215</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.04220312297866679</v>
+        <v>0.09289713384861936</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.05504986803119841</v>
+        <v>0.02483220725811455</v>
       </c>
       <c r="FW1" t="n">
-        <v>1.05763052184469</v>
+        <v>0.1895340725313307</v>
       </c>
       <c r="FX1" t="n">
-        <v>5.199544025677681</v>
+        <v>0.7469334201545866</v>
       </c>
       <c r="FY1" t="n">
-        <v>6.205543357081423</v>
+        <v>1.155948003876334</v>
       </c>
       <c r="FZ1" t="n">
-        <v>-1.107276770096579</v>
+        <v>0.7365847953533297</v>
       </c>
       <c r="GA1" t="n">
-        <v>-1.847057985764238</v>
+        <v>0.1045428151892934</v>
       </c>
       <c r="GB1" t="n">
-        <v>1.641030220863206</v>
+        <v>-0.1204143221867314</v>
       </c>
       <c r="GC1" t="n">
-        <v>-0.3518980021502474</v>
+        <v>-0.02085875850828773</v>
       </c>
       <c r="GD1" t="n">
-        <v>-0.1753806005020255</v>
+        <v>0.09179052204975477</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.3178290131689149</v>
+        <v>0.1273743302489425</v>
       </c>
       <c r="GF1" t="n">
-        <v>-0.06448130468333391</v>
+        <v>0.1387595873266617</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.06717822795715045</v>
+        <v>0.151275114154851</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.04353006753603979</v>
+        <v>0.1702810911146374</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.03293513282372772</v>
+        <v>0.1972814792593038</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.03166293214847855</v>
+        <v>0.2336658082160792</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.02580736574857726</v>
+        <v>0.2791674423820314</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.02088867782995732</v>
+        <v>0.3319887237356144</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.01597930428327508</v>
+        <v>0.3885855462535974</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.01146124331564931</v>
+        <v>0.4416138539839201</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.007560044156005212</v>
+        <v>0.4842577113531088</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.004495512400127485</v>
+        <v>0.5109575121425449</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.002492407963564571</v>
+        <v>0.5174099794884673</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.001774904954790893</v>
+        <v>0.5002555446268669</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>0.4621394361032337</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>0.4104541151877527</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>0.3518392954970857</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>0.2920948272399349</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>0.2361806972170417</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>0.1882170288211872</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>0.151249970702058</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>0.1249455659186249</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>0.1072225576244501</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>0.09616935515549127</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>0.09007133338348071</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>0.08741083271592691</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>0.08686715909611446</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>0.08735101716187044</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>0.08837995759011077</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>0.08969674459306777</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>0.09110195480305976</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>0.09248441833857236</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>0.09382121880425831</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>0.09517769329093712</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>0.09670743237559577</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>0.09801300671616976</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>0.1007093809256436</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>0.1092364300252007</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>0.1270700880248033</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>0.1566457733806956</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>0.1993583889954054</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>0.2545503149736685</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>0.3094159055105825</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>0.3465814842450384</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>0.3529910865604817</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>0.3241907880704857</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>0.2720385696210623</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>0.2122452413334299</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>0.1602098518443742</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>0.1244049859072839</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>0.1042201788659034</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>0.08434130352170324</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>-0.006099862572274744</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>-0.06338669662462808</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>0.08142212629479541</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>0.5163871115772914</v>
+      </c>
+      <c r="II1" t="n">
+        <v>1.077548306131266</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>0.9236513036077044</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>0.2566829135897345</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>-0.1193340608088316</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>-0.08541193174789187</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>0.04182913337583086</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>0.09834419835166541</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>0.1134131389444009</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>0.1229959040552238</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>0.1410564449621331</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>0.1664865430061712</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>0.2010267820939936</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>0.2452222904777935</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>0.2975406906655201</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>0.3547537852999642</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>0.4112780278450247</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>0.4591736571113053</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>0.4920730298729379</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>0.5054284318823045</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>0.4963441960815999</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>0.4639464512951625</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>0.4155446210871493</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>0.3589221708191981</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>0.3005312047614457</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>0.2455001032326451</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>0.1976283318540078</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>0.1593827040028756</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>0.1318263459840857</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>0.1136927627500454</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>0.1026816511730897</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>0.09680913188141697</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>0.09443544173303588</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>0.09426493381576467</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>0.09534607744723093</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>0.09707145817487162</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>0.09921308470109981</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>0.1016331237981905</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>0.1040128921041367</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>0.1062365731575204</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>0.1084047093065248</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0.110840254074553</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0.1140897244540639</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0.1188705364987792</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0.1269134457754051</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0.1434487904935818</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0.172440219046663</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0.2156687201846407</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0.2726777931464971</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0.3305490738761969</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0.3704191743292911</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0.3805904744548503</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0.3568150879576155</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0.3060375571972589</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0.247918512143178</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0.197418614933071</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0.1619508572797769</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0.141901339270495</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0.1226216025123674</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0.07338663858699568</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>-0.0106898990874677</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0.06336213226825468</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0.5170084451033725</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>1.089328225439675</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0.947923548931489</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0.2831791246060915</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>-0.05593425723495338</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>-0.003190086285730928</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>0.1238259568250713</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>0.1679677590553773</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>0.1812554166364299</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>0.1956501157361982</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>0.216561072784517</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>0.2462634051693135</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>0.2860415873564418</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>0.3350533554518275</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>0.3906282674690423</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>0.4483758940045166</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>0.5021858182375392</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>0.5442276359302568</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>0.5664420476782466</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>0.5658816435115502</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>0.5428265656880633</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>0.5005184207458646</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>0.445184404864395</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>0.3856316217157028</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>0.3289286902973728</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>0.2799422295389499</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>0.2414780311216626</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>0.2141186712506641</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>0.1962871387771067</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>0.1858300428763361</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>0.1806456369540403</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>0.178884811727893</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>0.1791558433747264</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>0.1805243935305322</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>0.1825190644886234</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>0.1848626771241608</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>0.1872434108567654</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0.189513156086551</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0.1916997945951543</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0.1940073659126872</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0.1968160673177359</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0.2006486895116383</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0.2065752953853852</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0.2195276714927637</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0.2439641413426278</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0.2826052999644605</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0.3366939874288045</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0.3965713046961774</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0.4407752517814332</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0.4554508151040634</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0.4356160223050392</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0.386706336199967</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0.328585341764705</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0.278397014514521</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0.244178148482387</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0.224938636459028</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0.2055050643866513</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0.1463404712018454</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0.07577267825802812</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0.2272399046582894</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0.7816273074874358</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>1.200061897109337</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0.7782108949889162</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0.1701375446509872</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0.01041437274471349</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0.1342545248932889</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0.2231140615511742</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0.2465277790378079</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0.2560564309697921</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0.272746398593995</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0.2967212128301885</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0.3302616400872426</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0.3738523266131122</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0.4270100655021695</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0.4848191812629785</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0.5392477982168522</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0.5832854778231521</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0.6109705194473652</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0.6173899603610988</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0.5982476427546883</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0.5567668505768623</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0.5026869403925247</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0.4441604911074852</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0.3875837297531128</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0.3375965314863381</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0.2970824195896505</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0.2671685766636796</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0.2473398656508259</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0.2354028155105347</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0.2289919316792906</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0.2261839051043498</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0.2254976122437402</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0.2258941150662609</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0.2267766610514827</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0.2279223113953902</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0.2291106788703169</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0.2301969864748747</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0.2311944306091903</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0.2322740806922156</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0.233764879161729</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0.2361354306081602</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0.2418578792423468</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0.255007484051778</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0.2797877451463775</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0.320697263114149</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0.3763644935351048</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0.4305128205559365</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0.4671297044541472</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0.4725031590314541</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0.4388767003722631</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0.3835143642906821</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0.3269827258526073</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0.2819177272434495</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0.2530145975921137</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0.2439636271181312</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0.2024925114194693</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0.1148187241758208</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0.1100429876393554</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0.4747023907096501</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>1.077925523407568</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>1.052412561919476</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0.3961307930336455</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>-0.004052174863745324</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0.02560415205346814</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0.153439630430519</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0.2020928677672677</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0.2131132988461585</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0.2228854960358932</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0.2406821610719417</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0.2662799183807132</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0.3017010856088401</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0.3467258617977728</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0.3997701147184572</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0.4552031966591968</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0.5055487035931282</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0.5440906082672049</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0.5648771371047983</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0.5623512160764423</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0.5347462339958667</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0.4895989673326465</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0.4343973566809738</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0.3756420826294782</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0.318846811878427</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0.2685381972397262</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0.2282558776369197</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0.1997386204495826</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0.1809946455903702</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0.1695250416283546</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0.1631961076268979</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0.1602391076679442</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0.1592502708520179</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0.1591907912982243</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0.1593868283797935</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0.1595396044617018</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0.1598132881256582</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0.1604912594578919</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0.1607328623730432</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0.1602865649870175</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0.1597492865214282</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0.160566397303597</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0.1650317187665538</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0.1762875234490361</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0.1983245349954898</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0.2358612856374518</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0.2879117545328129</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0.3428718219603091</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0.3848883329394128</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0.3955151307140429</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0.3701406353476573</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0.3194364035431504</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0.2596494473544122</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0.2086238780649806</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0.1753852307549775</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0.1574282534479334</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0.1342146797379792</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0.06728798117464647</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0.006395674415578847</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0.2108765325583272</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0.799669501379946</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>1.114856863366805</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0.5989511004862169</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0.02344056783370206</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>-0.1017506689996707</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0.02636768239571221</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0.1110900464960492</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0.1321266400606966</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0.1401672544993053</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0.1544447201054562</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0.1756177291869969</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0.2060417333509809</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0.2463121799656381</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0.2957299930612081</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0.3514273726500651</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0.4058121819300439</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0.4518168576837477</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0.4834429925264355</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0.4957613349060201</v>
       </c>
     </row>
   </sheetData>

--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -423,1504 +423,1504 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.115034503403323</v>
+        <v>1.096315403802156</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6784273053693061</v>
+        <v>0.2594097378973963</v>
       </c>
       <c r="C1" t="n">
-        <v>0.06698835435431198</v>
+        <v>-0.3700120668614013</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.113260751681409</v>
+        <v>-0.2099365220919708</v>
       </c>
       <c r="E1" t="n">
-        <v>0.004725574766366763</v>
+        <v>-0.08772267735740649</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1058830281938421</v>
+        <v>-0.06365613341036111</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1318214969248819</v>
+        <v>-0.03599733046199017</v>
       </c>
       <c r="H1" t="n">
-        <v>0.1429239516100592</v>
+        <v>0.008857239790376129</v>
       </c>
       <c r="I1" t="n">
-        <v>0.1582756021334658</v>
+        <v>0.07533351992039621</v>
       </c>
       <c r="J1" t="n">
-        <v>0.18067519574671</v>
+        <v>0.1624342914329254</v>
       </c>
       <c r="K1" t="n">
-        <v>0.2121877813890183</v>
+        <v>0.25877854516683</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2535595324566011</v>
+        <v>0.3413096029676212</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3043838153912794</v>
+        <v>0.3907463452403602</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3621320882680187</v>
+        <v>0.3925154659064224</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4193504778294347</v>
+        <v>0.3395547360401111</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4690184868076837</v>
+        <v>0.2531266684499678</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5050757598448279</v>
+        <v>0.1573079783190045</v>
       </c>
       <c r="R1" t="n">
-        <v>0.5224159446987438</v>
+        <v>0.06971912075303299</v>
       </c>
       <c r="S1" t="n">
-        <v>0.5167882796360799</v>
+        <v>0.001524290780663233</v>
       </c>
       <c r="T1" t="n">
-        <v>0.4871460225128578</v>
+        <v>-0.04262604748202678</v>
       </c>
       <c r="U1" t="n">
-        <v>0.4409462114254677</v>
+        <v>-0.06602764830963875</v>
       </c>
       <c r="V1" t="n">
-        <v>0.3858926591530832</v>
+        <v>-0.07569941877914522</v>
       </c>
       <c r="W1" t="n">
-        <v>0.3285543281509972</v>
+        <v>-0.07726924848740606</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2743653305506213</v>
+        <v>-0.07472840255467986</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.2276249281594883</v>
+        <v>-0.07038329206013523</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.1914768906474035</v>
+        <v>-0.06507289438007478</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.166514545307839</v>
+        <v>-0.05969767778737318</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.1505350020018418</v>
+        <v>-0.05455192654541523</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.1413541295199043</v>
+        <v>-0.04903129913602911</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.1370707971690767</v>
+        <v>-0.04163282825948612</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.1360680562590231</v>
+        <v>-0.02910247652727251</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.1370267187587967</v>
+        <v>0.001213758365802728</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.1389279721999892</v>
+        <v>0.06135779229128561</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1412728778393792</v>
+        <v>0.1544460257409457</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.1438167566992685</v>
+        <v>0.2417827228369497</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.1463752511575563</v>
+        <v>0.2740693586969332</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.1488747620201519</v>
+        <v>0.2268764675238721</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1513524485209749</v>
+        <v>0.1358290035063789</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1539562283219549</v>
+        <v>0.05440398566246003</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.156944777513032</v>
+        <v>0.0076504478605386</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.160425604356105</v>
+        <v>-0.02206578362115568</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1669590743533447</v>
+        <v>-0.1243965208284542</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1806604207657449</v>
+        <v>-0.1199645069915528</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.2051415534593584</v>
+        <v>0.6571239659259466</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.2435042956168679</v>
+        <v>1.097884894670166</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.2977961156529727</v>
+        <v>0.1049250807794059</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.3569321064811049</v>
+        <v>-0.2523786550415849</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.4023971390196382</v>
+        <v>-0.04360447594900128</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.4204444968053908</v>
+        <v>0.02612897309249162</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.4025409910476075</v>
+        <v>0.04639224276527614</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.3550960317586318</v>
+        <v>0.07896797147464271</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.2984269523189527</v>
+        <v>0.1315565771455505</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.2478299602261289</v>
+        <v>0.2078364457394048</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.2122106628142836</v>
+        <v>0.3029682207233059</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.1947490016553112</v>
+        <v>0.3941300255528196</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.1709536543576142</v>
+        <v>0.4606715599046485</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.1177627491615615</v>
+        <v>0.486240489292094</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.0346813600876943</v>
+        <v>0.4588658916022826</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.1517108602150747</v>
+        <v>0.3847027201642217</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.6576251883662096</v>
+        <v>0.2904733894452673</v>
       </c>
       <c r="BI1" t="n">
-        <v>1.163687156825391</v>
+        <v>0.1979823503679534</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.8608061824581248</v>
+        <v>0.1221270923842461</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.212098356413682</v>
+        <v>0.07083755037546334</v>
       </c>
       <c r="BL1" t="n">
-        <v>-0.03265451599887192</v>
+        <v>0.04229636795314409</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.06398789498610914</v>
+        <v>0.02899033775334121</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.1719612192283854</v>
+        <v>0.02475413940344133</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.2060895984130061</v>
+        <v>0.02509959414902388</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.2167588607170743</v>
+        <v>0.02721566485386228</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.2303957397567362</v>
+        <v>0.02996605664966091</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.2533035408436464</v>
+        <v>0.0331538217832091</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.2844217812832938</v>
+        <v>0.03626332521042827</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.3256179248985778</v>
+        <v>0.03966634835187439</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.3760627587584564</v>
+        <v>0.04482799741515835</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.4330620359492701</v>
+        <v>0.05552058636582838</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4911263413142236</v>
+        <v>0.0849275935307159</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.5417364848536963</v>
+        <v>0.1451545501338844</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.5778806641226893</v>
+        <v>0.2386890682475685</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.5943439871398558</v>
+        <v>0.3201163843383763</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.5875341871978577</v>
+        <v>0.340739646879435</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.5560486529276406</v>
+        <v>0.2814144124518664</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.5079020786595281</v>
+        <v>0.1871613066014892</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.4516475427046468</v>
+        <v>0.1097335861879763</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.3942433270483908</v>
+        <v>0.07340811321126794</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.3410529173504241</v>
+        <v>0.01738911361118569</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.2958450029446764</v>
+        <v>-0.1035175070141534</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.2607934768393453</v>
+        <v>0.1039085305001583</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.236450743995354</v>
+        <v>1.052660399724161</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.2211857478606811</v>
+        <v>0.7937171675470677</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.2125326818609166</v>
+        <v>-0.1316670600599049</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.2084130231972749</v>
+        <v>-0.1184863126819738</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.2071702983834219</v>
+        <v>0.04205448928373561</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.2075599054992676</v>
+        <v>0.07055460875489482</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.20874479319081</v>
+        <v>0.09227789746739361</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.2102954663512135</v>
+        <v>0.1324359124077381</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.2120584173763943</v>
+        <v>0.1950550350808764</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.2138095288236445</v>
+        <v>0.2798442787122207</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.2154375627776812</v>
+        <v>0.374510466684147</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.2169983982816541</v>
+        <v>0.4547369794473995</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.2187150313371453</v>
+        <v>0.4996879149884976</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.2209775749041695</v>
+        <v>0.492778476746729</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.2243828767663771</v>
+        <v>0.4320485955287878</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.2318236200050232</v>
+        <v>0.3416112734141142</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.2474636042758861</v>
+        <v>0.2441727719667033</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.2753747914539383</v>
+        <v>0.1575324309974934</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.3196738138818581</v>
+        <v>0.09434823831767503</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3766590261000603</v>
+        <v>0.05565795493922959</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.4300586691747046</v>
+        <v>0.03431284937740986</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.4644555199079115</v>
+        <v>0.02403834853796013</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.4663315001737289</v>
+        <v>0.01982471969262866</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.4302533203244363</v>
+        <v>0.0180428030681161</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.3749979403716763</v>
+        <v>0.01723480102612305</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3191578075560636</v>
+        <v>0.01687046540722025</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.2744971072576258</v>
+        <v>0.01679213489152769</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.2461516137920957</v>
+        <v>0.01721798079310413</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.2316823621830965</v>
+        <v>0.01892947237039511</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.19291754180849</v>
+        <v>0.0259372682564595</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.1158097782070444</v>
+        <v>0.04823905345890609</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.08945689805237443</v>
+        <v>0.1022841367886404</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.4464921915735541</v>
+        <v>0.1885289226649726</v>
       </c>
       <c r="DP1" t="n">
-        <v>1.052614343539449</v>
+        <v>0.2700940050610383</v>
       </c>
       <c r="DQ1" t="n">
-        <v>1.115773699798524</v>
+        <v>0.2965475237798618</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.4790069882161755</v>
+        <v>0.2381033556517518</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.02071737888482309</v>
+        <v>0.1436526455293184</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.006998693645683568</v>
+        <v>0.06250015887438391</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.1429026578352088</v>
+        <v>0.01862164139190951</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2055579756700784</v>
+        <v>-0.02170617908881282</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.2212217746838939</v>
+        <v>-0.1507227112661918</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.2323092003043224</v>
+        <v>0.07023775599863225</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.2499314821110706</v>
+        <v>1.01536930606993</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.2750479784935967</v>
+        <v>0.6728875898601446</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.3094975837299574</v>
+        <v>-0.2344005821313194</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.3537432441295545</v>
+        <v>-0.2128051168085714</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.407467986946694</v>
+        <v>-0.04937241162615218</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.4643534388184249</v>
+        <v>-0.02254656601548046</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.5175168591125281</v>
+        <v>-0.001757776782448957</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.5607929796354572</v>
+        <v>0.03571582773691633</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.5887294130546302</v>
+        <v>0.09512854589888314</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.5965866504444072</v>
+        <v>0.1776966474533805</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.5800633426436599</v>
+        <v>0.2706345626978365</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.5406655024269714</v>
+        <v>0.3505791035704601</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.487417710369573</v>
+        <v>0.3981343730844035</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.4282378856154016</v>
+        <v>0.3981400606311944</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.3694949909227493</v>
+        <v>0.3432132870511631</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.3160090326642657</v>
+        <v>0.2539487916205814</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.2710510608269572</v>
+        <v>0.1552240102672034</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.236343169012188</v>
+        <v>0.06551168393465837</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.2120728826732369</v>
+        <v>-0.003151127173730873</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.1965729454170352</v>
+        <v>-0.04631279075626534</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.1875020672716899</v>
+        <v>-0.06987763620545713</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.1828742340010866</v>
+        <v>-0.08093886636327667</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.1810957624544336</v>
+        <v>-0.08491122909607202</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.1809678681520107</v>
+        <v>-0.08553097652666053</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.1816866652851696</v>
+        <v>-0.08485586503432951</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.1828439873765396</v>
+        <v>-0.08316286655566679</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.1842659915867145</v>
+        <v>-0.08113638029813203</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.1856770473987406</v>
+        <v>-0.07984711914548988</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.1869305961902175</v>
+        <v>-0.07819965051906559</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.1880549677413868</v>
+        <v>-0.07286156916733706</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.1892533802351316</v>
+        <v>-0.05849072666556267</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.1909039402569758</v>
+        <v>-0.01922653228676589</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.1935606130457446</v>
+        <v>0.05610648160633376</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.1995071640634205</v>
+        <v>0.1487864527068401</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.2128298814766383</v>
+        <v>0.2083495471255397</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.2375965212290991</v>
+        <v>0.189560375753628</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.2778428597308977</v>
+        <v>0.1046826750551244</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.3315925739449356</v>
+        <v>0.008974689358932105</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.3852799617816727</v>
+        <v>-0.05485168004961572</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.4238177271458321</v>
+        <v>-0.08740397947513277</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.4316320764392712</v>
+        <v>-0.1638027761206696</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.4018687969749364</v>
+        <v>-0.2568809575503357</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.3491745015933415</v>
+        <v>0.333988221393077</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.2896400374797183</v>
+        <v>1.05135262634873</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.2374432731194235</v>
+        <v>0.1583235262993375</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.2012432424138124</v>
+        <v>-0.4119653624902303</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.1806349092914229</v>
+        <v>-0.2360108697116675</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.1582037325166215</v>
+        <v>-0.1274917279906772</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.09289713384861936</v>
+        <v>-0.1079124711402168</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.02483220725811455</v>
+        <v>-0.08162141034616824</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.1895340725313307</v>
+        <v>-0.03465312803918597</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.7469334201545866</v>
+        <v>0.03379154381795925</v>
       </c>
       <c r="FY1" t="n">
-        <v>1.155948003876334</v>
+        <v>0.1219729398043442</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.7365847953533297</v>
+        <v>0.21783049312523</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.1045428151892934</v>
+        <v>0.3001149084128396</v>
       </c>
       <c r="GB1" t="n">
-        <v>-0.1204143221867314</v>
+        <v>0.3450351505771697</v>
       </c>
       <c r="GC1" t="n">
-        <v>-0.02085875850828773</v>
+        <v>0.3398542032922403</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.09179052204975477</v>
+        <v>0.2837368867788644</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.1273743302489425</v>
+        <v>0.195253501151165</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.1387595873266617</v>
+        <v>0.09843448012260922</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.151275114154851</v>
+        <v>0.01154475401441566</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.1702810911146374</v>
+        <v>-0.05302302138068341</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.1972814792593038</v>
+        <v>-0.0928726102064449</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.2336658082160792</v>
+        <v>-0.1144281218997552</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.2791674423820314</v>
+        <v>-0.1237024229265819</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.3319887237356144</v>
+        <v>-0.1256208980791339</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.3885855462535974</v>
+        <v>-0.1240218566120211</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.4416138539839201</v>
+        <v>-0.1211149472315794</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.4842577113531088</v>
+        <v>-0.1177037614373882</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.5109575121425449</v>
+        <v>-0.1144572678078366</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.5174099794884673</v>
+        <v>-0.1112812432337039</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.5002555446268669</v>
+        <v>-0.1073124717975155</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.4621394361032337</v>
+        <v>-0.1010003366079881</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.4104541151877527</v>
+        <v>-0.08709959150323573</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.3518392954970857</v>
+        <v>-0.05096466722826182</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.2920948272399349</v>
+        <v>0.01728668534185247</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.2361806972170417</v>
+        <v>0.114518229168675</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.1882170288211872</v>
+        <v>0.1895717905593556</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.151249970702058</v>
+        <v>0.1981891976734097</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.1249455659186249</v>
+        <v>0.1317947005931147</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.1072225576244501</v>
+        <v>0.03821842139459564</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.09616935515549127</v>
+        <v>-0.03316616263471626</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.09007133338348071</v>
+        <v>-0.06854280694016347</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.08741083271592691</v>
+        <v>-0.1094261324928409</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.08686715909611446</v>
+        <v>-0.2367837831453514</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.08735101716187044</v>
+        <v>-0.01952247043653704</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.08837995759011077</v>
+        <v>0.9207772384852109</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.08969674459306777</v>
+        <v>0.7172828668286644</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.09110195480305976</v>
+        <v>-0.2349453371689363</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.09248441833857236</v>
+        <v>-0.2853096167826754</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.09382121880425831</v>
+        <v>-0.09655596516713737</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.09517769329093712</v>
+        <v>-0.05695198506154537</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.09670743237559577</v>
+        <v>-0.03408374575802142</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.09801300671616976</v>
+        <v>0.003840856458457644</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.1007093809256436</v>
+        <v>0.06261904772796739</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.1092364300252007</v>
+        <v>0.1432309931509881</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.1270700880248033</v>
+        <v>0.2379347008183953</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.1566457733806956</v>
+        <v>0.3288975380415285</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.1993583889954054</v>
+        <v>0.3916537594949081</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.2545503149736685</v>
+        <v>0.4091041478524422</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.3094159055105825</v>
+        <v>0.3717100688551684</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.3465814842450384</v>
+        <v>0.2930414230848571</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.3529910865604817</v>
+        <v>0.1991729962139623</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.3241907880704857</v>
+        <v>0.1097423873190268</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.2720385696210623</v>
+        <v>0.03772840126640108</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.2122452413334299</v>
+        <v>-0.01055049257826947</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.1602098518443742</v>
+        <v>-0.03667145255624246</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.1244049859072839</v>
+        <v>-0.04779421702958907</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1042201788659034</v>
+        <v>-0.05001243115503474</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.08434130352170324</v>
+        <v>-0.04769845191154685</v>
       </c>
       <c r="IE1" t="n">
-        <v>-0.006099862572274744</v>
+        <v>-0.04350122373403306</v>
       </c>
       <c r="IF1" t="n">
-        <v>-0.06338669662462808</v>
+        <v>-0.03843428606934692</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.08142212629479541</v>
+        <v>-0.03327780850526039</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.5163871115772914</v>
+        <v>-0.02842640672217414</v>
       </c>
       <c r="II1" t="n">
-        <v>1.077548306131266</v>
+        <v>-0.02340156834893806</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.9236513036077044</v>
+        <v>-0.01685140816082586</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.2566829135897345</v>
+        <v>-0.005807542213984887</v>
       </c>
       <c r="IL1" t="n">
-        <v>-0.1193340608088316</v>
+        <v>0.02158862368750045</v>
       </c>
       <c r="IM1" t="n">
-        <v>-0.08541193174789187</v>
+        <v>0.07802635707540885</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.04182913337583086</v>
+        <v>0.1688074617384</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.09834419835166541</v>
+        <v>0.2575253276378988</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.1134131389444009</v>
+        <v>0.2944088891730987</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1229959040552238</v>
+        <v>0.2495621805431628</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1410564449621331</v>
+        <v>0.1587253450939257</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1664865430061712</v>
+        <v>0.07730074722167495</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.2010267820939936</v>
+        <v>0.02993038919687654</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.2452222904777935</v>
+        <v>0.004181765302226058</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.2975406906655201</v>
+        <v>-0.1067747590888975</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.3547537852999642</v>
+        <v>-0.0998137458356525</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.4112780278450247</v>
+        <v>0.7037946154519932</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.4591736571113053</v>
+        <v>1.097211154545551</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.4920730298729379</v>
+        <v>0.07971975984224289</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.5054284318823045</v>
+        <v>-0.2315496841098425</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.4963441960815999</v>
+        <v>-0.0313122816486059</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.4639464512951625</v>
+        <v>0.03643050096526018</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.4155446210871493</v>
+        <v>0.05383768893215524</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.3589221708191981</v>
+        <v>0.08696955760267716</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.3005312047614457</v>
+        <v>0.1393878394574584</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.2455001032326451</v>
+        <v>0.2141877666848916</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.1976283318540078</v>
+        <v>0.3056819300412009</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1593827040028756</v>
+        <v>0.397336662110954</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.1318263459840857</v>
+        <v>0.4636910329980861</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.1136927627500454</v>
+        <v>0.4862525393023972</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1026816511730897</v>
+        <v>0.454273911043892</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.09680913188141697</v>
+        <v>0.3768175012498546</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.09443544173303588</v>
+        <v>0.281161763904432</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.09426493381576467</v>
+        <v>0.1885806638781198</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.09534607744723093</v>
+        <v>0.1132052359589922</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.09707145817487162</v>
+        <v>0.06201535385318858</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.09921308470109981</v>
+        <v>0.03367744119988877</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.1016331237981905</v>
+        <v>0.02080153605357276</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.1040128921041367</v>
+        <v>0.01703471716851232</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.1062365731575204</v>
+        <v>0.01781893557571936</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.1084047093065248</v>
+        <v>0.02039101458294566</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.110840254074553</v>
+        <v>0.02366232504449927</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.1140897244540639</v>
+        <v>0.02697128020759026</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.1188705364987792</v>
+        <v>0.02996582828144196</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.1269134457754051</v>
+        <v>0.03305409955490628</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.1434487904935818</v>
+        <v>0.0373690117919245</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.172440219046663</v>
+        <v>0.04747396114244087</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.2156687201846407</v>
+        <v>0.07564606296507767</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.2726777931464971</v>
+        <v>0.1351493469472428</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.3305490738761969</v>
+        <v>0.2263055450195106</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.3704191743292911</v>
+        <v>0.3049928672865925</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.3805904744548503</v>
+        <v>0.3232891197233922</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.3568150879576155</v>
+        <v>0.2591664548702073</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.3060375571972589</v>
+        <v>0.1648600480528186</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.247918512143178</v>
+        <v>0.08762518588477713</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.197418614933071</v>
+        <v>0.05106550776011579</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.1619508572797769</v>
+        <v>-0.001919849363280788</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.141901339270495</v>
+        <v>-0.1279165523622351</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.1226216025123674</v>
+        <v>0.09581611731590811</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.07338663858699568</v>
+        <v>1.0435200811868</v>
       </c>
       <c r="KP1" t="n">
-        <v>-0.0106898990874677</v>
+        <v>0.7612453289189455</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.06336213226825468</v>
+        <v>-0.165952495188763</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.5170084451033725</v>
+        <v>-0.1625211948365114</v>
       </c>
       <c r="KS1" t="n">
-        <v>1.089328225439675</v>
+        <v>0.003811047669208372</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.947923548931489</v>
+        <v>0.03720071417415682</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.2831791246060915</v>
+        <v>0.05393388350348064</v>
       </c>
       <c r="KV1" t="n">
-        <v>-0.05593425723495338</v>
+        <v>0.09232924500094698</v>
       </c>
       <c r="KW1" t="n">
-        <v>-0.003190086285730928</v>
+        <v>0.1510649566928752</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.1238259568250713</v>
+        <v>0.2312641790409372</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.1679677590553773</v>
+        <v>0.3231018071580418</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.1812554166364299</v>
+        <v>0.4068114403461816</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.1956501157361982</v>
+        <v>0.4565834480505156</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.216561072784517</v>
+        <v>0.4570845403187742</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.2462634051693135</v>
+        <v>0.4049875194180202</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.2860415873564418</v>
+        <v>0.3160940100277804</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.3350533554518275</v>
+        <v>0.2167540864832887</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.3906282674690423</v>
+        <v>0.126592694595645</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.4483758940045166</v>
+        <v>0.05794041975988472</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.5021858182375392</v>
+        <v>0.01506917627978086</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.5442276359302568</v>
+        <v>-0.0081372193374645</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.5664420476782466</v>
+        <v>-0.01878643874185203</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.5658816435115502</v>
+        <v>-0.02237914548411877</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.5428265656880633</v>
+        <v>-0.02280899501574081</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.5005184207458646</v>
+        <v>-0.02236263468893077</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.445184404864395</v>
+        <v>-0.02171706476266758</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.3856316217157028</v>
+        <v>-0.02069808152767454</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.3289286902973728</v>
+        <v>-0.02029686920096914</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.2799422295389499</v>
+        <v>-0.01984703331511374</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.2414780311216626</v>
+        <v>-0.01630448018844291</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.2141186712506641</v>
+        <v>-0.00368477326903539</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.1962871387771067</v>
+        <v>0.03394068853936763</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.1858300428763361</v>
+        <v>0.105789484731082</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.1806456369540403</v>
+        <v>0.1984179948476941</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.178884811727893</v>
+        <v>0.2557858080465199</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.1791558433747264</v>
+        <v>0.2374119480954478</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.1805243935305322</v>
+        <v>0.1514466642128811</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.1825190644886234</v>
+        <v>0.05705255584296504</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.1848626771241608</v>
+        <v>-0.006597425140931285</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.1872434108567654</v>
+        <v>-0.03999545595363283</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.189513156086551</v>
+        <v>-0.1177264946244276</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.1916997945951543</v>
+        <v>-0.228347440128875</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.1940073659126872</v>
+        <v>0.3949086935122291</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.1968160673177359</v>
+        <v>1.10647023165254</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.2006486895116383</v>
+        <v>0.2171359503546944</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.2065752953853852</v>
+        <v>-0.3442818794855169</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.2195276714927637</v>
+        <v>-0.1651642665750653</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.2439641413426278</v>
+        <v>-0.0639980865015073</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.2826052999644605</v>
+        <v>-0.04726070473134902</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.3366939874288045</v>
+        <v>-0.02116754864610408</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.3965713046961774</v>
+        <v>0.02338288100224949</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.4407752517814332</v>
+        <v>0.09030905590104873</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.4554508151040634</v>
+        <v>0.1763788881546476</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.4356160223050392</v>
+        <v>0.2693809577423744</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.386706336199967</v>
+        <v>0.3454160240222258</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.328585341764705</v>
+        <v>0.3834368001323543</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.278397014514521</v>
+        <v>0.3693456865710414</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.244178148482387</v>
+        <v>0.3030916085294061</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.224938636459028</v>
+        <v>0.2103964274235182</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.2055050643866513</v>
+        <v>0.1138718474045039</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.1463404712018454</v>
+        <v>0.02950866807549746</v>
       </c>
       <c r="MX1" t="n">
-        <v>0.07577267825802812</v>
+        <v>-0.03332356150324299</v>
       </c>
       <c r="MY1" t="n">
-        <v>0.2272399046582894</v>
+        <v>-0.07220971935047887</v>
       </c>
       <c r="MZ1" t="n">
-        <v>0.7816273074874358</v>
+        <v>-0.09275108078949501</v>
       </c>
       <c r="NA1" t="n">
-        <v>1.200061897109337</v>
+        <v>-0.101873626186761</v>
       </c>
       <c r="NB1" t="n">
-        <v>0.7782108949889162</v>
+        <v>-0.104751947450113</v>
       </c>
       <c r="NC1" t="n">
-        <v>0.1701375446509872</v>
+        <v>-0.1047907745091582</v>
       </c>
       <c r="ND1" t="n">
-        <v>0.01041437274471349</v>
+        <v>-0.1034119260364786</v>
       </c>
       <c r="NE1" t="n">
-        <v>0.1342545248932889</v>
+        <v>-0.1013582809224328</v>
       </c>
       <c r="NF1" t="n">
-        <v>0.2231140615511742</v>
+        <v>-0.1000442268852481</v>
       </c>
       <c r="NG1" t="n">
-        <v>0.2465277790378079</v>
+        <v>-0.09940569788546005</v>
       </c>
       <c r="NH1" t="n">
-        <v>0.2560564309697921</v>
+        <v>-0.09779398919077723</v>
       </c>
       <c r="NI1" t="n">
-        <v>0.272746398593995</v>
+        <v>-0.09197575737608125</v>
       </c>
       <c r="NJ1" t="n">
-        <v>0.2967212128301885</v>
+        <v>-0.07659068814849325</v>
       </c>
       <c r="NK1" t="n">
-        <v>0.3302616400872426</v>
+        <v>-0.03526568637954955</v>
       </c>
       <c r="NL1" t="n">
-        <v>0.3738523266131122</v>
+        <v>0.04069568100793427</v>
       </c>
       <c r="NM1" t="n">
-        <v>0.4270100655021695</v>
+        <v>0.1347229921818049</v>
       </c>
       <c r="NN1" t="n">
-        <v>0.4848191812629785</v>
+        <v>0.1941370209282907</v>
       </c>
       <c r="NO1" t="n">
-        <v>0.5392477982168522</v>
+        <v>0.1771259880872283</v>
       </c>
       <c r="NP1" t="n">
-        <v>0.5832854778231521</v>
+        <v>0.09432821109456835</v>
       </c>
       <c r="NQ1" t="n">
-        <v>0.6109705194473652</v>
+        <v>0.001572064953503797</v>
       </c>
       <c r="NR1" t="n">
-        <v>0.6173899603610988</v>
+        <v>-0.05631894916240969</v>
       </c>
       <c r="NS1" t="n">
-        <v>0.5982476427546883</v>
+        <v>-0.09451513810773331</v>
       </c>
       <c r="NT1" t="n">
-        <v>0.5567668505768623</v>
+        <v>-0.1747218308408467</v>
       </c>
       <c r="NU1" t="n">
-        <v>0.5026869403925247</v>
+        <v>-0.2763388469134252</v>
       </c>
       <c r="NV1" t="n">
-        <v>0.4441604911074852</v>
+        <v>0.2598744464691082</v>
       </c>
       <c r="NW1" t="n">
-        <v>0.3875837297531128</v>
+        <v>1.071434192132638</v>
       </c>
       <c r="NX1" t="n">
-        <v>0.3375965314863381</v>
+        <v>0.2812585065101618</v>
       </c>
       <c r="NY1" t="n">
-        <v>0.2970824195896505</v>
+        <v>-0.3762784921553868</v>
       </c>
       <c r="NZ1" t="n">
-        <v>0.2671685766636796</v>
+        <v>-0.2251556221621631</v>
       </c>
       <c r="OA1" t="n">
-        <v>0.2473398656508259</v>
+        <v>-0.1043139495709199</v>
       </c>
       <c r="OB1" t="n">
-        <v>0.2354028155105347</v>
+        <v>-0.08397544112216976</v>
       </c>
       <c r="OC1" t="n">
-        <v>0.2289919316792906</v>
+        <v>-0.05708669260532891</v>
       </c>
       <c r="OD1" t="n">
-        <v>0.2261839051043498</v>
+        <v>-0.01306399429944207</v>
       </c>
       <c r="OE1" t="n">
-        <v>0.2254976122437402</v>
+        <v>0.05312723515314465</v>
       </c>
       <c r="OF1" t="n">
-        <v>0.2258941150662609</v>
+        <v>0.1398987144874627</v>
       </c>
       <c r="OG1" t="n">
-        <v>0.2267766610514827</v>
+        <v>0.2354239441605174</v>
       </c>
       <c r="OH1" t="n">
-        <v>0.2279223113953902</v>
+        <v>0.3156688146792154</v>
       </c>
       <c r="OI1" t="n">
-        <v>0.2291106788703169</v>
+        <v>0.3608643925393874</v>
       </c>
       <c r="OJ1" t="n">
-        <v>0.2301969864748747</v>
+        <v>0.3568362427514438</v>
       </c>
       <c r="OK1" t="n">
-        <v>0.2311944306091903</v>
+        <v>0.2993132251299334</v>
       </c>
       <c r="OL1" t="n">
-        <v>0.2322740806922156</v>
+        <v>0.2112397654572443</v>
       </c>
       <c r="OM1" t="n">
-        <v>0.233764879161729</v>
+        <v>0.1161676463771109</v>
       </c>
       <c r="ON1" t="n">
-        <v>0.2361354306081602</v>
+        <v>0.03130152088091966</v>
       </c>
       <c r="OO1" t="n">
-        <v>0.2418578792423468</v>
+        <v>-0.03250108769227653</v>
       </c>
       <c r="OP1" t="n">
-        <v>0.255007484051778</v>
+        <v>-0.07146052633329482</v>
       </c>
       <c r="OQ1" t="n">
-        <v>0.2797877451463775</v>
+        <v>-0.09111857374544825</v>
       </c>
       <c r="OR1" t="n">
-        <v>0.320697263114149</v>
+        <v>-0.09845353479533851</v>
       </c>
       <c r="OS1" t="n">
-        <v>0.3763644935351048</v>
+        <v>-0.09878581916846471</v>
       </c>
       <c r="OT1" t="n">
-        <v>0.4305128205559365</v>
+        <v>-0.09578516625274683</v>
       </c>
       <c r="OU1" t="n">
-        <v>0.4671297044541472</v>
+        <v>-0.09144669229712589</v>
       </c>
       <c r="OV1" t="n">
-        <v>0.4725031590314541</v>
+        <v>-0.08639528937979842</v>
       </c>
       <c r="OW1" t="n">
-        <v>0.4388767003722631</v>
+        <v>-0.08155057014838359</v>
       </c>
       <c r="OX1" t="n">
-        <v>0.3835143642906821</v>
+        <v>-0.0770501182460526</v>
       </c>
       <c r="OY1" t="n">
-        <v>0.3269827258526073</v>
+        <v>-0.07193796314166873</v>
       </c>
       <c r="OZ1" t="n">
-        <v>0.2819177272434495</v>
+        <v>-0.06419509004837792</v>
       </c>
       <c r="PA1" t="n">
-        <v>0.2530145975921137</v>
+        <v>-0.04860400341379827</v>
       </c>
       <c r="PB1" t="n">
-        <v>0.2439636271181312</v>
+        <v>-0.009765986944476536</v>
       </c>
       <c r="PC1" t="n">
-        <v>0.2024925114194693</v>
+        <v>0.06174097953299722</v>
       </c>
       <c r="PD1" t="n">
-        <v>0.1148187241758208</v>
+        <v>0.1592821720702789</v>
       </c>
       <c r="PE1" t="n">
-        <v>0.1100429876393554</v>
+        <v>0.2297391698423009</v>
       </c>
       <c r="PF1" t="n">
-        <v>0.4747023907096501</v>
+        <v>0.2302905957441017</v>
       </c>
       <c r="PG1" t="n">
-        <v>1.077925523407568</v>
+        <v>0.1576950345282169</v>
       </c>
       <c r="PH1" t="n">
-        <v>1.052412561919476</v>
+        <v>0.06440525349688984</v>
       </c>
       <c r="PI1" t="n">
-        <v>0.3961307930336455</v>
+        <v>-0.004039850507796192</v>
       </c>
       <c r="PJ1" t="n">
-        <v>-0.004052174863745324</v>
+        <v>-0.03159080232128715</v>
       </c>
       <c r="PK1" t="n">
-        <v>0.02560415205346814</v>
+        <v>-0.1009236262268841</v>
       </c>
       <c r="PL1" t="n">
-        <v>0.153439630430519</v>
+        <v>-0.2218194594328379</v>
       </c>
       <c r="PM1" t="n">
-        <v>0.2020928677672677</v>
+        <v>0.1182973731086097</v>
       </c>
       <c r="PN1" t="n">
-        <v>0.2131132988461585</v>
+        <v>1.059857114392424</v>
       </c>
       <c r="PO1" t="n">
-        <v>0.2228854960358932</v>
+        <v>0.5739447411428268</v>
       </c>
       <c r="PP1" t="n">
-        <v>0.2406821610719417</v>
+        <v>-0.2615670921964233</v>
       </c>
       <c r="PQ1" t="n">
-        <v>0.2662799183807132</v>
+        <v>-0.1925063592707841</v>
       </c>
       <c r="PR1" t="n">
-        <v>0.3017010856088401</v>
+        <v>-0.03815191632347744</v>
       </c>
       <c r="PS1" t="n">
-        <v>0.3467258617977728</v>
+        <v>-0.009995439229876366</v>
       </c>
       <c r="PT1" t="n">
-        <v>0.3997701147184572</v>
+        <v>0.01592364240919256</v>
       </c>
       <c r="PU1" t="n">
-        <v>0.4552031966591968</v>
+        <v>0.05889262492381778</v>
       </c>
       <c r="PV1" t="n">
-        <v>0.5055487035931282</v>
+        <v>0.1240023753899701</v>
       </c>
       <c r="PW1" t="n">
-        <v>0.5440906082672049</v>
+        <v>0.2099327169715019</v>
       </c>
       <c r="PX1" t="n">
-        <v>0.5648771371047983</v>
+        <v>0.3064632765821053</v>
       </c>
       <c r="PY1" t="n">
-        <v>0.5623512160764423</v>
+        <v>0.3907710160763834</v>
       </c>
       <c r="PZ1" t="n">
-        <v>0.5347462339958667</v>
+        <v>0.4412733690467958</v>
       </c>
       <c r="QA1" t="n">
-        <v>0.4895989673326465</v>
+        <v>0.4402180939911158</v>
       </c>
       <c r="QB1" t="n">
-        <v>0.4343973566809738</v>
+        <v>0.3861516721477944</v>
       </c>
       <c r="QC1" t="n">
-        <v>0.3756420826294782</v>
+        <v>0.3016783845608979</v>
       </c>
       <c r="QD1" t="n">
-        <v>0.318846811878427</v>
+        <v>0.2078371950548826</v>
       </c>
       <c r="QE1" t="n">
-        <v>0.2685381972397262</v>
+        <v>0.1221321394837772</v>
       </c>
       <c r="QF1" t="n">
-        <v>0.2282558776369197</v>
+        <v>0.05841794325975321</v>
       </c>
       <c r="QG1" t="n">
-        <v>0.1997386204495826</v>
+        <v>0.020505240660692</v>
       </c>
       <c r="QH1" t="n">
-        <v>0.1809946455903702</v>
+        <v>0.001265130327071414</v>
       </c>
       <c r="QI1" t="n">
-        <v>0.1695250416283546</v>
+        <v>-0.005910087591514517</v>
       </c>
       <c r="QJ1" t="n">
-        <v>0.1631961076268979</v>
+        <v>-0.00615485009015061</v>
       </c>
       <c r="QK1" t="n">
-        <v>0.1602391076679442</v>
+        <v>-0.003128803408455459</v>
       </c>
       <c r="QL1" t="n">
-        <v>0.1592502708520179</v>
+        <v>0.001088998789893939</v>
       </c>
       <c r="QM1" t="n">
-        <v>0.1591907912982243</v>
+        <v>0.005890595841786049</v>
       </c>
       <c r="QN1" t="n">
-        <v>0.1593868283797935</v>
+        <v>0.01025697380191295</v>
       </c>
       <c r="QO1" t="n">
-        <v>0.1595396044617018</v>
+        <v>0.01418273954029003</v>
       </c>
       <c r="QP1" t="n">
-        <v>0.1598132881256582</v>
+        <v>0.01892560727569217</v>
       </c>
       <c r="QQ1" t="n">
-        <v>0.1604912594578919</v>
+        <v>0.02697855281974912</v>
       </c>
       <c r="QR1" t="n">
-        <v>0.1607328623730432</v>
+        <v>0.04413519493466083</v>
       </c>
       <c r="QS1" t="n">
-        <v>0.1602865649870175</v>
+        <v>0.08785061845191568</v>
       </c>
       <c r="QT1" t="n">
-        <v>0.1597492865214282</v>
+        <v>0.1651070995911914</v>
       </c>
       <c r="QU1" t="n">
-        <v>0.160566397303597</v>
+        <v>0.2626694534038723</v>
       </c>
       <c r="QV1" t="n">
-        <v>0.1650317187665538</v>
+        <v>0.3224517315505714</v>
       </c>
       <c r="QW1" t="n">
-        <v>0.1762875234490361</v>
+        <v>0.30468449244618</v>
       </c>
       <c r="QX1" t="n">
-        <v>0.1983245349954898</v>
+        <v>0.2220929096297877</v>
       </c>
       <c r="QY1" t="n">
-        <v>0.2358612856374518</v>
+        <v>0.1304451945464646</v>
       </c>
       <c r="QZ1" t="n">
-        <v>0.2879117545328129</v>
+        <v>0.07098912164240165</v>
       </c>
       <c r="RA1" t="n">
-        <v>0.3428718219603091</v>
+        <v>0.04296334816940135</v>
       </c>
       <c r="RB1" t="n">
-        <v>0.3848883329394128</v>
+        <v>-0.03332907953769647</v>
       </c>
       <c r="RC1" t="n">
-        <v>0.3955151307140429</v>
+        <v>-0.1170354081670888</v>
       </c>
       <c r="RD1" t="n">
-        <v>0.3701406353476573</v>
+        <v>0.4807386372846262</v>
       </c>
       <c r="RE1" t="n">
-        <v>0.3194364035431504</v>
+        <v>1.188569187253453</v>
       </c>
       <c r="RF1" t="n">
-        <v>0.2596494473544122</v>
+        <v>0.2928293012178329</v>
       </c>
       <c r="RG1" t="n">
-        <v>0.2086238780649806</v>
+        <v>-0.226162628957389</v>
       </c>
       <c r="RH1" t="n">
-        <v>0.1753852307549775</v>
+        <v>-0.0360316813065753</v>
       </c>
       <c r="RI1" t="n">
-        <v>0.1574282534479334</v>
+        <v>0.05269557187724696</v>
       </c>
       <c r="RJ1" t="n">
-        <v>0.1342146797379792</v>
+        <v>0.07245555624936711</v>
       </c>
       <c r="RK1" t="n">
-        <v>0.06728798117464647</v>
+        <v>0.1025032641739547</v>
       </c>
       <c r="RL1" t="n">
-        <v>0.006395674415578847</v>
+        <v>0.15227260996282</v>
       </c>
       <c r="RM1" t="n">
-        <v>0.2108765325583272</v>
+        <v>0.2253037906236441</v>
       </c>
       <c r="RN1" t="n">
-        <v>0.799669501379946</v>
+        <v>0.3161106746729591</v>
       </c>
       <c r="RO1" t="n">
-        <v>1.114856863366805</v>
+        <v>0.4083475216796779</v>
       </c>
       <c r="RP1" t="n">
-        <v>0.5989511004862169</v>
+        <v>0.4803013527813424</v>
       </c>
       <c r="RQ1" t="n">
-        <v>0.02344056783370206</v>
+        <v>0.5077899943722212</v>
       </c>
       <c r="RR1" t="n">
-        <v>-0.1017506689996707</v>
+        <v>0.4820296708170743</v>
       </c>
       <c r="RS1" t="n">
-        <v>0.02636768239571221</v>
+        <v>0.410433080278013</v>
       </c>
       <c r="RT1" t="n">
-        <v>0.1110900464960492</v>
+        <v>0.313118166391929</v>
       </c>
       <c r="RU1" t="n">
-        <v>0.1321266400606966</v>
+        <v>0.2170297804839533</v>
       </c>
       <c r="RV1" t="n">
-        <v>0.1401672544993053</v>
+        <v>0.1386197956417743</v>
       </c>
       <c r="RW1" t="n">
-        <v>0.1544447201054562</v>
+        <v>0.08496617279754339</v>
       </c>
       <c r="RX1" t="n">
-        <v>0.1756177291869969</v>
+        <v>0.05379883061415651</v>
       </c>
       <c r="RY1" t="n">
-        <v>0.2060417333509809</v>
+        <v>0.03776643374573012</v>
       </c>
       <c r="RZ1" t="n">
-        <v>0.2463121799656381</v>
+        <v>0.03068716248243852</v>
       </c>
       <c r="SA1" t="n">
-        <v>0.2957299930612081</v>
+        <v>0.02794723554211039</v>
       </c>
       <c r="SB1" t="n">
-        <v>0.3514273726500651</v>
+        <v>0.02701319508550499</v>
       </c>
       <c r="SC1" t="n">
-        <v>0.4058121819300439</v>
+        <v>0.02700972625962206</v>
       </c>
       <c r="SD1" t="n">
-        <v>0.4518168576837477</v>
+        <v>0.02732486085019161</v>
       </c>
       <c r="SE1" t="n">
-        <v>0.4834429925264355</v>
+        <v>0.02790532167879496</v>
       </c>
       <c r="SF1" t="n">
-        <v>0.4957613349060201</v>
+        <v>0.02942017344777478</v>
       </c>
     </row>
   </sheetData>

--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -423,1504 +423,1504 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.096315403802156</v>
+        <v>1.083186404255062</v>
       </c>
       <c r="B1" t="n">
-        <v>0.2594097378973963</v>
+        <v>0.2391511879512374</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.3700120668614013</v>
+        <v>-0.3705502297689511</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.2099365220919708</v>
+        <v>-0.2022136238713559</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.08772267735740649</v>
+        <v>-0.09179367816338094</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.06365613341036111</v>
+        <v>-0.0717260152526614</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.03599733046199017</v>
+        <v>-0.04566150912015504</v>
       </c>
       <c r="H1" t="n">
-        <v>0.008857239790376129</v>
+        <v>-0.00141352855236029</v>
       </c>
       <c r="I1" t="n">
-        <v>0.07533351992039621</v>
+        <v>0.06531838399657333</v>
       </c>
       <c r="J1" t="n">
-        <v>0.1624342914329254</v>
+        <v>0.1532828439167501</v>
       </c>
       <c r="K1" t="n">
-        <v>0.25877854516683</v>
+        <v>0.2480790443794913</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3413096029676212</v>
+        <v>0.3265738674134729</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3907463452403602</v>
+        <v>0.3696731029788636</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3925154659064224</v>
+        <v>0.3624835937015877</v>
       </c>
       <c r="O1" t="n">
-        <v>0.3395547360401111</v>
+        <v>0.3034281635833446</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2531266684499678</v>
+        <v>0.2160713085484824</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1573079783190045</v>
+        <v>0.1225488457725545</v>
       </c>
       <c r="R1" t="n">
-        <v>0.06971912075303299</v>
+        <v>0.039776691673059</v>
       </c>
       <c r="S1" t="n">
-        <v>0.001524290780663233</v>
+        <v>-0.02059745667539581</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.04262604748202678</v>
+        <v>-0.05613320402259631</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.06602764830963875</v>
+        <v>-0.07365909362494437</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.07569941877914522</v>
+        <v>-0.07964199195898695</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.07726924848740606</v>
+        <v>-0.0791475573649615</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.07472840255467986</v>
+        <v>-0.07585313124742651</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.07038329206013523</v>
+        <v>-0.07160380695917062</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.06507289438007478</v>
+        <v>-0.0671595433110462</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.05969767778737318</v>
+        <v>-0.06286598505140874</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.05455192654541523</v>
+        <v>-0.05853487930122897</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.04903129913602911</v>
+        <v>-0.05344407555409288</v>
       </c>
       <c r="AD1" t="n">
-        <v>-0.04163282825948612</v>
+        <v>-0.04646044530745173</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.02910247652727251</v>
+        <v>-0.02792449672155855</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.001213758365802728</v>
+        <v>0.01484149389149742</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.06135779229128561</v>
+        <v>0.09096116742113498</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1544460257409457</v>
+        <v>0.1888721211999746</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2417827228369497</v>
+        <v>0.2538571581069978</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2740693586969332</v>
+        <v>0.2456260442897274</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2268764675238721</v>
+        <v>0.1674328363243664</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1358290035063789</v>
+        <v>0.07667428547687062</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.05440398566246003</v>
+        <v>0.01339368777731259</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.0076504478605386</v>
+        <v>-0.01679609728604316</v>
       </c>
       <c r="AO1" t="n">
-        <v>-0.02206578362115568</v>
+        <v>-0.07583640619784729</v>
       </c>
       <c r="AP1" t="n">
-        <v>-0.1243965208284542</v>
+        <v>-0.18784295854929</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.1199645069915528</v>
+        <v>0.2618875965811421</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.6571239659259466</v>
+        <v>1.141364062794962</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.097884894670166</v>
+        <v>0.4065045155203464</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1049250807794059</v>
+        <v>-0.2875789948576164</v>
       </c>
       <c r="AU1" t="n">
-        <v>-0.2523786550415849</v>
+        <v>-0.1402271462468217</v>
       </c>
       <c r="AV1" t="n">
-        <v>-0.04360447594900128</v>
+        <v>-0.02110132392318462</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.02612897309249162</v>
+        <v>0.0005659306775581468</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.04639224276527614</v>
+        <v>0.02813772065481559</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.07896797147464271</v>
+        <v>0.07431463497528056</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.1315565771455505</v>
+        <v>0.1437706428839923</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.2078364457394048</v>
+        <v>0.2366119468881817</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.3029682207233059</v>
+        <v>0.3314654863476881</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.3941300255528196</v>
+        <v>0.4059477521175855</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.4606715599046485</v>
+        <v>0.4426257028902774</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.486240489292094</v>
+        <v>0.4289955105036845</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.4588658916022826</v>
+        <v>0.3640493899087518</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.3847027201642217</v>
+        <v>0.2725452952517443</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.2904733894452673</v>
+        <v>0.1785338003896647</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.1979823503679534</v>
+        <v>0.09897948049333398</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.1221270923842461</v>
+        <v>0.04374521410517718</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.07083755037546334</v>
+        <v>0.01252065459986636</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.04229636795314409</v>
+        <v>-0.002278662605009244</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.02899033775334121</v>
+        <v>-0.007088201192494836</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.02475413940344133</v>
+        <v>-0.006674548406232922</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.02509959414902388</v>
+        <v>-0.004135432159844814</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.02721566485386228</v>
+        <v>-0.0008999333518122938</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.02996605664966091</v>
+        <v>0.002631408186323353</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.0331538217832091</v>
+        <v>0.005977707915372671</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.03626332521042827</v>
+        <v>0.009470695248953498</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.03966634835187439</v>
+        <v>0.01440183243063533</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.04482799741515835</v>
+        <v>0.02423489227942006</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.05552058636582838</v>
+        <v>0.05131078777044319</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.0849275935307159</v>
+        <v>0.1086553514614973</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.1451545501338844</v>
+        <v>0.2006386573836917</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.2386890682475685</v>
+        <v>0.2845698224729498</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.3201163843383763</v>
+        <v>0.3107556027289263</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.340739646879435</v>
+        <v>0.252736595510449</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.2814144124518664</v>
+        <v>0.1590342893673943</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.1871613066014892</v>
+        <v>0.08228296394158241</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.1097335861879763</v>
+        <v>0.04387853009273008</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.07340811321126794</v>
+        <v>0.002061509514531334</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.01738911361118569</v>
+        <v>-0.1292353390319788</v>
       </c>
       <c r="CG1" t="n">
-        <v>-0.1035175070141534</v>
+        <v>0.07494945995627453</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.1039085305001583</v>
+        <v>1.025378260748428</v>
       </c>
       <c r="CI1" t="n">
-        <v>1.052660399724161</v>
+        <v>0.7409243452304591</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.7937171675470677</v>
+        <v>-0.1682361567551638</v>
       </c>
       <c r="CK1" t="n">
-        <v>-0.1316670600599049</v>
+        <v>-0.1471256374907618</v>
       </c>
       <c r="CL1" t="n">
-        <v>-0.1184863126819738</v>
+        <v>0.01335265370511696</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.04205448928373561</v>
+        <v>0.03930539634821608</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.07055460875489482</v>
+        <v>0.06146346151642169</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.09227789746739361</v>
+        <v>0.1010691286101435</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.1324359124077381</v>
+        <v>0.1632397441057083</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.1950550350808764</v>
+        <v>0.2478646270936553</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.2798442787122207</v>
+        <v>0.3404756669862684</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.374510466684147</v>
+        <v>0.4174781061371653</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.4547369794473995</v>
+        <v>0.4585785219837025</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.4996879149884976</v>
+        <v>0.446908695236721</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.492778476746729</v>
+        <v>0.3827546207390357</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.4320485955287878</v>
+        <v>0.290698699078587</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.3416112734141142</v>
+        <v>0.1932337636382889</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.2441727719667033</v>
+        <v>0.1083741159412437</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.1575324309974934</v>
+        <v>0.04875957304119715</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.09434823831767503</v>
+        <v>0.01355606721843448</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.05565795493922959</v>
+        <v>-0.004408476702486789</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.03431284937740986</v>
+        <v>-0.01137019387872408</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.02403834853796013</v>
+        <v>-0.01252616636064891</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.01982471969262866</v>
+        <v>-0.01161629233580544</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.0180428030681161</v>
+        <v>-0.009952340363548962</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.01723480102612305</v>
+        <v>-0.008198008150025395</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.01687046540722025</v>
+        <v>-0.006628782016637837</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.01679213489152769</v>
+        <v>-0.005094193687532866</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.01721798079310413</v>
+        <v>-0.00254579779100507</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.01892947237039511</v>
+        <v>0.005384077381311165</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.0259372682564595</v>
+        <v>0.0299972349490802</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.04823905345890609</v>
+        <v>0.08728761337749144</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.1022841367886404</v>
+        <v>0.1747208168554899</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.1885289226649726</v>
+        <v>0.2546295377197918</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.2700940050610383</v>
+        <v>0.2668769002734065</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.2965475237798618</v>
+        <v>0.2017116372150342</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.2381033556517518</v>
+        <v>0.1021957410966662</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.1436526455293184</v>
+        <v>0.02563249297616774</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.06250015887438391</v>
+        <v>-0.01244708523979133</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.01862164139190951</v>
+        <v>-0.06264503367001829</v>
       </c>
       <c r="DV1" t="n">
-        <v>-0.02170617908881282</v>
+        <v>-0.1919340636671674</v>
       </c>
       <c r="DW1" t="n">
-        <v>-0.1507227112661918</v>
+        <v>0.1733697410410616</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.07023775599863225</v>
+        <v>1.076462573666045</v>
       </c>
       <c r="DY1" t="n">
-        <v>1.01536930606993</v>
+        <v>0.4377164313886613</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.6728875898601446</v>
+        <v>-0.3061542272306418</v>
       </c>
       <c r="EA1" t="n">
-        <v>-0.2344005821313194</v>
+        <v>-0.1919694764782746</v>
       </c>
       <c r="EB1" t="n">
-        <v>-0.2128051168085714</v>
+        <v>-0.06643377137952775</v>
       </c>
       <c r="EC1" t="n">
-        <v>-0.04937241162615218</v>
+        <v>-0.04404737788903968</v>
       </c>
       <c r="ED1" t="n">
-        <v>-0.02254656601548046</v>
+        <v>-0.01992268989554878</v>
       </c>
       <c r="EE1" t="n">
-        <v>-0.001757776782448957</v>
+        <v>0.02285809407525497</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.03571582773691633</v>
+        <v>0.08828464744201518</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.09512854589888314</v>
+        <v>0.1739198208489872</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.1776966474533805</v>
+        <v>0.2679154833687942</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.2706345626978365</v>
+        <v>0.3461791765462487</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.3505791035704601</v>
+        <v>0.38693595585945</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.3981343730844035</v>
+        <v>0.373967825920154</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.3981400606311944</v>
+        <v>0.308717675881637</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.3432132870511631</v>
+        <v>0.2165954845785467</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.2539487916205814</v>
+        <v>0.1194146217198945</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.1552240102672034</v>
+        <v>0.03352327733201517</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.06551168393465837</v>
+        <v>-0.03018960284970664</v>
       </c>
       <c r="EQ1" t="n">
-        <v>-0.003151127173730873</v>
+        <v>-0.06912107026486136</v>
       </c>
       <c r="ER1" t="n">
-        <v>-0.04631279075626534</v>
+        <v>-0.09030473951401954</v>
       </c>
       <c r="ES1" t="n">
-        <v>-0.06987763620545713</v>
+        <v>-0.1005203595129169</v>
       </c>
       <c r="ET1" t="n">
-        <v>-0.08093886636327667</v>
+        <v>-0.1048002784437009</v>
       </c>
       <c r="EU1" t="n">
-        <v>-0.08491122909607202</v>
+        <v>-0.1064294437549301</v>
       </c>
       <c r="EV1" t="n">
-        <v>-0.08553097652666053</v>
+        <v>-0.1069219127652136</v>
       </c>
       <c r="EW1" t="n">
-        <v>-0.08485586503432951</v>
+        <v>-0.1065756221035955</v>
       </c>
       <c r="EX1" t="n">
-        <v>-0.08316286655566679</v>
+        <v>-0.1063032748111594</v>
       </c>
       <c r="EY1" t="n">
-        <v>-0.08113638029813203</v>
+        <v>-0.1059744572573247</v>
       </c>
       <c r="EZ1" t="n">
-        <v>-0.07984711914548988</v>
+        <v>-0.1040805966574333</v>
       </c>
       <c r="FA1" t="n">
-        <v>-0.07819965051906559</v>
+        <v>-0.09782243177790544</v>
       </c>
       <c r="FB1" t="n">
-        <v>-0.07286156916733706</v>
+        <v>-0.07817702036154608</v>
       </c>
       <c r="FC1" t="n">
-        <v>-0.05849072666556267</v>
+        <v>-0.02834940142348093</v>
       </c>
       <c r="FD1" t="n">
-        <v>-0.01922653228676589</v>
+        <v>0.05488257436687594</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.05610648160633376</v>
+        <v>0.1460080485369989</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.1487864527068401</v>
+        <v>0.1854201302720158</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.2083495471255397</v>
+        <v>0.1442682902255875</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.189560375753628</v>
+        <v>0.05148278456128541</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.1046826750551244</v>
+        <v>-0.03461479443057629</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.008974689358932105</v>
+        <v>-0.08535835952796836</v>
       </c>
       <c r="FK1" t="n">
-        <v>-0.05485168004961572</v>
+        <v>-0.1159130673616802</v>
       </c>
       <c r="FL1" t="n">
-        <v>-0.08740397947513277</v>
+        <v>-0.2251101792754411</v>
       </c>
       <c r="FM1" t="n">
-        <v>-0.1638027761206696</v>
+        <v>-0.1894861375936442</v>
       </c>
       <c r="FN1" t="n">
-        <v>-0.2568809575503357</v>
+        <v>0.6645521123959255</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.333988221393077</v>
+        <v>0.8803614985233704</v>
       </c>
       <c r="FP1" t="n">
-        <v>1.05135262634873</v>
+        <v>-0.1572254089455176</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.1583235262993375</v>
+        <v>-0.3902463197933621</v>
       </c>
       <c r="FR1" t="n">
-        <v>-0.4119653624902303</v>
+        <v>-0.1813372487867728</v>
       </c>
       <c r="FS1" t="n">
-        <v>-0.2360108697116675</v>
+        <v>-0.1251844059593805</v>
       </c>
       <c r="FT1" t="n">
-        <v>-0.1274917279906772</v>
+        <v>-0.1066445558773368</v>
       </c>
       <c r="FU1" t="n">
-        <v>-0.1079124711402168</v>
+        <v>-0.07404473263101811</v>
       </c>
       <c r="FV1" t="n">
-        <v>-0.08162141034616824</v>
+        <v>-0.02161716050155037</v>
       </c>
       <c r="FW1" t="n">
-        <v>-0.03465312803918597</v>
+        <v>0.05294956889835958</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.03379154381795925</v>
+        <v>0.1460063157984559</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.1219729398043442</v>
+        <v>0.2376745050805909</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.21783049312523</v>
+        <v>0.3051433741442785</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.3001149084128396</v>
+        <v>0.3314168275326947</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.3450351505771697</v>
+        <v>0.3052178251543423</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.3398542032922403</v>
+        <v>0.2322550953363088</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.2837368867788644</v>
+        <v>0.13761139743551</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.195253501151165</v>
+        <v>0.04250926713054043</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.09843448012260922</v>
+        <v>-0.03752114426976558</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.01154475401441566</v>
+        <v>-0.09285801658068162</v>
       </c>
       <c r="GH1" t="n">
-        <v>-0.05302302138068341</v>
+        <v>-0.1245487788617009</v>
       </c>
       <c r="GI1" t="n">
-        <v>-0.0928726102064449</v>
+        <v>-0.139986423915612</v>
       </c>
       <c r="GJ1" t="n">
-        <v>-0.1144281218997552</v>
+        <v>-0.1453150216717214</v>
       </c>
       <c r="GK1" t="n">
-        <v>-0.1237024229265819</v>
+        <v>-0.1451620789818102</v>
       </c>
       <c r="GL1" t="n">
-        <v>-0.1256208980791339</v>
+        <v>-0.1426385396201337</v>
       </c>
       <c r="GM1" t="n">
-        <v>-0.1240218566120211</v>
+        <v>-0.1393397500815741</v>
       </c>
       <c r="GN1" t="n">
-        <v>-0.1211149472315794</v>
+        <v>-0.1353245267183562</v>
       </c>
       <c r="GO1" t="n">
-        <v>-0.1177037614373882</v>
+        <v>-0.1309034018662185</v>
       </c>
       <c r="GP1" t="n">
-        <v>-0.1144572678078366</v>
+        <v>-0.1271463535365296</v>
       </c>
       <c r="GQ1" t="n">
-        <v>-0.1112812432337039</v>
+        <v>-0.1226880112462037</v>
       </c>
       <c r="GR1" t="n">
-        <v>-0.1073124717975155</v>
+        <v>-0.1135179747173141</v>
       </c>
       <c r="GS1" t="n">
-        <v>-0.1010003366079881</v>
+        <v>-0.09297619842168857</v>
       </c>
       <c r="GT1" t="n">
-        <v>-0.08709959150323573</v>
+        <v>-0.04377598533958579</v>
       </c>
       <c r="GU1" t="n">
-        <v>-0.05096466722826182</v>
+        <v>0.04004774934746508</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.01728668534185247</v>
+        <v>0.1345151856240918</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.114518229168675</v>
+        <v>0.186599325459832</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.1895717905593556</v>
+        <v>0.1591349444164021</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.1981891976734097</v>
+        <v>0.07292823935979602</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.1317947005931147</v>
+        <v>-0.01731295776064275</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.03821842139459564</v>
+        <v>-0.07333267779597601</v>
       </c>
       <c r="HB1" t="n">
-        <v>-0.03316616263471626</v>
+        <v>-0.1016904441279819</v>
       </c>
       <c r="HC1" t="n">
-        <v>-0.06854280694016347</v>
+        <v>-0.1811837664600308</v>
       </c>
       <c r="HD1" t="n">
-        <v>-0.1094261324928409</v>
+        <v>-0.260407457097486</v>
       </c>
       <c r="HE1" t="n">
-        <v>-0.2367837831453514</v>
+        <v>0.3611376316825709</v>
       </c>
       <c r="HF1" t="n">
-        <v>-0.01952247043653704</v>
+        <v>1.073010503679564</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.9207772384852109</v>
+        <v>0.1797998033927881</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.7172828668286644</v>
+        <v>-0.3710355186775772</v>
       </c>
       <c r="HI1" t="n">
-        <v>-0.2349453371689363</v>
+        <v>-0.2024284916742934</v>
       </c>
       <c r="HJ1" t="n">
-        <v>-0.2853096167826754</v>
+        <v>-0.09650760109074824</v>
       </c>
       <c r="HK1" t="n">
-        <v>-0.09655596516713737</v>
+        <v>-0.07392960596111534</v>
       </c>
       <c r="HL1" t="n">
-        <v>-0.05695198506154537</v>
+        <v>-0.04468807278465339</v>
       </c>
       <c r="HM1" t="n">
-        <v>-0.03408374575802142</v>
+        <v>0.002717484593591551</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.003840856458457644</v>
+        <v>0.07248030057158039</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.06261904772796739</v>
+        <v>0.1617882019459939</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.1432309931509881</v>
+        <v>0.2591218148806411</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.2379347008183953</v>
+        <v>0.340894627760046</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.3288975380415285</v>
+        <v>0.3864377699826648</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.3916537594949081</v>
+        <v>0.381125529944381</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.4091041478524422</v>
+        <v>0.3238686239091704</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.3717100688551684</v>
+        <v>0.2375200125430273</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.2930414230848571</v>
+        <v>0.1436376645699988</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.1991729962139623</v>
+        <v>0.05921950772478666</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1097423873190268</v>
+        <v>-0.003357723435919339</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.03772840126640108</v>
+        <v>-0.0409199238599816</v>
       </c>
       <c r="HZ1" t="n">
-        <v>-0.01055049257826947</v>
+        <v>-0.06004402469107884</v>
       </c>
       <c r="IA1" t="n">
-        <v>-0.03667145255624246</v>
+        <v>-0.06704818258534799</v>
       </c>
       <c r="IB1" t="n">
-        <v>-0.04779421702958907</v>
+        <v>-0.06702770169981914</v>
       </c>
       <c r="IC1" t="n">
-        <v>-0.05001243115503474</v>
+        <v>-0.06382933248609896</v>
       </c>
       <c r="ID1" t="n">
-        <v>-0.04769845191154685</v>
+        <v>-0.05952262209886106</v>
       </c>
       <c r="IE1" t="n">
-        <v>-0.04350122373403306</v>
+        <v>-0.05488193761208941</v>
       </c>
       <c r="IF1" t="n">
-        <v>-0.03843428606934692</v>
+        <v>-0.05030677862051847</v>
       </c>
       <c r="IG1" t="n">
-        <v>-0.03327780850526039</v>
+        <v>-0.04572480492274549</v>
       </c>
       <c r="IH1" t="n">
-        <v>-0.02842640672217414</v>
+        <v>-0.04059183652122877</v>
       </c>
       <c r="II1" t="n">
-        <v>-0.02340156834893806</v>
+        <v>-0.03394171449379753</v>
       </c>
       <c r="IJ1" t="n">
-        <v>-0.01685140816082586</v>
+        <v>-0.01762620972668782</v>
       </c>
       <c r="IK1" t="n">
-        <v>-0.005807542213984887</v>
+        <v>0.0202551370950013</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.02158862368750045</v>
+        <v>0.09097643946872684</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.07802635707540885</v>
+        <v>0.1907836834052478</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1688074617384</v>
+        <v>0.2624557201699256</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.2575253276378988</v>
+        <v>0.2664716681779459</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.2944088891730987</v>
+        <v>0.1982811299528366</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.2495621805431628</v>
+        <v>0.1038723781329696</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1587253450939257</v>
+        <v>0.03383166901013555</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.07730074722167495</v>
+        <v>-0.0005834637352949731</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.02993038919687654</v>
+        <v>-0.04390301068225937</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.004181765302226058</v>
+        <v>-0.1727321437841237</v>
       </c>
       <c r="IV1" t="n">
-        <v>-0.1067747590888975</v>
+        <v>0.08756305883358888</v>
       </c>
       <c r="IW1" t="n">
-        <v>-0.0998137458356525</v>
+        <v>1.035651714207313</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.7037946154519932</v>
+        <v>0.7159270525448735</v>
       </c>
       <c r="IY1" t="n">
-        <v>1.097211154545551</v>
+        <v>-0.1948459107410998</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.07971975984224289</v>
+        <v>-0.1889847782385406</v>
       </c>
       <c r="JA1" t="n">
-        <v>-0.2315496841098425</v>
+        <v>-0.01506629469980954</v>
       </c>
       <c r="JB1" t="n">
-        <v>-0.0313122816486059</v>
+        <v>0.01710697387270153</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.03643050096526018</v>
+        <v>0.04036037055785111</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.05383768893215524</v>
+        <v>0.07965630404138269</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.08696955760267716</v>
+        <v>0.1404114644664573</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1393878394574584</v>
+        <v>0.2241563386203774</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.2141877666848916</v>
+        <v>0.3194197585210173</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.3056819300412009</v>
+        <v>0.4040952472937623</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.397336662110954</v>
+        <v>0.4587520301807674</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.4636910329980861</v>
+        <v>0.4669064251756448</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.4862525393023972</v>
+        <v>0.4193497379939352</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.454273911043892</v>
+        <v>0.3355989226420533</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.3768175012498546</v>
+        <v>0.2395250268927944</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.281161763904432</v>
+        <v>0.1497270065664573</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1885806638781198</v>
+        <v>0.07953172553081542</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.1132052359589922</v>
+        <v>0.03502556012206434</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.06201535385318858</v>
+        <v>0.0108055910170461</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.03367744119988877</v>
+        <v>2.900328967158139e-05</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.02080153605357276</v>
+        <v>-0.002777077183309587</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.01703471716851232</v>
+        <v>-0.001714094842633819</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.01781893557571936</v>
+        <v>0.0007121658987327018</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.02039101458294566</v>
+        <v>0.003608340086162802</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.02366232504449927</v>
+        <v>0.006514955725070957</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.02697128020759026</v>
+        <v>0.009385066090625858</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.02996582828144196</v>
+        <v>0.01258537331653226</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.03305409955490628</v>
+        <v>0.01739973020729381</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.0373690117919245</v>
+        <v>0.03026560121589715</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.04747396114244087</v>
+        <v>0.06261677190896953</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.07564606296507767</v>
+        <v>0.1299835309523229</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.1351493469472428</v>
+        <v>0.2221505806793545</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.2263055450195106</v>
+        <v>0.2947483613551428</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.3049928672865925</v>
+        <v>0.3024482611690283</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.3232891197233922</v>
+        <v>0.2304039065517859</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.2591664548702073</v>
+        <v>0.1357247864177442</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.1648600480528186</v>
+        <v>0.06239134396974993</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.08762518588477713</v>
+        <v>0.03014785551279085</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.05106550776011579</v>
+        <v>-0.03095294083018483</v>
       </c>
       <c r="KL1" t="n">
-        <v>-0.001919849363280788</v>
+        <v>-0.1587036930153669</v>
       </c>
       <c r="KM1" t="n">
-        <v>-0.1279165523622351</v>
+        <v>0.1297079863884463</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.09581611731590811</v>
+        <v>1.08049880124482</v>
       </c>
       <c r="KO1" t="n">
-        <v>1.0435200811868</v>
+        <v>0.6721850888938624</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.7612453289189455</v>
+        <v>-0.2163857828312838</v>
       </c>
       <c r="KQ1" t="n">
-        <v>-0.165952495188763</v>
+        <v>-0.1795511478606647</v>
       </c>
       <c r="KR1" t="n">
-        <v>-0.1625211948365114</v>
+        <v>-0.02026355856316692</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.003811047669208372</v>
+        <v>0.01345716197007514</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.03720071417415682</v>
+        <v>0.02965065383262986</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.05393388350348064</v>
+        <v>0.06794827336729393</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.09232924500094698</v>
+        <v>0.1280088268775472</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.1510649566928752</v>
+        <v>0.2090666030775347</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.2312641790409372</v>
+        <v>0.3017397414530485</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.3231018071580418</v>
+        <v>0.3866053911501592</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.4068114403461816</v>
+        <v>0.4393079298282593</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.4565834480505156</v>
+        <v>0.4418174049535502</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.4570845403187742</v>
+        <v>0.392649745382939</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.4049875194180202</v>
+        <v>0.3055199327611918</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.3160940100277804</v>
+        <v>0.2050303432641479</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.2167540864832887</v>
+        <v>0.1132908075347942</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.126592694595645</v>
+        <v>0.0429328029725352</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.05794041975988472</v>
+        <v>-0.002067344280908321</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.01506917627978086</v>
+        <v>-0.02708708247054777</v>
       </c>
       <c r="LI1" t="n">
-        <v>-0.0081372193374645</v>
+        <v>-0.03921125480393072</v>
       </c>
       <c r="LJ1" t="n">
-        <v>-0.01878643874185203</v>
+        <v>-0.04393056210731431</v>
       </c>
       <c r="LK1" t="n">
-        <v>-0.02237914548411877</v>
+        <v>-0.04514156282567004</v>
       </c>
       <c r="LL1" t="n">
-        <v>-0.02280899501574081</v>
+        <v>-0.04514667302268203</v>
       </c>
       <c r="LM1" t="n">
-        <v>-0.02236263468893077</v>
+        <v>-0.04462049782809295</v>
       </c>
       <c r="LN1" t="n">
-        <v>-0.02171706476266758</v>
+        <v>-0.04374004748299907</v>
       </c>
       <c r="LO1" t="n">
-        <v>-0.02069808152767454</v>
+        <v>-0.04348149797783578</v>
       </c>
       <c r="LP1" t="n">
-        <v>-0.02029686920096914</v>
+        <v>-0.04313757145955455</v>
       </c>
       <c r="LQ1" t="n">
-        <v>-0.01984703331511374</v>
+        <v>-0.04004185141265544</v>
       </c>
       <c r="LR1" t="n">
-        <v>-0.01630448018844291</v>
+        <v>-0.02942227027411514</v>
       </c>
       <c r="LS1" t="n">
-        <v>-0.00368477326903539</v>
+        <v>0.003401515038738616</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.03394068853936763</v>
+        <v>0.07019678244369504</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.105789484731082</v>
+        <v>0.1630275842449378</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.1984179948476941</v>
+        <v>0.2327350367066227</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.2557858080465199</v>
+        <v>0.2306038496100086</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.2374119480954478</v>
+        <v>0.1548508343457766</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.1514466642128811</v>
+        <v>0.05666756440372712</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.05705255584296504</v>
+        <v>-0.01532654542823865</v>
       </c>
       <c r="MA1" t="n">
-        <v>-0.006597425140931285</v>
+        <v>-0.05188935798407361</v>
       </c>
       <c r="MB1" t="n">
-        <v>-0.03999545595363283</v>
+        <v>-0.1061354672156737</v>
       </c>
       <c r="MC1" t="n">
-        <v>-0.1177264946244276</v>
+        <v>-0.2350698470908482</v>
       </c>
       <c r="MD1" t="n">
-        <v>-0.228347440128875</v>
+        <v>0.1154976723851067</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.3949086935122291</v>
+        <v>1.032242657558123</v>
       </c>
       <c r="MF1" t="n">
-        <v>1.10647023165254</v>
+        <v>0.5090228175220777</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.2171359503546944</v>
+        <v>-0.3238992808676253</v>
       </c>
       <c r="MH1" t="n">
-        <v>-0.3442818794855169</v>
+        <v>-0.2595685403016472</v>
       </c>
       <c r="MI1" t="n">
-        <v>-0.1651642665750653</v>
+        <v>-0.1053764526186613</v>
       </c>
       <c r="MJ1" t="n">
-        <v>-0.0639980865015073</v>
+        <v>-0.08001328938739516</v>
       </c>
       <c r="MK1" t="n">
-        <v>-0.04726070473134902</v>
+        <v>-0.05864192022658291</v>
       </c>
       <c r="ML1" t="n">
-        <v>-0.02116754864610408</v>
+        <v>-0.02066889803069917</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.02338288100224949</v>
+        <v>0.0391076522840497</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.09030905590104873</v>
+        <v>0.1199906293872074</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.1763788881546476</v>
+        <v>0.2129378207038094</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.2693809577423744</v>
+        <v>0.2971077536755129</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.3454160240222258</v>
+        <v>0.349214170152023</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.3834368001323543</v>
+        <v>0.3537502284180863</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.3693456865710414</v>
+        <v>0.3030382956284257</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.3030916085294061</v>
+        <v>0.2163749833014801</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.2103964274235182</v>
+        <v>0.1187192730482591</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.1138718474045039</v>
+        <v>0.02844880983377556</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.02950866807549746</v>
+        <v>-0.04263544906709048</v>
       </c>
       <c r="MX1" t="n">
-        <v>-0.03332356150324299</v>
+        <v>-0.08940401937954937</v>
       </c>
       <c r="MY1" t="n">
-        <v>-0.07220971935047887</v>
+        <v>-0.115216296730754</v>
       </c>
       <c r="MZ1" t="n">
-        <v>-0.09275108078949501</v>
+        <v>-0.1273396521367202</v>
       </c>
       <c r="NA1" t="n">
-        <v>-0.101873626186761</v>
+        <v>-0.1315398085186733</v>
       </c>
       <c r="NB1" t="n">
-        <v>-0.104751947450113</v>
+        <v>-0.131864292342348</v>
       </c>
       <c r="NC1" t="n">
-        <v>-0.1047907745091582</v>
+        <v>-0.1306245460159529</v>
       </c>
       <c r="ND1" t="n">
-        <v>-0.1034119260364786</v>
+        <v>-0.1285908833348331</v>
       </c>
       <c r="NE1" t="n">
-        <v>-0.1013582809224328</v>
+        <v>-0.1267454358202527</v>
       </c>
       <c r="NF1" t="n">
-        <v>-0.1000442268852481</v>
+        <v>-0.125337271743454</v>
       </c>
       <c r="NG1" t="n">
-        <v>-0.09940569788546005</v>
+        <v>-0.1235519784580805</v>
       </c>
       <c r="NH1" t="n">
-        <v>-0.09779398919077723</v>
+        <v>-0.1195132411911482</v>
       </c>
       <c r="NI1" t="n">
-        <v>-0.09197575737608125</v>
+        <v>-0.1099810550560326</v>
       </c>
       <c r="NJ1" t="n">
-        <v>-0.07659068814849325</v>
+        <v>-0.08017799872664938</v>
       </c>
       <c r="NK1" t="n">
-        <v>-0.03526568637954955</v>
+        <v>-0.01807560471477845</v>
       </c>
       <c r="NL1" t="n">
-        <v>0.04069568100793427</v>
+        <v>0.07320491195723146</v>
       </c>
       <c r="NM1" t="n">
-        <v>0.1347229921818049</v>
+        <v>0.154810030378578</v>
       </c>
       <c r="NN1" t="n">
-        <v>0.1941370209282907</v>
+        <v>0.1738001779380369</v>
       </c>
       <c r="NO1" t="n">
-        <v>0.1771259880872283</v>
+        <v>0.1140731945108262</v>
       </c>
       <c r="NP1" t="n">
-        <v>0.09432821109456835</v>
+        <v>0.01969244915391661</v>
       </c>
       <c r="NQ1" t="n">
-        <v>0.001572064953503797</v>
+        <v>-0.05912165590186728</v>
       </c>
       <c r="NR1" t="n">
-        <v>-0.05631894916240969</v>
+        <v>-0.1012867922855148</v>
       </c>
       <c r="NS1" t="n">
-        <v>-0.09451513810773331</v>
+        <v>-0.1373780322516976</v>
       </c>
       <c r="NT1" t="n">
-        <v>-0.1747218308408467</v>
+        <v>-0.2594838286227399</v>
       </c>
       <c r="NU1" t="n">
-        <v>-0.2763388469134252</v>
+        <v>-0.1234539947486699</v>
       </c>
       <c r="NV1" t="n">
-        <v>0.2598744464691082</v>
+        <v>0.7943452961467897</v>
       </c>
       <c r="NW1" t="n">
-        <v>1.071434192132638</v>
+        <v>0.7894542360991862</v>
       </c>
       <c r="NX1" t="n">
-        <v>0.2812585065101618</v>
+        <v>-0.2162911543325191</v>
       </c>
       <c r="NY1" t="n">
-        <v>-0.3762784921553868</v>
+        <v>-0.3577852300196093</v>
       </c>
       <c r="NZ1" t="n">
-        <v>-0.2251556221621631</v>
+        <v>-0.155819154909542</v>
       </c>
       <c r="OA1" t="n">
-        <v>-0.1043139495709199</v>
+        <v>-0.1080100368353807</v>
       </c>
       <c r="OB1" t="n">
-        <v>-0.08397544112216976</v>
+        <v>-0.0875268764128663</v>
       </c>
       <c r="OC1" t="n">
-        <v>-0.05708669260532891</v>
+        <v>-0.0534427038613482</v>
       </c>
       <c r="OD1" t="n">
-        <v>-0.01306399429944207</v>
+        <v>0.0006557535023118191</v>
       </c>
       <c r="OE1" t="n">
-        <v>0.05312723515314465</v>
+        <v>0.0770587069520028</v>
       </c>
       <c r="OF1" t="n">
-        <v>0.1398987144874627</v>
+        <v>0.1689256102738449</v>
       </c>
       <c r="OG1" t="n">
-        <v>0.2354239441605174</v>
+        <v>0.259576386590558</v>
       </c>
       <c r="OH1" t="n">
-        <v>0.3156688146792154</v>
+        <v>0.3260281786595994</v>
       </c>
       <c r="OI1" t="n">
-        <v>0.3608643925393874</v>
+        <v>0.3471806712888539</v>
       </c>
       <c r="OJ1" t="n">
-        <v>0.3568362427514438</v>
+        <v>0.3162211860739459</v>
       </c>
       <c r="OK1" t="n">
-        <v>0.2993132251299334</v>
+        <v>0.2409230191216119</v>
       </c>
       <c r="OL1" t="n">
-        <v>0.2112397654572443</v>
+        <v>0.1438703115350052</v>
       </c>
       <c r="OM1" t="n">
-        <v>0.1161676463771109</v>
+        <v>0.0482478901199341</v>
       </c>
       <c r="ON1" t="n">
-        <v>0.03130152088091966</v>
+        <v>-0.03003232745266841</v>
       </c>
       <c r="OO1" t="n">
-        <v>-0.03250108769227653</v>
+        <v>-0.08273169354604329</v>
       </c>
       <c r="OP1" t="n">
-        <v>-0.07146052633329482</v>
+        <v>-0.1131734422732346</v>
       </c>
       <c r="OQ1" t="n">
-        <v>-0.09111857374544825</v>
+        <v>-0.1277689790152577</v>
       </c>
       <c r="OR1" t="n">
-        <v>-0.09845353479533851</v>
+        <v>-0.1319777247193387</v>
       </c>
       <c r="OS1" t="n">
-        <v>-0.09878581916846471</v>
+        <v>-0.1303114207214933</v>
       </c>
       <c r="OT1" t="n">
-        <v>-0.09578516625274683</v>
+        <v>-0.1261996861904367</v>
       </c>
       <c r="OU1" t="n">
-        <v>-0.09144669229712589</v>
+        <v>-0.1209456521527229</v>
       </c>
       <c r="OV1" t="n">
-        <v>-0.08639528937979842</v>
+        <v>-0.1153087566109232</v>
       </c>
       <c r="OW1" t="n">
-        <v>-0.08155057014838359</v>
+        <v>-0.109581585883325</v>
       </c>
       <c r="OX1" t="n">
-        <v>-0.0770501182460526</v>
+        <v>-0.1035045480249971</v>
       </c>
       <c r="OY1" t="n">
-        <v>-0.07193796314166873</v>
+        <v>-0.0963451901500389</v>
       </c>
       <c r="OZ1" t="n">
-        <v>-0.06419509004837792</v>
+        <v>-0.08696179904870438</v>
       </c>
       <c r="PA1" t="n">
-        <v>-0.04860400341379827</v>
+        <v>-0.06071405266211962</v>
       </c>
       <c r="PB1" t="n">
-        <v>-0.009765986944476536</v>
+        <v>-0.006043838607560046</v>
       </c>
       <c r="PC1" t="n">
-        <v>0.06174097953299722</v>
+        <v>0.07912979206879249</v>
       </c>
       <c r="PD1" t="n">
-        <v>0.1592821720702789</v>
+        <v>0.1742415572101284</v>
       </c>
       <c r="PE1" t="n">
-        <v>0.2297391698423009</v>
+        <v>0.2233721970382117</v>
       </c>
       <c r="PF1" t="n">
-        <v>0.2302905957441017</v>
+        <v>0.1924513750420809</v>
       </c>
       <c r="PG1" t="n">
-        <v>0.1576950345282169</v>
+        <v>0.1060179581254737</v>
       </c>
       <c r="PH1" t="n">
-        <v>0.06440525349688984</v>
+        <v>0.01751313451950336</v>
       </c>
       <c r="PI1" t="n">
-        <v>-0.004039850507796192</v>
+        <v>-0.03576735534036556</v>
       </c>
       <c r="PJ1" t="n">
-        <v>-0.03159080232128715</v>
+        <v>-0.06169205338466295</v>
       </c>
       <c r="PK1" t="n">
-        <v>-0.1009236262268841</v>
+        <v>-0.1459065689501295</v>
       </c>
       <c r="PL1" t="n">
-        <v>-0.2218194594328379</v>
+        <v>-0.2084563317967067</v>
       </c>
       <c r="PM1" t="n">
-        <v>0.1182973731086097</v>
+        <v>0.4532336696734867</v>
       </c>
       <c r="PN1" t="n">
-        <v>1.059857114392424</v>
+        <v>1.111821201623538</v>
       </c>
       <c r="PO1" t="n">
-        <v>0.5739447411428268</v>
+        <v>0.1782831535257646</v>
       </c>
       <c r="PP1" t="n">
-        <v>-0.2615670921964233</v>
+        <v>-0.3219127199746218</v>
       </c>
       <c r="PQ1" t="n">
-        <v>-0.1925063592707841</v>
+        <v>-0.1342719681293146</v>
       </c>
       <c r="PR1" t="n">
-        <v>-0.03815191632347744</v>
+        <v>-0.03787389833824779</v>
       </c>
       <c r="PS1" t="n">
-        <v>-0.009995439229876366</v>
+        <v>-0.01843188660990551</v>
       </c>
       <c r="PT1" t="n">
-        <v>0.01592364240919256</v>
+        <v>0.01234485173230443</v>
       </c>
       <c r="PU1" t="n">
-        <v>0.05889262492381778</v>
+        <v>0.06116081596604191</v>
       </c>
       <c r="PV1" t="n">
-        <v>0.1240023753899701</v>
+        <v>0.1322868111518946</v>
       </c>
       <c r="PW1" t="n">
-        <v>0.2099327169715019</v>
+        <v>0.2227320233341543</v>
       </c>
       <c r="PX1" t="n">
-        <v>0.3064632765821053</v>
+        <v>0.3175050182195366</v>
       </c>
       <c r="PY1" t="n">
-        <v>0.3907710160763834</v>
+        <v>0.394087307099743</v>
       </c>
       <c r="PZ1" t="n">
-        <v>0.4412733690467958</v>
+        <v>0.432510585661234</v>
       </c>
       <c r="QA1" t="n">
-        <v>0.4402180939911158</v>
+        <v>0.4160447458252818</v>
       </c>
       <c r="QB1" t="n">
-        <v>0.3861516721477944</v>
+        <v>0.3521993099052644</v>
       </c>
       <c r="QC1" t="n">
-        <v>0.3016783845608979</v>
+        <v>0.2630226722108605</v>
       </c>
       <c r="QD1" t="n">
-        <v>0.2078371950548826</v>
+        <v>0.168175284524382</v>
       </c>
       <c r="QE1" t="n">
-        <v>0.1221321394837772</v>
+        <v>0.08477800324898983</v>
       </c>
       <c r="QF1" t="n">
-        <v>0.05841794325975321</v>
+        <v>0.02616728733397657</v>
       </c>
       <c r="QG1" t="n">
-        <v>0.020505240660692</v>
+        <v>-0.008267091337369024</v>
       </c>
       <c r="QH1" t="n">
-        <v>0.001265130327071414</v>
+        <v>-0.02533468050274515</v>
       </c>
       <c r="QI1" t="n">
-        <v>-0.005910087591514517</v>
+        <v>-0.03094987309590628</v>
       </c>
       <c r="QJ1" t="n">
-        <v>-0.00615485009015061</v>
+        <v>-0.03006008257708548</v>
       </c>
       <c r="QK1" t="n">
-        <v>-0.003128803408455459</v>
+        <v>-0.02651939043109217</v>
       </c>
       <c r="QL1" t="n">
-        <v>0.001088998789893939</v>
+        <v>-0.02198673334580158</v>
       </c>
       <c r="QM1" t="n">
-        <v>0.005890595841786049</v>
+        <v>-0.01711819471184813</v>
       </c>
       <c r="QN1" t="n">
-        <v>0.01025697380191295</v>
+        <v>-0.01224389701018672</v>
       </c>
       <c r="QO1" t="n">
-        <v>0.01418273954029003</v>
+        <v>-0.007317632925909309</v>
       </c>
       <c r="QP1" t="n">
-        <v>0.01892560727569217</v>
+        <v>-0.001893049978807903</v>
       </c>
       <c r="QQ1" t="n">
-        <v>0.02697855281974912</v>
+        <v>0.006892761398356718</v>
       </c>
       <c r="QR1" t="n">
-        <v>0.04413519493466083</v>
+        <v>0.0271756750006877</v>
       </c>
       <c r="QS1" t="n">
-        <v>0.08785061845191568</v>
+        <v>0.07218963069064815</v>
       </c>
       <c r="QT1" t="n">
-        <v>0.1651070995911914</v>
+        <v>0.1553541531941486</v>
       </c>
       <c r="QU1" t="n">
-        <v>0.2626694534038723</v>
+        <v>0.2468042904428294</v>
       </c>
       <c r="QV1" t="n">
-        <v>0.3224517315505714</v>
+        <v>0.302169023295298</v>
       </c>
       <c r="QW1" t="n">
-        <v>0.30468449244618</v>
+        <v>0.2805191230943381</v>
       </c>
       <c r="QX1" t="n">
-        <v>0.2220929096297877</v>
+        <v>0.1941600291333584</v>
       </c>
       <c r="QY1" t="n">
-        <v>0.1304451945464646</v>
+        <v>0.1050490526476003</v>
       </c>
       <c r="QZ1" t="n">
-        <v>0.07098912164240165</v>
+        <v>0.04678599657641798</v>
       </c>
       <c r="RA1" t="n">
-        <v>0.04296334816940135</v>
+        <v>0.01842511764575908</v>
       </c>
       <c r="RB1" t="n">
-        <v>-0.03332907953769647</v>
+        <v>-0.05874091118388959</v>
       </c>
       <c r="RC1" t="n">
-        <v>-0.1170354081670888</v>
+        <v>-0.1419878316249671</v>
       </c>
       <c r="RD1" t="n">
-        <v>0.4807386372846262</v>
+        <v>0.4524285189069686</v>
       </c>
       <c r="RE1" t="n">
-        <v>1.188569187253453</v>
+        <v>1.18061537842661</v>
       </c>
       <c r="RF1" t="n">
-        <v>0.2928293012178329</v>
+        <v>0.3048081173897599</v>
       </c>
       <c r="RG1" t="n">
-        <v>-0.226162628957389</v>
+        <v>-0.2569873742296383</v>
       </c>
       <c r="RH1" t="n">
-        <v>-0.0360316813065753</v>
+        <v>-0.07638401125898489</v>
       </c>
       <c r="RI1" t="n">
-        <v>0.05269557187724696</v>
+        <v>0.02305587928866999</v>
       </c>
       <c r="RJ1" t="n">
-        <v>0.07245555624936711</v>
+        <v>0.04329051273100276</v>
       </c>
       <c r="RK1" t="n">
-        <v>0.1025032641739547</v>
+        <v>0.07150061320249643</v>
       </c>
       <c r="RL1" t="n">
-        <v>0.15227260996282</v>
+        <v>0.1185297269736552</v>
       </c>
       <c r="RM1" t="n">
-        <v>0.2253037906236441</v>
+        <v>0.1881501447331535</v>
       </c>
       <c r="RN1" t="n">
-        <v>0.3161106746729591</v>
+        <v>0.2791027534578582</v>
       </c>
       <c r="RO1" t="n">
-        <v>0.4083475216796779</v>
+        <v>0.3718140221635813</v>
       </c>
       <c r="RP1" t="n">
-        <v>0.4803013527813424</v>
+        <v>0.4444641740829969</v>
       </c>
       <c r="RQ1" t="n">
-        <v>0.5077899943722212</v>
+        <v>0.4790435319480234</v>
       </c>
       <c r="RR1" t="n">
-        <v>0.4820296708170743</v>
+        <v>0.4611005520752895</v>
       </c>
       <c r="RS1" t="n">
-        <v>0.410433080278013</v>
+        <v>0.3917472458953781</v>
       </c>
       <c r="RT1" t="n">
-        <v>0.313118166391929</v>
+        <v>0.2978044550849843</v>
       </c>
       <c r="RU1" t="n">
-        <v>0.2170297804839533</v>
+        <v>0.2022154821760745</v>
       </c>
       <c r="RV1" t="n">
-        <v>0.1386197956417743</v>
+        <v>0.1207486952753554</v>
       </c>
       <c r="RW1" t="n">
-        <v>0.08496617279754339</v>
+        <v>0.06200298046093547</v>
       </c>
       <c r="RX1" t="n">
-        <v>0.05379883061415651</v>
+        <v>0.02703460438382783</v>
       </c>
       <c r="RY1" t="n">
-        <v>0.03776643374573012</v>
+        <v>0.009319594144237005</v>
       </c>
       <c r="RZ1" t="n">
-        <v>0.03068716248243852</v>
+        <v>0.00206307077879919</v>
       </c>
       <c r="SA1" t="n">
-        <v>0.02794723554211039</v>
+        <v>0.0002806460161185654</v>
       </c>
       <c r="SB1" t="n">
-        <v>0.02701319508550499</v>
+        <v>0.0007984307492915877</v>
       </c>
       <c r="SC1" t="n">
-        <v>0.02700972625962206</v>
+        <v>0.002218006785381278</v>
       </c>
       <c r="SD1" t="n">
-        <v>0.02732486085019161</v>
+        <v>0.003933850719352399</v>
       </c>
       <c r="SE1" t="n">
-        <v>0.02790532167879496</v>
+        <v>0.005480096830362411</v>
       </c>
       <c r="SF1" t="n">
-        <v>0.02942017344777478</v>
+        <v>0.00712113926089657</v>
       </c>
     </row>
   </sheetData>

--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01269763144852731</v>
+        <v>-0.003700660662554553</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
@@ -454,7 +454,7 @@
         <v>0.00715307582260372</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06170713228242124</v>
+        <v>0.01660693168945482</v>
       </c>
       <c r="C3" t="n">
         <v>171</v>
@@ -465,7 +465,7 @@
         <v>0.01430615164520744</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07538245935509121</v>
+        <v>0.07808527304266544</v>
       </c>
       <c r="C4" t="n">
         <v>311</v>
@@ -476,7 +476,7 @@
         <v>0.02145922746781116</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08795093977778022</v>
+        <v>0.09913852631818076</v>
       </c>
       <c r="C5" t="n">
         <v>451</v>
@@ -487,7 +487,7 @@
         <v>0.02861230329041488</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09748398379460162</v>
+        <v>0.102048315241432</v>
       </c>
       <c r="C6" t="n">
         <v>591</v>
@@ -498,7 +498,7 @@
         <v>0.03576537911301859</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08092640069505239</v>
+        <v>0.06211103268861105</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         <v>0.04291845493562232</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06439169833453222</v>
+        <v>0.05399793457713637</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +514,7 @@
         <v>0.05007153075822604</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01222471748532175</v>
+        <v>-0.007708530558556411</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.05722460658082976</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009936328664812307</v>
+        <v>0.006425454796822576</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         <v>0.06437768240343347</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0003987075370441592</v>
+        <v>0.006659617304423548</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         <v>0.07153075822603719</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003415648846084103</v>
+        <v>0.01264366124415373</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +546,7 @@
         <v>0.07868383404864092</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01375992975139254</v>
+        <v>0.008084218583594139</v>
       </c>
     </row>
     <row r="14">
@@ -554,7 +554,7 @@
         <v>0.08583690987124463</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01037915789149219</v>
+        <v>0.008049361092602327</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +562,7 @@
         <v>0.09298998569384835</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.007409269361490885</v>
+        <v>0.004397100599936627</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         <v>0.1001430615164521</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.007699363000134449</v>
+        <v>-0.001334506564175909</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +578,7 @@
         <v>0.1072961373390558</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0023542927989211</v>
+        <v>-0.001766849496065869</v>
       </c>
     </row>
     <row r="18">
@@ -586,7 +586,7 @@
         <v>0.1144492131616595</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01364495981948969</v>
+        <v>-0.01168777261686244</v>
       </c>
     </row>
     <row r="19">
@@ -594,7 +594,7 @@
         <v>0.1216022889842632</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006168945614561997</v>
+        <v>-0.01248342816597009</v>
       </c>
     </row>
     <row r="20">
@@ -602,7 +602,7 @@
         <v>0.1287553648068669</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0148297716486554</v>
+        <v>-0.006710448817423972</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>0.1359084406294707</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.007490100925927781</v>
+        <v>-0.02425771130585782</v>
       </c>
     </row>
     <row r="22">
@@ -618,7 +618,7 @@
         <v>0.1430615164520744</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006729757197789399</v>
+        <v>-0.007297659402759459</v>
       </c>
     </row>
     <row r="23">
@@ -626,7 +626,7 @@
         <v>0.1502145922746781</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02072555141369118</v>
+        <v>0.004426580636559705</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +634,7 @@
         <v>0.1573676680972818</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.003821709704511744</v>
+        <v>0.003511209799468843</v>
       </c>
     </row>
     <row r="25">
@@ -642,7 +642,7 @@
         <v>0.1645207439198856</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.01841636628633974</v>
+        <v>-0.001225611460323884</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.1716738197424893</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.008976874727634539</v>
+        <v>0.007403190212638039</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +658,7 @@
         <v>0.178826895565093</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006915563222209572</v>
+        <v>-0.01341629850398668</v>
       </c>
     </row>
     <row r="28">
@@ -666,7 +666,7 @@
         <v>0.1859799713876967</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.005733922889221739</v>
+        <v>0.001999875268265654</v>
       </c>
     </row>
     <row r="29">
@@ -674,7 +674,7 @@
         <v>0.1931330472103004</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.009582797937441391</v>
+        <v>-0.0002638538501556733</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +682,7 @@
         <v>0.2002861230329042</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01279714051990354</v>
+        <v>0.00191980026089378</v>
       </c>
     </row>
     <row r="31">
@@ -690,7 +690,7 @@
         <v>0.2074391988555079</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02381850764919196</v>
+        <v>-0.01238589167980495</v>
       </c>
     </row>
     <row r="32">
@@ -698,7 +698,7 @@
         <v>0.2145922746781116</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4782892452753877</v>
+        <v>0.4773221689409464</v>
       </c>
     </row>
     <row r="33">
@@ -706,7 +706,7 @@
         <v>0.2217453505007153</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5554513330104257</v>
+        <v>0.5322186521074213</v>
       </c>
     </row>
     <row r="34">
@@ -714,7 +714,7 @@
         <v>0.228898426323319</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.01768054208864511</v>
+        <v>-0.01895592605147361</v>
       </c>
     </row>
     <row r="35">
@@ -722,7 +722,7 @@
         <v>0.2360515021459227</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1851858945771787</v>
+        <v>-0.1784397007729231</v>
       </c>
     </row>
     <row r="36">
@@ -730,7 +730,7 @@
         <v>0.2432045779685265</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1631794087359022</v>
+        <v>-0.1600598938169442</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +738,7 @@
         <v>0.2503576537911302</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03052830394149008</v>
+        <v>0.01217205815149749</v>
       </c>
     </row>
     <row r="38">
@@ -746,7 +746,7 @@
         <v>0.2575107296137339</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08165314936789438</v>
+        <v>0.08108300669785483</v>
       </c>
     </row>
     <row r="39">
@@ -754,7 +754,7 @@
         <v>0.2646638054363376</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1301763699320233</v>
+        <v>0.1177379859382539</v>
       </c>
     </row>
     <row r="40">
@@ -762,7 +762,7 @@
         <v>0.2718168812589413</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1605883359656476</v>
+        <v>0.1559234004002531</v>
       </c>
     </row>
     <row r="41">
@@ -770,7 +770,7 @@
         <v>0.278969957081545</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2004518945594428</v>
+        <v>0.2001854604220361</v>
       </c>
     </row>
     <row r="42">
@@ -778,7 +778,7 @@
         <v>0.2861230329041488</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2029191517918038</v>
+        <v>0.2002888393198662</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         <v>0.2932761087267525</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1837291490454928</v>
+        <v>0.1776066237476872</v>
       </c>
     </row>
     <row r="44">
@@ -794,7 +794,7 @@
         <v>0.3004291845493562</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1250991116542148</v>
+        <v>0.1396805634792133</v>
       </c>
     </row>
     <row r="45">
@@ -802,7 +802,7 @@
         <v>0.30758226037196</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09311301302870013</v>
+        <v>0.0897429917026587</v>
       </c>
     </row>
     <row r="46">
@@ -810,7 +810,7 @@
         <v>0.3147353361945637</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02253979212626632</v>
+        <v>0.03563246345383224</v>
       </c>
     </row>
     <row r="47">
@@ -818,7 +818,7 @@
         <v>0.3218884120171674</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0006425035294679418</v>
+        <v>-0.006975498541126601</v>
       </c>
     </row>
     <row r="48">
@@ -826,7 +826,7 @@
         <v>0.3290414878397711</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01117174122289568</v>
+        <v>0.002746566745293064</v>
       </c>
     </row>
     <row r="49">
@@ -834,7 +834,7 @@
         <v>0.3361945636623748</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.006511747425122274</v>
+        <v>0.0001359624479816834</v>
       </c>
     </row>
     <row r="50">
@@ -842,7 +842,7 @@
         <v>0.3433476394849785</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.002670579157099205</v>
+        <v>-0.004864964247900722</v>
       </c>
     </row>
     <row r="51">
@@ -850,7 +850,7 @@
         <v>0.3505007153075823</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.004907256856746332</v>
+        <v>-0.002938144607380946</v>
       </c>
     </row>
     <row r="52">
@@ -858,7 +858,7 @@
         <v>0.357653791130186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00358223723043387</v>
+        <v>0.0001729926576698456</v>
       </c>
     </row>
     <row r="53">
@@ -866,7 +866,7 @@
         <v>0.3648068669527897</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01003639667221553</v>
+        <v>0.0144690541049121</v>
       </c>
     </row>
     <row r="54">
@@ -874,7 +874,7 @@
         <v>0.3719599427753934</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.003752044963217615</v>
+        <v>0.005427097376767004</v>
       </c>
     </row>
     <row r="55">
@@ -882,7 +882,7 @@
         <v>0.3791130185979971</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.006709879434558036</v>
+        <v>-0.003186888254159591</v>
       </c>
     </row>
     <row r="56">
@@ -890,7 +890,7 @@
         <v>0.3862660944206008</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01878988369133967</v>
+        <v>0.004500522188060275</v>
       </c>
     </row>
     <row r="57">
@@ -898,7 +898,7 @@
         <v>0.3934191702432046</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008052892332679248</v>
+        <v>0.006465442440440622</v>
       </c>
     </row>
     <row r="58">
@@ -906,7 +906,7 @@
         <v>0.4005722460658083</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.005740794678438852</v>
+        <v>0.01001185797002421</v>
       </c>
     </row>
     <row r="59">
@@ -914,7 +914,7 @@
         <v>0.407725321888412</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01816661285479668</v>
+        <v>0.007763039448797728</v>
       </c>
     </row>
     <row r="60">
@@ -922,7 +922,7 @@
         <v>0.4148783977110158</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01808422921705879</v>
+        <v>0.0140624870005179</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>0.4220314735336195</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0006935988435415399</v>
+        <v>-0.001065854717236687</v>
       </c>
     </row>
     <row r="62">
@@ -938,7 +938,7 @@
         <v>0.4291845493562232</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.006249318433225719</v>
+        <v>-0.007239781666539097</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +946,7 @@
         <v>0.4363376251788269</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.01535883415406351</v>
+        <v>0.0008213209390543693</v>
       </c>
     </row>
     <row r="64">
@@ -954,7 +954,7 @@
         <v>0.4434907010014306</v>
       </c>
       <c r="B64" t="n">
-        <v>0.003118142256847355</v>
+        <v>0.01582634231926048</v>
       </c>
     </row>
     <row r="65">
@@ -962,7 +962,7 @@
         <v>0.4506437768240343</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.008105401554007739</v>
+        <v>-0.006589383687668659</v>
       </c>
     </row>
     <row r="66">
@@ -970,7 +970,7 @@
         <v>0.4577968526466381</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.01061771095069762</v>
+        <v>-0.01214796266843197</v>
       </c>
     </row>
     <row r="67">
@@ -978,7 +978,7 @@
         <v>0.4649499284692418</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.002614593000483762</v>
+        <v>-0.01182138555788685</v>
       </c>
     </row>
     <row r="68">
@@ -986,7 +986,7 @@
         <v>0.4721030042918455</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.01167012705848831</v>
+        <v>-0.01450154573956994</v>
       </c>
     </row>
     <row r="69">
@@ -994,7 +994,7 @@
         <v>0.4792560801144492</v>
       </c>
       <c r="B69" t="n">
-        <v>0.009440577554190767</v>
+        <v>-0.009799051789883918</v>
       </c>
     </row>
     <row r="70">
@@ -1002,7 +1002,7 @@
         <v>0.4864091559370529</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003901631556025882</v>
+        <v>-0.01068596776022429</v>
       </c>
     </row>
     <row r="71">
@@ -1010,7 +1010,7 @@
         <v>0.4935622317596566</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01158899479495776</v>
+        <v>0.007767128535016693</v>
       </c>
     </row>
     <row r="72">
@@ -1018,7 +1018,7 @@
         <v>0.5007153075822603</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005648426768265964</v>
+        <v>-0.00392427470256802</v>
       </c>
     </row>
     <row r="73">
@@ -1026,7 +1026,7 @@
         <v>0.5078683834048641</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01343667361119708</v>
+        <v>0.006699212989117948</v>
       </c>
     </row>
     <row r="74">
@@ -1034,7 +1034,7 @@
         <v>0.5150214592274678</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007037483785710784</v>
+        <v>0.007259099919020829</v>
       </c>
     </row>
     <row r="75">
@@ -1042,7 +1042,7 @@
         <v>0.5221745350500715</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006476934866792448</v>
+        <v>0.01101430759800777</v>
       </c>
     </row>
     <row r="76">
@@ -1050,7 +1050,7 @@
         <v>0.5293276108726752</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.006679025734545548</v>
+        <v>0.003205791208129261</v>
       </c>
     </row>
     <row r="77">
@@ -1058,7 +1058,7 @@
         <v>0.5364806866952789</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008580995859680033</v>
+        <v>-0.007510717924121829</v>
       </c>
     </row>
     <row r="78">
@@ -1066,7 +1066,7 @@
         <v>0.5436337625178826</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002487586245006766</v>
+        <v>-0.009375460950085747</v>
       </c>
     </row>
     <row r="79">
@@ -1074,7 +1074,7 @@
         <v>0.5507868383404864</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.001438519686757548</v>
+        <v>0.002229593383588151</v>
       </c>
     </row>
     <row r="80">
@@ -1082,7 +1082,7 @@
         <v>0.5579399141630901</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.0008535964919446573</v>
+        <v>0.008975343367836971</v>
       </c>
     </row>
     <row r="81">
@@ -1090,7 +1090,7 @@
         <v>0.5650929899856938</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.0008395405040699252</v>
+        <v>-0.02609870891004499</v>
       </c>
     </row>
     <row r="82">
@@ -1098,7 +1098,7 @@
         <v>0.5722460658082975</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0004610784036748831</v>
+        <v>-0.003367667214398997</v>
       </c>
     </row>
     <row r="83">
@@ -1106,7 +1106,7 @@
         <v>0.5793991416309013</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.004706547271366245</v>
+        <v>-0.01373174659285096</v>
       </c>
     </row>
     <row r="84">
@@ -1114,7 +1114,7 @@
         <v>0.5865522174535051</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.001403112020578901</v>
+        <v>-0.005695706522210596</v>
       </c>
     </row>
     <row r="85">
@@ -1122,7 +1122,7 @@
         <v>0.5937052932761088</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.004636041953877319</v>
+        <v>-0.01449256407401514</v>
       </c>
     </row>
     <row r="86">
@@ -1130,7 +1130,7 @@
         <v>0.6008583690987125</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0005788227564837846</v>
+        <v>-0.001488945163652921</v>
       </c>
     </row>
     <row r="87">
@@ -1138,7 +1138,7 @@
         <v>0.6080114449213162</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0198877647593858</v>
+        <v>0.006613908504760037</v>
       </c>
     </row>
     <row r="88">
@@ -1146,7 +1146,7 @@
         <v>0.6151645207439199</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01452215873218947</v>
+        <v>-0.00866280873463331</v>
       </c>
     </row>
     <row r="89">
@@ -1154,7 +1154,7 @@
         <v>0.6223175965665236</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002099108794181728</v>
+        <v>-0.0006617782393999811</v>
       </c>
     </row>
     <row r="90">
@@ -1162,7 +1162,7 @@
         <v>0.6294706723891274</v>
       </c>
       <c r="B90" t="n">
-        <v>0.004035843448587926</v>
+        <v>-0.00807041716282164</v>
       </c>
     </row>
     <row r="91">
@@ -1170,7 +1170,7 @@
         <v>0.6366237482117311</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.00813678512783639</v>
+        <v>-0.005686659567414851</v>
       </c>
     </row>
     <row r="92">
@@ -1178,7 +1178,7 @@
         <v>0.6437768240343348</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002799112766823004</v>
+        <v>0.02416315932409767</v>
       </c>
     </row>
     <row r="93">
@@ -1186,7 +1186,7 @@
         <v>0.6509298998569385</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001400761244358982</v>
+        <v>-0.001872200753112463</v>
       </c>
     </row>
     <row r="94">
@@ -1194,7 +1194,7 @@
         <v>0.6580829756795422</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.00126270707961578</v>
+        <v>0.01123408498008993</v>
       </c>
     </row>
     <row r="95">
@@ -1202,7 +1202,7 @@
         <v>0.6652360515021459</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005455018280013986</v>
+        <v>0.01068550816131025</v>
       </c>
     </row>
     <row r="96">
@@ -1210,7 +1210,7 @@
         <v>0.6723891273247496</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.009035861014731557</v>
+        <v>-0.002363740262338985</v>
       </c>
     </row>
     <row r="97">
@@ -1218,7 +1218,7 @@
         <v>0.6795422031473534</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.0003231886371630484</v>
+        <v>0.003773236243332212</v>
       </c>
     </row>
     <row r="98">
@@ -1226,7 +1226,7 @@
         <v>0.6866952789699571</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003552613291372618</v>
+        <v>0.003938882041241758</v>
       </c>
     </row>
     <row r="99">
@@ -1234,7 +1234,7 @@
         <v>0.6938483547925608</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.01548322762070792</v>
+        <v>0.009092941052884615</v>
       </c>
     </row>
     <row r="100">
@@ -1242,7 +1242,7 @@
         <v>0.7010014306151645</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.0184246757238758</v>
+        <v>0.001419882879548669</v>
       </c>
     </row>
     <row r="101">
@@ -1250,7 +1250,7 @@
         <v>0.7081545064377682</v>
       </c>
       <c r="B101" t="n">
-        <v>0.007853461801004002</v>
+        <v>0.001036935185973273</v>
       </c>
     </row>
     <row r="102">
@@ -1258,7 +1258,7 @@
         <v>0.7153075822603719</v>
       </c>
       <c r="B102" t="n">
-        <v>0.006458309190612813</v>
+        <v>0.0006452402278459086</v>
       </c>
     </row>
     <row r="103">
@@ -1266,7 +1266,7 @@
         <v>0.7224606580829757</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01652119822086499</v>
+        <v>0.002058644958660747</v>
       </c>
     </row>
     <row r="104">
@@ -1274,7 +1274,7 @@
         <v>0.7296137339055794</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.00367559009914111</v>
+        <v>0.005069899278618463</v>
       </c>
     </row>
     <row r="105">
@@ -1282,7 +1282,7 @@
         <v>0.7367668097281831</v>
       </c>
       <c r="B105" t="n">
-        <v>0.00212609943414317</v>
+        <v>-0.001584747932102093</v>
       </c>
     </row>
     <row r="106">
@@ -1290,7 +1290,7 @@
         <v>0.7439198855507868</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.01081855287595319</v>
+        <v>0.00564870208867041</v>
       </c>
     </row>
     <row r="107">
@@ -1298,7 +1298,7 @@
         <v>0.7510729613733905</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01290719684621596</v>
+        <v>-0.006033611531009207</v>
       </c>
     </row>
     <row r="108">
@@ -1306,7 +1306,7 @@
         <v>0.7582260371959942</v>
       </c>
       <c r="B108" t="n">
-        <v>0.001946555246731931</v>
+        <v>-0.02382089916566719</v>
       </c>
     </row>
     <row r="109">
@@ -1314,7 +1314,7 @@
         <v>0.765379113018598</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01516773598472186</v>
+        <v>-0.003253919552381565</v>
       </c>
     </row>
     <row r="110">
@@ -1322,7 +1322,7 @@
         <v>0.7725321888412017</v>
       </c>
       <c r="B110" t="n">
-        <v>0.004128877417335872</v>
+        <v>0.009038632399186243</v>
       </c>
     </row>
     <row r="111">
@@ -1330,7 +1330,7 @@
         <v>0.7796852646638054</v>
       </c>
       <c r="B111" t="n">
-        <v>0.008172015579388573</v>
+        <v>0.01631258882231139</v>
       </c>
     </row>
     <row r="112">
@@ -1338,7 +1338,7 @@
         <v>0.7868383404864091</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0002593687300168599</v>
+        <v>-0.00669638579335645</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +1346,7 @@
         <v>0.7939914163090128</v>
       </c>
       <c r="B113" t="n">
-        <v>0.009606943992369584</v>
+        <v>0.0004932200167629641</v>
       </c>
     </row>
     <row r="114">
@@ -1354,7 +1354,7 @@
         <v>0.8011444921316166</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.01097326337030621</v>
+        <v>0.004549709245256785</v>
       </c>
     </row>
     <row r="115">
@@ -1362,7 +1362,7 @@
         <v>0.8082975679542204</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.006271709518199907</v>
+        <v>0.0001604961198902148</v>
       </c>
     </row>
     <row r="116">
@@ -1370,7 +1370,7 @@
         <v>0.8154506437768241</v>
       </c>
       <c r="B116" t="n">
-        <v>0.002775097623348772</v>
+        <v>-0.005935919812934136</v>
       </c>
     </row>
     <row r="117">
@@ -1378,7 +1378,7 @@
         <v>0.8226037195994278</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.01465934359734229</v>
+        <v>-0.001092089490085337</v>
       </c>
     </row>
     <row r="118">
@@ -1386,7 +1386,7 @@
         <v>0.8297567954220315</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001560188955998772</v>
+        <v>-0.008779107278854087</v>
       </c>
     </row>
     <row r="119">
@@ -1394,7 +1394,7 @@
         <v>0.8369098712446352</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00694074304960774</v>
+        <v>0.002871172949650365</v>
       </c>
     </row>
     <row r="120">
@@ -1402,7 +1402,7 @@
         <v>0.8440629470672389</v>
       </c>
       <c r="B120" t="n">
-        <v>0.009756787981656107</v>
+        <v>0.02186460207606944</v>
       </c>
     </row>
     <row r="121">
@@ -1410,7 +1410,7 @@
         <v>0.8512160228898427</v>
       </c>
       <c r="B121" t="n">
-        <v>0.006273252715268474</v>
+        <v>0.01195618015343227</v>
       </c>
     </row>
     <row r="122">
@@ -1418,7 +1418,7 @@
         <v>0.8583690987124464</v>
       </c>
       <c r="B122" t="n">
-        <v>0.002243834180697219</v>
+        <v>-0.01121440859435546</v>
       </c>
     </row>
     <row r="123">
@@ -1426,7 +1426,7 @@
         <v>0.8655221745350501</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.0180393081807037</v>
+        <v>0.006515777689579464</v>
       </c>
     </row>
     <row r="124">
@@ -1434,7 +1434,7 @@
         <v>0.8726752503576538</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01025875722925542</v>
+        <v>-0.01472759845440431</v>
       </c>
     </row>
     <row r="125">
@@ -1442,7 +1442,7 @@
         <v>0.8798283261802575</v>
       </c>
       <c r="B125" t="n">
-        <v>0.004774317244204822</v>
+        <v>-0.009020490571389103</v>
       </c>
     </row>
     <row r="126">
@@ -1450,7 +1450,7 @@
         <v>0.8869814020028612</v>
       </c>
       <c r="B126" t="n">
-        <v>0.002728483551352519</v>
+        <v>-0.01135091124563717</v>
       </c>
     </row>
     <row r="127">
@@ -1458,7 +1458,7 @@
         <v>0.894134477825465</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.01733368560791226</v>
+        <v>-0.01674724149906719</v>
       </c>
     </row>
     <row r="128">
@@ -1466,7 +1466,7 @@
         <v>0.9012875536480687</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01037692676528323</v>
+        <v>0.003824523447788007</v>
       </c>
     </row>
     <row r="129">
@@ -1474,7 +1474,7 @@
         <v>0.9084406294706724</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.00364122718138844</v>
+        <v>-0.01762614759080993</v>
       </c>
     </row>
     <row r="130">
@@ -1482,7 +1482,7 @@
         <v>0.9155937052932761</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001774134141631687</v>
+        <v>0.01156179633491542</v>
       </c>
     </row>
     <row r="131">
@@ -1490,7 +1490,7 @@
         <v>0.9227467811158798</v>
       </c>
       <c r="B131" t="n">
-        <v>0.002063158463983005</v>
+        <v>0.009144898816606852</v>
       </c>
     </row>
     <row r="132">
@@ -1498,7 +1498,7 @@
         <v>0.9298998569384835</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.001516609026654371</v>
+        <v>0.006156036055816614</v>
       </c>
     </row>
     <row r="133">
@@ -1506,7 +1506,7 @@
         <v>0.9370529327610873</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01120188397748433</v>
+        <v>-0.001963415085135539</v>
       </c>
     </row>
     <row r="134">
@@ -1514,7 +1514,7 @@
         <v>0.944206008583691</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001392672128319073</v>
+        <v>-0.003745690547756029</v>
       </c>
     </row>
     <row r="135">
@@ -1522,7 +1522,7 @@
         <v>0.9513590844062947</v>
       </c>
       <c r="B135" t="n">
-        <v>0.005968263071212176</v>
+        <v>-0.01170510034691678</v>
       </c>
     </row>
     <row r="136">
@@ -1530,7 +1530,7 @@
         <v>0.9585121602288984</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007708644828373016</v>
+        <v>0.01353907928742404</v>
       </c>
     </row>
     <row r="137">
@@ -1538,7 +1538,7 @@
         <v>0.9656652360515021</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01499462724215312</v>
+        <v>-0.007550327747775502</v>
       </c>
     </row>
     <row r="138">
@@ -1546,7 +1546,7 @@
         <v>0.9728183118741058</v>
       </c>
       <c r="B138" t="n">
-        <v>0.00847637390801499</v>
+        <v>-0.002419050810972313</v>
       </c>
     </row>
     <row r="139">
@@ -1554,7 +1554,7 @@
         <v>0.9799713876967096</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.001429094416888453</v>
+        <v>-0.002176253961432479</v>
       </c>
     </row>
     <row r="140">
@@ -1562,7 +1562,7 @@
         <v>0.9871244635193133</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.004631200922572951</v>
+        <v>0.0062703974123817</v>
       </c>
     </row>
     <row r="141">
@@ -1570,7 +1570,7 @@
         <v>0.994277539341917</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.0138390338043299</v>
+        <v>-0.0003660830839885043</v>
       </c>
     </row>
     <row r="142">
@@ -1578,7 +1578,7 @@
         <v>1.001430615164521</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01269763144852731</v>
+        <v>-0.003700660662554553</v>
       </c>
     </row>
     <row r="143">
@@ -1586,7 +1586,7 @@
         <v>1.008583690987124</v>
       </c>
       <c r="B143" t="n">
-        <v>0.06170713228242124</v>
+        <v>0.01660693168945482</v>
       </c>
     </row>
     <row r="144">
@@ -1594,7 +1594,7 @@
         <v>1.015736766809728</v>
       </c>
       <c r="B144" t="n">
-        <v>0.07538245935509121</v>
+        <v>0.07808527304266544</v>
       </c>
     </row>
     <row r="145">
@@ -1602,7 +1602,7 @@
         <v>1.022889842632332</v>
       </c>
       <c r="B145" t="n">
-        <v>0.08795093977778022</v>
+        <v>0.09913852631818076</v>
       </c>
     </row>
     <row r="146">
@@ -1610,7 +1610,7 @@
         <v>1.030042918454936</v>
       </c>
       <c r="B146" t="n">
-        <v>0.09748398379460162</v>
+        <v>0.102048315241432</v>
       </c>
     </row>
     <row r="147">
@@ -1618,7 +1618,7 @@
         <v>1.037195994277539</v>
       </c>
       <c r="B147" t="n">
-        <v>0.08092640069505239</v>
+        <v>0.06211103268861105</v>
       </c>
     </row>
     <row r="148">
@@ -1626,7 +1626,7 @@
         <v>1.044349070100143</v>
       </c>
       <c r="B148" t="n">
-        <v>0.06439169833453222</v>
+        <v>0.05399793457713637</v>
       </c>
     </row>
     <row r="149">
@@ -1634,7 +1634,7 @@
         <v>1.051502145922747</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.01222471748532175</v>
+        <v>-0.007708530558556411</v>
       </c>
     </row>
     <row r="150">
@@ -1642,7 +1642,7 @@
         <v>1.05865522174535</v>
       </c>
       <c r="B150" t="n">
-        <v>0.009936328664812307</v>
+        <v>0.006425454796822576</v>
       </c>
     </row>
     <row r="151">
@@ -1650,7 +1650,7 @@
         <v>1.065808297567954</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.0003987075370441592</v>
+        <v>0.006659617304423548</v>
       </c>
     </row>
     <row r="152">
@@ -1658,7 +1658,7 @@
         <v>1.072961373390558</v>
       </c>
       <c r="B152" t="n">
-        <v>0.003415648846084103</v>
+        <v>0.01264366124415373</v>
       </c>
     </row>
     <row r="153">
@@ -1666,7 +1666,7 @@
         <v>1.080114449213162</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01375992975139254</v>
+        <v>0.008084218583594139</v>
       </c>
     </row>
     <row r="154">
@@ -1674,7 +1674,7 @@
         <v>1.087267525035765</v>
       </c>
       <c r="B154" t="n">
-        <v>0.01037915789149219</v>
+        <v>0.008049361092602327</v>
       </c>
     </row>
     <row r="155">
@@ -1682,7 +1682,7 @@
         <v>1.094420600858369</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.007409269361490885</v>
+        <v>0.004397100599936627</v>
       </c>
     </row>
     <row r="156">
@@ -1690,7 +1690,7 @@
         <v>1.101573676680973</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.007699363000134449</v>
+        <v>-0.001334506564175909</v>
       </c>
     </row>
     <row r="157">
@@ -1698,7 +1698,7 @@
         <v>1.108726752503576</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.0023542927989211</v>
+        <v>-0.001766849496065869</v>
       </c>
     </row>
     <row r="158">
@@ -1706,7 +1706,7 @@
         <v>1.11587982832618</v>
       </c>
       <c r="B158" t="n">
-        <v>0.01364495981948969</v>
+        <v>-0.01168777261686244</v>
       </c>
     </row>
     <row r="159">
@@ -1714,7 +1714,7 @@
         <v>1.123032904148784</v>
       </c>
       <c r="B159" t="n">
-        <v>0.006168945614561997</v>
+        <v>-0.01248342816597009</v>
       </c>
     </row>
     <row r="160">
@@ -1722,7 +1722,7 @@
         <v>1.130185979971388</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0148297716486554</v>
+        <v>-0.006710448817423972</v>
       </c>
     </row>
     <row r="161">
@@ -1730,7 +1730,7 @@
         <v>1.137339055793991</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.007490100925927781</v>
+        <v>-0.02425771130585782</v>
       </c>
     </row>
     <row r="162">
@@ -1738,7 +1738,7 @@
         <v>1.144492131616595</v>
       </c>
       <c r="B162" t="n">
-        <v>0.006729757197789399</v>
+        <v>-0.007297659402759459</v>
       </c>
     </row>
     <row r="163">
@@ -1746,7 +1746,7 @@
         <v>1.151645207439199</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02072555141369118</v>
+        <v>0.004426580636559705</v>
       </c>
     </row>
     <row r="164">
@@ -1754,7 +1754,7 @@
         <v>1.158798283261803</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.003821709704511744</v>
+        <v>0.003511209799468843</v>
       </c>
     </row>
     <row r="165">
@@ -1762,7 +1762,7 @@
         <v>1.165951359084406</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.01841636628633974</v>
+        <v>-0.001225611460323884</v>
       </c>
     </row>
     <row r="166">
@@ -1770,7 +1770,7 @@
         <v>1.17310443490701</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.008976874727634539</v>
+        <v>0.007403190212638039</v>
       </c>
     </row>
     <row r="167">
@@ -1778,7 +1778,7 @@
         <v>1.180257510729614</v>
       </c>
       <c r="B167" t="n">
-        <v>0.006915563222209572</v>
+        <v>-0.01341629850398668</v>
       </c>
     </row>
     <row r="168">
@@ -1786,7 +1786,7 @@
         <v>1.187410586552218</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.005733922889221739</v>
+        <v>0.001999875268265654</v>
       </c>
     </row>
     <row r="169">
@@ -1794,7 +1794,7 @@
         <v>1.194563662374821</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.009582797937441391</v>
+        <v>-0.0002638538501556733</v>
       </c>
     </row>
     <row r="170">
@@ -1802,7 +1802,7 @@
         <v>1.201716738197425</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.01279714051990354</v>
+        <v>0.00191980026089378</v>
       </c>
     </row>
     <row r="171">
@@ -1810,7 +1810,7 @@
         <v>1.208869814020029</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.02381850764919196</v>
+        <v>-0.01238589167980495</v>
       </c>
     </row>
     <row r="172">
@@ -1818,7 +1818,7 @@
         <v>1.216022889842632</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4782892452753877</v>
+        <v>0.4773221689409464</v>
       </c>
     </row>
     <row r="173">
@@ -1826,7 +1826,7 @@
         <v>1.223175965665236</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5554513330104257</v>
+        <v>0.5322186521074213</v>
       </c>
     </row>
     <row r="174">
@@ -1834,7 +1834,7 @@
         <v>1.23032904148784</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.01768054208864511</v>
+        <v>-0.01895592605147361</v>
       </c>
     </row>
     <row r="175">
@@ -1842,7 +1842,7 @@
         <v>1.237482117310444</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1851858945771787</v>
+        <v>-0.1784397007729231</v>
       </c>
     </row>
     <row r="176">
@@ -1850,7 +1850,7 @@
         <v>1.244635193133047</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1631794087359022</v>
+        <v>-0.1600598938169442</v>
       </c>
     </row>
     <row r="177">
@@ -1858,7 +1858,7 @@
         <v>1.251788268955651</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03052830394149008</v>
+        <v>0.01217205815149749</v>
       </c>
     </row>
     <row r="178">
@@ -1866,7 +1866,7 @@
         <v>1.258941344778255</v>
       </c>
       <c r="B178" t="n">
-        <v>0.08165314936789438</v>
+        <v>0.08108300669785483</v>
       </c>
     </row>
     <row r="179">
@@ -1874,7 +1874,7 @@
         <v>1.266094420600858</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1301763699320233</v>
+        <v>0.1177379859382539</v>
       </c>
     </row>
     <row r="180">
@@ -1882,7 +1882,7 @@
         <v>1.273247496423462</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1605883359656476</v>
+        <v>0.1559234004002531</v>
       </c>
     </row>
     <row r="181">
@@ -1890,7 +1890,7 @@
         <v>1.280400572246066</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2004518945594428</v>
+        <v>0.2001854604220361</v>
       </c>
     </row>
     <row r="182">
@@ -1898,7 +1898,7 @@
         <v>1.28755364806867</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2029191517918038</v>
+        <v>0.2002888393198662</v>
       </c>
     </row>
     <row r="183">
@@ -1906,7 +1906,7 @@
         <v>1.294706723891273</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1837291490454928</v>
+        <v>0.1776066237476872</v>
       </c>
     </row>
     <row r="184">
@@ -1914,7 +1914,7 @@
         <v>1.301859799713877</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1250991116542148</v>
+        <v>0.1396805634792133</v>
       </c>
     </row>
     <row r="185">
@@ -1922,7 +1922,7 @@
         <v>1.309012875536481</v>
       </c>
       <c r="B185" t="n">
-        <v>0.09311301302870013</v>
+        <v>0.0897429917026587</v>
       </c>
     </row>
     <row r="186">
@@ -1930,7 +1930,7 @@
         <v>1.316165951359084</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02253979212626632</v>
+        <v>0.03563246345383224</v>
       </c>
     </row>
     <row r="187">
@@ -1938,7 +1938,7 @@
         <v>1.323319027181688</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0006425035294679418</v>
+        <v>-0.006975498541126601</v>
       </c>
     </row>
     <row r="188">
@@ -1946,7 +1946,7 @@
         <v>1.330472103004292</v>
       </c>
       <c r="B188" t="n">
-        <v>0.01117174122289568</v>
+        <v>0.002746566745293064</v>
       </c>
     </row>
     <row r="189">
@@ -1954,7 +1954,7 @@
         <v>1.337625178826896</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.006511747425122274</v>
+        <v>0.0001359624479816834</v>
       </c>
     </row>
     <row r="190">
@@ -1962,7 +1962,7 @@
         <v>1.344778254649499</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.002670579157099205</v>
+        <v>-0.004864964247900722</v>
       </c>
     </row>
     <row r="191">
@@ -1970,7 +1970,7 @@
         <v>1.351931330472103</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.004907256856746332</v>
+        <v>-0.002938144607380946</v>
       </c>
     </row>
     <row r="192">
@@ -1978,7 +1978,7 @@
         <v>1.359084406294707</v>
       </c>
       <c r="B192" t="n">
-        <v>0.00358223723043387</v>
+        <v>0.0001729926576698456</v>
       </c>
     </row>
     <row r="193">
@@ -1986,7 +1986,7 @@
         <v>1.36623748211731</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01003639667221553</v>
+        <v>0.0144690541049121</v>
       </c>
     </row>
     <row r="194">
@@ -1994,7 +1994,7 @@
         <v>1.373390557939914</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.003752044963217615</v>
+        <v>0.005427097376767004</v>
       </c>
     </row>
     <row r="195">
@@ -2002,7 +2002,7 @@
         <v>1.380543633762518</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.006709879434558036</v>
+        <v>-0.003186888254159591</v>
       </c>
     </row>
     <row r="196">
@@ -2010,7 +2010,7 @@
         <v>1.387696709585122</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.01878988369133967</v>
+        <v>0.004500522188060275</v>
       </c>
     </row>
     <row r="197">
@@ -2018,7 +2018,7 @@
         <v>1.394849785407725</v>
       </c>
       <c r="B197" t="n">
-        <v>0.008052892332679248</v>
+        <v>0.006465442440440622</v>
       </c>
     </row>
     <row r="198">
@@ -2026,7 +2026,7 @@
         <v>1.402002861230329</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.005740794678438852</v>
+        <v>0.01001185797002421</v>
       </c>
     </row>
     <row r="199">
@@ -2034,7 +2034,7 @@
         <v>1.409155937052933</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.01816661285479668</v>
+        <v>0.007763039448797728</v>
       </c>
     </row>
     <row r="200">
@@ -2042,7 +2042,7 @@
         <v>1.416309012875536</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01808422921705879</v>
+        <v>0.0140624870005179</v>
       </c>
     </row>
     <row r="201">
@@ -2050,7 +2050,7 @@
         <v>1.42346208869814</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.0006935988435415399</v>
+        <v>-0.001065854717236687</v>
       </c>
     </row>
     <row r="202">
@@ -2058,7 +2058,7 @@
         <v>1.430615164520744</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.006249318433225719</v>
+        <v>-0.007239781666539097</v>
       </c>
     </row>
     <row r="203">
@@ -2066,7 +2066,7 @@
         <v>1.437768240343348</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.01535883415406351</v>
+        <v>0.0008213209390543693</v>
       </c>
     </row>
     <row r="204">
@@ -2074,7 +2074,7 @@
         <v>1.444921316165951</v>
       </c>
       <c r="B204" t="n">
-        <v>0.003118142256847355</v>
+        <v>0.01582634231926048</v>
       </c>
     </row>
     <row r="205">
@@ -2082,7 +2082,7 @@
         <v>1.452074391988555</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.008105401554007739</v>
+        <v>-0.006589383687668659</v>
       </c>
     </row>
     <row r="206">
@@ -2090,7 +2090,7 @@
         <v>1.459227467811159</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.01061771095069762</v>
+        <v>-0.01214796266843197</v>
       </c>
     </row>
     <row r="207">
@@ -2098,7 +2098,7 @@
         <v>1.466380543633762</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.002614593000483762</v>
+        <v>-0.01182138555788685</v>
       </c>
     </row>
     <row r="208">
@@ -2106,7 +2106,7 @@
         <v>1.473533619456366</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.01167012705848831</v>
+        <v>-0.01450154573956994</v>
       </c>
     </row>
     <row r="209">
@@ -2114,7 +2114,7 @@
         <v>1.48068669527897</v>
       </c>
       <c r="B209" t="n">
-        <v>0.009440577554190767</v>
+        <v>-0.009799051789883918</v>
       </c>
     </row>
     <row r="210">
@@ -2122,7 +2122,7 @@
         <v>1.487839771101574</v>
       </c>
       <c r="B210" t="n">
-        <v>0.003901631556025882</v>
+        <v>-0.01068596776022429</v>
       </c>
     </row>
     <row r="211">
@@ -2130,7 +2130,7 @@
         <v>1.494992846924177</v>
       </c>
       <c r="B211" t="n">
-        <v>0.01158899479495776</v>
+        <v>0.007767128535016693</v>
       </c>
     </row>
     <row r="212">
@@ -2138,7 +2138,7 @@
         <v>1.502145922746781</v>
       </c>
       <c r="B212" t="n">
-        <v>0.005648426768265964</v>
+        <v>-0.00392427470256802</v>
       </c>
     </row>
     <row r="213">
@@ -2146,7 +2146,7 @@
         <v>1.509298998569385</v>
       </c>
       <c r="B213" t="n">
-        <v>0.01343667361119708</v>
+        <v>0.006699212989117948</v>
       </c>
     </row>
     <row r="214">
@@ -2154,7 +2154,7 @@
         <v>1.516452074391988</v>
       </c>
       <c r="B214" t="n">
-        <v>0.007037483785710784</v>
+        <v>0.007259099919020829</v>
       </c>
     </row>
     <row r="215">
@@ -2162,7 +2162,7 @@
         <v>1.523605150214592</v>
       </c>
       <c r="B215" t="n">
-        <v>0.006476934866792448</v>
+        <v>0.01101430759800777</v>
       </c>
     </row>
     <row r="216">
@@ -2170,7 +2170,7 @@
         <v>1.530758226037196</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.006679025734545548</v>
+        <v>0.003205791208129261</v>
       </c>
     </row>
     <row r="217">
@@ -2178,7 +2178,7 @@
         <v>1.5379113018598</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0008580995859680033</v>
+        <v>-0.007510717924121829</v>
       </c>
     </row>
     <row r="218">
@@ -2186,7 +2186,7 @@
         <v>1.545064377682403</v>
       </c>
       <c r="B218" t="n">
-        <v>0.002487586245006766</v>
+        <v>-0.009375460950085747</v>
       </c>
     </row>
     <row r="219">
@@ -2194,7 +2194,7 @@
         <v>1.552217453505007</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.001438519686757548</v>
+        <v>0.002229593383588151</v>
       </c>
     </row>
     <row r="220">
@@ -2202,7 +2202,7 @@
         <v>1.559370529327611</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.0008535964919446573</v>
+        <v>0.008975343367836971</v>
       </c>
     </row>
     <row r="221">
@@ -2210,7 +2210,7 @@
         <v>1.566523605150214</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.0008395405040699252</v>
+        <v>-0.02609870891004499</v>
       </c>
     </row>
     <row r="222">
@@ -2218,7 +2218,7 @@
         <v>1.573676680972818</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.0004610784036748831</v>
+        <v>-0.003367667214398997</v>
       </c>
     </row>
     <row r="223">
@@ -2226,7 +2226,7 @@
         <v>1.580829756795422</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.004706547271366245</v>
+        <v>-0.01373174659285096</v>
       </c>
     </row>
     <row r="224">
@@ -2234,7 +2234,7 @@
         <v>1.587982832618026</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.001403112020578901</v>
+        <v>-0.005695706522210596</v>
       </c>
     </row>
     <row r="225">
@@ -2242,7 +2242,7 @@
         <v>1.595135908440629</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.004636041953877319</v>
+        <v>-0.01449256407401514</v>
       </c>
     </row>
     <row r="226">
@@ -2250,7 +2250,7 @@
         <v>1.602288984263233</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.0005788227564837846</v>
+        <v>-0.001488945163652921</v>
       </c>
     </row>
     <row r="227">
@@ -2258,7 +2258,7 @@
         <v>1.609442060085837</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0198877647593858</v>
+        <v>0.006613908504760037</v>
       </c>
     </row>
     <row r="228">
@@ -2266,7 +2266,7 @@
         <v>1.616595135908441</v>
       </c>
       <c r="B228" t="n">
-        <v>0.01452215873218947</v>
+        <v>-0.00866280873463331</v>
       </c>
     </row>
     <row r="229">
@@ -2274,7 +2274,7 @@
         <v>1.623748211731044</v>
       </c>
       <c r="B229" t="n">
-        <v>0.002099108794181728</v>
+        <v>-0.0006617782393999811</v>
       </c>
     </row>
     <row r="230">
@@ -2282,7 +2282,7 @@
         <v>1.630901287553648</v>
       </c>
       <c r="B230" t="n">
-        <v>0.004035843448587926</v>
+        <v>-0.00807041716282164</v>
       </c>
     </row>
     <row r="231">
@@ -2290,7 +2290,7 @@
         <v>1.638054363376252</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.00813678512783639</v>
+        <v>-0.005686659567414851</v>
       </c>
     </row>
     <row r="232">
@@ -2298,7 +2298,7 @@
         <v>1.645207439198856</v>
       </c>
       <c r="B232" t="n">
-        <v>0.002799112766823004</v>
+        <v>0.02416315932409767</v>
       </c>
     </row>
     <row r="233">
@@ -2306,7 +2306,7 @@
         <v>1.652360515021459</v>
       </c>
       <c r="B233" t="n">
-        <v>0.001400761244358982</v>
+        <v>-0.001872200753112463</v>
       </c>
     </row>
     <row r="234">
@@ -2314,7 +2314,7 @@
         <v>1.659513590844063</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.00126270707961578</v>
+        <v>0.01123408498008993</v>
       </c>
     </row>
     <row r="235">
@@ -2322,7 +2322,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B235" t="n">
-        <v>0.005455018280013986</v>
+        <v>0.01068550816131025</v>
       </c>
     </row>
     <row r="236">
@@ -2330,7 +2330,7 @@
         <v>1.67381974248927</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.009035861014731557</v>
+        <v>-0.002363740262338985</v>
       </c>
     </row>
     <row r="237">
@@ -2338,7 +2338,7 @@
         <v>1.680972818311874</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.0003231886371630484</v>
+        <v>0.003773236243332212</v>
       </c>
     </row>
     <row r="238">
@@ -2346,7 +2346,7 @@
         <v>1.688125894134478</v>
       </c>
       <c r="B238" t="n">
-        <v>0.003552613291372618</v>
+        <v>0.003938882041241758</v>
       </c>
     </row>
     <row r="239">
@@ -2354,7 +2354,7 @@
         <v>1.695278969957082</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.01548322762070792</v>
+        <v>0.009092941052884615</v>
       </c>
     </row>
     <row r="240">
@@ -2362,7 +2362,7 @@
         <v>1.702432045779685</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.0184246757238758</v>
+        <v>0.001419882879548669</v>
       </c>
     </row>
     <row r="241">
@@ -2370,7 +2370,7 @@
         <v>1.709585121602289</v>
       </c>
       <c r="B241" t="n">
-        <v>0.007853461801004002</v>
+        <v>0.001036935185973273</v>
       </c>
     </row>
     <row r="242">
@@ -2378,7 +2378,7 @@
         <v>1.716738197424893</v>
       </c>
       <c r="B242" t="n">
-        <v>0.006458309190612813</v>
+        <v>0.0006452402278459086</v>
       </c>
     </row>
     <row r="243">
@@ -2386,7 +2386,7 @@
         <v>1.723891273247496</v>
       </c>
       <c r="B243" t="n">
-        <v>0.01652119822086499</v>
+        <v>0.002058644958660747</v>
       </c>
     </row>
     <row r="244">
@@ -2394,7 +2394,7 @@
         <v>1.7310443490701</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.00367559009914111</v>
+        <v>0.005069899278618463</v>
       </c>
     </row>
     <row r="245">
@@ -2402,7 +2402,7 @@
         <v>1.738197424892704</v>
       </c>
       <c r="B245" t="n">
-        <v>0.00212609943414317</v>
+        <v>-0.001584747932102093</v>
       </c>
     </row>
     <row r="246">
@@ -2410,7 +2410,7 @@
         <v>1.745350500715308</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.01081855287595319</v>
+        <v>0.00564870208867041</v>
       </c>
     </row>
     <row r="247">
@@ -2418,7 +2418,7 @@
         <v>1.752503576537911</v>
       </c>
       <c r="B247" t="n">
-        <v>0.01290719684621596</v>
+        <v>-0.006033611531009207</v>
       </c>
     </row>
     <row r="248">
@@ -2426,7 +2426,7 @@
         <v>1.759656652360515</v>
       </c>
       <c r="B248" t="n">
-        <v>0.001946555246731931</v>
+        <v>-0.02382089916566719</v>
       </c>
     </row>
     <row r="249">
@@ -2434,7 +2434,7 @@
         <v>1.766809728183119</v>
       </c>
       <c r="B249" t="n">
-        <v>0.01516773598472186</v>
+        <v>-0.003253919552381565</v>
       </c>
     </row>
     <row r="250">
@@ -2442,7 +2442,7 @@
         <v>1.773962804005722</v>
       </c>
       <c r="B250" t="n">
-        <v>0.004128877417335872</v>
+        <v>0.009038632399186243</v>
       </c>
     </row>
     <row r="251">
@@ -2450,7 +2450,7 @@
         <v>1.781115879828326</v>
       </c>
       <c r="B251" t="n">
-        <v>0.008172015579388573</v>
+        <v>0.01631258882231139</v>
       </c>
     </row>
     <row r="252">
@@ -2458,7 +2458,7 @@
         <v>1.78826895565093</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0002593687300168599</v>
+        <v>-0.00669638579335645</v>
       </c>
     </row>
     <row r="253">
@@ -2466,7 +2466,7 @@
         <v>1.795422031473534</v>
       </c>
       <c r="B253" t="n">
-        <v>0.009606943992369584</v>
+        <v>0.0004932200167629641</v>
       </c>
     </row>
     <row r="254">
@@ -2474,7 +2474,7 @@
         <v>1.802575107296137</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.01097326337030621</v>
+        <v>0.004549709245256785</v>
       </c>
     </row>
     <row r="255">
@@ -2482,7 +2482,7 @@
         <v>1.809728183118741</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.006271709518199907</v>
+        <v>0.0001604961198902148</v>
       </c>
     </row>
     <row r="256">
@@ -2490,7 +2490,7 @@
         <v>1.816881258941345</v>
       </c>
       <c r="B256" t="n">
-        <v>0.002775097623348772</v>
+        <v>-0.005935919812934136</v>
       </c>
     </row>
     <row r="257">
@@ -2498,7 +2498,7 @@
         <v>1.824034334763948</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.01465934359734229</v>
+        <v>-0.001092089490085337</v>
       </c>
     </row>
     <row r="258">
@@ -2506,7 +2506,7 @@
         <v>1.831187410586552</v>
       </c>
       <c r="B258" t="n">
-        <v>0.001560188955998772</v>
+        <v>-0.008779107278854087</v>
       </c>
     </row>
     <row r="259">
@@ -2514,7 +2514,7 @@
         <v>1.838340486409156</v>
       </c>
       <c r="B259" t="n">
-        <v>0.00694074304960774</v>
+        <v>0.002871172949650365</v>
       </c>
     </row>
     <row r="260">
@@ -2522,7 +2522,7 @@
         <v>1.84549356223176</v>
       </c>
       <c r="B260" t="n">
-        <v>0.009756787981656107</v>
+        <v>0.02186460207606944</v>
       </c>
     </row>
     <row r="261">
@@ -2530,7 +2530,7 @@
         <v>1.852646638054363</v>
       </c>
       <c r="B261" t="n">
-        <v>0.006273252715268474</v>
+        <v>0.01195618015343227</v>
       </c>
     </row>
     <row r="262">
@@ -2538,7 +2538,7 @@
         <v>1.859799713876967</v>
       </c>
       <c r="B262" t="n">
-        <v>0.002243834180697219</v>
+        <v>-0.01121440859435546</v>
       </c>
     </row>
     <row r="263">
@@ -2546,7 +2546,7 @@
         <v>1.866952789699571</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.0180393081807037</v>
+        <v>0.006515777689579464</v>
       </c>
     </row>
     <row r="264">
@@ -2554,7 +2554,7 @@
         <v>1.874105865522175</v>
       </c>
       <c r="B264" t="n">
-        <v>0.01025875722925542</v>
+        <v>-0.01472759845440431</v>
       </c>
     </row>
     <row r="265">
@@ -2562,7 +2562,7 @@
         <v>1.881258941344778</v>
       </c>
       <c r="B265" t="n">
-        <v>0.004774317244204822</v>
+        <v>-0.009020490571389103</v>
       </c>
     </row>
     <row r="266">
@@ -2570,7 +2570,7 @@
         <v>1.888412017167382</v>
       </c>
       <c r="B266" t="n">
-        <v>0.002728483551352519</v>
+        <v>-0.01135091124563717</v>
       </c>
     </row>
     <row r="267">
@@ -2578,7 +2578,7 @@
         <v>1.895565092989986</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.01733368560791226</v>
+        <v>-0.01674724149906719</v>
       </c>
     </row>
     <row r="268">
@@ -2586,7 +2586,7 @@
         <v>1.902718168812589</v>
       </c>
       <c r="B268" t="n">
-        <v>0.01037692676528323</v>
+        <v>0.003824523447788007</v>
       </c>
     </row>
     <row r="269">
@@ -2594,7 +2594,7 @@
         <v>1.909871244635193</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.00364122718138844</v>
+        <v>-0.01762614759080993</v>
       </c>
     </row>
     <row r="270">
@@ -2602,7 +2602,7 @@
         <v>1.917024320457797</v>
       </c>
       <c r="B270" t="n">
-        <v>0.001774134141631687</v>
+        <v>0.01156179633491542</v>
       </c>
     </row>
     <row r="271">
@@ -2610,7 +2610,7 @@
         <v>1.924177396280401</v>
       </c>
       <c r="B271" t="n">
-        <v>0.002063158463983005</v>
+        <v>0.009144898816606852</v>
       </c>
     </row>
     <row r="272">
@@ -2618,7 +2618,7 @@
         <v>1.931330472103004</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.001516609026654371</v>
+        <v>0.006156036055816614</v>
       </c>
     </row>
     <row r="273">
@@ -2626,7 +2626,7 @@
         <v>1.938483547925608</v>
       </c>
       <c r="B273" t="n">
-        <v>0.01120188397748433</v>
+        <v>-0.001963415085135539</v>
       </c>
     </row>
     <row r="274">
@@ -2634,7 +2634,7 @@
         <v>1.945636623748212</v>
       </c>
       <c r="B274" t="n">
-        <v>0.001392672128319073</v>
+        <v>-0.003745690547756029</v>
       </c>
     </row>
     <row r="275">
@@ -2642,7 +2642,7 @@
         <v>1.952789699570815</v>
       </c>
       <c r="B275" t="n">
-        <v>0.005968263071212176</v>
+        <v>-0.01170510034691678</v>
       </c>
     </row>
     <row r="276">
@@ -2650,7 +2650,7 @@
         <v>1.959942775393419</v>
       </c>
       <c r="B276" t="n">
-        <v>0.007708644828373016</v>
+        <v>0.01353907928742404</v>
       </c>
     </row>
     <row r="277">
@@ -2658,7 +2658,7 @@
         <v>1.967095851216023</v>
       </c>
       <c r="B277" t="n">
-        <v>0.01499462724215312</v>
+        <v>-0.007550327747775502</v>
       </c>
     </row>
     <row r="278">
@@ -2666,7 +2666,7 @@
         <v>1.974248927038627</v>
       </c>
       <c r="B278" t="n">
-        <v>0.00847637390801499</v>
+        <v>-0.002419050810972313</v>
       </c>
     </row>
     <row r="279">
@@ -2674,7 +2674,7 @@
         <v>1.98140200286123</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.001429094416888453</v>
+        <v>-0.002176253961432479</v>
       </c>
     </row>
     <row r="280">
@@ -2682,7 +2682,7 @@
         <v>1.988555078683834</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.004631200922572951</v>
+        <v>0.0062703974123817</v>
       </c>
     </row>
     <row r="281">
@@ -2690,7 +2690,7 @@
         <v>1.995708154506438</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.0138390338043299</v>
+        <v>-0.0003660830839885043</v>
       </c>
     </row>
     <row r="282">
@@ -2698,7 +2698,7 @@
         <v>2.002861230329041</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.01269763144852731</v>
+        <v>-0.003700660662554553</v>
       </c>
     </row>
     <row r="283">
@@ -2706,7 +2706,7 @@
         <v>2.010014306151645</v>
       </c>
       <c r="B283" t="n">
-        <v>0.06170713228242124</v>
+        <v>0.01660693168945482</v>
       </c>
     </row>
     <row r="284">
@@ -2714,7 +2714,7 @@
         <v>2.017167381974249</v>
       </c>
       <c r="B284" t="n">
-        <v>0.07538245935509121</v>
+        <v>0.07808527304266544</v>
       </c>
     </row>
     <row r="285">
@@ -2722,7 +2722,7 @@
         <v>2.024320457796853</v>
       </c>
       <c r="B285" t="n">
-        <v>0.08795093977778022</v>
+        <v>0.09913852631818076</v>
       </c>
     </row>
     <row r="286">
@@ -2730,7 +2730,7 @@
         <v>2.031473533619456</v>
       </c>
       <c r="B286" t="n">
-        <v>0.09748398379460162</v>
+        <v>0.102048315241432</v>
       </c>
     </row>
     <row r="287">
@@ -2738,7 +2738,7 @@
         <v>2.03862660944206</v>
       </c>
       <c r="B287" t="n">
-        <v>0.08092640069505239</v>
+        <v>0.06211103268861105</v>
       </c>
     </row>
     <row r="288">
@@ -2746,7 +2746,7 @@
         <v>2.045779685264664</v>
       </c>
       <c r="B288" t="n">
-        <v>0.06439169833453222</v>
+        <v>0.05399793457713637</v>
       </c>
     </row>
     <row r="289">
@@ -2754,7 +2754,7 @@
         <v>2.052932761087268</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.01222471748532175</v>
+        <v>-0.007708530558556411</v>
       </c>
     </row>
     <row r="290">
@@ -2762,7 +2762,7 @@
         <v>2.060085836909871</v>
       </c>
       <c r="B290" t="n">
-        <v>0.009936328664812307</v>
+        <v>0.006425454796822576</v>
       </c>
     </row>
     <row r="291">
@@ -2770,7 +2770,7 @@
         <v>2.067238912732475</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.0003987075370441592</v>
+        <v>0.006659617304423548</v>
       </c>
     </row>
     <row r="292">
@@ -2778,7 +2778,7 @@
         <v>2.074391988555079</v>
       </c>
       <c r="B292" t="n">
-        <v>0.003415648846084103</v>
+        <v>0.01264366124415373</v>
       </c>
     </row>
     <row r="293">
@@ -2786,7 +2786,7 @@
         <v>2.081545064377682</v>
       </c>
       <c r="B293" t="n">
-        <v>0.01375992975139254</v>
+        <v>0.008084218583594139</v>
       </c>
     </row>
     <row r="294">
@@ -2794,7 +2794,7 @@
         <v>2.088698140200286</v>
       </c>
       <c r="B294" t="n">
-        <v>0.01037915789149219</v>
+        <v>0.008049361092602327</v>
       </c>
     </row>
     <row r="295">
@@ -2802,7 +2802,7 @@
         <v>2.09585121602289</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.007409269361490885</v>
+        <v>0.004397100599936627</v>
       </c>
     </row>
     <row r="296">
@@ -2810,7 +2810,7 @@
         <v>2.103004291845493</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.007699363000134449</v>
+        <v>-0.001334506564175909</v>
       </c>
     </row>
     <row r="297">
@@ -2818,7 +2818,7 @@
         <v>2.110157367668097</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.0023542927989211</v>
+        <v>-0.001766849496065869</v>
       </c>
     </row>
     <row r="298">
@@ -2826,7 +2826,7 @@
         <v>2.117310443490701</v>
       </c>
       <c r="B298" t="n">
-        <v>0.01364495981948969</v>
+        <v>-0.01168777261686244</v>
       </c>
     </row>
     <row r="299">
@@ -2834,7 +2834,7 @@
         <v>2.124463519313305</v>
       </c>
       <c r="B299" t="n">
-        <v>0.006168945614561997</v>
+        <v>-0.01248342816597009</v>
       </c>
     </row>
     <row r="300">
@@ -2842,7 +2842,7 @@
         <v>2.131616595135908</v>
       </c>
       <c r="B300" t="n">
-        <v>0.0148297716486554</v>
+        <v>-0.006710448817423972</v>
       </c>
     </row>
     <row r="301">
@@ -2850,7 +2850,7 @@
         <v>2.138769670958512</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.007490100925927781</v>
+        <v>-0.02425771130585782</v>
       </c>
     </row>
     <row r="302">
@@ -2858,7 +2858,7 @@
         <v>2.145922746781116</v>
       </c>
       <c r="B302" t="n">
-        <v>0.006729757197789399</v>
+        <v>-0.007297659402759459</v>
       </c>
     </row>
     <row r="303">
@@ -2866,7 +2866,7 @@
         <v>2.15307582260372</v>
       </c>
       <c r="B303" t="n">
-        <v>0.02072555141369118</v>
+        <v>0.004426580636559705</v>
       </c>
     </row>
     <row r="304">
@@ -2874,7 +2874,7 @@
         <v>2.160228898426323</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.003821709704511744</v>
+        <v>0.003511209799468843</v>
       </c>
     </row>
     <row r="305">
@@ -2882,7 +2882,7 @@
         <v>2.167381974248927</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.01841636628633974</v>
+        <v>-0.001225611460323884</v>
       </c>
     </row>
     <row r="306">
@@ -2890,7 +2890,7 @@
         <v>2.174535050071531</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.008976874727634539</v>
+        <v>0.007403190212638039</v>
       </c>
     </row>
     <row r="307">
@@ -2898,7 +2898,7 @@
         <v>2.181688125894135</v>
       </c>
       <c r="B307" t="n">
-        <v>0.006915563222209572</v>
+        <v>-0.01341629850398668</v>
       </c>
     </row>
     <row r="308">
@@ -2906,7 +2906,7 @@
         <v>2.188841201716738</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.005733922889221739</v>
+        <v>0.001999875268265654</v>
       </c>
     </row>
     <row r="309">
@@ -2914,7 +2914,7 @@
         <v>2.195994277539342</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.009582797937441391</v>
+        <v>-0.0002638538501556733</v>
       </c>
     </row>
     <row r="310">
@@ -2922,7 +2922,7 @@
         <v>2.203147353361945</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.01279714051990354</v>
+        <v>0.00191980026089378</v>
       </c>
     </row>
     <row r="311">
@@ -2930,7 +2930,7 @@
         <v>2.210300429184549</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.02381850764919196</v>
+        <v>-0.01238589167980495</v>
       </c>
     </row>
     <row r="312">
@@ -2938,7 +2938,7 @@
         <v>2.217453505007153</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4782892452753877</v>
+        <v>0.4773221689409464</v>
       </c>
     </row>
     <row r="313">
@@ -2946,7 +2946,7 @@
         <v>2.224606580829757</v>
       </c>
       <c r="B313" t="n">
-        <v>0.5554513330104257</v>
+        <v>0.5322186521074213</v>
       </c>
     </row>
     <row r="314">
@@ -2954,7 +2954,7 @@
         <v>2.23175965665236</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.01768054208864511</v>
+        <v>-0.01895592605147361</v>
       </c>
     </row>
     <row r="315">
@@ -2962,7 +2962,7 @@
         <v>2.238912732474964</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.1851858945771787</v>
+        <v>-0.1784397007729231</v>
       </c>
     </row>
     <row r="316">
@@ -2970,7 +2970,7 @@
         <v>2.246065808297568</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.1631794087359022</v>
+        <v>-0.1600598938169442</v>
       </c>
     </row>
     <row r="317">
@@ -2978,7 +2978,7 @@
         <v>2.253218884120172</v>
       </c>
       <c r="B317" t="n">
-        <v>0.03052830394149008</v>
+        <v>0.01217205815149749</v>
       </c>
     </row>
     <row r="318">
@@ -2986,7 +2986,7 @@
         <v>2.260371959942775</v>
       </c>
       <c r="B318" t="n">
-        <v>0.08165314936789438</v>
+        <v>0.08108300669785483</v>
       </c>
     </row>
     <row r="319">
@@ -2994,7 +2994,7 @@
         <v>2.267525035765379</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1301763699320233</v>
+        <v>0.1177379859382539</v>
       </c>
     </row>
     <row r="320">
@@ -3002,7 +3002,7 @@
         <v>2.274678111587983</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1605883359656476</v>
+        <v>0.1559234004002531</v>
       </c>
     </row>
     <row r="321">
@@ -3010,7 +3010,7 @@
         <v>2.281831187410587</v>
       </c>
       <c r="B321" t="n">
-        <v>0.2004518945594428</v>
+        <v>0.2001854604220361</v>
       </c>
     </row>
     <row r="322">
@@ -3018,7 +3018,7 @@
         <v>2.28898426323319</v>
       </c>
       <c r="B322" t="n">
-        <v>0.2029191517918038</v>
+        <v>0.2002888393198662</v>
       </c>
     </row>
     <row r="323">
@@ -3026,7 +3026,7 @@
         <v>2.296137339055794</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1837291490454928</v>
+        <v>0.1776066237476872</v>
       </c>
     </row>
     <row r="324">
@@ -3034,7 +3034,7 @@
         <v>2.303290414878398</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1250991116542148</v>
+        <v>0.1396805634792133</v>
       </c>
     </row>
     <row r="325">
@@ -3042,7 +3042,7 @@
         <v>2.310443490701001</v>
       </c>
       <c r="B325" t="n">
-        <v>0.09311301302870013</v>
+        <v>0.0897429917026587</v>
       </c>
     </row>
     <row r="326">
@@ -3050,7 +3050,7 @@
         <v>2.317596566523605</v>
       </c>
       <c r="B326" t="n">
-        <v>0.02253979212626632</v>
+        <v>0.03563246345383224</v>
       </c>
     </row>
     <row r="327">
@@ -3058,7 +3058,7 @@
         <v>2.324749642346209</v>
       </c>
       <c r="B327" t="n">
-        <v>0.0006425035294679418</v>
+        <v>-0.006975498541126601</v>
       </c>
     </row>
     <row r="328">
@@ -3066,7 +3066,7 @@
         <v>2.331902718168813</v>
       </c>
       <c r="B328" t="n">
-        <v>0.01117174122289568</v>
+        <v>0.002746566745293064</v>
       </c>
     </row>
     <row r="329">
@@ -3074,7 +3074,7 @@
         <v>2.339055793991416</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.006511747425122274</v>
+        <v>0.0001359624479816834</v>
       </c>
     </row>
     <row r="330">
@@ -3082,7 +3082,7 @@
         <v>2.34620886981402</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.002670579157099205</v>
+        <v>-0.004864964247900722</v>
       </c>
     </row>
     <row r="331">
@@ -3090,7 +3090,7 @@
         <v>2.353361945636624</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.004907256856746332</v>
+        <v>-0.002938144607380946</v>
       </c>
     </row>
     <row r="332">
@@ -3098,7 +3098,7 @@
         <v>2.360515021459228</v>
       </c>
       <c r="B332" t="n">
-        <v>0.00358223723043387</v>
+        <v>0.0001729926576698456</v>
       </c>
     </row>
     <row r="333">
@@ -3106,7 +3106,7 @@
         <v>2.367668097281831</v>
       </c>
       <c r="B333" t="n">
-        <v>0.01003639667221553</v>
+        <v>0.0144690541049121</v>
       </c>
     </row>
     <row r="334">
@@ -3114,7 +3114,7 @@
         <v>2.374821173104435</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.003752044963217615</v>
+        <v>0.005427097376767004</v>
       </c>
     </row>
     <row r="335">
@@ -3122,7 +3122,7 @@
         <v>2.381974248927039</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.006709879434558036</v>
+        <v>-0.003186888254159591</v>
       </c>
     </row>
     <row r="336">
@@ -3130,7 +3130,7 @@
         <v>2.389127324749643</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.01878988369133967</v>
+        <v>0.004500522188060275</v>
       </c>
     </row>
     <row r="337">
@@ -3138,7 +3138,7 @@
         <v>2.396280400572246</v>
       </c>
       <c r="B337" t="n">
-        <v>0.008052892332679248</v>
+        <v>0.006465442440440622</v>
       </c>
     </row>
     <row r="338">
@@ -3146,7 +3146,7 @@
         <v>2.40343347639485</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.005740794678438852</v>
+        <v>0.01001185797002421</v>
       </c>
     </row>
     <row r="339">
@@ -3154,7 +3154,7 @@
         <v>2.410586552217453</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.01816661285479668</v>
+        <v>0.007763039448797728</v>
       </c>
     </row>
     <row r="340">
@@ -3162,7 +3162,7 @@
         <v>2.417739628040057</v>
       </c>
       <c r="B340" t="n">
-        <v>0.01808422921705879</v>
+        <v>0.0140624870005179</v>
       </c>
     </row>
     <row r="341">
@@ -3170,7 +3170,7 @@
         <v>2.424892703862661</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.0006935988435415399</v>
+        <v>-0.001065854717236687</v>
       </c>
     </row>
     <row r="342">
@@ -3178,7 +3178,7 @@
         <v>2.432045779685265</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.006249318433225719</v>
+        <v>-0.007239781666539097</v>
       </c>
     </row>
     <row r="343">
@@ -3186,7 +3186,7 @@
         <v>2.439198855507868</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.01535883415406351</v>
+        <v>0.0008213209390543693</v>
       </c>
     </row>
     <row r="344">
@@ -3194,7 +3194,7 @@
         <v>2.446351931330472</v>
       </c>
       <c r="B344" t="n">
-        <v>0.003118142256847355</v>
+        <v>0.01582634231926048</v>
       </c>
     </row>
     <row r="345">
@@ -3202,7 +3202,7 @@
         <v>2.453505007153076</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.008105401554007739</v>
+        <v>-0.006589383687668659</v>
       </c>
     </row>
     <row r="346">
@@ -3210,7 +3210,7 @@
         <v>2.46065808297568</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.01061771095069762</v>
+        <v>-0.01214796266843197</v>
       </c>
     </row>
     <row r="347">
@@ -3218,7 +3218,7 @@
         <v>2.467811158798283</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.002614593000483762</v>
+        <v>-0.01182138555788685</v>
       </c>
     </row>
     <row r="348">
@@ -3226,7 +3226,7 @@
         <v>2.474964234620887</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.01167012705848831</v>
+        <v>-0.01450154573956994</v>
       </c>
     </row>
     <row r="349">
@@ -3234,7 +3234,7 @@
         <v>2.482117310443491</v>
       </c>
       <c r="B349" t="n">
-        <v>0.009440577554190767</v>
+        <v>-0.009799051789883918</v>
       </c>
     </row>
     <row r="350">
@@ -3242,7 +3242,7 @@
         <v>2.489270386266095</v>
       </c>
       <c r="B350" t="n">
-        <v>0.003901631556025882</v>
+        <v>-0.01068596776022429</v>
       </c>
     </row>
     <row r="351">
@@ -3250,7 +3250,7 @@
         <v>2.496423462088698</v>
       </c>
       <c r="B351" t="n">
-        <v>0.01158899479495776</v>
+        <v>0.007767128535016693</v>
       </c>
     </row>
     <row r="352">
@@ -3258,7 +3258,7 @@
         <v>2.503576537911302</v>
       </c>
       <c r="B352" t="n">
-        <v>0.005648426768265964</v>
+        <v>-0.00392427470256802</v>
       </c>
     </row>
     <row r="353">
@@ -3266,7 +3266,7 @@
         <v>2.510729613733905</v>
       </c>
       <c r="B353" t="n">
-        <v>0.01343667361119708</v>
+        <v>0.006699212989117948</v>
       </c>
     </row>
     <row r="354">
@@ -3274,7 +3274,7 @@
         <v>2.517882689556509</v>
       </c>
       <c r="B354" t="n">
-        <v>0.007037483785710784</v>
+        <v>0.007259099919020829</v>
       </c>
     </row>
     <row r="355">
@@ -3282,7 +3282,7 @@
         <v>2.525035765379113</v>
       </c>
       <c r="B355" t="n">
-        <v>0.006476934866792448</v>
+        <v>0.01101430759800777</v>
       </c>
     </row>
     <row r="356">
@@ -3290,7 +3290,7 @@
         <v>2.532188841201717</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.006679025734545548</v>
+        <v>0.003205791208129261</v>
       </c>
     </row>
     <row r="357">
@@ -3298,7 +3298,7 @@
         <v>2.53934191702432</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0008580995859680033</v>
+        <v>-0.007510717924121829</v>
       </c>
     </row>
     <row r="358">
@@ -3306,7 +3306,7 @@
         <v>2.546494992846924</v>
       </c>
       <c r="B358" t="n">
-        <v>0.002487586245006766</v>
+        <v>-0.009375460950085747</v>
       </c>
     </row>
     <row r="359">
@@ -3314,7 +3314,7 @@
         <v>2.553648068669528</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.001438519686757548</v>
+        <v>0.002229593383588151</v>
       </c>
     </row>
     <row r="360">
@@ -3322,7 +3322,7 @@
         <v>2.560801144492132</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.0008535964919446573</v>
+        <v>0.008975343367836971</v>
       </c>
     </row>
     <row r="361">
@@ -3330,7 +3330,7 @@
         <v>2.567954220314735</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.0008395405040699252</v>
+        <v>-0.02609870891004499</v>
       </c>
     </row>
     <row r="362">
@@ -3338,7 +3338,7 @@
         <v>2.575107296137339</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.0004610784036748831</v>
+        <v>-0.003367667214398997</v>
       </c>
     </row>
     <row r="363">
@@ -3346,7 +3346,7 @@
         <v>2.582260371959943</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.004706547271366245</v>
+        <v>-0.01373174659285096</v>
       </c>
     </row>
     <row r="364">
@@ -3354,7 +3354,7 @@
         <v>2.589413447782547</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.001403112020578901</v>
+        <v>-0.005695706522210596</v>
       </c>
     </row>
     <row r="365">
@@ -3362,7 +3362,7 @@
         <v>2.59656652360515</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.004636041953877319</v>
+        <v>-0.01449256407401514</v>
       </c>
     </row>
     <row r="366">
@@ -3370,7 +3370,7 @@
         <v>2.603719599427754</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.0005788227564837846</v>
+        <v>-0.001488945163652921</v>
       </c>
     </row>
     <row r="367">
@@ -3378,7 +3378,7 @@
         <v>2.610872675250357</v>
       </c>
       <c r="B367" t="n">
-        <v>0.0198877647593858</v>
+        <v>0.006613908504760037</v>
       </c>
     </row>
     <row r="368">
@@ -3386,7 +3386,7 @@
         <v>2.618025751072961</v>
       </c>
       <c r="B368" t="n">
-        <v>0.01452215873218947</v>
+        <v>-0.00866280873463331</v>
       </c>
     </row>
     <row r="369">
@@ -3394,7 +3394,7 @@
         <v>2.625178826895565</v>
       </c>
       <c r="B369" t="n">
-        <v>0.002099108794181728</v>
+        <v>-0.0006617782393999811</v>
       </c>
     </row>
     <row r="370">
@@ -3402,7 +3402,7 @@
         <v>2.632331902718169</v>
       </c>
       <c r="B370" t="n">
-        <v>0.004035843448587926</v>
+        <v>-0.00807041716282164</v>
       </c>
     </row>
     <row r="371">
@@ -3410,7 +3410,7 @@
         <v>2.639484978540772</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.00813678512783639</v>
+        <v>-0.005686659567414851</v>
       </c>
     </row>
     <row r="372">
@@ -3418,7 +3418,7 @@
         <v>2.646638054363376</v>
       </c>
       <c r="B372" t="n">
-        <v>0.002799112766823004</v>
+        <v>0.02416315932409767</v>
       </c>
     </row>
     <row r="373">
@@ -3426,7 +3426,7 @@
         <v>2.65379113018598</v>
       </c>
       <c r="B373" t="n">
-        <v>0.001400761244358982</v>
+        <v>-0.001872200753112463</v>
       </c>
     </row>
     <row r="374">
@@ -3434,7 +3434,7 @@
         <v>2.660944206008584</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.00126270707961578</v>
+        <v>0.01123408498008993</v>
       </c>
     </row>
     <row r="375">
@@ -3442,7 +3442,7 @@
         <v>2.668097281831187</v>
       </c>
       <c r="B375" t="n">
-        <v>0.005455018280013986</v>
+        <v>0.01068550816131025</v>
       </c>
     </row>
     <row r="376">
@@ -3450,7 +3450,7 @@
         <v>2.675250357653791</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.009035861014731557</v>
+        <v>-0.002363740262338985</v>
       </c>
     </row>
     <row r="377">
@@ -3458,7 +3458,7 @@
         <v>2.682403433476395</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.0003231886371630484</v>
+        <v>0.003773236243332212</v>
       </c>
     </row>
     <row r="378">
@@ -3466,7 +3466,7 @@
         <v>2.689556509298999</v>
       </c>
       <c r="B378" t="n">
-        <v>0.003552613291372618</v>
+        <v>0.003938882041241758</v>
       </c>
     </row>
     <row r="379">
@@ -3474,7 +3474,7 @@
         <v>2.696709585121602</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.01548322762070792</v>
+        <v>0.009092941052884615</v>
       </c>
     </row>
     <row r="380">
@@ -3482,7 +3482,7 @@
         <v>2.703862660944206</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.0184246757238758</v>
+        <v>0.001419882879548669</v>
       </c>
     </row>
     <row r="381">
@@ -3490,7 +3490,7 @@
         <v>2.71101573676681</v>
       </c>
       <c r="B381" t="n">
-        <v>0.007853461801004002</v>
+        <v>0.001036935185973273</v>
       </c>
     </row>
     <row r="382">
@@ -3498,7 +3498,7 @@
         <v>2.718168812589413</v>
       </c>
       <c r="B382" t="n">
-        <v>0.006458309190612813</v>
+        <v>0.0006452402278459086</v>
       </c>
     </row>
     <row r="383">
@@ -3506,7 +3506,7 @@
         <v>2.725321888412017</v>
       </c>
       <c r="B383" t="n">
-        <v>0.01652119822086499</v>
+        <v>0.002058644958660747</v>
       </c>
     </row>
     <row r="384">
@@ -3514,7 +3514,7 @@
         <v>2.732474964234621</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.00367559009914111</v>
+        <v>0.005069899278618463</v>
       </c>
     </row>
     <row r="385">
@@ -3522,7 +3522,7 @@
         <v>2.739628040057224</v>
       </c>
       <c r="B385" t="n">
-        <v>0.00212609943414317</v>
+        <v>-0.001584747932102093</v>
       </c>
     </row>
     <row r="386">
@@ -3530,7 +3530,7 @@
         <v>2.746781115879828</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.01081855287595319</v>
+        <v>0.00564870208867041</v>
       </c>
     </row>
     <row r="387">
@@ -3538,7 +3538,7 @@
         <v>2.753934191702432</v>
       </c>
       <c r="B387" t="n">
-        <v>0.01290719684621596</v>
+        <v>-0.006033611531009207</v>
       </c>
     </row>
     <row r="388">
@@ -3546,7 +3546,7 @@
         <v>2.761087267525036</v>
       </c>
       <c r="B388" t="n">
-        <v>0.001946555246731931</v>
+        <v>-0.02382089916566719</v>
       </c>
     </row>
     <row r="389">
@@ -3554,7 +3554,7 @@
         <v>2.76824034334764</v>
       </c>
       <c r="B389" t="n">
-        <v>0.01516773598472186</v>
+        <v>-0.003253919552381565</v>
       </c>
     </row>
     <row r="390">
@@ -3562,7 +3562,7 @@
         <v>2.775393419170243</v>
       </c>
       <c r="B390" t="n">
-        <v>0.004128877417335872</v>
+        <v>0.009038632399186243</v>
       </c>
     </row>
     <row r="391">
@@ -3570,7 +3570,7 @@
         <v>2.782546494992847</v>
       </c>
       <c r="B391" t="n">
-        <v>0.008172015579388573</v>
+        <v>0.01631258882231139</v>
       </c>
     </row>
     <row r="392">
@@ -3578,7 +3578,7 @@
         <v>2.789699570815451</v>
       </c>
       <c r="B392" t="n">
-        <v>0.0002593687300168599</v>
+        <v>-0.00669638579335645</v>
       </c>
     </row>
     <row r="393">
@@ -3586,7 +3586,7 @@
         <v>2.796852646638055</v>
       </c>
       <c r="B393" t="n">
-        <v>0.009606943992369584</v>
+        <v>0.0004932200167629641</v>
       </c>
     </row>
     <row r="394">
@@ -3594,7 +3594,7 @@
         <v>2.804005722460658</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.01097326337030621</v>
+        <v>0.004549709245256785</v>
       </c>
     </row>
     <row r="395">
@@ -3602,7 +3602,7 @@
         <v>2.811158798283262</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.006271709518199907</v>
+        <v>0.0001604961198902148</v>
       </c>
     </row>
     <row r="396">
@@ -3610,7 +3610,7 @@
         <v>2.818311874105865</v>
       </c>
       <c r="B396" t="n">
-        <v>0.002775097623348772</v>
+        <v>-0.005935919812934136</v>
       </c>
     </row>
     <row r="397">
@@ -3618,7 +3618,7 @@
         <v>2.825464949928469</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.01465934359734229</v>
+        <v>-0.001092089490085337</v>
       </c>
     </row>
     <row r="398">
@@ -3626,7 +3626,7 @@
         <v>2.832618025751073</v>
       </c>
       <c r="B398" t="n">
-        <v>0.001560188955998772</v>
+        <v>-0.008779107278854087</v>
       </c>
     </row>
     <row r="399">
@@ -3634,7 +3634,7 @@
         <v>2.839771101573677</v>
       </c>
       <c r="B399" t="n">
-        <v>0.00694074304960774</v>
+        <v>0.002871172949650365</v>
       </c>
     </row>
     <row r="400">
@@ -3642,7 +3642,7 @@
         <v>2.84692417739628</v>
       </c>
       <c r="B400" t="n">
-        <v>0.009756787981656107</v>
+        <v>0.02186460207606944</v>
       </c>
     </row>
     <row r="401">
@@ -3650,7 +3650,7 @@
         <v>2.854077253218884</v>
       </c>
       <c r="B401" t="n">
-        <v>0.006273252715268474</v>
+        <v>0.01195618015343227</v>
       </c>
     </row>
     <row r="402">
@@ -3658,7 +3658,7 @@
         <v>2.861230329041488</v>
       </c>
       <c r="B402" t="n">
-        <v>0.002243834180697219</v>
+        <v>-0.01121440859435546</v>
       </c>
     </row>
     <row r="403">
@@ -3666,7 +3666,7 @@
         <v>2.868383404864092</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.0180393081807037</v>
+        <v>0.006515777689579464</v>
       </c>
     </row>
     <row r="404">
@@ -3674,7 +3674,7 @@
         <v>2.875536480686695</v>
       </c>
       <c r="B404" t="n">
-        <v>0.01025875722925542</v>
+        <v>-0.01472759845440431</v>
       </c>
     </row>
     <row r="405">
@@ -3682,7 +3682,7 @@
         <v>2.882689556509299</v>
       </c>
       <c r="B405" t="n">
-        <v>0.004774317244204822</v>
+        <v>-0.009020490571389103</v>
       </c>
     </row>
     <row r="406">
@@ -3690,7 +3690,7 @@
         <v>2.889842632331903</v>
       </c>
       <c r="B406" t="n">
-        <v>0.002728483551352519</v>
+        <v>-0.01135091124563717</v>
       </c>
     </row>
     <row r="407">
@@ -3698,7 +3698,7 @@
         <v>2.896995708154507</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.01733368560791226</v>
+        <v>-0.01674724149906719</v>
       </c>
     </row>
     <row r="408">
@@ -3706,7 +3706,7 @@
         <v>2.90414878397711</v>
       </c>
       <c r="B408" t="n">
-        <v>0.01037692676528323</v>
+        <v>0.003824523447788007</v>
       </c>
     </row>
     <row r="409">
@@ -3714,7 +3714,7 @@
         <v>2.911301859799714</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.00364122718138844</v>
+        <v>-0.01762614759080993</v>
       </c>
     </row>
     <row r="410">
@@ -3722,7 +3722,7 @@
         <v>2.918454935622318</v>
       </c>
       <c r="B410" t="n">
-        <v>0.001774134141631687</v>
+        <v>0.01156179633491542</v>
       </c>
     </row>
     <row r="411">
@@ -3730,7 +3730,7 @@
         <v>2.925608011444921</v>
       </c>
       <c r="B411" t="n">
-        <v>0.002063158463983005</v>
+        <v>0.009144898816606852</v>
       </c>
     </row>
     <row r="412">
@@ -3738,7 +3738,7 @@
         <v>2.932761087267525</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.001516609026654371</v>
+        <v>0.006156036055816614</v>
       </c>
     </row>
     <row r="413">
@@ -3746,7 +3746,7 @@
         <v>2.939914163090129</v>
       </c>
       <c r="B413" t="n">
-        <v>0.01120188397748433</v>
+        <v>-0.001963415085135539</v>
       </c>
     </row>
     <row r="414">
@@ -3754,7 +3754,7 @@
         <v>2.947067238912732</v>
       </c>
       <c r="B414" t="n">
-        <v>0.001392672128319073</v>
+        <v>-0.003745690547756029</v>
       </c>
     </row>
     <row r="415">
@@ -3762,7 +3762,7 @@
         <v>2.954220314735336</v>
       </c>
       <c r="B415" t="n">
-        <v>0.005968263071212176</v>
+        <v>-0.01170510034691678</v>
       </c>
     </row>
     <row r="416">
@@ -3770,7 +3770,7 @@
         <v>2.96137339055794</v>
       </c>
       <c r="B416" t="n">
-        <v>0.007708644828373016</v>
+        <v>0.01353907928742404</v>
       </c>
     </row>
     <row r="417">
@@ -3778,7 +3778,7 @@
         <v>2.968526466380544</v>
       </c>
       <c r="B417" t="n">
-        <v>0.01499462724215312</v>
+        <v>-0.007550327747775502</v>
       </c>
     </row>
     <row r="418">
@@ -3786,7 +3786,7 @@
         <v>2.975679542203147</v>
       </c>
       <c r="B418" t="n">
-        <v>0.00847637390801499</v>
+        <v>-0.002419050810972313</v>
       </c>
     </row>
     <row r="419">
@@ -3794,7 +3794,7 @@
         <v>2.982832618025751</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.001429094416888453</v>
+        <v>-0.002176253961432479</v>
       </c>
     </row>
     <row r="420">
@@ -3802,7 +3802,7 @@
         <v>2.989985693848355</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.004631200922572951</v>
+        <v>0.0062703974123817</v>
       </c>
     </row>
     <row r="421">
@@ -3810,7 +3810,7 @@
         <v>2.997138769670959</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0138390338043299</v>
+        <v>-0.0003660830839885043</v>
       </c>
     </row>
     <row r="422">
@@ -3818,7 +3818,7 @@
         <v>3.004291845493562</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.01269763144852731</v>
+        <v>-0.003700660662554553</v>
       </c>
     </row>
     <row r="423">
@@ -3826,7 +3826,7 @@
         <v>3.011444921316166</v>
       </c>
       <c r="B423" t="n">
-        <v>0.06170713228242124</v>
+        <v>0.01660693168945482</v>
       </c>
     </row>
     <row r="424">
@@ -3834,7 +3834,7 @@
         <v>3.01859799713877</v>
       </c>
       <c r="B424" t="n">
-        <v>0.07538245935509121</v>
+        <v>0.07808527304266544</v>
       </c>
     </row>
     <row r="425">
@@ -3842,7 +3842,7 @@
         <v>3.025751072961373</v>
       </c>
       <c r="B425" t="n">
-        <v>0.08795093977778022</v>
+        <v>0.09913852631818076</v>
       </c>
     </row>
     <row r="426">
@@ -3850,7 +3850,7 @@
         <v>3.032904148783977</v>
       </c>
       <c r="B426" t="n">
-        <v>0.09748398379460162</v>
+        <v>0.102048315241432</v>
       </c>
     </row>
     <row r="427">
@@ -3858,7 +3858,7 @@
         <v>3.040057224606581</v>
       </c>
       <c r="B427" t="n">
-        <v>0.08092640069505239</v>
+        <v>0.06211103268861105</v>
       </c>
     </row>
     <row r="428">
@@ -3866,7 +3866,7 @@
         <v>3.047210300429184</v>
       </c>
       <c r="B428" t="n">
-        <v>0.06439169833453222</v>
+        <v>0.05399793457713637</v>
       </c>
     </row>
     <row r="429">
@@ -3874,7 +3874,7 @@
         <v>3.054363376251788</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.01222471748532175</v>
+        <v>-0.007708530558556411</v>
       </c>
     </row>
     <row r="430">
@@ -3882,7 +3882,7 @@
         <v>3.061516452074392</v>
       </c>
       <c r="B430" t="n">
-        <v>0.009936328664812307</v>
+        <v>0.006425454796822576</v>
       </c>
     </row>
     <row r="431">
@@ -3890,7 +3890,7 @@
         <v>3.068669527896996</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.0003987075370441592</v>
+        <v>0.006659617304423548</v>
       </c>
     </row>
     <row r="432">
@@ -3898,7 +3898,7 @@
         <v>3.075822603719599</v>
       </c>
       <c r="B432" t="n">
-        <v>0.003415648846084103</v>
+        <v>0.01264366124415373</v>
       </c>
     </row>
     <row r="433">
@@ -3906,7 +3906,7 @@
         <v>3.082975679542203</v>
       </c>
       <c r="B433" t="n">
-        <v>0.01375992975139254</v>
+        <v>0.008084218583594139</v>
       </c>
     </row>
     <row r="434">
@@ -3914,7 +3914,7 @@
         <v>3.090128755364807</v>
       </c>
       <c r="B434" t="n">
-        <v>0.01037915789149219</v>
+        <v>0.008049361092602327</v>
       </c>
     </row>
     <row r="435">
@@ -3922,7 +3922,7 @@
         <v>3.097281831187411</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.007409269361490885</v>
+        <v>0.004397100599936627</v>
       </c>
     </row>
     <row r="436">
@@ -3930,7 +3930,7 @@
         <v>3.104434907010014</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.007699363000134449</v>
+        <v>-0.001334506564175909</v>
       </c>
     </row>
     <row r="437">
@@ -3938,7 +3938,7 @@
         <v>3.111587982832618</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.0023542927989211</v>
+        <v>-0.001766849496065869</v>
       </c>
     </row>
     <row r="438">
@@ -3946,7 +3946,7 @@
         <v>3.118741058655222</v>
       </c>
       <c r="B438" t="n">
-        <v>0.01364495981948969</v>
+        <v>-0.01168777261686244</v>
       </c>
     </row>
     <row r="439">
@@ -3954,7 +3954,7 @@
         <v>3.125894134477825</v>
       </c>
       <c r="B439" t="n">
-        <v>0.006168945614561997</v>
+        <v>-0.01248342816597009</v>
       </c>
     </row>
     <row r="440">
@@ -3962,7 +3962,7 @@
         <v>3.133047210300429</v>
       </c>
       <c r="B440" t="n">
-        <v>0.0148297716486554</v>
+        <v>-0.006710448817423972</v>
       </c>
     </row>
     <row r="441">
@@ -3970,7 +3970,7 @@
         <v>3.140200286123033</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.007490100925927781</v>
+        <v>-0.02425771130585782</v>
       </c>
     </row>
     <row r="442">
@@ -3978,7 +3978,7 @@
         <v>3.147353361945636</v>
       </c>
       <c r="B442" t="n">
-        <v>0.006729757197789399</v>
+        <v>-0.007297659402759459</v>
       </c>
     </row>
     <row r="443">
@@ -3986,7 +3986,7 @@
         <v>3.15450643776824</v>
       </c>
       <c r="B443" t="n">
-        <v>0.02072555141369118</v>
+        <v>0.004426580636559705</v>
       </c>
     </row>
     <row r="444">
@@ -3994,7 +3994,7 @@
         <v>3.161659513590844</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.003821709704511744</v>
+        <v>0.003511209799468843</v>
       </c>
     </row>
     <row r="445">
@@ -4002,7 +4002,7 @@
         <v>3.168812589413448</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.01841636628633974</v>
+        <v>-0.001225611460323884</v>
       </c>
     </row>
     <row r="446">
@@ -4010,7 +4010,7 @@
         <v>3.175965665236051</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.008976874727634539</v>
+        <v>0.007403190212638039</v>
       </c>
     </row>
     <row r="447">
@@ -4018,7 +4018,7 @@
         <v>3.183118741058655</v>
       </c>
       <c r="B447" t="n">
-        <v>0.006915563222209572</v>
+        <v>-0.01341629850398668</v>
       </c>
     </row>
     <row r="448">
@@ -4026,7 +4026,7 @@
         <v>3.190271816881259</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.005733922889221739</v>
+        <v>0.001999875268265654</v>
       </c>
     </row>
     <row r="449">
@@ -4034,7 +4034,7 @@
         <v>3.197424892703863</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.009582797937441391</v>
+        <v>-0.0002638538501556733</v>
       </c>
     </row>
     <row r="450">
@@ -4042,7 +4042,7 @@
         <v>3.204577968526467</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01279714051990354</v>
+        <v>0.00191980026089378</v>
       </c>
     </row>
     <row r="451">
@@ -4050,7 +4050,7 @@
         <v>3.21173104434907</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.02381850764919196</v>
+        <v>-0.01238589167980495</v>
       </c>
     </row>
     <row r="452">
@@ -4058,7 +4058,7 @@
         <v>3.218884120171674</v>
       </c>
       <c r="B452" t="n">
-        <v>0.4782892452753877</v>
+        <v>0.4773221689409464</v>
       </c>
     </row>
     <row r="453">
@@ -4066,7 +4066,7 @@
         <v>3.226037195994278</v>
       </c>
       <c r="B453" t="n">
-        <v>0.5554513330104257</v>
+        <v>0.5322186521074213</v>
       </c>
     </row>
     <row r="454">
@@ -4074,7 +4074,7 @@
         <v>3.233190271816881</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.01768054208864511</v>
+        <v>-0.01895592605147361</v>
       </c>
     </row>
     <row r="455">
@@ -4082,7 +4082,7 @@
         <v>3.240343347639485</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.1851858945771787</v>
+        <v>-0.1784397007729231</v>
       </c>
     </row>
     <row r="456">
@@ -4090,7 +4090,7 @@
         <v>3.247496423462089</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.1631794087359022</v>
+        <v>-0.1600598938169442</v>
       </c>
     </row>
     <row r="457">
@@ -4098,7 +4098,7 @@
         <v>3.254649499284692</v>
       </c>
       <c r="B457" t="n">
-        <v>0.03052830394149008</v>
+        <v>0.01217205815149749</v>
       </c>
     </row>
     <row r="458">
@@ -4106,7 +4106,7 @@
         <v>3.261802575107296</v>
       </c>
       <c r="B458" t="n">
-        <v>0.08165314936789438</v>
+        <v>0.08108300669785483</v>
       </c>
     </row>
     <row r="459">
@@ -4114,7 +4114,7 @@
         <v>3.2689556509299</v>
       </c>
       <c r="B459" t="n">
-        <v>0.1301763699320233</v>
+        <v>0.1177379859382539</v>
       </c>
     </row>
     <row r="460">
@@ -4122,7 +4122,7 @@
         <v>3.276108726752504</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1605883359656476</v>
+        <v>0.1559234004002531</v>
       </c>
     </row>
     <row r="461">
@@ -4130,7 +4130,7 @@
         <v>3.283261802575107</v>
       </c>
       <c r="B461" t="n">
-        <v>0.2004518945594428</v>
+        <v>0.2001854604220361</v>
       </c>
     </row>
     <row r="462">
@@ -4138,7 +4138,7 @@
         <v>3.290414878397711</v>
       </c>
       <c r="B462" t="n">
-        <v>0.2029191517918038</v>
+        <v>0.2002888393198662</v>
       </c>
     </row>
     <row r="463">
@@ -4146,7 +4146,7 @@
         <v>3.297567954220315</v>
       </c>
       <c r="B463" t="n">
-        <v>0.1837291490454928</v>
+        <v>0.1776066237476872</v>
       </c>
     </row>
     <row r="464">
@@ -4154,7 +4154,7 @@
         <v>3.304721030042919</v>
       </c>
       <c r="B464" t="n">
-        <v>0.1250991116542148</v>
+        <v>0.1396805634792133</v>
       </c>
     </row>
     <row r="465">
@@ -4162,7 +4162,7 @@
         <v>3.311874105865522</v>
       </c>
       <c r="B465" t="n">
-        <v>0.09311301302870013</v>
+        <v>0.0897429917026587</v>
       </c>
     </row>
     <row r="466">
@@ -4170,7 +4170,7 @@
         <v>3.319027181688126</v>
       </c>
       <c r="B466" t="n">
-        <v>0.02253979212626632</v>
+        <v>0.03563246345383224</v>
       </c>
     </row>
     <row r="467">
@@ -4178,7 +4178,7 @@
         <v>3.32618025751073</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0006425035294679418</v>
+        <v>-0.006975498541126601</v>
       </c>
     </row>
     <row r="468">
@@ -4186,7 +4186,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="B468" t="n">
-        <v>0.01117174122289568</v>
+        <v>0.002746566745293064</v>
       </c>
     </row>
     <row r="469">
@@ -4194,7 +4194,7 @@
         <v>3.340486409155937</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.006511747425122274</v>
+        <v>0.0001359624479816834</v>
       </c>
     </row>
     <row r="470">
@@ -4202,7 +4202,7 @@
         <v>3.347639484978541</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.002670579157099205</v>
+        <v>-0.004864964247900722</v>
       </c>
     </row>
     <row r="471">
@@ -4210,7 +4210,7 @@
         <v>3.354792560801144</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.004907256856746332</v>
+        <v>-0.002938144607380946</v>
       </c>
     </row>
     <row r="472">
@@ -4218,7 +4218,7 @@
         <v>3.361945636623748</v>
       </c>
       <c r="B472" t="n">
-        <v>0.00358223723043387</v>
+        <v>0.0001729926576698456</v>
       </c>
     </row>
     <row r="473">
@@ -4226,7 +4226,7 @@
         <v>3.369098712446352</v>
       </c>
       <c r="B473" t="n">
-        <v>0.01003639667221553</v>
+        <v>0.0144690541049121</v>
       </c>
     </row>
     <row r="474">
@@ -4234,7 +4234,7 @@
         <v>3.376251788268956</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.003752044963217615</v>
+        <v>0.005427097376767004</v>
       </c>
     </row>
     <row r="475">
@@ -4242,7 +4242,7 @@
         <v>3.383404864091559</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.006709879434558036</v>
+        <v>-0.003186888254159591</v>
       </c>
     </row>
     <row r="476">
@@ -4250,7 +4250,7 @@
         <v>3.390557939914163</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.01878988369133967</v>
+        <v>0.004500522188060275</v>
       </c>
     </row>
     <row r="477">
@@ -4258,7 +4258,7 @@
         <v>3.397711015736767</v>
       </c>
       <c r="B477" t="n">
-        <v>0.008052892332679248</v>
+        <v>0.006465442440440622</v>
       </c>
     </row>
     <row r="478">
@@ -4266,7 +4266,7 @@
         <v>3.404864091559371</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.005740794678438852</v>
+        <v>0.01001185797002421</v>
       </c>
     </row>
     <row r="479">
@@ -4274,7 +4274,7 @@
         <v>3.412017167381974</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.01816661285479668</v>
+        <v>0.007763039448797728</v>
       </c>
     </row>
     <row r="480">
@@ -4282,7 +4282,7 @@
         <v>3.419170243204578</v>
       </c>
       <c r="B480" t="n">
-        <v>0.01808422921705879</v>
+        <v>0.0140624870005179</v>
       </c>
     </row>
     <row r="481">
@@ -4290,7 +4290,7 @@
         <v>3.426323319027182</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.0006935988435415399</v>
+        <v>-0.001065854717236687</v>
       </c>
     </row>
     <row r="482">
@@ -4298,7 +4298,7 @@
         <v>3.433476394849786</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.006249318433225719</v>
+        <v>-0.007239781666539097</v>
       </c>
     </row>
     <row r="483">
@@ -4306,7 +4306,7 @@
         <v>3.440629470672389</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.01535883415406351</v>
+        <v>0.0008213209390543693</v>
       </c>
     </row>
     <row r="484">
@@ -4314,7 +4314,7 @@
         <v>3.447782546494993</v>
       </c>
       <c r="B484" t="n">
-        <v>0.003118142256847355</v>
+        <v>0.01582634231926048</v>
       </c>
     </row>
     <row r="485">
@@ -4322,7 +4322,7 @@
         <v>3.454935622317596</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.008105401554007739</v>
+        <v>-0.006589383687668659</v>
       </c>
     </row>
     <row r="486">
@@ -4330,7 +4330,7 @@
         <v>3.4620886981402</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.01061771095069762</v>
+        <v>-0.01214796266843197</v>
       </c>
     </row>
     <row r="487">
@@ -4338,7 +4338,7 @@
         <v>3.469241773962804</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.002614593000483762</v>
+        <v>-0.01182138555788685</v>
       </c>
     </row>
     <row r="488">
@@ -4346,7 +4346,7 @@
         <v>3.476394849785408</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.01167012705848831</v>
+        <v>-0.01450154573956994</v>
       </c>
     </row>
     <row r="489">
@@ -4354,7 +4354,7 @@
         <v>3.483547925608011</v>
       </c>
       <c r="B489" t="n">
-        <v>0.009440577554190767</v>
+        <v>-0.009799051789883918</v>
       </c>
     </row>
     <row r="490">
@@ -4362,7 +4362,7 @@
         <v>3.490701001430615</v>
       </c>
       <c r="B490" t="n">
-        <v>0.003901631556025882</v>
+        <v>-0.01068596776022429</v>
       </c>
     </row>
     <row r="491">
@@ -4370,7 +4370,7 @@
         <v>3.497854077253219</v>
       </c>
       <c r="B491" t="n">
-        <v>0.01158899479495776</v>
+        <v>0.007767128535016693</v>
       </c>
     </row>
     <row r="492">
@@ -4378,7 +4378,7 @@
         <v>3.505007153075823</v>
       </c>
       <c r="B492" t="n">
-        <v>0.005648426768265964</v>
+        <v>-0.00392427470256802</v>
       </c>
     </row>
     <row r="493">
@@ -4386,7 +4386,7 @@
         <v>3.512160228898426</v>
       </c>
       <c r="B493" t="n">
-        <v>0.01343667361119708</v>
+        <v>0.006699212989117948</v>
       </c>
     </row>
     <row r="494">
@@ -4394,7 +4394,7 @@
         <v>3.51931330472103</v>
       </c>
       <c r="B494" t="n">
-        <v>0.007037483785710784</v>
+        <v>0.007259099919020829</v>
       </c>
     </row>
     <row r="495">
@@ -4402,7 +4402,7 @@
         <v>3.526466380543634</v>
       </c>
       <c r="B495" t="n">
-        <v>0.006476934866792448</v>
+        <v>0.01101430759800777</v>
       </c>
     </row>
     <row r="496">
@@ -4410,7 +4410,7 @@
         <v>3.533619456366238</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.006679025734545548</v>
+        <v>0.003205791208129261</v>
       </c>
     </row>
     <row r="497">
@@ -4418,7 +4418,7 @@
         <v>3.540772532188841</v>
       </c>
       <c r="B497" t="n">
-        <v>0.0008580995859680033</v>
+        <v>-0.007510717924121829</v>
       </c>
     </row>
     <row r="498">
@@ -4426,7 +4426,7 @@
         <v>3.547925608011445</v>
       </c>
       <c r="B498" t="n">
-        <v>0.002487586245006766</v>
+        <v>-0.009375460950085747</v>
       </c>
     </row>
     <row r="499">
@@ -4434,7 +4434,7 @@
         <v>3.555078683834048</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.001438519686757548</v>
+        <v>0.002229593383588151</v>
       </c>
     </row>
     <row r="500">
@@ -4442,7 +4442,7 @@
         <v>3.562231759656652</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.0008535964919446573</v>
+        <v>0.008975343367836971</v>
       </c>
     </row>
     <row r="501">
@@ -4450,7 +4450,7 @@
         <v>3.569384835479256</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.0008395405040699252</v>
+        <v>-0.02609870891004499</v>
       </c>
     </row>
     <row r="502">
@@ -4458,7 +4458,7 @@
         <v>3.57653791130186</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.0004610784036748831</v>
+        <v>-0.003367667214398997</v>
       </c>
     </row>
     <row r="503">
@@ -4466,7 +4466,7 @@
         <v>3.583690987124463</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.004706547271366245</v>
+        <v>-0.01373174659285096</v>
       </c>
     </row>
     <row r="504">
@@ -4474,7 +4474,7 @@
         <v>3.590844062947067</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.001403112020578901</v>
+        <v>-0.005695706522210596</v>
       </c>
     </row>
     <row r="505">
@@ -4482,7 +4482,7 @@
         <v>3.597997138769671</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.004636041953877319</v>
+        <v>-0.01449256407401514</v>
       </c>
     </row>
     <row r="506">
@@ -4490,7 +4490,7 @@
         <v>3.605150214592275</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.0005788227564837846</v>
+        <v>-0.001488945163652921</v>
       </c>
     </row>
     <row r="507">
@@ -4498,7 +4498,7 @@
         <v>3.612303290414878</v>
       </c>
       <c r="B507" t="n">
-        <v>0.0198877647593858</v>
+        <v>0.006613908504760037</v>
       </c>
     </row>
     <row r="508">
@@ -4506,7 +4506,7 @@
         <v>3.619456366237482</v>
       </c>
       <c r="B508" t="n">
-        <v>0.01452215873218947</v>
+        <v>-0.00866280873463331</v>
       </c>
     </row>
     <row r="509">
@@ -4514,7 +4514,7 @@
         <v>3.626609442060086</v>
       </c>
       <c r="B509" t="n">
-        <v>0.002099108794181728</v>
+        <v>-0.0006617782393999811</v>
       </c>
     </row>
     <row r="510">
@@ -4522,7 +4522,7 @@
         <v>3.63376251788269</v>
       </c>
       <c r="B510" t="n">
-        <v>0.004035843448587926</v>
+        <v>-0.00807041716282164</v>
       </c>
     </row>
     <row r="511">
@@ -4530,7 +4530,7 @@
         <v>3.640915593705293</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.00813678512783639</v>
+        <v>-0.005686659567414851</v>
       </c>
     </row>
     <row r="512">
@@ -4538,7 +4538,7 @@
         <v>3.648068669527897</v>
       </c>
       <c r="B512" t="n">
-        <v>0.002799112766823004</v>
+        <v>0.02416315932409767</v>
       </c>
     </row>
     <row r="513">
@@ -4546,7 +4546,7 @@
         <v>3.6552217453505</v>
       </c>
       <c r="B513" t="n">
-        <v>0.001400761244358982</v>
+        <v>-0.001872200753112463</v>
       </c>
     </row>
     <row r="514">
@@ -4554,7 +4554,7 @@
         <v>3.662374821173104</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.00126270707961578</v>
+        <v>0.01123408498008993</v>
       </c>
     </row>
     <row r="515">
@@ -4562,7 +4562,7 @@
         <v>3.669527896995708</v>
       </c>
       <c r="B515" t="n">
-        <v>0.005455018280013986</v>
+        <v>0.01068550816131025</v>
       </c>
     </row>
     <row r="516">
@@ -4570,7 +4570,7 @@
         <v>3.676680972818312</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.009035861014731557</v>
+        <v>-0.002363740262338985</v>
       </c>
     </row>
     <row r="517">
@@ -4578,7 +4578,7 @@
         <v>3.683834048640916</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.0003231886371630484</v>
+        <v>0.003773236243332212</v>
       </c>
     </row>
     <row r="518">
@@ -4586,7 +4586,7 @@
         <v>3.690987124463519</v>
       </c>
       <c r="B518" t="n">
-        <v>0.003552613291372618</v>
+        <v>0.003938882041241758</v>
       </c>
     </row>
     <row r="519">
@@ -4594,7 +4594,7 @@
         <v>3.698140200286123</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.01548322762070792</v>
+        <v>0.009092941052884615</v>
       </c>
     </row>
     <row r="520">
@@ -4602,7 +4602,7 @@
         <v>3.705293276108727</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.0184246757238758</v>
+        <v>0.001419882879548669</v>
       </c>
     </row>
     <row r="521">
@@ -4610,7 +4610,7 @@
         <v>3.712446351931331</v>
       </c>
       <c r="B521" t="n">
-        <v>0.007853461801004002</v>
+        <v>0.001036935185973273</v>
       </c>
     </row>
     <row r="522">
@@ -4618,7 +4618,7 @@
         <v>3.719599427753934</v>
       </c>
       <c r="B522" t="n">
-        <v>0.006458309190612813</v>
+        <v>0.0006452402278459086</v>
       </c>
     </row>
     <row r="523">
@@ -4626,7 +4626,7 @@
         <v>3.726752503576538</v>
       </c>
       <c r="B523" t="n">
-        <v>0.01652119822086499</v>
+        <v>0.002058644958660747</v>
       </c>
     </row>
     <row r="524">
@@ -4634,7 +4634,7 @@
         <v>3.733905579399142</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.00367559009914111</v>
+        <v>0.005069899278618463</v>
       </c>
     </row>
     <row r="525">
@@ -4642,7 +4642,7 @@
         <v>3.741058655221746</v>
       </c>
       <c r="B525" t="n">
-        <v>0.00212609943414317</v>
+        <v>-0.001584747932102093</v>
       </c>
     </row>
     <row r="526">
@@ -4650,7 +4650,7 @@
         <v>3.748211731044349</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.01081855287595319</v>
+        <v>0.00564870208867041</v>
       </c>
     </row>
     <row r="527">
@@ -4658,7 +4658,7 @@
         <v>3.755364806866953</v>
       </c>
       <c r="B527" t="n">
-        <v>0.01290719684621596</v>
+        <v>-0.006033611531009207</v>
       </c>
     </row>
     <row r="528">
@@ -4666,7 +4666,7 @@
         <v>3.762517882689556</v>
       </c>
       <c r="B528" t="n">
-        <v>0.001946555246731931</v>
+        <v>-0.02382089916566719</v>
       </c>
     </row>
     <row r="529">
@@ -4674,7 +4674,7 @@
         <v>3.76967095851216</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01516773598472186</v>
+        <v>-0.003253919552381565</v>
       </c>
     </row>
     <row r="530">
@@ -4682,7 +4682,7 @@
         <v>3.776824034334764</v>
       </c>
       <c r="B530" t="n">
-        <v>0.004128877417335872</v>
+        <v>0.009038632399186243</v>
       </c>
     </row>
     <row r="531">
@@ -4690,7 +4690,7 @@
         <v>3.783977110157368</v>
       </c>
       <c r="B531" t="n">
-        <v>0.008172015579388573</v>
+        <v>0.01631258882231139</v>
       </c>
     </row>
     <row r="532">
@@ -4698,7 +4698,7 @@
         <v>3.791130185979971</v>
       </c>
       <c r="B532" t="n">
-        <v>0.0002593687300168599</v>
+        <v>-0.00669638579335645</v>
       </c>
     </row>
     <row r="533">
@@ -4706,7 +4706,7 @@
         <v>3.798283261802575</v>
       </c>
       <c r="B533" t="n">
-        <v>0.009606943992369584</v>
+        <v>0.0004932200167629641</v>
       </c>
     </row>
     <row r="534">
@@ -4714,7 +4714,7 @@
         <v>3.805436337625179</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.01097326337030621</v>
+        <v>0.004549709245256785</v>
       </c>
     </row>
     <row r="535">
@@ -4722,7 +4722,7 @@
         <v>3.812589413447783</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.006271709518199907</v>
+        <v>0.0001604961198902148</v>
       </c>
     </row>
     <row r="536">
@@ -4730,7 +4730,7 @@
         <v>3.819742489270386</v>
       </c>
       <c r="B536" t="n">
-        <v>0.002775097623348772</v>
+        <v>-0.005935919812934136</v>
       </c>
     </row>
     <row r="537">
@@ -4738,7 +4738,7 @@
         <v>3.82689556509299</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.01465934359734229</v>
+        <v>-0.001092089490085337</v>
       </c>
     </row>
     <row r="538">
@@ -4746,7 +4746,7 @@
         <v>3.834048640915594</v>
       </c>
       <c r="B538" t="n">
-        <v>0.001560188955998772</v>
+        <v>-0.008779107278854087</v>
       </c>
     </row>
     <row r="539">
@@ -4754,7 +4754,7 @@
         <v>3.841201716738198</v>
       </c>
       <c r="B539" t="n">
-        <v>0.00694074304960774</v>
+        <v>0.002871172949650365</v>
       </c>
     </row>
     <row r="540">
@@ -4762,7 +4762,7 @@
         <v>3.848354792560801</v>
       </c>
       <c r="B540" t="n">
-        <v>0.009756787981656107</v>
+        <v>0.02186460207606944</v>
       </c>
     </row>
     <row r="541">
@@ -4770,7 +4770,7 @@
         <v>3.855507868383405</v>
       </c>
       <c r="B541" t="n">
-        <v>0.006273252715268474</v>
+        <v>0.01195618015343227</v>
       </c>
     </row>
     <row r="542">
@@ -4778,7 +4778,7 @@
         <v>3.862660944206008</v>
       </c>
       <c r="B542" t="n">
-        <v>0.002243834180697219</v>
+        <v>-0.01121440859435546</v>
       </c>
     </row>
     <row r="543">
@@ -4786,7 +4786,7 @@
         <v>3.869814020028612</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.0180393081807037</v>
+        <v>0.006515777689579464</v>
       </c>
     </row>
     <row r="544">
@@ -4794,7 +4794,7 @@
         <v>3.876967095851216</v>
       </c>
       <c r="B544" t="n">
-        <v>0.01025875722925542</v>
+        <v>-0.01472759845440431</v>
       </c>
     </row>
     <row r="545">
@@ -4802,7 +4802,7 @@
         <v>3.88412017167382</v>
       </c>
       <c r="B545" t="n">
-        <v>0.004774317244204822</v>
+        <v>-0.009020490571389103</v>
       </c>
     </row>
     <row r="546">
@@ -4810,7 +4810,7 @@
         <v>3.891273247496423</v>
       </c>
       <c r="B546" t="n">
-        <v>0.002728483551352519</v>
+        <v>-0.01135091124563717</v>
       </c>
     </row>
     <row r="547">
@@ -4818,7 +4818,7 @@
         <v>3.898426323319027</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.01733368560791226</v>
+        <v>-0.01674724149906719</v>
       </c>
     </row>
     <row r="548">
@@ -4826,7 +4826,7 @@
         <v>3.905579399141631</v>
       </c>
       <c r="B548" t="n">
-        <v>0.01037692676528323</v>
+        <v>0.003824523447788007</v>
       </c>
     </row>
     <row r="549">
@@ -4834,7 +4834,7 @@
         <v>3.912732474964235</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.00364122718138844</v>
+        <v>-0.01762614759080993</v>
       </c>
     </row>
     <row r="550">
@@ -4842,7 +4842,7 @@
         <v>3.919885550786838</v>
       </c>
       <c r="B550" t="n">
-        <v>0.001774134141631687</v>
+        <v>0.01156179633491542</v>
       </c>
     </row>
     <row r="551">
@@ -4850,7 +4850,7 @@
         <v>3.927038626609442</v>
       </c>
       <c r="B551" t="n">
-        <v>0.002063158463983005</v>
+        <v>0.009144898816606852</v>
       </c>
     </row>
     <row r="552">
@@ -4858,7 +4858,7 @@
         <v>3.934191702432046</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.001516609026654371</v>
+        <v>0.006156036055816614</v>
       </c>
     </row>
     <row r="553">
@@ -4866,7 +4866,7 @@
         <v>3.94134477825465</v>
       </c>
       <c r="B553" t="n">
-        <v>0.01120188397748433</v>
+        <v>-0.001963415085135539</v>
       </c>
     </row>
     <row r="554">
@@ -4874,7 +4874,7 @@
         <v>3.948497854077253</v>
       </c>
       <c r="B554" t="n">
-        <v>0.001392672128319073</v>
+        <v>-0.003745690547756029</v>
       </c>
     </row>
     <row r="555">
@@ -4882,7 +4882,7 @@
         <v>3.955650929899857</v>
       </c>
       <c r="B555" t="n">
-        <v>0.005968263071212176</v>
+        <v>-0.01170510034691678</v>
       </c>
     </row>
     <row r="556">
@@ -4890,7 +4890,7 @@
         <v>3.96280400572246</v>
       </c>
       <c r="B556" t="n">
-        <v>0.007708644828373016</v>
+        <v>0.01353907928742404</v>
       </c>
     </row>
     <row r="557">
@@ -4898,7 +4898,7 @@
         <v>3.969957081545064</v>
       </c>
       <c r="B557" t="n">
-        <v>0.01499462724215312</v>
+        <v>-0.007550327747775502</v>
       </c>
     </row>
     <row r="558">
@@ -4906,7 +4906,7 @@
         <v>3.977110157367668</v>
       </c>
       <c r="B558" t="n">
-        <v>0.00847637390801499</v>
+        <v>-0.002419050810972313</v>
       </c>
     </row>
     <row r="559">
@@ -4914,7 +4914,7 @@
         <v>3.984263233190272</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.001429094416888453</v>
+        <v>-0.002176253961432479</v>
       </c>
     </row>
     <row r="560">
@@ -4922,7 +4922,7 @@
         <v>3.991416309012875</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.004631200922572951</v>
+        <v>0.0062703974123817</v>
       </c>
     </row>
     <row r="561">
@@ -4930,7 +4930,7 @@
         <v>3.998569384835479</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.0138390338043299</v>
+        <v>-0.0003660830839885043</v>
       </c>
     </row>
     <row r="562">
@@ -4938,7 +4938,7 @@
         <v>4.005722460658083</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.01269763144852731</v>
+        <v>-0.003700660662554553</v>
       </c>
     </row>
     <row r="563">
@@ -4946,7 +4946,7 @@
         <v>4.012875536480687</v>
       </c>
       <c r="B563" t="n">
-        <v>0.06170713228242124</v>
+        <v>0.01660693168945482</v>
       </c>
     </row>
     <row r="564">
@@ -4954,7 +4954,7 @@
         <v>4.020028612303291</v>
       </c>
       <c r="B564" t="n">
-        <v>0.07538245935509121</v>
+        <v>0.07808527304266544</v>
       </c>
     </row>
     <row r="565">
@@ -4962,7 +4962,7 @@
         <v>4.027181688125894</v>
       </c>
       <c r="B565" t="n">
-        <v>0.08795093977778022</v>
+        <v>0.09913852631818076</v>
       </c>
     </row>
     <row r="566">
@@ -4970,7 +4970,7 @@
         <v>4.034334763948498</v>
       </c>
       <c r="B566" t="n">
-        <v>0.09748398379460162</v>
+        <v>0.102048315241432</v>
       </c>
     </row>
     <row r="567">
@@ -4978,7 +4978,7 @@
         <v>4.041487839771102</v>
       </c>
       <c r="B567" t="n">
-        <v>0.08092640069505239</v>
+        <v>0.06211103268861105</v>
       </c>
     </row>
     <row r="568">
@@ -4986,7 +4986,7 @@
         <v>4.048640915593706</v>
       </c>
       <c r="B568" t="n">
-        <v>0.06439169833453222</v>
+        <v>0.05399793457713637</v>
       </c>
     </row>
     <row r="569">
@@ -4994,7 +4994,7 @@
         <v>4.055793991416309</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.01222471748532175</v>
+        <v>-0.007708530558556411</v>
       </c>
     </row>
     <row r="570">
@@ -5002,7 +5002,7 @@
         <v>4.062947067238913</v>
       </c>
       <c r="B570" t="n">
-        <v>0.009936328664812307</v>
+        <v>0.006425454796822576</v>
       </c>
     </row>
     <row r="571">
@@ -5010,7 +5010,7 @@
         <v>4.070100143061516</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.0003987075370441592</v>
+        <v>0.006659617304423548</v>
       </c>
     </row>
     <row r="572">
@@ -5018,7 +5018,7 @@
         <v>4.07725321888412</v>
       </c>
       <c r="B572" t="n">
-        <v>0.003415648846084103</v>
+        <v>0.01264366124415373</v>
       </c>
     </row>
     <row r="573">
@@ -5026,7 +5026,7 @@
         <v>4.084406294706723</v>
       </c>
       <c r="B573" t="n">
-        <v>0.01375992975139254</v>
+        <v>0.008084218583594139</v>
       </c>
     </row>
     <row r="574">
@@ -5034,7 +5034,7 @@
         <v>4.091559370529327</v>
       </c>
       <c r="B574" t="n">
-        <v>0.01037915789149219</v>
+        <v>0.008049361092602327</v>
       </c>
     </row>
     <row r="575">
@@ -5042,7 +5042,7 @@
         <v>4.098712446351931</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.007409269361490885</v>
+        <v>0.004397100599936627</v>
       </c>
     </row>
     <row r="576">
@@ -5050,7 +5050,7 @@
         <v>4.105865522174535</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.007699363000134449</v>
+        <v>-0.001334506564175909</v>
       </c>
     </row>
     <row r="577">
@@ -5058,7 +5058,7 @@
         <v>4.113018597997138</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.0023542927989211</v>
+        <v>-0.001766849496065869</v>
       </c>
     </row>
     <row r="578">
@@ -5066,7 +5066,7 @@
         <v>4.120171673819742</v>
       </c>
       <c r="B578" t="n">
-        <v>0.01364495981948969</v>
+        <v>-0.01168777261686244</v>
       </c>
     </row>
     <row r="579">
@@ -5074,7 +5074,7 @@
         <v>4.127324749642346</v>
       </c>
       <c r="B579" t="n">
-        <v>0.006168945614561997</v>
+        <v>-0.01248342816597009</v>
       </c>
     </row>
     <row r="580">
@@ -5082,7 +5082,7 @@
         <v>4.13447782546495</v>
       </c>
       <c r="B580" t="n">
-        <v>0.0148297716486554</v>
+        <v>-0.006710448817423972</v>
       </c>
     </row>
     <row r="581">
@@ -5090,7 +5090,7 @@
         <v>4.141630901287554</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.007490100925927781</v>
+        <v>-0.02425771130585782</v>
       </c>
     </row>
     <row r="582">
@@ -5098,7 +5098,7 @@
         <v>4.148783977110157</v>
       </c>
       <c r="B582" t="n">
-        <v>0.006729757197789399</v>
+        <v>-0.007297659402759459</v>
       </c>
     </row>
     <row r="583">
@@ -5106,7 +5106,7 @@
         <v>4.155937052932761</v>
       </c>
       <c r="B583" t="n">
-        <v>0.02072555141369118</v>
+        <v>0.004426580636559705</v>
       </c>
     </row>
     <row r="584">
@@ -5114,7 +5114,7 @@
         <v>4.163090128755365</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.003821709704511744</v>
+        <v>0.003511209799468843</v>
       </c>
     </row>
     <row r="585">
@@ -5122,7 +5122,7 @@
         <v>4.170243204577969</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.01841636628633974</v>
+        <v>-0.001225611460323884</v>
       </c>
     </row>
     <row r="586">
@@ -5130,7 +5130,7 @@
         <v>4.177396280400572</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.008976874727634539</v>
+        <v>0.007403190212638039</v>
       </c>
     </row>
     <row r="587">
@@ -5138,7 +5138,7 @@
         <v>4.184549356223176</v>
       </c>
       <c r="B587" t="n">
-        <v>0.006915563222209572</v>
+        <v>-0.01341629850398668</v>
       </c>
     </row>
     <row r="588">
@@ -5146,7 +5146,7 @@
         <v>4.19170243204578</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.005733922889221739</v>
+        <v>0.001999875268265654</v>
       </c>
     </row>
     <row r="589">
@@ -5154,7 +5154,7 @@
         <v>4.198855507868384</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.009582797937441391</v>
+        <v>-0.0002638538501556733</v>
       </c>
     </row>
     <row r="590">
@@ -5162,7 +5162,7 @@
         <v>4.206008583690987</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.01279714051990354</v>
+        <v>0.00191980026089378</v>
       </c>
     </row>
     <row r="591">
@@ -5170,7 +5170,7 @@
         <v>4.213161659513591</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.02381850764919196</v>
+        <v>-0.01238589167980495</v>
       </c>
     </row>
     <row r="592">
@@ -5178,7 +5178,7 @@
         <v>4.220314735336195</v>
       </c>
       <c r="B592" t="n">
-        <v>0.4782892452753877</v>
+        <v>0.4773221689409464</v>
       </c>
     </row>
     <row r="593">
@@ -5186,7 +5186,7 @@
         <v>4.227467811158799</v>
       </c>
       <c r="B593" t="n">
-        <v>0.5554513330104257</v>
+        <v>0.5322186521074213</v>
       </c>
     </row>
     <row r="594">
@@ -5194,7 +5194,7 @@
         <v>4.234620886981402</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.01768054208864511</v>
+        <v>-0.01895592605147361</v>
       </c>
     </row>
     <row r="595">
@@ -5202,7 +5202,7 @@
         <v>4.241773962804006</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1851858945771787</v>
+        <v>-0.1784397007729231</v>
       </c>
     </row>
     <row r="596">
@@ -5210,7 +5210,7 @@
         <v>4.24892703862661</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.1631794087359022</v>
+        <v>-0.1600598938169442</v>
       </c>
     </row>
     <row r="597">
@@ -5218,7 +5218,7 @@
         <v>4.256080114449214</v>
       </c>
       <c r="B597" t="n">
-        <v>0.03052830394149008</v>
+        <v>0.01217205815149749</v>
       </c>
     </row>
     <row r="598">
@@ -5226,7 +5226,7 @@
         <v>4.263233190271817</v>
       </c>
       <c r="B598" t="n">
-        <v>0.08165314936789438</v>
+        <v>0.08108300669785483</v>
       </c>
     </row>
     <row r="599">
@@ -5234,7 +5234,7 @@
         <v>4.270386266094421</v>
       </c>
       <c r="B599" t="n">
-        <v>0.1301763699320233</v>
+        <v>0.1177379859382539</v>
       </c>
     </row>
     <row r="600">
@@ -5242,7 +5242,7 @@
         <v>4.277539341917024</v>
       </c>
       <c r="B600" t="n">
-        <v>0.1605883359656476</v>
+        <v>0.1559234004002531</v>
       </c>
     </row>
     <row r="601">
@@ -5250,7 +5250,7 @@
         <v>4.284692417739628</v>
       </c>
       <c r="B601" t="n">
-        <v>0.2004518945594428</v>
+        <v>0.2001854604220361</v>
       </c>
     </row>
     <row r="602">
@@ -5258,7 +5258,7 @@
         <v>4.291845493562231</v>
       </c>
       <c r="B602" t="n">
-        <v>0.2029191517918038</v>
+        <v>0.2002888393198662</v>
       </c>
     </row>
     <row r="603">
@@ -5266,7 +5266,7 @@
         <v>4.298998569384835</v>
       </c>
       <c r="B603" t="n">
-        <v>0.1837291490454928</v>
+        <v>0.1776066237476872</v>
       </c>
     </row>
     <row r="604">
@@ -5274,7 +5274,7 @@
         <v>4.306151645207439</v>
       </c>
       <c r="B604" t="n">
-        <v>0.1250991116542148</v>
+        <v>0.1396805634792133</v>
       </c>
     </row>
     <row r="605">
@@ -5282,7 +5282,7 @@
         <v>4.313304721030043</v>
       </c>
       <c r="B605" t="n">
-        <v>0.09311301302870013</v>
+        <v>0.0897429917026587</v>
       </c>
     </row>
     <row r="606">
@@ -5290,7 +5290,7 @@
         <v>4.320457796852646</v>
       </c>
       <c r="B606" t="n">
-        <v>0.02253979212626632</v>
+        <v>0.03563246345383224</v>
       </c>
     </row>
     <row r="607">
@@ -5298,7 +5298,7 @@
         <v>4.32761087267525</v>
       </c>
       <c r="B607" t="n">
-        <v>0.0006425035294679418</v>
+        <v>-0.006975498541126601</v>
       </c>
     </row>
     <row r="608">
@@ -5306,7 +5306,7 @@
         <v>4.334763948497854</v>
       </c>
       <c r="B608" t="n">
-        <v>0.01117174122289568</v>
+        <v>0.002746566745293064</v>
       </c>
     </row>
     <row r="609">
@@ -5314,7 +5314,7 @@
         <v>4.341917024320458</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.006511747425122274</v>
+        <v>0.0001359624479816834</v>
       </c>
     </row>
     <row r="610">
@@ -5322,7 +5322,7 @@
         <v>4.349070100143061</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.002670579157099205</v>
+        <v>-0.004864964247900722</v>
       </c>
     </row>
     <row r="611">
@@ -5330,7 +5330,7 @@
         <v>4.356223175965665</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.004907256856746332</v>
+        <v>-0.002938144607380946</v>
       </c>
     </row>
     <row r="612">
@@ -5338,7 +5338,7 @@
         <v>4.363376251788269</v>
       </c>
       <c r="B612" t="n">
-        <v>0.00358223723043387</v>
+        <v>0.0001729926576698456</v>
       </c>
     </row>
     <row r="613">
@@ -5346,7 +5346,7 @@
         <v>4.370529327610873</v>
       </c>
       <c r="B613" t="n">
-        <v>0.01003639667221553</v>
+        <v>0.0144690541049121</v>
       </c>
     </row>
     <row r="614">
@@ -5354,7 +5354,7 @@
         <v>4.377682403433476</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.003752044963217615</v>
+        <v>0.005427097376767004</v>
       </c>
     </row>
     <row r="615">
@@ -5362,7 +5362,7 @@
         <v>4.38483547925608</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.006709879434558036</v>
+        <v>-0.003186888254159591</v>
       </c>
     </row>
     <row r="616">
@@ -5370,7 +5370,7 @@
         <v>4.391988555078684</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.01878988369133967</v>
+        <v>0.004500522188060275</v>
       </c>
     </row>
     <row r="617">
@@ -5378,7 +5378,7 @@
         <v>4.399141630901288</v>
       </c>
       <c r="B617" t="n">
-        <v>0.008052892332679248</v>
+        <v>0.006465442440440622</v>
       </c>
     </row>
     <row r="618">
@@ -5386,7 +5386,7 @@
         <v>4.406294706723891</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.005740794678438852</v>
+        <v>0.01001185797002421</v>
       </c>
     </row>
     <row r="619">
@@ -5394,7 +5394,7 @@
         <v>4.413447782546495</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.01816661285479668</v>
+        <v>0.007763039448797728</v>
       </c>
     </row>
     <row r="620">
@@ -5402,7 +5402,7 @@
         <v>4.420600858369099</v>
       </c>
       <c r="B620" t="n">
-        <v>0.01808422921705879</v>
+        <v>0.0140624870005179</v>
       </c>
     </row>
     <row r="621">
@@ -5410,7 +5410,7 @@
         <v>4.427753934191703</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.0006935988435415399</v>
+        <v>-0.001065854717236687</v>
       </c>
     </row>
     <row r="622">
@@ -5418,7 +5418,7 @@
         <v>4.434907010014306</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.006249318433225719</v>
+        <v>-0.007239781666539097</v>
       </c>
     </row>
     <row r="623">
@@ -5426,7 +5426,7 @@
         <v>4.44206008583691</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.01535883415406351</v>
+        <v>0.0008213209390543693</v>
       </c>
     </row>
     <row r="624">
@@ -5434,7 +5434,7 @@
         <v>4.449213161659514</v>
       </c>
       <c r="B624" t="n">
-        <v>0.003118142256847355</v>
+        <v>0.01582634231926048</v>
       </c>
     </row>
     <row r="625">
@@ -5442,7 +5442,7 @@
         <v>4.456366237482118</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.008105401554007739</v>
+        <v>-0.006589383687668659</v>
       </c>
     </row>
     <row r="626">
@@ -5450,7 +5450,7 @@
         <v>4.463519313304721</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.01061771095069762</v>
+        <v>-0.01214796266843197</v>
       </c>
     </row>
     <row r="627">
@@ -5458,7 +5458,7 @@
         <v>4.470672389127325</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.002614593000483762</v>
+        <v>-0.01182138555788685</v>
       </c>
     </row>
     <row r="628">
@@ -5466,7 +5466,7 @@
         <v>4.477825464949929</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.01167012705848831</v>
+        <v>-0.01450154573956994</v>
       </c>
     </row>
     <row r="629">
@@ -5474,7 +5474,7 @@
         <v>4.484978540772532</v>
       </c>
       <c r="B629" t="n">
-        <v>0.009440577554190767</v>
+        <v>-0.009799051789883918</v>
       </c>
     </row>
     <row r="630">
@@ -5482,7 +5482,7 @@
         <v>4.492131616595135</v>
       </c>
       <c r="B630" t="n">
-        <v>0.003901631556025882</v>
+        <v>-0.01068596776022429</v>
       </c>
     </row>
     <row r="631">
@@ -5490,7 +5490,7 @@
         <v>4.499284692417739</v>
       </c>
       <c r="B631" t="n">
-        <v>0.01158899479495776</v>
+        <v>0.007767128535016693</v>
       </c>
     </row>
     <row r="632">
@@ -5498,7 +5498,7 @@
         <v>4.506437768240343</v>
       </c>
       <c r="B632" t="n">
-        <v>0.005648426768265964</v>
+        <v>-0.00392427470256802</v>
       </c>
     </row>
     <row r="633">
@@ -5506,7 +5506,7 @@
         <v>4.513590844062947</v>
       </c>
       <c r="B633" t="n">
-        <v>0.01343667361119708</v>
+        <v>0.006699212989117948</v>
       </c>
     </row>
     <row r="634">
@@ -5514,7 +5514,7 @@
         <v>4.52074391988555</v>
       </c>
       <c r="B634" t="n">
-        <v>0.007037483785710784</v>
+        <v>0.007259099919020829</v>
       </c>
     </row>
     <row r="635">
@@ -5522,7 +5522,7 @@
         <v>4.527896995708154</v>
       </c>
       <c r="B635" t="n">
-        <v>0.006476934866792448</v>
+        <v>0.01101430759800777</v>
       </c>
     </row>
     <row r="636">
@@ -5530,7 +5530,7 @@
         <v>4.535050071530758</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.006679025734545548</v>
+        <v>0.003205791208129261</v>
       </c>
     </row>
     <row r="637">
@@ -5538,7 +5538,7 @@
         <v>4.542203147353362</v>
       </c>
       <c r="B637" t="n">
-        <v>0.0008580995859680033</v>
+        <v>-0.007510717924121829</v>
       </c>
     </row>
     <row r="638">
@@ -5546,7 +5546,7 @@
         <v>4.549356223175965</v>
       </c>
       <c r="B638" t="n">
-        <v>0.002487586245006766</v>
+        <v>-0.009375460950085747</v>
       </c>
     </row>
     <row r="639">
@@ -5554,7 +5554,7 @@
         <v>4.556509298998569</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.001438519686757548</v>
+        <v>0.002229593383588151</v>
       </c>
     </row>
     <row r="640">
@@ -5562,7 +5562,7 @@
         <v>4.563662374821173</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.0008535964919446573</v>
+        <v>0.008975343367836971</v>
       </c>
     </row>
     <row r="641">
@@ -5570,7 +5570,7 @@
         <v>4.570815450643777</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.0008395405040699252</v>
+        <v>-0.02609870891004499</v>
       </c>
     </row>
     <row r="642">
@@ -5578,7 +5578,7 @@
         <v>4.57796852646638</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.0004610784036748831</v>
+        <v>-0.003367667214398997</v>
       </c>
     </row>
     <row r="643">
@@ -5586,7 +5586,7 @@
         <v>4.585121602288984</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.004706547271366245</v>
+        <v>-0.01373174659285096</v>
       </c>
     </row>
     <row r="644">
@@ -5594,7 +5594,7 @@
         <v>4.592274678111588</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.001403112020578901</v>
+        <v>-0.005695706522210596</v>
       </c>
     </row>
     <row r="645">
@@ -5602,7 +5602,7 @@
         <v>4.599427753934192</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.004636041953877319</v>
+        <v>-0.01449256407401514</v>
       </c>
     </row>
     <row r="646">
@@ -5610,7 +5610,7 @@
         <v>4.606580829756796</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.0005788227564837846</v>
+        <v>-0.001488945163652921</v>
       </c>
     </row>
     <row r="647">
@@ -5618,7 +5618,7 @@
         <v>4.613733905579399</v>
       </c>
       <c r="B647" t="n">
-        <v>0.0198877647593858</v>
+        <v>0.006613908504760037</v>
       </c>
     </row>
     <row r="648">
@@ -5626,7 +5626,7 @@
         <v>4.620886981402003</v>
       </c>
       <c r="B648" t="n">
-        <v>0.01452215873218947</v>
+        <v>-0.00866280873463331</v>
       </c>
     </row>
     <row r="649">
@@ -5634,7 +5634,7 @@
         <v>4.628040057224607</v>
       </c>
       <c r="B649" t="n">
-        <v>0.002099108794181728</v>
+        <v>-0.0006617782393999811</v>
       </c>
     </row>
     <row r="650">
@@ -5642,7 +5642,7 @@
         <v>4.635193133047211</v>
       </c>
       <c r="B650" t="n">
-        <v>0.004035843448587926</v>
+        <v>-0.00807041716282164</v>
       </c>
     </row>
     <row r="651">
@@ -5650,7 +5650,7 @@
         <v>4.642346208869814</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.00813678512783639</v>
+        <v>-0.005686659567414851</v>
       </c>
     </row>
     <row r="652">
@@ -5658,7 +5658,7 @@
         <v>4.649499284692418</v>
       </c>
       <c r="B652" t="n">
-        <v>0.002799112766823004</v>
+        <v>0.02416315932409767</v>
       </c>
     </row>
     <row r="653">
@@ -5666,7 +5666,7 @@
         <v>4.656652360515022</v>
       </c>
       <c r="B653" t="n">
-        <v>0.001400761244358982</v>
+        <v>-0.001872200753112463</v>
       </c>
     </row>
     <row r="654">
@@ -5674,7 +5674,7 @@
         <v>4.663805436337626</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.00126270707961578</v>
+        <v>0.01123408498008993</v>
       </c>
     </row>
     <row r="655">
@@ -5682,7 +5682,7 @@
         <v>4.670958512160229</v>
       </c>
       <c r="B655" t="n">
-        <v>0.005455018280013986</v>
+        <v>0.01068550816131025</v>
       </c>
     </row>
     <row r="656">
@@ -5690,7 +5690,7 @@
         <v>4.678111587982833</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.009035861014731557</v>
+        <v>-0.002363740262338985</v>
       </c>
     </row>
     <row r="657">
@@ -5698,7 +5698,7 @@
         <v>4.685264663805436</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.0003231886371630484</v>
+        <v>0.003773236243332212</v>
       </c>
     </row>
     <row r="658">
@@ -5706,7 +5706,7 @@
         <v>4.69241773962804</v>
       </c>
       <c r="B658" t="n">
-        <v>0.003552613291372618</v>
+        <v>0.003938882041241758</v>
       </c>
     </row>
     <row r="659">
@@ -5714,7 +5714,7 @@
         <v>4.699570815450643</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.01548322762070792</v>
+        <v>0.009092941052884615</v>
       </c>
     </row>
     <row r="660">
@@ -5722,7 +5722,7 @@
         <v>4.706723891273247</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.0184246757238758</v>
+        <v>0.001419882879548669</v>
       </c>
     </row>
     <row r="661">
@@ -5730,7 +5730,7 @@
         <v>4.713876967095851</v>
       </c>
       <c r="B661" t="n">
-        <v>0.007853461801004002</v>
+        <v>0.001036935185973273</v>
       </c>
     </row>
     <row r="662">
@@ -5738,7 +5738,7 @@
         <v>4.721030042918455</v>
       </c>
       <c r="B662" t="n">
-        <v>0.006458309190612813</v>
+        <v>0.0006452402278459086</v>
       </c>
     </row>
     <row r="663">
@@ -5746,7 +5746,7 @@
         <v>4.728183118741058</v>
       </c>
       <c r="B663" t="n">
-        <v>0.01652119822086499</v>
+        <v>0.002058644958660747</v>
       </c>
     </row>
     <row r="664">
@@ -5754,7 +5754,7 @@
         <v>4.735336194563662</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.00367559009914111</v>
+        <v>0.005069899278618463</v>
       </c>
     </row>
     <row r="665">
@@ -5762,7 +5762,7 @@
         <v>4.742489270386266</v>
       </c>
       <c r="B665" t="n">
-        <v>0.00212609943414317</v>
+        <v>-0.001584747932102093</v>
       </c>
     </row>
     <row r="666">
@@ -5770,7 +5770,7 @@
         <v>4.74964234620887</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.01081855287595319</v>
+        <v>0.00564870208867041</v>
       </c>
     </row>
     <row r="667">
@@ -5778,7 +5778,7 @@
         <v>4.756795422031473</v>
       </c>
       <c r="B667" t="n">
-        <v>0.01290719684621596</v>
+        <v>-0.006033611531009207</v>
       </c>
     </row>
     <row r="668">
@@ -5786,7 +5786,7 @@
         <v>4.763948497854077</v>
       </c>
       <c r="B668" t="n">
-        <v>0.001946555246731931</v>
+        <v>-0.02382089916566719</v>
       </c>
     </row>
     <row r="669">
@@ -5794,7 +5794,7 @@
         <v>4.771101573676681</v>
       </c>
       <c r="B669" t="n">
-        <v>0.01516773598472186</v>
+        <v>-0.003253919552381565</v>
       </c>
     </row>
     <row r="670">
@@ -5802,7 +5802,7 @@
         <v>4.778254649499285</v>
       </c>
       <c r="B670" t="n">
-        <v>0.004128877417335872</v>
+        <v>0.009038632399186243</v>
       </c>
     </row>
     <row r="671">
@@ -5810,7 +5810,7 @@
         <v>4.785407725321888</v>
       </c>
       <c r="B671" t="n">
-        <v>0.008172015579388573</v>
+        <v>0.01631258882231139</v>
       </c>
     </row>
     <row r="672">
@@ -5818,7 +5818,7 @@
         <v>4.792560801144492</v>
       </c>
       <c r="B672" t="n">
-        <v>0.0002593687300168599</v>
+        <v>-0.00669638579335645</v>
       </c>
     </row>
     <row r="673">
@@ -5826,7 +5826,7 @@
         <v>4.799713876967096</v>
       </c>
       <c r="B673" t="n">
-        <v>0.009606943992369584</v>
+        <v>0.0004932200167629641</v>
       </c>
     </row>
     <row r="674">
@@ -5834,7 +5834,7 @@
         <v>4.8068669527897</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.01097326337030621</v>
+        <v>0.004549709245256785</v>
       </c>
     </row>
     <row r="675">
@@ -5842,7 +5842,7 @@
         <v>4.814020028612303</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.006271709518199907</v>
+        <v>0.0001604961198902148</v>
       </c>
     </row>
     <row r="676">
@@ -5850,7 +5850,7 @@
         <v>4.821173104434907</v>
       </c>
       <c r="B676" t="n">
-        <v>0.002775097623348772</v>
+        <v>-0.005935919812934136</v>
       </c>
     </row>
     <row r="677">
@@ -5858,7 +5858,7 @@
         <v>4.828326180257511</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.01465934359734229</v>
+        <v>-0.001092089490085337</v>
       </c>
     </row>
     <row r="678">
@@ -5866,7 +5866,7 @@
         <v>4.835479256080115</v>
       </c>
       <c r="B678" t="n">
-        <v>0.001560188955998772</v>
+        <v>-0.008779107278854087</v>
       </c>
     </row>
     <row r="679">
@@ -5874,7 +5874,7 @@
         <v>4.842632331902718</v>
       </c>
       <c r="B679" t="n">
-        <v>0.00694074304960774</v>
+        <v>0.002871172949650365</v>
       </c>
     </row>
     <row r="680">
@@ -5882,7 +5882,7 @@
         <v>4.849785407725322</v>
       </c>
       <c r="B680" t="n">
-        <v>0.009756787981656107</v>
+        <v>0.02186460207606944</v>
       </c>
     </row>
     <row r="681">
@@ -5890,7 +5890,7 @@
         <v>4.856938483547926</v>
       </c>
       <c r="B681" t="n">
-        <v>0.006273252715268474</v>
+        <v>0.01195618015343227</v>
       </c>
     </row>
     <row r="682">
@@ -5898,7 +5898,7 @@
         <v>4.86409155937053</v>
       </c>
       <c r="B682" t="n">
-        <v>0.002243834180697219</v>
+        <v>-0.01121440859435546</v>
       </c>
     </row>
     <row r="683">
@@ -5906,7 +5906,7 @@
         <v>4.871244635193133</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.0180393081807037</v>
+        <v>0.006515777689579464</v>
       </c>
     </row>
     <row r="684">
@@ -5914,7 +5914,7 @@
         <v>4.878397711015737</v>
       </c>
       <c r="B684" t="n">
-        <v>0.01025875722925542</v>
+        <v>-0.01472759845440431</v>
       </c>
     </row>
     <row r="685">
@@ -5922,7 +5922,7 @@
         <v>4.885550786838341</v>
       </c>
       <c r="B685" t="n">
-        <v>0.004774317244204822</v>
+        <v>-0.009020490571389103</v>
       </c>
     </row>
     <row r="686">
@@ -5930,7 +5930,7 @@
         <v>4.892703862660944</v>
       </c>
       <c r="B686" t="n">
-        <v>0.002728483551352519</v>
+        <v>-0.01135091124563717</v>
       </c>
     </row>
     <row r="687">
@@ -5938,7 +5938,7 @@
         <v>4.899856938483548</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.01733368560791226</v>
+        <v>-0.01674724149906719</v>
       </c>
     </row>
     <row r="688">
@@ -5946,7 +5946,7 @@
         <v>4.907010014306151</v>
       </c>
       <c r="B688" t="n">
-        <v>0.01037692676528323</v>
+        <v>0.003824523447788007</v>
       </c>
     </row>
     <row r="689">
@@ -5954,7 +5954,7 @@
         <v>4.914163090128755</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.00364122718138844</v>
+        <v>-0.01762614759080993</v>
       </c>
     </row>
     <row r="690">
@@ -5962,7 +5962,7 @@
         <v>4.921316165951359</v>
       </c>
       <c r="B690" t="n">
-        <v>0.001774134141631687</v>
+        <v>0.01156179633491542</v>
       </c>
     </row>
     <row r="691">
@@ -5970,7 +5970,7 @@
         <v>4.928469241773962</v>
       </c>
       <c r="B691" t="n">
-        <v>0.002063158463983005</v>
+        <v>0.009144898816606852</v>
       </c>
     </row>
     <row r="692">
@@ -5978,7 +5978,7 @@
         <v>4.935622317596566</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.001516609026654371</v>
+        <v>0.006156036055816614</v>
       </c>
     </row>
     <row r="693">
@@ -5986,7 +5986,7 @@
         <v>4.94277539341917</v>
       </c>
       <c r="B693" t="n">
-        <v>0.01120188397748433</v>
+        <v>-0.001963415085135539</v>
       </c>
     </row>
     <row r="694">
@@ -5994,7 +5994,7 @@
         <v>4.949928469241774</v>
       </c>
       <c r="B694" t="n">
-        <v>0.001392672128319073</v>
+        <v>-0.003745690547756029</v>
       </c>
     </row>
     <row r="695">
@@ -6002,7 +6002,7 @@
         <v>4.957081545064377</v>
       </c>
       <c r="B695" t="n">
-        <v>0.005968263071212176</v>
+        <v>-0.01170510034691678</v>
       </c>
     </row>
     <row r="696">
@@ -6010,7 +6010,7 @@
         <v>4.964234620886981</v>
       </c>
       <c r="B696" t="n">
-        <v>0.007708644828373016</v>
+        <v>0.01353907928742404</v>
       </c>
     </row>
     <row r="697">
@@ -6018,7 +6018,7 @@
         <v>4.971387696709585</v>
       </c>
       <c r="B697" t="n">
-        <v>0.01499462724215312</v>
+        <v>-0.007550327747775502</v>
       </c>
     </row>
     <row r="698">
@@ -6026,7 +6026,7 @@
         <v>4.978540772532189</v>
       </c>
       <c r="B698" t="n">
-        <v>0.00847637390801499</v>
+        <v>-0.002419050810972313</v>
       </c>
     </row>
     <row r="699">
@@ -6034,7 +6034,7 @@
         <v>4.985693848354792</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.001429094416888453</v>
+        <v>-0.002176253961432479</v>
       </c>
     </row>
     <row r="700">
@@ -6042,7 +6042,7 @@
         <v>4.992846924177396</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.004631200922572951</v>
+        <v>0.0062703974123817</v>
       </c>
     </row>
     <row r="701">
@@ -6050,7 +6050,7 @@
         <v>5</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.0138390338043299</v>
+        <v>-0.0003660830839885043</v>
       </c>
     </row>
   </sheetData>

--- a/test_ECG_One.xlsx
+++ b/test_ECG_One.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.003700660662554553</v>
+        <v>-0.00266280531182828</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
@@ -454,7 +454,7 @@
         <v>0.00715307582260372</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01660693168945482</v>
+        <v>0.03725060309306211</v>
       </c>
       <c r="C3" t="n">
         <v>171</v>
@@ -465,7 +465,7 @@
         <v>0.01430615164520744</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07808527304266544</v>
+        <v>0.06743535511367064</v>
       </c>
       <c r="C4" t="n">
         <v>311</v>
@@ -476,7 +476,7 @@
         <v>0.02145922746781116</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09913852631818076</v>
+        <v>0.08586912957726393</v>
       </c>
       <c r="C5" t="n">
         <v>451</v>
@@ -487,7 +487,7 @@
         <v>0.02861230329041488</v>
       </c>
       <c r="B6" t="n">
-        <v>0.102048315241432</v>
+        <v>0.08939159184854979</v>
       </c>
       <c r="C6" t="n">
         <v>591</v>
@@ -498,7 +498,7 @@
         <v>0.03576537911301859</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06211103268861105</v>
+        <v>0.08212042838032454</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         <v>0.04291845493562232</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05399793457713637</v>
+        <v>0.03844684098710496</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +514,7 @@
         <v>0.05007153075822604</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.007708530558556411</v>
+        <v>-0.002243881044721929</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.05722460658082976</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006425454796822576</v>
+        <v>-0.009724196218469405</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         <v>0.06437768240343347</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006659617304423548</v>
+        <v>-0.019808591786096</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         <v>0.07153075822603719</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01264366124415373</v>
+        <v>0.01028829293179815</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +546,7 @@
         <v>0.07868383404864092</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008084218583594139</v>
+        <v>0.009399703433106045</v>
       </c>
     </row>
     <row r="14">
@@ -554,7 +554,7 @@
         <v>0.08583690987124463</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008049361092602327</v>
+        <v>-0.005886422632524122</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +562,7 @@
         <v>0.09298998569384835</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004397100599936627</v>
+        <v>0.004525137744442027</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         <v>0.1001430615164521</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.001334506564175909</v>
+        <v>-0.0198001141810426</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +578,7 @@
         <v>0.1072961373390558</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.001766849496065869</v>
+        <v>0.001191553541448995</v>
       </c>
     </row>
     <row r="18">
@@ -586,7 +586,7 @@
         <v>0.1144492131616595</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01168777261686244</v>
+        <v>0.003133884802151804</v>
       </c>
     </row>
     <row r="19">
@@ -594,7 +594,7 @@
         <v>0.1216022889842632</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01248342816597009</v>
+        <v>0.005855791767101961</v>
       </c>
     </row>
     <row r="20">
@@ -602,7 +602,7 @@
         <v>0.1287553648068669</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.006710448817423972</v>
+        <v>0.005881190690593515</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>0.1359084406294707</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02425771130585782</v>
+        <v>0.007458830216761743</v>
       </c>
     </row>
     <row r="22">
@@ -618,7 +618,7 @@
         <v>0.1430615164520744</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.007297659402759459</v>
+        <v>0.01847856575654039</v>
       </c>
     </row>
     <row r="23">
@@ -626,7 +626,7 @@
         <v>0.1502145922746781</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004426580636559705</v>
+        <v>-0.001527405957141987</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +634,7 @@
         <v>0.1573676680972818</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003511209799468843</v>
+        <v>-0.00755682573698165</v>
       </c>
     </row>
     <row r="25">
@@ -642,7 +642,7 @@
         <v>0.1645207439198856</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.001225611460323884</v>
+        <v>-0.01654787316020762</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.1716738197424893</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007403190212638039</v>
+        <v>0.01511385128267075</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +658,7 @@
         <v>0.178826895565093</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.01341629850398668</v>
+        <v>-0.01264539116749325</v>
       </c>
     </row>
     <row r="28">
@@ -666,7 +666,7 @@
         <v>0.1859799713876967</v>
       </c>
       <c r="B28" t="n">
-        <v>0.001999875268265654</v>
+        <v>0.004005028823960526</v>
       </c>
     </row>
     <row r="29">
@@ -674,7 +674,7 @@
         <v>0.1931330472103004</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002638538501556733</v>
+        <v>-0.01196527793151663</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +682,7 @@
         <v>0.2002861230329042</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00191980026089378</v>
+        <v>-0.001657040346377406</v>
       </c>
     </row>
     <row r="31">
@@ -690,7 +690,7 @@
         <v>0.2074391988555079</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.01238589167980495</v>
+        <v>-0.01518357280455302</v>
       </c>
     </row>
     <row r="32">
@@ -698,7 +698,7 @@
         <v>0.2145922746781116</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4773221689409464</v>
+        <v>0.4871661870380879</v>
       </c>
     </row>
     <row r="33">
@@ -706,7 +706,7 @@
         <v>0.2217453505007153</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5322186521074213</v>
+        <v>0.5208430994113382</v>
       </c>
     </row>
     <row r="34">
@@ -714,7 +714,7 @@
         <v>0.228898426323319</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.01895592605147361</v>
+        <v>-0.01186684128167791</v>
       </c>
     </row>
     <row r="35">
@@ -722,7 +722,7 @@
         <v>0.2360515021459227</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1784397007729231</v>
+        <v>-0.1732758127195315</v>
       </c>
     </row>
     <row r="36">
@@ -730,7 +730,7 @@
         <v>0.2432045779685265</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1600598938169442</v>
+        <v>-0.148006131349516</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +738,7 @@
         <v>0.2503576537911302</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01217205815149749</v>
+        <v>0.0137315038655904</v>
       </c>
     </row>
     <row r="38">
@@ -746,7 +746,7 @@
         <v>0.2575107296137339</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08108300669785483</v>
+        <v>0.07749586565695532</v>
       </c>
     </row>
     <row r="39">
@@ -754,7 +754,7 @@
         <v>0.2646638054363376</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1177379859382539</v>
+        <v>0.1362445429993711</v>
       </c>
     </row>
     <row r="40">
@@ -762,7 +762,7 @@
         <v>0.2718168812589413</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1559234004002531</v>
+        <v>0.1790254244731372</v>
       </c>
     </row>
     <row r="41">
@@ -770,7 +770,7 @@
         <v>0.278969957081545</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2001854604220361</v>
+        <v>0.1799125787059092</v>
       </c>
     </row>
     <row r="42">
@@ -778,7 +778,7 @@
         <v>0.2861230329041488</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2002888393198662</v>
+        <v>0.2028667925218331</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         <v>0.2932761087267525</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1776066237476872</v>
+        <v>0.1750350277657448</v>
       </c>
     </row>
     <row r="44">
@@ -794,7 +794,7 @@
         <v>0.3004291845493562</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1396805634792133</v>
+        <v>0.131247148398998</v>
       </c>
     </row>
     <row r="45">
@@ -802,7 +802,7 @@
         <v>0.30758226037196</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0897429917026587</v>
+        <v>0.09887900697738213</v>
       </c>
     </row>
     <row r="46">
@@ -810,7 +810,7 @@
         <v>0.3147353361945637</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03563246345383224</v>
+        <v>0.02072788806424024</v>
       </c>
     </row>
     <row r="47">
@@ -818,7 +818,7 @@
         <v>0.3218884120171674</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.006975498541126601</v>
+        <v>0.007253545195407249</v>
       </c>
     </row>
     <row r="48">
@@ -826,7 +826,7 @@
         <v>0.3290414878397711</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002746566745293064</v>
+        <v>-0.004461780319965753</v>
       </c>
     </row>
     <row r="49">
@@ -834,7 +834,7 @@
         <v>0.3361945636623748</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0001359624479816834</v>
+        <v>0.005841365473224739</v>
       </c>
     </row>
     <row r="50">
@@ -842,7 +842,7 @@
         <v>0.3433476394849785</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.004864964247900722</v>
+        <v>0.01421997112125075</v>
       </c>
     </row>
     <row r="51">
@@ -850,7 +850,7 @@
         <v>0.3505007153075823</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.002938144607380946</v>
+        <v>-0.009767030887206049</v>
       </c>
     </row>
     <row r="52">
@@ -858,7 +858,7 @@
         <v>0.357653791130186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001729926576698456</v>
+        <v>0.01336656731558463</v>
       </c>
     </row>
     <row r="53">
@@ -866,7 +866,7 @@
         <v>0.3648068669527897</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0144690541049121</v>
+        <v>-0.001971513151648269</v>
       </c>
     </row>
     <row r="54">
@@ -874,7 +874,7 @@
         <v>0.3719599427753934</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005427097376767004</v>
+        <v>0.01299672128343668</v>
       </c>
     </row>
     <row r="55">
@@ -882,7 +882,7 @@
         <v>0.3791130185979971</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.003186888254159591</v>
+        <v>-0.001232403117733985</v>
       </c>
     </row>
     <row r="56">
@@ -890,7 +890,7 @@
         <v>0.3862660944206008</v>
       </c>
       <c r="B56" t="n">
-        <v>0.004500522188060275</v>
+        <v>-0.007143684005059794</v>
       </c>
     </row>
     <row r="57">
@@ -898,7 +898,7 @@
         <v>0.3934191702432046</v>
       </c>
       <c r="B57" t="n">
-        <v>0.006465442440440622</v>
+        <v>0.003324173342414432</v>
       </c>
     </row>
     <row r="58">
@@ -906,7 +906,7 @@
         <v>0.4005722460658083</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01001185797002421</v>
+        <v>-0.001476050227180726</v>
       </c>
     </row>
     <row r="59">
@@ -914,7 +914,7 @@
         <v>0.407725321888412</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007763039448797728</v>
+        <v>-0.001022395411781915</v>
       </c>
     </row>
     <row r="60">
@@ -922,7 +922,7 @@
         <v>0.4148783977110158</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0140624870005179</v>
+        <v>0.02141964464946038</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>0.4220314735336195</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.001065854717236687</v>
+        <v>0.012653706597761</v>
       </c>
     </row>
     <row r="62">
@@ -938,7 +938,7 @@
         <v>0.4291845493562232</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.007239781666539097</v>
+        <v>0.006835299952707608</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +946,7 @@
         <v>0.4363376251788269</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0008213209390543693</v>
+        <v>-0.009585457908945888</v>
       </c>
     </row>
     <row r="64">
@@ -954,7 +954,7 @@
         <v>0.4434907010014306</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01582634231926048</v>
+        <v>-0.02230425930297602</v>
       </c>
     </row>
     <row r="65">
@@ -962,7 +962,7 @@
         <v>0.4506437768240343</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.006589383687668659</v>
+        <v>-0.0128963058605777</v>
       </c>
     </row>
     <row r="66">
@@ -970,7 +970,7 @@
         <v>0.4577968526466381</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.01214796266843197</v>
+        <v>0.001212919378912691</v>
       </c>
     </row>
     <row r="67">
@@ -978,7 +978,7 @@
         <v>0.4649499284692418</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01182138555788685</v>
+        <v>-0.001686822593602655</v>
       </c>
     </row>
     <row r="68">
@@ -986,7 +986,7 @@
         <v>0.4721030042918455</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.01450154573956994</v>
+        <v>-0.005583105818360606</v>
       </c>
     </row>
     <row r="69">
@@ -994,7 +994,7 @@
         <v>0.4792560801144492</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.009799051789883918</v>
+        <v>-0.008014815930723219</v>
       </c>
     </row>
     <row r="70">
@@ -1002,7 +1002,7 @@
         <v>0.4864091559370529</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.01068596776022429</v>
+        <v>0.008926508083940151</v>
       </c>
     </row>
     <row r="71">
@@ -1010,7 +1010,7 @@
         <v>0.4935622317596566</v>
       </c>
       <c r="B71" t="n">
-        <v>0.007767128535016693</v>
+        <v>-0.01136503375608534</v>
       </c>
     </row>
     <row r="72">
@@ -1018,7 +1018,7 @@
         <v>0.5007153075822603</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.00392427470256802</v>
+        <v>0.01683444392631001</v>
       </c>
     </row>
     <row r="73">
@@ -1026,7 +1026,7 @@
         <v>0.5078683834048641</v>
       </c>
       <c r="B73" t="n">
-        <v>0.006699212989117948</v>
+        <v>0.001763258351853747</v>
       </c>
     </row>
     <row r="74">
@@ -1034,7 +1034,7 @@
         <v>0.5150214592274678</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007259099919020829</v>
+        <v>-0.009078751448516579</v>
       </c>
     </row>
     <row r="75">
@@ -1042,7 +1042,7 @@
         <v>0.5221745350500715</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01101430759800777</v>
+        <v>0.007835456966121845</v>
       </c>
     </row>
     <row r="76">
@@ -1050,7 +1050,7 @@
         <v>0.5293276108726752</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003205791208129261</v>
+        <v>0.005792732017843818</v>
       </c>
     </row>
     <row r="77">
@@ -1058,7 +1058,7 @@
         <v>0.5364806866952789</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.007510717924121829</v>
+        <v>-0.0007064697713483318</v>
       </c>
     </row>
     <row r="78">
@@ -1066,7 +1066,7 @@
         <v>0.5436337625178826</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.009375460950085747</v>
+        <v>0.003920861145516019</v>
       </c>
     </row>
     <row r="79">
@@ -1074,7 +1074,7 @@
         <v>0.5507868383404864</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002229593383588151</v>
+        <v>-0.006784456528815853</v>
       </c>
     </row>
     <row r="80">
@@ -1082,7 +1082,7 @@
         <v>0.5579399141630901</v>
       </c>
       <c r="B80" t="n">
-        <v>0.008975343367836971</v>
+        <v>-0.01343293717932255</v>
       </c>
     </row>
     <row r="81">
@@ -1090,7 +1090,7 @@
         <v>0.5650929899856938</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02609870891004499</v>
+        <v>-0.005227896950732482</v>
       </c>
     </row>
     <row r="82">
@@ -1098,7 +1098,7 @@
         <v>0.5722460658082975</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.003367667214398997</v>
+        <v>0.0002117093739790423</v>
       </c>
     </row>
     <row r="83">
@@ -1106,7 +1106,7 @@
         <v>0.5793991416309013</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.01373174659285096</v>
+        <v>-0.004457413727986997</v>
       </c>
     </row>
     <row r="84">
@@ -1114,7 +1114,7 @@
         <v>0.5865522174535051</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.005695706522210596</v>
+        <v>-0.007304282369229349</v>
       </c>
     </row>
     <row r="85">
@@ -1122,7 +1122,7 @@
         <v>0.5937052932761088</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.01449256407401514</v>
+        <v>0.001377037723773541</v>
       </c>
     </row>
     <row r="86">
@@ -1130,7 +1130,7 @@
         <v>0.6008583690987125</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.001488945163652921</v>
+        <v>-0.00805631659660167</v>
       </c>
     </row>
     <row r="87">
@@ -1138,7 +1138,7 @@
         <v>0.6080114449213162</v>
       </c>
       <c r="B87" t="n">
-        <v>0.006613908504760037</v>
+        <v>0.01211917519909818</v>
       </c>
     </row>
     <row r="88">
@@ -1146,7 +1146,7 @@
         <v>0.6151645207439199</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.00866280873463331</v>
+        <v>0.01699652599080191</v>
       </c>
     </row>
     <row r="89">
@@ -1154,7 +1154,7 @@
         <v>0.6223175965665236</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0006617782393999811</v>
+        <v>-0.009682053336418885</v>
       </c>
     </row>
     <row r="90">
@@ -1162,7 +1162,7 @@
         <v>0.6294706723891274</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.00807041716282164</v>
+        <v>0.003138868895206901</v>
       </c>
     </row>
     <row r="91">
@@ -1170,7 +1170,7 @@
         <v>0.6366237482117311</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.005686659567414851</v>
+        <v>9.934502177713416e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1178,7 +1178,7 @@
         <v>0.6437768240343348</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02416315932409767</v>
+        <v>0.01659105824945812</v>
       </c>
     </row>
     <row r="93">
@@ -1186,7 +1186,7 @@
         <v>0.6509298998569385</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.001872200753112463</v>
+        <v>-0.005653834755649747</v>
       </c>
     </row>
     <row r="94">
@@ -1194,7 +1194,7 @@
         <v>0.6580829756795422</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01123408498008993</v>
+        <v>0.001404385003184269</v>
       </c>
     </row>
     <row r="95">
@@ -1202,7 +1202,7 @@
         <v>0.6652360515021459</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01068550816131025</v>
+        <v>0.005338034505344895</v>
       </c>
     </row>
     <row r="96">
@@ -1210,7 +1210,7 @@
         <v>0.6723891273247496</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.002363740262338985</v>
+        <v>-0.0008842464648108174</v>
       </c>
     </row>
     <row r="97">
@@ -1218,7 +1218,7 @@
         <v>0.6795422031473534</v>
       </c>
       <c r="B97" t="n">
-        <v>0.003773236243332212</v>
+        <v>0.004964889061115179</v>
       </c>
     </row>
     <row r="98">
@@ -1226,7 +1226,7 @@
         <v>0.6866952789699571</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003938882041241758</v>
+        <v>0.00699423049065065</v>
       </c>
     </row>
     <row r="99">
@@ -1234,7 +1234,7 @@
         <v>0.6938483547925608</v>
       </c>
       <c r="B99" t="n">
-        <v>0.009092941052884615</v>
+        <v>0.0019434285047798</v>
       </c>
     </row>
     <row r="100">
@@ -1242,7 +1242,7 @@
         <v>0.7010014306151645</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001419882879548669</v>
+        <v>0.009007027791753728</v>
       </c>
     </row>
     <row r="101">
@@ -1250,7 +1250,7 @@
         <v>0.7081545064377682</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001036935185973273</v>
+        <v>0.01258889102552485</v>
       </c>
     </row>
     <row r="102">
@@ -1258,7 +1258,7 @@
         <v>0.7153075822603719</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0006452402278459086</v>
+        <v>0.01237342644857873</v>
       </c>
     </row>
     <row r="103">
@@ -1266,7 +1266,7 @@
         <v>0.7224606580829757</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002058644958660747</v>
+        <v>-0.0001266222993760316</v>
       </c>
     </row>
     <row r="104">
@@ -1274,7 +1274,7 @@
         <v>0.7296137339055794</v>
       </c>
       <c r="B104" t="n">
-        <v>0.005069899278618463</v>
+        <v>0.006109120315111907</v>
       </c>
     </row>
     <row r="105">
@@ -1282,7 +1282,7 @@
         <v>0.7367668097281831</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.001584747932102093</v>
+        <v>0.01321947539014385</v>
       </c>
     </row>
     <row r="106">
@@ -1290,7 +1290,7 @@
         <v>0.7439198855507868</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00564870208867041</v>
+        <v>-0.00437940601308502</v>
       </c>
     </row>
     <row r="107">
@@ -1298,7 +1298,7 @@
         <v>0.7510729613733905</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.006033611531009207</v>
+        <v>0.0001674417876668289</v>
       </c>
     </row>
     <row r="108">
@@ -1306,7 +1306,7 @@
         <v>0.7582260371959942</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.02382089916566719</v>
+        <v>-0.007696261207816671</v>
       </c>
     </row>
     <row r="109">
@@ -1314,7 +1314,7 @@
         <v>0.765379113018598</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.003253919552381565</v>
+        <v>0.004309558073709603</v>
       </c>
     </row>
     <row r="110">
@@ -1322,7 +1322,7 @@
         <v>0.7725321888412017</v>
       </c>
       <c r="B110" t="n">
-        <v>0.009038632399186243</v>
+        <v>-0.01786856594693133</v>
       </c>
     </row>
     <row r="111">
@@ -1330,7 +1330,7 @@
         <v>0.7796852646638054</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01631258882231139</v>
+        <v>0.0206592142133805</v>
       </c>
     </row>
     <row r="112">
@@ -1338,7 +1338,7 @@
         <v>0.7868383404864091</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.00669638579335645</v>
+        <v>-0.006835303344808937</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +1346,7 @@
         <v>0.7939914163090128</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0004932200167629641</v>
+        <v>0.005803806448535106</v>
       </c>
     </row>
     <row r="114">
@@ -1354,7 +1354,7 @@
         <v>0.8011444921316166</v>
       </c>
       <c r="B114" t="n">
-        <v>0.004549709245256785</v>
+        <v>0.001412692690362971</v>
       </c>
     </row>
     <row r="115">
@@ -1362,7 +1362,7 @@
         <v>0.8082975679542204</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0001604961198902148</v>
+        <v>0.01035743049998043</v>
       </c>
     </row>
     <row r="116">
@@ -1370,7 +1370,7 @@
         <v>0.8154506437768241</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.005935919812934136</v>
+        <v>-0.005992401054576317</v>
       </c>
     </row>
     <row r="117">
@@ -1378,7 +1378,7 @@
         <v>0.8226037195994278</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.001092089490085337</v>
+        <v>-0.01194740880805977</v>
       </c>
     </row>
     <row r="118">
@@ -1386,7 +1386,7 @@
         <v>0.8297567954220315</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.008779107278854087</v>
+        <v>-0.009435957663903424</v>
       </c>
     </row>
     <row r="119">
@@ -1394,7 +1394,7 @@
         <v>0.8369098712446352</v>
       </c>
       <c r="B119" t="n">
-        <v>0.002871172949650365</v>
+        <v>0.016505455925556</v>
       </c>
     </row>
     <row r="120">
@@ -1402,7 +1402,7 @@
         <v>0.8440629470672389</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02186460207606944</v>
+        <v>0.00906562670289132</v>
       </c>
     </row>
     <row r="121">
@@ -1410,7 +1410,7 @@
         <v>0.8512160228898427</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01195618015343227</v>
+        <v>-0.009784313098857959</v>
       </c>
     </row>
     <row r="122">
@@ -1418,7 +1418,7 @@
         <v>0.8583690987124464</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.01121440859435546</v>
+        <v>-0.004797337459109817</v>
       </c>
     </row>
     <row r="123">
@@ -1426,7 +1426,7 @@
         <v>0.8655221745350501</v>
       </c>
       <c r="B123" t="n">
-        <v>0.006515777689579464</v>
+        <v>0.009866542353455146</v>
       </c>
     </row>
     <row r="124">
@@ -1434,7 +1434,7 @@
         <v>0.8726752503576538</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.01472759845440431</v>
+        <v>0.01731411507912492</v>
       </c>
     </row>
     <row r="125">
@@ -1442,7 +1442,7 @@
         <v>0.8798283261802575</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.009020490571389103</v>
+        <v>0.01502163311322001</v>
       </c>
     </row>
     <row r="126">
@@ -1450,7 +1450,7 @@
         <v>0.8869814020028612</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01135091124563717</v>
+        <v>-0.001824208941739171</v>
       </c>
     </row>
     <row r="127">
@@ -1458,7 +1458,7 @@
         <v>0.894134477825465</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.01674724149906719</v>
+        <v>-0.008245023409116684</v>
       </c>
     </row>
     <row r="128">
@@ -1466,7 +1466,7 @@
         <v>0.9012875536480687</v>
       </c>
       <c r="B128" t="n">
-        <v>0.003824523447788007</v>
+        <v>0.0006218569835104049</v>
       </c>
     </row>
     <row r="129">
@@ -1474,7 +1474,7 @@
         <v>0.9084406294706724</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.01762614759080993</v>
+        <v>-0.002646008591641522</v>
       </c>
     </row>
     <row r="130">
@@ -1482,7 +1482,7 @@
         <v>0.9155937052932761</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01156179633491542</v>
+        <v>-0.005804655662748974</v>
       </c>
     </row>
     <row r="131">
@@ -1490,7 +1490,7 @@
         <v>0.9227467811158798</v>
       </c>
       <c r="B131" t="n">
-        <v>0.009144898816606852</v>
+        <v>0.004196293570577402</v>
       </c>
     </row>
     <row r="132">
@@ -1498,7 +1498,7 @@
         <v>0.9298998569384835</v>
       </c>
       <c r="B132" t="n">
-        <v>0.006156036055816614</v>
+        <v>-0.01148521841146539</v>
       </c>
     </row>
     <row r="133">
@@ -1506,7 +1506,7 @@
         <v>0.9370529327610873</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.001963415085135539</v>
+        <v>0.004434126006923043</v>
       </c>
     </row>
     <row r="134">
@@ -1514,7 +1514,7 @@
         <v>0.944206008583691</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.003745690547756029</v>
+        <v>0.01448544973871527</v>
       </c>
     </row>
     <row r="135">
@@ -1522,7 +1522,7 @@
         <v>0.9513590844062947</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.01170510034691678</v>
+        <v>-0.004971198760880167</v>
       </c>
     </row>
     <row r="136">
@@ -1530,7 +1530,7 @@
         <v>0.9585121602288984</v>
       </c>
       <c r="B136" t="n">
-        <v>0.01353907928742404</v>
+        <v>0.01266729100894727</v>
       </c>
     </row>
     <row r="137">
@@ -1538,7 +1538,7 @@
         <v>0.9656652360515021</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.007550327747775502</v>
+        <v>0.008091652311061286</v>
       </c>
     </row>
     <row r="138">
@@ -1546,7 +1546,7 @@
         <v>0.9728183118741058</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.002419050810972313</v>
+        <v>0.006993173224905894</v>
       </c>
     </row>
     <row r="139">
@@ -1554,7 +1554,7 @@
         <v>0.9799713876967096</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.002176253961432479</v>
+        <v>-0.004208542213155707</v>
       </c>
     </row>
     <row r="140">
@@ -1562,7 +1562,7 @@
         <v>0.9871244635193133</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0062703974123817</v>
+        <v>-0.01783954770030564</v>
       </c>
     </row>
     <row r="141">
@@ -1570,7 +1570,7 @@
         <v>0.994277539341917</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.0003660830839885043</v>
+        <v>0.001885927418165538</v>
       </c>
     </row>
     <row r="142">
@@ -1578,7 +1578,7 @@
         <v>1.001430615164521</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003700660662554553</v>
+        <v>-0.00266280531182828</v>
       </c>
     </row>
     <row r="143">
@@ -1586,7 +1586,7 @@
         <v>1.008583690987124</v>
       </c>
       <c r="B143" t="n">
-        <v>0.01660693168945482</v>
+        <v>0.03725060309306211</v>
       </c>
     </row>
     <row r="144">
@@ -1594,7 +1594,7 @@
         <v>1.015736766809728</v>
       </c>
       <c r="B144" t="n">
-        <v>0.07808527304266544</v>
+        <v>0.06743535511367064</v>
       </c>
     </row>
     <row r="145">
@@ -1602,7 +1602,7 @@
         <v>1.022889842632332</v>
       </c>
       <c r="B145" t="n">
-        <v>0.09913852631818076</v>
+        <v>0.08586912957726393</v>
       </c>
     </row>
     <row r="146">
@@ -1610,7 +1610,7 @@
         <v>1.030042918454936</v>
       </c>
       <c r="B146" t="n">
-        <v>0.102048315241432</v>
+        <v>0.08939159184854979</v>
       </c>
     </row>
     <row r="147">
@@ -1618,7 +1618,7 @@
         <v>1.037195994277539</v>
       </c>
       <c r="B147" t="n">
-        <v>0.06211103268861105</v>
+        <v>0.08212042838032454</v>
       </c>
     </row>
     <row r="148">
@@ -1626,7 +1626,7 @@
         <v>1.044349070100143</v>
       </c>
       <c r="B148" t="n">
-        <v>0.05399793457713637</v>
+        <v>0.03844684098710496</v>
       </c>
     </row>
     <row r="149">
@@ -1634,7 +1634,7 @@
         <v>1.051502145922747</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.007708530558556411</v>
+        <v>-0.002243881044721929</v>
       </c>
     </row>
     <row r="150">
@@ -1642,7 +1642,7 @@
         <v>1.05865522174535</v>
       </c>
       <c r="B150" t="n">
-        <v>0.006425454796822576</v>
+        <v>-0.009724196218469405</v>
       </c>
     </row>
     <row r="151">
@@ -1650,7 +1650,7 @@
         <v>1.065808297567954</v>
       </c>
       <c r="B151" t="n">
-        <v>0.006659617304423548</v>
+        <v>-0.019808591786096</v>
       </c>
     </row>
     <row r="152">
@@ -1658,7 +1658,7 @@
         <v>1.072961373390558</v>
       </c>
       <c r="B152" t="n">
-        <v>0.01264366124415373</v>
+        <v>0.01028829293179815</v>
       </c>
     </row>
     <row r="153">
@@ -1666,7 +1666,7 @@
         <v>1.080114449213162</v>
       </c>
       <c r="B153" t="n">
-        <v>0.008084218583594139</v>
+        <v>0.009399703433106045</v>
       </c>
     </row>
     <row r="154">
@@ -1674,7 +1674,7 @@
         <v>1.087267525035765</v>
       </c>
       <c r="B154" t="n">
-        <v>0.008049361092602327</v>
+        <v>-0.005886422632524122</v>
       </c>
     </row>
     <row r="155">
@@ -1682,7 +1682,7 @@
         <v>1.094420600858369</v>
       </c>
       <c r="B155" t="n">
-        <v>0.004397100599936627</v>
+        <v>0.004525137744442027</v>
       </c>
     </row>
     <row r="156">
@@ -1690,7 +1690,7 @@
         <v>1.101573676680973</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.001334506564175909</v>
+        <v>-0.0198001141810426</v>
       </c>
     </row>
     <row r="157">
@@ -1698,7 +1698,7 @@
         <v>1.108726752503576</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.001766849496065869</v>
+        <v>0.001191553541448995</v>
       </c>
     </row>
     <row r="158">
@@ -1706,7 +1706,7 @@
         <v>1.11587982832618</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.01168777261686244</v>
+        <v>0.003133884802151804</v>
       </c>
     </row>
     <row r="159">
@@ -1714,7 +1714,7 @@
         <v>1.123032904148784</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.01248342816597009</v>
+        <v>0.005855791767101961</v>
       </c>
     </row>
     <row r="160">
@@ -1722,7 +1722,7 @@
         <v>1.130185979971388</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.006710448817423972</v>
+        <v>0.005881190690593515</v>
       </c>
     </row>
     <row r="161">
@@ -1730,7 +1730,7 @@
         <v>1.137339055793991</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.02425771130585782</v>
+        <v>0.007458830216761743</v>
       </c>
     </row>
     <row r="162">
@@ -1738,7 +1738,7 @@
         <v>1.144492131616595</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.007297659402759459</v>
+        <v>0.01847856575654039</v>
       </c>
     </row>
     <row r="163">
@@ -1746,7 +1746,7 @@
         <v>1.151645207439199</v>
       </c>
       <c r="B163" t="n">
-        <v>0.004426580636559705</v>
+        <v>-0.001527405957141987</v>
       </c>
     </row>
     <row r="164">
@@ -1754,7 +1754,7 @@
         <v>1.158798283261803</v>
       </c>
       <c r="B164" t="n">
-        <v>0.003511209799468843</v>
+        <v>-0.00755682573698165</v>
       </c>
     </row>
     <row r="165">
@@ -1762,7 +1762,7 @@
         <v>1.165951359084406</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.001225611460323884</v>
+        <v>-0.01654787316020762</v>
       </c>
     </row>
     <row r="166">
@@ -1770,7 +1770,7 @@
         <v>1.17310443490701</v>
       </c>
       <c r="B166" t="n">
-        <v>0.007403190212638039</v>
+        <v>0.01511385128267075</v>
       </c>
     </row>
     <row r="167">
@@ -1778,7 +1778,7 @@
         <v>1.180257510729614</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.01341629850398668</v>
+        <v>-0.01264539116749325</v>
       </c>
     </row>
     <row r="168">
@@ -1786,7 +1786,7 @@
         <v>1.187410586552218</v>
       </c>
       <c r="B168" t="n">
-        <v>0.001999875268265654</v>
+        <v>0.004005028823960526</v>
       </c>
     </row>
     <row r="169">
@@ -1794,7 +1794,7 @@
         <v>1.194563662374821</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.0002638538501556733</v>
+        <v>-0.01196527793151663</v>
       </c>
     </row>
     <row r="170">
@@ -1802,7 +1802,7 @@
         <v>1.201716738197425</v>
       </c>
       <c r="B170" t="n">
-        <v>0.00191980026089378</v>
+        <v>-0.001657040346377406</v>
       </c>
     </row>
     <row r="171">
@@ -1810,7 +1810,7 @@
         <v>1.208869814020029</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.01238589167980495</v>
+        <v>-0.01518357280455302</v>
       </c>
     </row>
     <row r="172">
@@ -1818,7 +1818,7 @@
         <v>1.216022889842632</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4773221689409464</v>
+        <v>0.4871661870380879</v>
       </c>
     </row>
     <row r="173">
@@ -1826,7 +1826,7 @@
         <v>1.223175965665236</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5322186521074213</v>
+        <v>0.5208430994113382</v>
       </c>
     </row>
     <row r="174">
@@ -1834,7 +1834,7 @@
         <v>1.23032904148784</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.01895592605147361</v>
+        <v>-0.01186684128167791</v>
       </c>
     </row>
     <row r="175">
@@ -1842,7 +1842,7 @@
         <v>1.237482117310444</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1784397007729231</v>
+        <v>-0.1732758127195315</v>
       </c>
     </row>
     <row r="176">
@@ -1850,7 +1850,7 @@
         <v>1.244635193133047</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1600598938169442</v>
+        <v>-0.148006131349516</v>
       </c>
     </row>
     <row r="177">
@@ -1858,7 +1858,7 @@
         <v>1.251788268955651</v>
       </c>
       <c r="B177" t="n">
-        <v>0.01217205815149749</v>
+        <v>0.0137315038655904</v>
       </c>
     </row>
     <row r="178">
@@ -1866,7 +1866,7 @@
         <v>1.258941344778255</v>
       </c>
       <c r="B178" t="n">
-        <v>0.08108300669785483</v>
+        <v>0.07749586565695532</v>
       </c>
     </row>
     <row r="179">
@@ -1874,7 +1874,7 @@
         <v>1.266094420600858</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1177379859382539</v>
+        <v>0.1362445429993711</v>
       </c>
     </row>
     <row r="180">
@@ -1882,7 +1882,7 @@
         <v>1.273247496423462</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1559234004002531</v>
+        <v>0.1790254244731372</v>
       </c>
     </row>
     <row r="181">
@@ -1890,7 +1890,7 @@
         <v>1.280400572246066</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2001854604220361</v>
+        <v>0.1799125787059092</v>
       </c>
     </row>
     <row r="182">
@@ -1898,7 +1898,7 @@
         <v>1.28755364806867</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2002888393198662</v>
+        <v>0.2028667925218331</v>
       </c>
     </row>
     <row r="183">
@@ -1906,7 +1906,7 @@
         <v>1.294706723891273</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1776066237476872</v>
+        <v>0.1750350277657448</v>
       </c>
     </row>
     <row r="184">
@@ -1914,7 +1914,7 @@
         <v>1.301859799713877</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1396805634792133</v>
+        <v>0.131247148398998</v>
       </c>
     </row>
     <row r="185">
@@ -1922,7 +1922,7 @@
         <v>1.309012875536481</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0897429917026587</v>
+        <v>0.09887900697738213</v>
       </c>
     </row>
     <row r="186">
@@ -1930,7 +1930,7 @@
         <v>1.316165951359084</v>
       </c>
       <c r="B186" t="n">
-        <v>0.03563246345383224</v>
+        <v>0.02072788806424024</v>
       </c>
     </row>
     <row r="187">
@@ -1938,7 +1938,7 @@
         <v>1.323319027181688</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.006975498541126601</v>
+        <v>0.007253545195407249</v>
       </c>
     </row>
     <row r="188">
@@ -1946,7 +1946,7 @@
         <v>1.330472103004292</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002746566745293064</v>
+        <v>-0.004461780319965753</v>
       </c>
     </row>
     <row r="189">
@@ -1954,7 +1954,7 @@
         <v>1.337625178826896</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0001359624479816834</v>
+        <v>0.005841365473224739</v>
       </c>
     </row>
     <row r="190">
@@ -1962,7 +1962,7 @@
         <v>1.344778254649499</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.004864964247900722</v>
+        <v>0.01421997112125075</v>
       </c>
     </row>
     <row r="191">
@@ -1970,7 +1970,7 @@
         <v>1.351931330472103</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.002938144607380946</v>
+        <v>-0.009767030887206049</v>
       </c>
     </row>
     <row r="192">
@@ -1978,7 +1978,7 @@
         <v>1.359084406294707</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0001729926576698456</v>
+        <v>0.01336656731558463</v>
       </c>
     </row>
     <row r="193">
@@ -1986,7 +1986,7 @@
         <v>1.36623748211731</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0144690541049121</v>
+        <v>-0.001971513151648269</v>
       </c>
     </row>
     <row r="194">
@@ -1994,7 +1994,7 @@
         <v>1.373390557939914</v>
       </c>
       <c r="B194" t="n">
-        <v>0.005427097376767004</v>
+        <v>0.01299672128343668</v>
       </c>
     </row>
     <row r="195">
@@ -2002,7 +2002,7 @@
         <v>1.380543633762518</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.003186888254159591</v>
+        <v>-0.001232403117733985</v>
       </c>
     </row>
     <row r="196">
@@ -2010,7 +2010,7 @@
         <v>1.387696709585122</v>
       </c>
       <c r="B196" t="n">
-        <v>0.004500522188060275</v>
+        <v>-0.007143684005059794</v>
       </c>
     </row>
     <row r="197">
@@ -2018,7 +2018,7 @@
         <v>1.394849785407725</v>
       </c>
       <c r="B197" t="n">
-        <v>0.006465442440440622</v>
+        <v>0.003324173342414432</v>
       </c>
     </row>
     <row r="198">
@@ -2026,7 +2026,7 @@
         <v>1.402002861230329</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01001185797002421</v>
+        <v>-0.001476050227180726</v>
       </c>
     </row>
     <row r="199">
@@ -2034,7 +2034,7 @@
         <v>1.409155937052933</v>
       </c>
       <c r="B199" t="n">
-        <v>0.007763039448797728</v>
+        <v>-0.001022395411781915</v>
       </c>
     </row>
     <row r="200">
@@ -2042,7 +2042,7 @@
         <v>1.416309012875536</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0140624870005179</v>
+        <v>0.02141964464946038</v>
       </c>
     </row>
     <row r="201">
@@ -2050,7 +2050,7 @@
         <v>1.42346208869814</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.001065854717236687</v>
+        <v>0.012653706597761</v>
       </c>
     </row>
     <row r="202">
@@ -2058,7 +2058,7 @@
         <v>1.430615164520744</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.007239781666539097</v>
+        <v>0.006835299952707608</v>
       </c>
     </row>
     <row r="203">
@@ -2066,7 +2066,7 @@
         <v>1.437768240343348</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0008213209390543693</v>
+        <v>-0.009585457908945888</v>
       </c>
     </row>
     <row r="204">
@@ -2074,7 +2074,7 @@
         <v>1.444921316165951</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01582634231926048</v>
+        <v>-0.02230425930297602</v>
       </c>
     </row>
     <row r="205">
@@ -2082,7 +2082,7 @@
         <v>1.452074391988555</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.006589383687668659</v>
+        <v>-0.0128963058605777</v>
       </c>
     </row>
     <row r="206">
@@ -2090,7 +2090,7 @@
         <v>1.459227467811159</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.01214796266843197</v>
+        <v>0.001212919378912691</v>
       </c>
     </row>
     <row r="207">
@@ -2098,7 +2098,7 @@
         <v>1.466380543633762</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.01182138555788685</v>
+        <v>-0.001686822593602655</v>
       </c>
     </row>
     <row r="208">
@@ -2106,7 +2106,7 @@
         <v>1.473533619456366</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.01450154573956994</v>
+        <v>-0.005583105818360606</v>
       </c>
     </row>
     <row r="209">
@@ -2114,7 +2114,7 @@
         <v>1.48068669527897</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.009799051789883918</v>
+        <v>-0.008014815930723219</v>
       </c>
     </row>
     <row r="210">
@@ -2122,7 +2122,7 @@
         <v>1.487839771101574</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.01068596776022429</v>
+        <v>0.008926508083940151</v>
       </c>
     </row>
     <row r="211">
@@ -2130,7 +2130,7 @@
         <v>1.494992846924177</v>
       </c>
       <c r="B211" t="n">
-        <v>0.007767128535016693</v>
+        <v>-0.01136503375608534</v>
       </c>
     </row>
     <row r="212">
@@ -2138,7 +2138,7 @@
         <v>1.502145922746781</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.00392427470256802</v>
+        <v>0.01683444392631001</v>
       </c>
     </row>
     <row r="213">
@@ -2146,7 +2146,7 @@
         <v>1.509298998569385</v>
       </c>
       <c r="B213" t="n">
-        <v>0.006699212989117948</v>
+        <v>0.001763258351853747</v>
       </c>
     </row>
     <row r="214">
@@ -2154,7 +2154,7 @@
         <v>1.516452074391988</v>
       </c>
       <c r="B214" t="n">
-        <v>0.007259099919020829</v>
+        <v>-0.009078751448516579</v>
       </c>
     </row>
     <row r="215">
@@ -2162,7 +2162,7 @@
         <v>1.523605150214592</v>
       </c>
       <c r="B215" t="n">
-        <v>0.01101430759800777</v>
+        <v>0.007835456966121845</v>
       </c>
     </row>
     <row r="216">
@@ -2170,7 +2170,7 @@
         <v>1.530758226037196</v>
       </c>
       <c r="B216" t="n">
-        <v>0.003205791208129261</v>
+        <v>0.005792732017843818</v>
       </c>
     </row>
     <row r="217">
@@ -2178,7 +2178,7 @@
         <v>1.5379113018598</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.007510717924121829</v>
+        <v>-0.0007064697713483318</v>
       </c>
     </row>
     <row r="218">
@@ -2186,7 +2186,7 @@
         <v>1.545064377682403</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.009375460950085747</v>
+        <v>0.003920861145516019</v>
       </c>
     </row>
     <row r="219">
@@ -2194,7 +2194,7 @@
         <v>1.552217453505007</v>
       </c>
       <c r="B219" t="n">
-        <v>0.002229593383588151</v>
+        <v>-0.006784456528815853</v>
       </c>
     </row>
     <row r="220">
@@ -2202,7 +2202,7 @@
         <v>1.559370529327611</v>
       </c>
       <c r="B220" t="n">
-        <v>0.008975343367836971</v>
+        <v>-0.01343293717932255</v>
       </c>
     </row>
     <row r="221">
@@ -2210,7 +2210,7 @@
         <v>1.566523605150214</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.02609870891004499</v>
+        <v>-0.005227896950732482</v>
       </c>
     </row>
     <row r="222">
@@ -2218,7 +2218,7 @@
         <v>1.573676680972818</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.003367667214398997</v>
+        <v>0.0002117093739790423</v>
       </c>
     </row>
     <row r="223">
@@ -2226,7 +2226,7 @@
         <v>1.580829756795422</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.01373174659285096</v>
+        <v>-0.004457413727986997</v>
       </c>
     </row>
     <row r="224">
@@ -2234,7 +2234,7 @@
         <v>1.587982832618026</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.005695706522210596</v>
+        <v>-0.007304282369229349</v>
       </c>
     </row>
     <row r="225">
@@ -2242,7 +2242,7 @@
         <v>1.595135908440629</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.01449256407401514</v>
+        <v>0.001377037723773541</v>
       </c>
     </row>
     <row r="226">
@@ -2250,7 +2250,7 @@
         <v>1.602288984263233</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.001488945163652921</v>
+        <v>-0.00805631659660167</v>
       </c>
     </row>
     <row r="227">
@@ -2258,7 +2258,7 @@
         <v>1.609442060085837</v>
       </c>
       <c r="B227" t="n">
-        <v>0.006613908504760037</v>
+        <v>0.01211917519909818</v>
       </c>
     </row>
     <row r="228">
@@ -2266,7 +2266,7 @@
         <v>1.616595135908441</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.00866280873463331</v>
+        <v>0.01699652599080191</v>
       </c>
     </row>
     <row r="229">
@@ -2274,7 +2274,7 @@
         <v>1.623748211731044</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.0006617782393999811</v>
+        <v>-0.009682053336418885</v>
       </c>
     </row>
     <row r="230">
@@ -2282,7 +2282,7 @@
         <v>1.630901287553648</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.00807041716282164</v>
+        <v>0.003138868895206901</v>
       </c>
     </row>
     <row r="231">
@@ -2290,7 +2290,7 @@
         <v>1.638054363376252</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.005686659567414851</v>
+        <v>9.934502177713416e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2298,7 +2298,7 @@
         <v>1.645207439198856</v>
       </c>
       <c r="B232" t="n">
-        <v>0.02416315932409767</v>
+        <v>0.01659105824945812</v>
       </c>
     </row>
     <row r="233">
@@ -2306,7 +2306,7 @@
         <v>1.652360515021459</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.001872200753112463</v>
+        <v>-0.005653834755649747</v>
       </c>
     </row>
     <row r="234">
@@ -2314,7 +2314,7 @@
         <v>1.659513590844063</v>
       </c>
       <c r="B234" t="n">
-        <v>0.01123408498008993</v>
+        <v>0.001404385003184269</v>
       </c>
     </row>
     <row r="235">
@@ -2322,7 +2322,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B235" t="n">
-        <v>0.01068550816131025</v>
+        <v>0.005338034505344895</v>
       </c>
     </row>
     <row r="236">
@@ -2330,7 +2330,7 @@
         <v>1.67381974248927</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.002363740262338985</v>
+        <v>-0.0008842464648108174</v>
       </c>
     </row>
     <row r="237">
@@ -2338,7 +2338,7 @@
         <v>1.680972818311874</v>
       </c>
       <c r="B237" t="n">
-        <v>0.003773236243332212</v>
+        <v>0.004964889061115179</v>
       </c>
     </row>
     <row r="238">
@@ -2346,7 +2346,7 @@
         <v>1.688125894134478</v>
       </c>
       <c r="B238" t="n">
-        <v>0.003938882041241758</v>
+        <v>0.00699423049065065</v>
       </c>
     </row>
     <row r="239">
@@ -2354,7 +2354,7 @@
         <v>1.695278969957082</v>
       </c>
       <c r="B239" t="n">
-        <v>0.009092941052884615</v>
+        <v>0.0019434285047798</v>
       </c>
     </row>
     <row r="240">
@@ -2362,7 +2362,7 @@
         <v>1.702432045779685</v>
       </c>
       <c r="B240" t="n">
-        <v>0.001419882879548669</v>
+        <v>0.009007027791753728</v>
       </c>
     </row>
     <row r="241">
@@ -2370,7 +2370,7 @@
         <v>1.709585121602289</v>
       </c>
       <c r="B241" t="n">
-        <v>0.001036935185973273</v>
+        <v>0.01258889102552485</v>
       </c>
     </row>
     <row r="242">
@@ -2378,7 +2378,7 @@
         <v>1.716738197424893</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0006452402278459086</v>
+        <v>0.01237342644857873</v>
       </c>
     </row>
     <row r="243">
@@ -2386,7 +2386,7 @@
         <v>1.723891273247496</v>
       </c>
       <c r="B243" t="n">
-        <v>0.002058644958660747</v>
+        <v>-0.0001266222993760316</v>
       </c>
     </row>
     <row r="244">
@@ -2394,7 +2394,7 @@
         <v>1.7310443490701</v>
       </c>
       <c r="B244" t="n">
-        <v>0.005069899278618463</v>
+        <v>0.006109120315111907</v>
       </c>
     </row>
     <row r="245">
@@ -2402,7 +2402,7 @@
         <v>1.738197424892704</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.001584747932102093</v>
+        <v>0.01321947539014385</v>
       </c>
     </row>
     <row r="246">
@@ -2410,7 +2410,7 @@
         <v>1.745350500715308</v>
       </c>
       <c r="B246" t="n">
-        <v>0.00564870208867041</v>
+        <v>-0.00437940601308502</v>
       </c>
     </row>
     <row r="247">
@@ -2418,7 +2418,7 @@
         <v>1.752503576537911</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.006033611531009207</v>
+        <v>0.0001674417876668289</v>
       </c>
     </row>
     <row r="248">
@@ -2426,7 +2426,7 @@
         <v>1.759656652360515</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.02382089916566719</v>
+        <v>-0.007696261207816671</v>
       </c>
     </row>
     <row r="249">
@@ -2434,7 +2434,7 @@
         <v>1.766809728183119</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.003253919552381565</v>
+        <v>0.004309558073709603</v>
       </c>
     </row>
     <row r="250">
@@ -2442,7 +2442,7 @@
         <v>1.773962804005722</v>
       </c>
       <c r="B250" t="n">
-        <v>0.009038632399186243</v>
+        <v>-0.01786856594693133</v>
       </c>
     </row>
     <row r="251">
@@ -2450,7 +2450,7 @@
         <v>1.781115879828326</v>
       </c>
       <c r="B251" t="n">
-        <v>0.01631258882231139</v>
+        <v>0.0206592142133805</v>
       </c>
     </row>
     <row r="252">
@@ -2458,7 +2458,7 @@
         <v>1.78826895565093</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.00669638579335645</v>
+        <v>-0.006835303344808937</v>
       </c>
     </row>
     <row r="253">
@@ -2466,7 +2466,7 @@
         <v>1.795422031473534</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0004932200167629641</v>
+        <v>0.005803806448535106</v>
       </c>
     </row>
     <row r="254">
@@ -2474,7 +2474,7 @@
         <v>1.802575107296137</v>
       </c>
       <c r="B254" t="n">
-        <v>0.004549709245256785</v>
+        <v>0.001412692690362971</v>
       </c>
     </row>
     <row r="255">
@@ -2482,7 +2482,7 @@
         <v>1.809728183118741</v>
       </c>
       <c r="B255" t="n">
-        <v>0.0001604961198902148</v>
+        <v>0.01035743049998043</v>
       </c>
     </row>
     <row r="256">
@@ -2490,7 +2490,7 @@
         <v>1.816881258941345</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.005935919812934136</v>
+        <v>-0.005992401054576317</v>
       </c>
     </row>
     <row r="257">
@@ -2498,7 +2498,7 @@
         <v>1.824034334763948</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.001092089490085337</v>
+        <v>-0.01194740880805977</v>
       </c>
     </row>
     <row r="258">
@@ -2506,7 +2506,7 @@
         <v>1.831187410586552</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.008779107278854087</v>
+        <v>-0.009435957663903424</v>
       </c>
     </row>
     <row r="259">
@@ -2514,7 +2514,7 @@
         <v>1.838340486409156</v>
       </c>
       <c r="B259" t="n">
-        <v>0.002871172949650365</v>
+        <v>0.016505455925556</v>
       </c>
     </row>
     <row r="260">
@@ -2522,7 +2522,7 @@
         <v>1.84549356223176</v>
       </c>
       <c r="B260" t="n">
-        <v>0.02186460207606944</v>
+        <v>0.00906562670289132</v>
       </c>
     </row>
     <row r="261">
@@ -2530,7 +2530,7 @@
         <v>1.852646638054363</v>
       </c>
       <c r="B261" t="n">
-        <v>0.01195618015343227</v>
+        <v>-0.009784313098857959</v>
       </c>
     </row>
     <row r="262">
@@ -2538,7 +2538,7 @@
         <v>1.859799713876967</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01121440859435546</v>
+        <v>-0.004797337459109817</v>
       </c>
     </row>
     <row r="263">
@@ -2546,7 +2546,7 @@
         <v>1.866952789699571</v>
       </c>
       <c r="B263" t="n">
-        <v>0.006515777689579464</v>
+        <v>0.009866542353455146</v>
       </c>
     </row>
     <row r="264">
@@ -2554,7 +2554,7 @@
         <v>1.874105865522175</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.01472759845440431</v>
+        <v>0.01731411507912492</v>
       </c>
     </row>
     <row r="265">
@@ -2562,7 +2562,7 @@
         <v>1.881258941344778</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.009020490571389103</v>
+        <v>0.01502163311322001</v>
       </c>
     </row>
     <row r="266">
@@ -2570,7 +2570,7 @@
         <v>1.888412017167382</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.01135091124563717</v>
+        <v>-0.001824208941739171</v>
       </c>
     </row>
     <row r="267">
@@ -2578,7 +2578,7 @@
         <v>1.895565092989986</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.01674724149906719</v>
+        <v>-0.008245023409116684</v>
       </c>
     </row>
     <row r="268">
@@ -2586,7 +2586,7 @@
         <v>1.902718168812589</v>
       </c>
       <c r="B268" t="n">
-        <v>0.003824523447788007</v>
+        <v>0.0006218569835104049</v>
       </c>
     </row>
     <row r="269">
@@ -2594,7 +2594,7 @@
         <v>1.909871244635193</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.01762614759080993</v>
+        <v>-0.002646008591641522</v>
       </c>
     </row>
     <row r="270">
@@ -2602,7 +2602,7 @@
         <v>1.917024320457797</v>
       </c>
       <c r="B270" t="n">
-        <v>0.01156179633491542</v>
+        <v>-0.005804655662748974</v>
       </c>
     </row>
     <row r="271">
@@ -2610,7 +2610,7 @@
         <v>1.924177396280401</v>
       </c>
       <c r="B271" t="n">
-        <v>0.009144898816606852</v>
+        <v>0.004196293570577402</v>
       </c>
     </row>
     <row r="272">
@@ -2618,7 +2618,7 @@
         <v>1.931330472103004</v>
       </c>
       <c r="B272" t="n">
-        <v>0.006156036055816614</v>
+        <v>-0.01148521841146539</v>
       </c>
     </row>
     <row r="273">
@@ -2626,7 +2626,7 @@
         <v>1.938483547925608</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.001963415085135539</v>
+        <v>0.004434126006923043</v>
       </c>
     </row>
     <row r="274">
@@ -2634,7 +2634,7 @@
         <v>1.945636623748212</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.003745690547756029</v>
+        <v>0.01448544973871527</v>
       </c>
     </row>
     <row r="275">
@@ -2642,7 +2642,7 @@
         <v>1.952789699570815</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.01170510034691678</v>
+        <v>-0.004971198760880167</v>
       </c>
     </row>
     <row r="276">
@@ -2650,7 +2650,7 @@
         <v>1.959942775393419</v>
       </c>
       <c r="B276" t="n">
-        <v>0.01353907928742404</v>
+        <v>0.01266729100894727</v>
       </c>
     </row>
     <row r="277">
@@ -2658,7 +2658,7 @@
         <v>1.967095851216023</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.007550327747775502</v>
+        <v>0.008091652311061286</v>
       </c>
     </row>
     <row r="278">
@@ -2666,7 +2666,7 @@
         <v>1.974248927038627</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.002419050810972313</v>
+        <v>0.006993173224905894</v>
       </c>
     </row>
     <row r="279">
@@ -2674,7 +2674,7 @@
         <v>1.98140200286123</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.002176253961432479</v>
+        <v>-0.004208542213155707</v>
       </c>
     </row>
     <row r="280">
@@ -2682,7 +2682,7 @@
         <v>1.988555078683834</v>
       </c>
       <c r="B280" t="n">
-        <v>0.0062703974123817</v>
+        <v>-0.01783954770030564</v>
       </c>
     </row>
     <row r="281">
@@ -2690,7 +2690,7 @@
         <v>1.995708154506438</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.0003660830839885043</v>
+        <v>0.001885927418165538</v>
       </c>
     </row>
     <row r="282">
@@ -2698,7 +2698,7 @@
         <v>2.002861230329041</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.003700660662554553</v>
+        <v>-0.00266280531182828</v>
       </c>
     </row>
     <row r="283">
@@ -2706,7 +2706,7 @@
         <v>2.010014306151645</v>
       </c>
       <c r="B283" t="n">
-        <v>0.01660693168945482</v>
+        <v>0.03725060309306211</v>
       </c>
     </row>
     <row r="284">
@@ -2714,7 +2714,7 @@
         <v>2.017167381974249</v>
       </c>
       <c r="B284" t="n">
-        <v>0.07808527304266544</v>
+        <v>0.06743535511367064</v>
       </c>
     </row>
     <row r="285">
@@ -2722,7 +2722,7 @@
         <v>2.024320457796853</v>
       </c>
       <c r="B285" t="n">
-        <v>0.09913852631818076</v>
+        <v>0.08586912957726393</v>
       </c>
     </row>
     <row r="286">
@@ -2730,7 +2730,7 @@
         <v>2.031473533619456</v>
       </c>
       <c r="B286" t="n">
-        <v>0.102048315241432</v>
+        <v>0.08939159184854979</v>
       </c>
     </row>
     <row r="287">
@@ -2738,7 +2738,7 @@
         <v>2.03862660944206</v>
       </c>
       <c r="B287" t="n">
-        <v>0.06211103268861105</v>
+        <v>0.08212042838032454</v>
       </c>
     </row>
     <row r="288">
@@ -2746,7 +2746,7 @@
         <v>2.045779685264664</v>
       </c>
       <c r="B288" t="n">
-        <v>0.05399793457713637</v>
+        <v>0.03844684098710496</v>
       </c>
     </row>
     <row r="289">
@@ -2754,7 +2754,7 @@
         <v>2.052932761087268</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.007708530558556411</v>
+        <v>-0.002243881044721929</v>
       </c>
     </row>
     <row r="290">
@@ -2762,7 +2762,7 @@
         <v>2.060085836909871</v>
       </c>
       <c r="B290" t="n">
-        <v>0.006425454796822576</v>
+        <v>-0.009724196218469405</v>
       </c>
     </row>
     <row r="291">
@@ -2770,7 +2770,7 @@
         <v>2.067238912732475</v>
       </c>
       <c r="B291" t="n">
-        <v>0.006659617304423548</v>
+        <v>-0.019808591786096</v>
       </c>
     </row>
     <row r="292">
@@ -2778,7 +2778,7 @@
         <v>2.074391988555079</v>
       </c>
       <c r="B292" t="n">
-        <v>0.01264366124415373</v>
+        <v>0.01028829293179815</v>
       </c>
     </row>
     <row r="293">
@@ -2786,7 +2786,7 @@
         <v>2.081545064377682</v>
       </c>
       <c r="B293" t="n">
-        <v>0.008084218583594139</v>
+        <v>0.009399703433106045</v>
       </c>
     </row>
     <row r="294">
@@ -2794,7 +2794,7 @@
         <v>2.088698140200286</v>
       </c>
       <c r="B294" t="n">
-        <v>0.008049361092602327</v>
+        <v>-0.005886422632524122</v>
       </c>
     </row>
     <row r="295">
@@ -2802,7 +2802,7 @@
         <v>2.09585121602289</v>
       </c>
       <c r="B295" t="n">
-        <v>0.004397100599936627</v>
+        <v>0.004525137744442027</v>
       </c>
     </row>
     <row r="296">
@@ -2810,7 +2810,7 @@
         <v>2.103004291845493</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.001334506564175909</v>
+        <v>-0.0198001141810426</v>
       </c>
     </row>
     <row r="297">
@@ -2818,7 +2818,7 @@
         <v>2.110157367668097</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.001766849496065869</v>
+        <v>0.001191553541448995</v>
       </c>
     </row>
     <row r="298">
@@ -2826,7 +2826,7 @@
         <v>2.117310443490701</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.01168777261686244</v>
+        <v>0.003133884802151804</v>
       </c>
     </row>
     <row r="299">
@@ -2834,7 +2834,7 @@
         <v>2.124463519313305</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.01248342816597009</v>
+        <v>0.005855791767101961</v>
       </c>
     </row>
     <row r="300">
@@ -2842,7 +2842,7 @@
         <v>2.131616595135908</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.006710448817423972</v>
+        <v>0.005881190690593515</v>
       </c>
     </row>
     <row r="301">
@@ -2850,7 +2850,7 @@
         <v>2.138769670958512</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.02425771130585782</v>
+        <v>0.007458830216761743</v>
       </c>
     </row>
     <row r="302">
@@ -2858,7 +2858,7 @@
         <v>2.145922746781116</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.007297659402759459</v>
+        <v>0.01847856575654039</v>
       </c>
     </row>
     <row r="303">
@@ -2866,7 +2866,7 @@
         <v>2.15307582260372</v>
       </c>
       <c r="B303" t="n">
-        <v>0.004426580636559705</v>
+        <v>-0.001527405957141987</v>
       </c>
     </row>
     <row r="304">
@@ -2874,7 +2874,7 @@
         <v>2.160228898426323</v>
       </c>
       <c r="B304" t="n">
-        <v>0.003511209799468843</v>
+        <v>-0.00755682573698165</v>
       </c>
     </row>
     <row r="305">
@@ -2882,7 +2882,7 @@
         <v>2.167381974248927</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.001225611460323884</v>
+        <v>-0.01654787316020762</v>
       </c>
     </row>
     <row r="306">
@@ -2890,7 +2890,7 @@
         <v>2.174535050071531</v>
       </c>
       <c r="B306" t="n">
-        <v>0.007403190212638039</v>
+        <v>0.01511385128267075</v>
       </c>
     </row>
     <row r="307">
@@ -2898,7 +2898,7 @@
         <v>2.181688125894135</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.01341629850398668</v>
+        <v>-0.01264539116749325</v>
       </c>
     </row>
     <row r="308">
@@ -2906,7 +2906,7 @@
         <v>2.188841201716738</v>
       </c>
       <c r="B308" t="n">
-        <v>0.001999875268265654</v>
+        <v>0.004005028823960526</v>
       </c>
     </row>
     <row r="309">
@@ -2914,7 +2914,7 @@
         <v>2.195994277539342</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.0002638538501556733</v>
+        <v>-0.01196527793151663</v>
       </c>
     </row>
     <row r="310">
@@ -2922,7 +2922,7 @@
         <v>2.203147353361945</v>
       </c>
       <c r="B310" t="n">
-        <v>0.00191980026089378</v>
+        <v>-0.001657040346377406</v>
       </c>
     </row>
     <row r="311">
@@ -2930,7 +2930,7 @@
         <v>2.210300429184549</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.01238589167980495</v>
+        <v>-0.01518357280455302</v>
       </c>
     </row>
     <row r="312">
@@ -2938,7 +2938,7 @@
         <v>2.217453505007153</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4773221689409464</v>
+        <v>0.4871661870380879</v>
       </c>
     </row>
     <row r="313">
@@ -2946,7 +2946,7 @@
         <v>2.224606580829757</v>
       </c>
       <c r="B313" t="n">
-        <v>0.5322186521074213</v>
+        <v>0.5208430994113382</v>
       </c>
     </row>
     <row r="314">
@@ -2954,7 +2954,7 @@
         <v>2.23175965665236</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.01895592605147361</v>
+        <v>-0.01186684128167791</v>
       </c>
     </row>
     <row r="315">
@@ -2962,7 +2962,7 @@
         <v>2.238912732474964</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.1784397007729231</v>
+        <v>-0.1732758127195315</v>
       </c>
     </row>
     <row r="316">
@@ -2970,7 +2970,7 @@
         <v>2.246065808297568</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.1600598938169442</v>
+        <v>-0.148006131349516</v>
       </c>
     </row>
     <row r="317">
@@ -2978,7 +2978,7 @@
         <v>2.253218884120172</v>
       </c>
       <c r="B317" t="n">
-        <v>0.01217205815149749</v>
+        <v>0.0137315038655904</v>
       </c>
     </row>
     <row r="318">
@@ -2986,7 +2986,7 @@
         <v>2.260371959942775</v>
       </c>
       <c r="B318" t="n">
-        <v>0.08108300669785483</v>
+        <v>0.07749586565695532</v>
       </c>
     </row>
     <row r="319">
@@ -2994,7 +2994,7 @@
         <v>2.267525035765379</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1177379859382539</v>
+        <v>0.1362445429993711</v>
       </c>
     </row>
     <row r="320">
@@ -3002,7 +3002,7 @@
         <v>2.274678111587983</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1559234004002531</v>
+        <v>0.1790254244731372</v>
       </c>
     </row>
     <row r="321">
@@ -3010,7 +3010,7 @@
         <v>2.281831187410587</v>
       </c>
       <c r="B321" t="n">
-        <v>0.2001854604220361</v>
+        <v>0.1799125787059092</v>
       </c>
     </row>
     <row r="322">
@@ -3018,7 +3018,7 @@
         <v>2.28898426323319</v>
       </c>
       <c r="B322" t="n">
-        <v>0.2002888393198662</v>
+        <v>0.2028667925218331</v>
       </c>
     </row>
     <row r="323">
@@ -3026,7 +3026,7 @@
         <v>2.296137339055794</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1776066237476872</v>
+        <v>0.1750350277657448</v>
       </c>
     </row>
     <row r="324">
@@ -3034,7 +3034,7 @@
         <v>2.303290414878398</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1396805634792133</v>
+        <v>0.131247148398998</v>
       </c>
     </row>
     <row r="325">
@@ -3042,7 +3042,7 @@
         <v>2.310443490701001</v>
       </c>
       <c r="B325" t="n">
-        <v>0.0897429917026587</v>
+        <v>0.09887900697738213</v>
       </c>
     </row>
     <row r="326">
@@ -3050,7 +3050,7 @@
         <v>2.317596566523605</v>
       </c>
       <c r="B326" t="n">
-        <v>0.03563246345383224</v>
+        <v>0.02072788806424024</v>
       </c>
     </row>
     <row r="327">
@@ -3058,7 +3058,7 @@
         <v>2.324749642346209</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.006975498541126601</v>
+        <v>0.007253545195407249</v>
       </c>
     </row>
     <row r="328">
@@ -3066,7 +3066,7 @@
         <v>2.331902718168813</v>
       </c>
       <c r="B328" t="n">
-        <v>0.002746566745293064</v>
+        <v>-0.004461780319965753</v>
       </c>
     </row>
     <row r="329">
@@ -3074,7 +3074,7 @@
         <v>2.339055793991416</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0001359624479816834</v>
+        <v>0.005841365473224739</v>
       </c>
     </row>
     <row r="330">
@@ -3082,7 +3082,7 @@
         <v>2.34620886981402</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.004864964247900722</v>
+        <v>0.01421997112125075</v>
       </c>
     </row>
     <row r="331">
@@ -3090,7 +3090,7 @@
         <v>2.353361945636624</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.002938144607380946</v>
+        <v>-0.009767030887206049</v>
       </c>
     </row>
     <row r="332">
@@ -3098,7 +3098,7 @@
         <v>2.360515021459228</v>
       </c>
       <c r="B332" t="n">
-        <v>0.0001729926576698456</v>
+        <v>0.01336656731558463</v>
       </c>
     </row>
     <row r="333">
@@ -3106,7 +3106,7 @@
         <v>2.367668097281831</v>
       </c>
       <c r="B333" t="n">
-        <v>0.0144690541049121</v>
+        <v>-0.001971513151648269</v>
       </c>
     </row>
     <row r="334">
@@ -3114,7 +3114,7 @@
         <v>2.374821173104435</v>
       </c>
       <c r="B334" t="n">
-        <v>0.005427097376767004</v>
+        <v>0.01299672128343668</v>
       </c>
     </row>
     <row r="335">
@@ -3122,7 +3122,7 @@
         <v>2.381974248927039</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.003186888254159591</v>
+        <v>-0.001232403117733985</v>
       </c>
     </row>
     <row r="336">
@@ -3130,7 +3130,7 @@
         <v>2.389127324749643</v>
       </c>
       <c r="B336" t="n">
-        <v>0.004500522188060275</v>
+        <v>-0.007143684005059794</v>
       </c>
     </row>
     <row r="337">
@@ -3138,7 +3138,7 @@
         <v>2.396280400572246</v>
       </c>
       <c r="B337" t="n">
-        <v>0.006465442440440622</v>
+        <v>0.003324173342414432</v>
       </c>
     </row>
     <row r="338">
@@ -3146,7 +3146,7 @@
         <v>2.40343347639485</v>
       </c>
       <c r="B338" t="n">
-        <v>0.01001185797002421</v>
+        <v>-0.001476050227180726</v>
       </c>
     </row>
     <row r="339">
@@ -3154,7 +3154,7 @@
         <v>2.410586552217453</v>
       </c>
       <c r="B339" t="n">
-        <v>0.007763039448797728</v>
+        <v>-0.001022395411781915</v>
       </c>
     </row>
     <row r="340">
@@ -3162,7 +3162,7 @@
         <v>2.417739628040057</v>
       </c>
       <c r="B340" t="n">
-        <v>0.0140624870005179</v>
+        <v>0.02141964464946038</v>
       </c>
     </row>
     <row r="341">
@@ -3170,7 +3170,7 @@
         <v>2.424892703862661</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.001065854717236687</v>
+        <v>0.012653706597761</v>
       </c>
     </row>
     <row r="342">
@@ -3178,7 +3178,7 @@
         <v>2.432045779685265</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.007239781666539097</v>
+        <v>0.006835299952707608</v>
       </c>
     </row>
     <row r="343">
@@ -3186,7 +3186,7 @@
         <v>2.439198855507868</v>
       </c>
       <c r="B343" t="n">
-        <v>0.0008213209390543693</v>
+        <v>-0.009585457908945888</v>
       </c>
     </row>
     <row r="344">
@@ -3194,7 +3194,7 @@
         <v>2.446351931330472</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01582634231926048</v>
+        <v>-0.02230425930297602</v>
       </c>
     </row>
     <row r="345">
@@ -3202,7 +3202,7 @@
         <v>2.453505007153076</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.006589383687668659</v>
+        <v>-0.0128963058605777</v>
       </c>
     </row>
     <row r="346">
@@ -3210,7 +3210,7 @@
         <v>2.46065808297568</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.01214796266843197</v>
+        <v>0.001212919378912691</v>
       </c>
     </row>
     <row r="347">
@@ -3218,7 +3218,7 @@
         <v>2.467811158798283</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.01182138555788685</v>
+        <v>-0.001686822593602655</v>
       </c>
     </row>
     <row r="348">
@@ -3226,7 +3226,7 @@
         <v>2.474964234620887</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.01450154573956994</v>
+        <v>-0.005583105818360606</v>
       </c>
     </row>
     <row r="349">
@@ -3234,7 +3234,7 @@
         <v>2.482117310443491</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.009799051789883918</v>
+        <v>-0.008014815930723219</v>
       </c>
     </row>
     <row r="350">
@@ -3242,7 +3242,7 @@
         <v>2.489270386266095</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.01068596776022429</v>
+        <v>0.008926508083940151</v>
       </c>
     </row>
     <row r="351">
@@ -3250,7 +3250,7 @@
         <v>2.496423462088698</v>
       </c>
       <c r="B351" t="n">
-        <v>0.007767128535016693</v>
+        <v>-0.01136503375608534</v>
       </c>
     </row>
     <row r="352">
@@ -3258,7 +3258,7 @@
         <v>2.503576537911302</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.00392427470256802</v>
+        <v>0.01683444392631001</v>
       </c>
     </row>
     <row r="353">
@@ -3266,7 +3266,7 @@
         <v>2.510729613733905</v>
       </c>
       <c r="B353" t="n">
-        <v>0.006699212989117948</v>
+        <v>0.001763258351853747</v>
       </c>
     </row>
     <row r="354">
@@ -3274,7 +3274,7 @@
         <v>2.517882689556509</v>
       </c>
       <c r="B354" t="n">
-        <v>0.007259099919020829</v>
+        <v>-0.009078751448516579</v>
       </c>
     </row>
     <row r="355">
@@ -3282,7 +3282,7 @@
         <v>2.525035765379113</v>
       </c>
       <c r="B355" t="n">
-        <v>0.01101430759800777</v>
+        <v>0.007835456966121845</v>
       </c>
     </row>
     <row r="356">
@@ -3290,7 +3290,7 @@
         <v>2.532188841201717</v>
       </c>
       <c r="B356" t="n">
-        <v>0.003205791208129261</v>
+        <v>0.005792732017843818</v>
       </c>
     </row>
     <row r="357">
@@ -3298,7 +3298,7 @@
         <v>2.53934191702432</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.007510717924121829</v>
+        <v>-0.0007064697713483318</v>
       </c>
     </row>
     <row r="358">
@@ -3306,7 +3306,7 @@
         <v>2.546494992846924</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.009375460950085747</v>
+        <v>0.003920861145516019</v>
       </c>
     </row>
     <row r="359">
@@ -3314,7 +3314,7 @@
         <v>2.553648068669528</v>
       </c>
       <c r="B359" t="n">
-        <v>0.002229593383588151</v>
+        <v>-0.006784456528815853</v>
       </c>
     </row>
     <row r="360">
@@ -3322,7 +3322,7 @@
         <v>2.560801144492132</v>
       </c>
       <c r="B360" t="n">
-        <v>0.008975343367836971</v>
+        <v>-0.01343293717932255</v>
       </c>
     </row>
     <row r="361">
@@ -3330,7 +3330,7 @@
         <v>2.567954220314735</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.02609870891004499</v>
+        <v>-0.005227896950732482</v>
       </c>
     </row>
     <row r="362">
@@ -3338,7 +3338,7 @@
         <v>2.575107296137339</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.003367667214398997</v>
+        <v>0.0002117093739790423</v>
       </c>
     </row>
     <row r="363">
@@ -3346,7 +3346,7 @@
         <v>2.582260371959943</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.01373174659285096</v>
+        <v>-0.004457413727986997</v>
       </c>
     </row>
     <row r="364">
@@ -3354,7 +3354,7 @@
         <v>2.589413447782547</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.005695706522210596</v>
+        <v>-0.007304282369229349</v>
       </c>
     </row>
     <row r="365">
@@ -3362,7 +3362,7 @@
         <v>2.59656652360515</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.01449256407401514</v>
+        <v>0.001377037723773541</v>
       </c>
     </row>
     <row r="366">
@@ -3370,7 +3370,7 @@
         <v>2.603719599427754</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.001488945163652921</v>
+        <v>-0.00805631659660167</v>
       </c>
     </row>
     <row r="367">
@@ -3378,7 +3378,7 @@
         <v>2.610872675250357</v>
       </c>
       <c r="B367" t="n">
-        <v>0.006613908504760037</v>
+        <v>0.01211917519909818</v>
       </c>
     </row>
     <row r="368">
@@ -3386,7 +3386,7 @@
         <v>2.618025751072961</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.00866280873463331</v>
+        <v>0.01699652599080191</v>
       </c>
     </row>
     <row r="369">
@@ -3394,7 +3394,7 @@
         <v>2.625178826895565</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.0006617782393999811</v>
+        <v>-0.009682053336418885</v>
       </c>
     </row>
     <row r="370">
@@ -3402,7 +3402,7 @@
         <v>2.632331902718169</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.00807041716282164</v>
+        <v>0.003138868895206901</v>
       </c>
     </row>
     <row r="371">
@@ -3410,7 +3410,7 @@
         <v>2.639484978540772</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.005686659567414851</v>
+        <v>9.934502177713416e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3418,7 +3418,7 @@
         <v>2.646638054363376</v>
       </c>
       <c r="B372" t="n">
-        <v>0.02416315932409767</v>
+        <v>0.01659105824945812</v>
       </c>
     </row>
     <row r="373">
@@ -3426,7 +3426,7 @@
         <v>2.65379113018598</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.001872200753112463</v>
+        <v>-0.005653834755649747</v>
       </c>
     </row>
     <row r="374">
@@ -3434,7 +3434,7 @@
         <v>2.660944206008584</v>
       </c>
       <c r="B374" t="n">
-        <v>0.01123408498008993</v>
+        <v>0.001404385003184269</v>
       </c>
     </row>
     <row r="375">
@@ -3442,7 +3442,7 @@
         <v>2.668097281831187</v>
       </c>
       <c r="B375" t="n">
-        <v>0.01068550816131025</v>
+        <v>0.005338034505344895</v>
       </c>
     </row>
     <row r="376">
@@ -3450,7 +3450,7 @@
         <v>2.675250357653791</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.002363740262338985</v>
+        <v>-0.0008842464648108174</v>
       </c>
     </row>
     <row r="377">
@@ -3458,7 +3458,7 @@
         <v>2.682403433476395</v>
       </c>
       <c r="B377" t="n">
-        <v>0.003773236243332212</v>
+        <v>0.004964889061115179</v>
       </c>
     </row>
     <row r="378">
@@ -3466,7 +3466,7 @@
         <v>2.689556509298999</v>
       </c>
       <c r="B378" t="n">
-        <v>0.003938882041241758</v>
+        <v>0.00699423049065065</v>
       </c>
     </row>
     <row r="379">
@@ -3474,7 +3474,7 @@
         <v>2.696709585121602</v>
       </c>
       <c r="B379" t="n">
-        <v>0.009092941052884615</v>
+        <v>0.0019434285047798</v>
       </c>
     </row>
     <row r="380">
@@ -3482,7 +3482,7 @@
         <v>2.703862660944206</v>
       </c>
       <c r="B380" t="n">
-        <v>0.001419882879548669</v>
+        <v>0.009007027791753728</v>
       </c>
     </row>
     <row r="381">
@@ -3490,7 +3490,7 @@
         <v>2.71101573676681</v>
       </c>
       <c r="B381" t="n">
-        <v>0.001036935185973273</v>
+        <v>0.01258889102552485</v>
       </c>
     </row>
     <row r="382">
@@ -3498,7 +3498,7 @@
         <v>2.718168812589413</v>
       </c>
       <c r="B382" t="n">
-        <v>0.0006452402278459086</v>
+        <v>0.01237342644857873</v>
       </c>
     </row>
     <row r="383">
@@ -3506,7 +3506,7 @@
         <v>2.725321888412017</v>
       </c>
       <c r="B383" t="n">
-        <v>0.002058644958660747</v>
+        <v>-0.0001266222993760316</v>
       </c>
     </row>
     <row r="384">
@@ -3514,7 +3514,7 @@
         <v>2.732474964234621</v>
       </c>
       <c r="B384" t="n">
-        <v>0.005069899278618463</v>
+        <v>0.006109120315111907</v>
       </c>
     </row>
     <row r="385">
@@ -3522,7 +3522,7 @@
         <v>2.739628040057224</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.001584747932102093</v>
+        <v>0.01321947539014385</v>
       </c>
     </row>
     <row r="386">
@@ -3530,7 +3530,7 @@
         <v>2.746781115879828</v>
       </c>
       <c r="B386" t="n">
-        <v>0.00564870208867041</v>
+        <v>-0.00437940601308502</v>
       </c>
     </row>
     <row r="387">
@@ -3538,7 +3538,7 @@
         <v>2.753934191702432</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.006033611531009207</v>
+        <v>0.0001674417876668289</v>
       </c>
     </row>
     <row r="388">
@@ -3546,7 +3546,7 @@
         <v>2.761087267525036</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.02382089916566719</v>
+        <v>-0.007696261207816671</v>
       </c>
     </row>
     <row r="389">
@@ -3554,7 +3554,7 @@
         <v>2.76824034334764</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.003253919552381565</v>
+        <v>0.004309558073709603</v>
       </c>
     </row>
     <row r="390">
@@ -3562,7 +3562,7 @@
         <v>2.775393419170243</v>
       </c>
       <c r="B390" t="n">
-        <v>0.009038632399186243</v>
+        <v>-0.01786856594693133</v>
       </c>
     </row>
     <row r="391">
@@ -3570,7 +3570,7 @@
         <v>2.782546494992847</v>
       </c>
       <c r="B391" t="n">
-        <v>0.01631258882231139</v>
+        <v>0.0206592142133805</v>
       </c>
     </row>
     <row r="392">
@@ -3578,7 +3578,7 @@
         <v>2.789699570815451</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.00669638579335645</v>
+        <v>-0.006835303344808937</v>
       </c>
     </row>
     <row r="393">
@@ -3586,7 +3586,7 @@
         <v>2.796852646638055</v>
       </c>
       <c r="B393" t="n">
-        <v>0.0004932200167629641</v>
+        <v>0.005803806448535106</v>
       </c>
     </row>
     <row r="394">
@@ -3594,7 +3594,7 @@
         <v>2.804005722460658</v>
       </c>
       <c r="B394" t="n">
-        <v>0.004549709245256785</v>
+        <v>0.001412692690362971</v>
       </c>
     </row>
     <row r="395">
@@ -3602,7 +3602,7 @@
         <v>2.811158798283262</v>
       </c>
       <c r="B395" t="n">
-        <v>0.0001604961198902148</v>
+        <v>0.01035743049998043</v>
       </c>
     </row>
     <row r="396">
@@ -3610,7 +3610,7 @@
         <v>2.818311874105865</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.005935919812934136</v>
+        <v>-0.005992401054576317</v>
       </c>
     </row>
     <row r="397">
@@ -3618,7 +3618,7 @@
         <v>2.825464949928469</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.001092089490085337</v>
+        <v>-0.01194740880805977</v>
       </c>
     </row>
     <row r="398">
@@ -3626,7 +3626,7 @@
         <v>2.832618025751073</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.008779107278854087</v>
+        <v>-0.009435957663903424</v>
       </c>
     </row>
     <row r="399">
@@ -3634,7 +3634,7 @@
         <v>2.839771101573677</v>
       </c>
       <c r="B399" t="n">
-        <v>0.002871172949650365</v>
+        <v>0.016505455925556</v>
       </c>
     </row>
     <row r="400">
@@ -3642,7 +3642,7 @@
         <v>2.84692417739628</v>
       </c>
       <c r="B400" t="n">
-        <v>0.02186460207606944</v>
+        <v>0.00906562670289132</v>
       </c>
     </row>
     <row r="401">
@@ -3650,7 +3650,7 @@
         <v>2.854077253218884</v>
       </c>
       <c r="B401" t="n">
-        <v>0.01195618015343227</v>
+        <v>-0.009784313098857959</v>
       </c>
     </row>
     <row r="402">
@@ -3658,7 +3658,7 @@
         <v>2.861230329041488</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.01121440859435546</v>
+        <v>-0.004797337459109817</v>
       </c>
     </row>
     <row r="403">
@@ -3666,7 +3666,7 @@
         <v>2.868383404864092</v>
       </c>
       <c r="B403" t="n">
-        <v>0.006515777689579464</v>
+        <v>0.009866542353455146</v>
       </c>
     </row>
     <row r="404">
@@ -3674,7 +3674,7 @@
         <v>2.875536480686695</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.01472759845440431</v>
+        <v>0.01731411507912492</v>
       </c>
     </row>
     <row r="405">
@@ -3682,7 +3682,7 @@
         <v>2.882689556509299</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.009020490571389103</v>
+        <v>0.01502163311322001</v>
       </c>
     </row>
     <row r="406">
@@ -3690,7 +3690,7 @@
         <v>2.889842632331903</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.01135091124563717</v>
+        <v>-0.001824208941739171</v>
       </c>
     </row>
     <row r="407">
@@ -3698,7 +3698,7 @@
         <v>2.896995708154507</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.01674724149906719</v>
+        <v>-0.008245023409116684</v>
       </c>
     </row>
     <row r="408">
@@ -3706,7 +3706,7 @@
         <v>2.90414878397711</v>
       </c>
       <c r="B408" t="n">
-        <v>0.003824523447788007</v>
+        <v>0.0006218569835104049</v>
       </c>
     </row>
     <row r="409">
@@ -3714,7 +3714,7 @@
         <v>2.911301859799714</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.01762614759080993</v>
+        <v>-0.002646008591641522</v>
       </c>
     </row>
     <row r="410">
@@ -3722,7 +3722,7 @@
         <v>2.918454935622318</v>
       </c>
       <c r="B410" t="n">
-        <v>0.01156179633491542</v>
+        <v>-0.005804655662748974</v>
       </c>
     </row>
     <row r="411">
@@ -3730,7 +3730,7 @@
         <v>2.925608011444921</v>
       </c>
       <c r="B411" t="n">
-        <v>0.009144898816606852</v>
+        <v>0.004196293570577402</v>
       </c>
     </row>
     <row r="412">
@@ -3738,7 +3738,7 @@
         <v>2.932761087267525</v>
       </c>
       <c r="B412" t="n">
-        <v>0.006156036055816614</v>
+        <v>-0.01148521841146539</v>
       </c>
     </row>
     <row r="413">
@@ -3746,7 +3746,7 @@
         <v>2.939914163090129</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.001963415085135539</v>
+        <v>0.004434126006923043</v>
       </c>
     </row>
     <row r="414">
@@ -3754,7 +3754,7 @@
         <v>2.947067238912732</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.003745690547756029</v>
+        <v>0.01448544973871527</v>
       </c>
     </row>
     <row r="415">
@@ -3762,7 +3762,7 @@
         <v>2.954220314735336</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.01170510034691678</v>
+        <v>-0.004971198760880167</v>
       </c>
     </row>
     <row r="416">
@@ -3770,7 +3770,7 @@
         <v>2.96137339055794</v>
       </c>
       <c r="B416" t="n">
-        <v>0.01353907928742404</v>
+        <v>0.01266729100894727</v>
       </c>
     </row>
     <row r="417">
@@ -3778,7 +3778,7 @@
         <v>2.968526466380544</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.007550327747775502</v>
+        <v>0.008091652311061286</v>
       </c>
     </row>
     <row r="418">
@@ -3786,7 +3786,7 @@
         <v>2.975679542203147</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.002419050810972313</v>
+        <v>0.006993173224905894</v>
       </c>
     </row>
     <row r="419">
@@ -3794,7 +3794,7 @@
         <v>2.982832618025751</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.002176253961432479</v>
+        <v>-0.004208542213155707</v>
       </c>
     </row>
     <row r="420">
@@ -3802,7 +3802,7 @@
         <v>2.989985693848355</v>
       </c>
       <c r="B420" t="n">
-        <v>0.0062703974123817</v>
+        <v>-0.01783954770030564</v>
       </c>
     </row>
     <row r="421">
@@ -3810,7 +3810,7 @@
         <v>2.997138769670959</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0003660830839885043</v>
+        <v>0.001885927418165538</v>
       </c>
     </row>
     <row r="422">
@@ -3818,7 +3818,7 @@
         <v>3.004291845493562</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.003700660662554553</v>
+        <v>-0.00266280531182828</v>
       </c>
     </row>
     <row r="423">
@@ -3826,7 +3826,7 @@
         <v>3.011444921316166</v>
       </c>
       <c r="B423" t="n">
-        <v>0.01660693168945482</v>
+        <v>0.03725060309306211</v>
       </c>
     </row>
     <row r="424">
@@ -3834,7 +3834,7 @@
         <v>3.01859799713877</v>
       </c>
       <c r="B424" t="n">
-        <v>0.07808527304266544</v>
+        <v>0.06743535511367064</v>
       </c>
     </row>
     <row r="425">
@@ -3842,7 +3842,7 @@
         <v>3.025751072961373</v>
       </c>
       <c r="B425" t="n">
-        <v>0.09913852631818076</v>
+        <v>0.08586912957726393</v>
       </c>
     </row>
     <row r="426">
@@ -3850,7 +3850,7 @@
         <v>3.032904148783977</v>
       </c>
       <c r="B426" t="n">
-        <v>0.102048315241432</v>
+        <v>0.08939159184854979</v>
       </c>
     </row>
     <row r="427">
@@ -3858,7 +3858,7 @@
         <v>3.040057224606581</v>
       </c>
       <c r="B427" t="n">
-        <v>0.06211103268861105</v>
+        <v>0.08212042838032454</v>
       </c>
     </row>
     <row r="428">
@@ -3866,7 +3866,7 @@
         <v>3.047210300429184</v>
       </c>
       <c r="B428" t="n">
-        <v>0.05399793457713637</v>
+        <v>0.03844684098710496</v>
       </c>
     </row>
     <row r="429">
@@ -3874,7 +3874,7 @@
         <v>3.054363376251788</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.007708530558556411</v>
+        <v>-0.002243881044721929</v>
       </c>
     </row>
     <row r="430">
@@ -3882,7 +3882,7 @@
         <v>3.061516452074392</v>
       </c>
       <c r="B430" t="n">
-        <v>0.006425454796822576</v>
+        <v>-0.009724196218469405</v>
       </c>
     </row>
     <row r="431">
@@ -3890,7 +3890,7 @@
         <v>3.068669527896996</v>
       </c>
       <c r="B431" t="n">
-        <v>0.006659617304423548</v>
+        <v>-0.019808591786096</v>
       </c>
     </row>
     <row r="432">
@@ -3898,7 +3898,7 @@
         <v>3.075822603719599</v>
       </c>
       <c r="B432" t="n">
-        <v>0.01264366124415373</v>
+        <v>0.01028829293179815</v>
       </c>
     </row>
     <row r="433">
@@ -3906,7 +3906,7 @@
         <v>3.082975679542203</v>
       </c>
       <c r="B433" t="n">
-        <v>0.008084218583594139</v>
+        <v>0.009399703433106045</v>
       </c>
     </row>
     <row r="434">
@@ -3914,7 +3914,7 @@
         <v>3.090128755364807</v>
       </c>
       <c r="B434" t="n">
-        <v>0.008049361092602327</v>
+        <v>-0.005886422632524122</v>
       </c>
     </row>
     <row r="435">
@@ -3922,7 +3922,7 @@
         <v>3.097281831187411</v>
       </c>
       <c r="B435" t="n">
-        <v>0.004397100599936627</v>
+        <v>0.004525137744442027</v>
       </c>
     </row>
     <row r="436">
@@ -3930,7 +3930,7 @@
         <v>3.104434907010014</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.001334506564175909</v>
+        <v>-0.0198001141810426</v>
       </c>
     </row>
     <row r="437">
@@ -3938,7 +3938,7 @@
         <v>3.111587982832618</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.001766849496065869</v>
+        <v>0.001191553541448995</v>
       </c>
     </row>
     <row r="438">
@@ -3946,7 +3946,7 @@
         <v>3.118741058655222</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.01168777261686244</v>
+        <v>0.003133884802151804</v>
       </c>
     </row>
     <row r="439">
@@ -3954,7 +3954,7 @@
         <v>3.125894134477825</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.01248342816597009</v>
+        <v>0.005855791767101961</v>
       </c>
     </row>
     <row r="440">
@@ -3962,7 +3962,7 @@
         <v>3.133047210300429</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.006710448817423972</v>
+        <v>0.005881190690593515</v>
       </c>
     </row>
     <row r="441">
@@ -3970,7 +3970,7 @@
         <v>3.140200286123033</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.02425771130585782</v>
+        <v>0.007458830216761743</v>
       </c>
     </row>
     <row r="442">
@@ -3978,7 +3978,7 @@
         <v>3.147353361945636</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.007297659402759459</v>
+        <v>0.01847856575654039</v>
       </c>
     </row>
     <row r="443">
@@ -3986,7 +3986,7 @@
         <v>3.15450643776824</v>
       </c>
       <c r="B443" t="n">
-        <v>0.004426580636559705</v>
+        <v>-0.001527405957141987</v>
       </c>
     </row>
     <row r="444">
@@ -3994,7 +3994,7 @@
         <v>3.161659513590844</v>
       </c>
       <c r="B444" t="n">
-        <v>0.003511209799468843</v>
+        <v>-0.00755682573698165</v>
       </c>
     </row>
     <row r="445">
@@ -4002,7 +4002,7 @@
         <v>3.168812589413448</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.001225611460323884</v>
+        <v>-0.01654787316020762</v>
       </c>
     </row>
     <row r="446">
@@ -4010,7 +4010,7 @@
         <v>3.175965665236051</v>
       </c>
       <c r="B446" t="n">
-        <v>0.007403190212638039</v>
+        <v>0.01511385128267075</v>
       </c>
     </row>
     <row r="447">
@@ -4018,7 +4018,7 @@
         <v>3.183118741058655</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.01341629850398668</v>
+        <v>-0.01264539116749325</v>
       </c>
     </row>
     <row r="448">
@@ -4026,7 +4026,7 @@
         <v>3.190271816881259</v>
       </c>
       <c r="B448" t="n">
-        <v>0.001999875268265654</v>
+        <v>0.004005028823960526</v>
       </c>
     </row>
     <row r="449">
@@ -4034,7 +4034,7 @@
         <v>3.197424892703863</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.0002638538501556733</v>
+        <v>-0.01196527793151663</v>
       </c>
     </row>
     <row r="450">
@@ -4042,7 +4042,7 @@
         <v>3.204577968526467</v>
       </c>
       <c r="B450" t="n">
-        <v>0.00191980026089378</v>
+        <v>-0.001657040346377406</v>
       </c>
     </row>
     <row r="451">
@@ -4050,7 +4050,7 @@
         <v>3.21173104434907</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.01238589167980495</v>
+        <v>-0.01518357280455302</v>
       </c>
     </row>
     <row r="452">
@@ -4058,7 +4058,7 @@
         <v>3.218884120171674</v>
       </c>
       <c r="B452" t="n">
-        <v>0.4773221689409464</v>
+        <v>0.4871661870380879</v>
       </c>
     </row>
     <row r="453">
@@ -4066,7 +4066,7 @@
         <v>3.226037195994278</v>
       </c>
       <c r="B453" t="n">
-        <v>0.5322186521074213</v>
+        <v>0.5208430994113382</v>
       </c>
     </row>
     <row r="454">
@@ -4074,7 +4074,7 @@
         <v>3.233190271816881</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.01895592605147361</v>
+        <v>-0.01186684128167791</v>
       </c>
     </row>
     <row r="455">
@@ -4082,7 +4082,7 @@
         <v>3.240343347639485</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.1784397007729231</v>
+        <v>-0.1732758127195315</v>
       </c>
     </row>
     <row r="456">
@@ -4090,7 +4090,7 @@
         <v>3.247496423462089</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.1600598938169442</v>
+        <v>-0.148006131349516</v>
       </c>
     </row>
     <row r="457">
@@ -4098,7 +4098,7 @@
         <v>3.254649499284692</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01217205815149749</v>
+        <v>0.0137315038655904</v>
       </c>
     </row>
     <row r="458">
@@ -4106,7 +4106,7 @@
         <v>3.261802575107296</v>
       </c>
       <c r="B458" t="n">
-        <v>0.08108300669785483</v>
+        <v>0.07749586565695532</v>
       </c>
     </row>
     <row r="459">
@@ -4114,7 +4114,7 @@
         <v>3.2689556509299</v>
       </c>
       <c r="B459" t="n">
-        <v>0.1177379859382539</v>
+        <v>0.1362445429993711</v>
       </c>
     </row>
     <row r="460">
@@ -4122,7 +4122,7 @@
         <v>3.276108726752504</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1559234004002531</v>
+        <v>0.1790254244731372</v>
       </c>
     </row>
     <row r="461">
@@ -4130,7 +4130,7 @@
         <v>3.283261802575107</v>
       </c>
       <c r="B461" t="n">
-        <v>0.2001854604220361</v>
+        <v>0.1799125787059092</v>
       </c>
     </row>
     <row r="462">
@@ -4138,7 +4138,7 @@
         <v>3.290414878397711</v>
       </c>
       <c r="B462" t="n">
-        <v>0.2002888393198662</v>
+        <v>0.2028667925218331</v>
       </c>
     </row>
     <row r="463">
@@ -4146,7 +4146,7 @@
         <v>3.297567954220315</v>
       </c>
       <c r="B463" t="n">
-        <v>0.1776066237476872</v>
+        <v>0.1750350277657448</v>
       </c>
     </row>
     <row r="464">
@@ -4154,7 +4154,7 @@
         <v>3.304721030042919</v>
       </c>
       <c r="B464" t="n">
-        <v>0.1396805634792133</v>
+        <v>0.131247148398998</v>
       </c>
     </row>
     <row r="465">
@@ -4162,7 +4162,7 @@
         <v>3.311874105865522</v>
       </c>
       <c r="B465" t="n">
-        <v>0.0897429917026587</v>
+        <v>0.09887900697738213</v>
       </c>
     </row>
     <row r="466">
@@ -4170,7 +4170,7 @@
         <v>3.319027181688126</v>
       </c>
       <c r="B466" t="n">
-        <v>0.03563246345383224</v>
+        <v>0.02072788806424024</v>
       </c>
     </row>
     <row r="467">
@@ -4178,7 +4178,7 @@
         <v>3.32618025751073</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.006975498541126601</v>
+        <v>0.007253545195407249</v>
       </c>
     </row>
     <row r="468">
@@ -4186,7 +4186,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="B468" t="n">
-        <v>0.002746566745293064</v>
+        <v>-0.004461780319965753</v>
       </c>
     </row>
     <row r="469">
@@ -4194,7 +4194,7 @@
         <v>3.340486409155937</v>
       </c>
       <c r="B469" t="n">
-        <v>0.0001359624479816834</v>
+        <v>0.005841365473224739</v>
       </c>
     </row>
     <row r="470">
@@ -4202,7 +4202,7 @@
         <v>3.347639484978541</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.004864964247900722</v>
+        <v>0.01421997112125075</v>
       </c>
     </row>
     <row r="471">
@@ -4210,7 +4210,7 @@
         <v>3.354792560801144</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.002938144607380946</v>
+        <v>-0.009767030887206049</v>
       </c>
     </row>
     <row r="472">
@@ -4218,7 +4218,7 @@
         <v>3.361945636623748</v>
       </c>
       <c r="B472" t="n">
-        <v>0.0001729926576698456</v>
+        <v>0.01336656731558463</v>
       </c>
     </row>
     <row r="473">
@@ -4226,7 +4226,7 @@
         <v>3.369098712446352</v>
       </c>
       <c r="B473" t="n">
-        <v>0.0144690541049121</v>
+        <v>-0.001971513151648269</v>
       </c>
     </row>
     <row r="474">
@@ -4234,7 +4234,7 @@
         <v>3.376251788268956</v>
       </c>
       <c r="B474" t="n">
-        <v>0.005427097376767004</v>
+        <v>0.01299672128343668</v>
       </c>
     </row>
     <row r="475">
@@ -4242,7 +4242,7 @@
         <v>3.383404864091559</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.003186888254159591</v>
+        <v>-0.001232403117733985</v>
       </c>
     </row>
     <row r="476">
@@ -4250,7 +4250,7 @@
         <v>3.390557939914163</v>
       </c>
       <c r="B476" t="n">
-        <v>0.004500522188060275</v>
+        <v>-0.007143684005059794</v>
       </c>
     </row>
     <row r="477">
@@ -4258,7 +4258,7 @@
         <v>3.397711015736767</v>
       </c>
       <c r="B477" t="n">
-        <v>0.006465442440440622</v>
+        <v>0.003324173342414432</v>
       </c>
     </row>
     <row r="478">
@@ -4266,7 +4266,7 @@
         <v>3.404864091559371</v>
       </c>
       <c r="B478" t="n">
-        <v>0.01001185797002421</v>
+        <v>-0.001476050227180726</v>
       </c>
     </row>
     <row r="479">
@@ -4274,7 +4274,7 @@
         <v>3.412017167381974</v>
       </c>
       <c r="B479" t="n">
-        <v>0.007763039448797728</v>
+        <v>-0.001022395411781915</v>
       </c>
     </row>
     <row r="480">
@@ -4282,7 +4282,7 @@
         <v>3.419170243204578</v>
       </c>
       <c r="B480" t="n">
-        <v>0.0140624870005179</v>
+        <v>0.02141964464946038</v>
       </c>
     </row>
     <row r="481">
@@ -4290,7 +4290,7 @@
         <v>3.426323319027182</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.001065854717236687</v>
+        <v>0.012653706597761</v>
       </c>
     </row>
     <row r="482">
@@ -4298,7 +4298,7 @@
         <v>3.433476394849786</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.007239781666539097</v>
+        <v>0.006835299952707608</v>
       </c>
     </row>
     <row r="483">
@@ -4306,7 +4306,7 @@
         <v>3.440629470672389</v>
       </c>
       <c r="B483" t="n">
-        <v>0.0008213209390543693</v>
+        <v>-0.009585457908945888</v>
       </c>
     </row>
     <row r="484">
@@ -4314,7 +4314,7 @@
         <v>3.447782546494993</v>
       </c>
       <c r="B484" t="n">
-        <v>0.01582634231926048</v>
+        <v>-0.02230425930297602</v>
       </c>
     </row>
     <row r="485">
@@ -4322,7 +4322,7 @@
         <v>3.454935622317596</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.006589383687668659</v>
+        <v>-0.0128963058605777</v>
       </c>
     </row>
     <row r="486">
@@ -4330,7 +4330,7 @@
         <v>3.4620886981402</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.01214796266843197</v>
+        <v>0.001212919378912691</v>
       </c>
     </row>
     <row r="487">
@@ -4338,7 +4338,7 @@
         <v>3.469241773962804</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.01182138555788685</v>
+        <v>-0.001686822593602655</v>
       </c>
     </row>
     <row r="488">
@@ -4346,7 +4346,7 @@
         <v>3.476394849785408</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.01450154573956994</v>
+        <v>-0.005583105818360606</v>
       </c>
     </row>
     <row r="489">
@@ -4354,7 +4354,7 @@
         <v>3.483547925608011</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.009799051789883918</v>
+        <v>-0.008014815930723219</v>
       </c>
     </row>
     <row r="490">
@@ -4362,7 +4362,7 @@
         <v>3.490701001430615</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.01068596776022429</v>
+        <v>0.008926508083940151</v>
       </c>
     </row>
     <row r="491">
@@ -4370,7 +4370,7 @@
         <v>3.497854077253219</v>
       </c>
       <c r="B491" t="n">
-        <v>0.007767128535016693</v>
+        <v>-0.01136503375608534</v>
       </c>
     </row>
     <row r="492">
@@ -4378,7 +4378,7 @@
         <v>3.505007153075823</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.00392427470256802</v>
+        <v>0.01683444392631001</v>
       </c>
     </row>
     <row r="493">
@@ -4386,7 +4386,7 @@
         <v>3.512160228898426</v>
       </c>
       <c r="B493" t="n">
-        <v>0.006699212989117948</v>
+        <v>0.001763258351853747</v>
       </c>
     </row>
     <row r="494">
@@ -4394,7 +4394,7 @@
         <v>3.51931330472103</v>
       </c>
       <c r="B494" t="n">
-        <v>0.007259099919020829</v>
+        <v>-0.009078751448516579</v>
       </c>
     </row>
     <row r="495">
@@ -4402,7 +4402,7 @@
         <v>3.526466380543634</v>
       </c>
       <c r="B495" t="n">
-        <v>0.01101430759800777</v>
+        <v>0.007835456966121845</v>
       </c>
     </row>
     <row r="496">
@@ -4410,7 +4410,7 @@
         <v>3.533619456366238</v>
       </c>
       <c r="B496" t="n">
-        <v>0.003205791208129261</v>
+        <v>0.005792732017843818</v>
       </c>
     </row>
     <row r="497">
@@ -4418,7 +4418,7 @@
         <v>3.540772532188841</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.007510717924121829</v>
+        <v>-0.0007064697713483318</v>
       </c>
     </row>
     <row r="498">
@@ -4426,7 +4426,7 @@
         <v>3.547925608011445</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.009375460950085747</v>
+        <v>0.003920861145516019</v>
       </c>
     </row>
     <row r="499">
@@ -4434,7 +4434,7 @@
         <v>3.555078683834048</v>
       </c>
       <c r="B499" t="n">
-        <v>0.002229593383588151</v>
+        <v>-0.006784456528815853</v>
       </c>
     </row>
     <row r="500">
@@ -4442,7 +4442,7 @@
         <v>3.562231759656652</v>
       </c>
       <c r="B500" t="n">
-        <v>0.008975343367836971</v>
+        <v>-0.01343293717932255</v>
       </c>
     </row>
     <row r="501">
@@ -4450,7 +4450,7 @@
         <v>3.569384835479256</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.02609870891004499</v>
+        <v>-0.005227896950732482</v>
       </c>
     </row>
     <row r="502">
@@ -4458,7 +4458,7 @@
         <v>3.57653791130186</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.003367667214398997</v>
+        <v>0.0002117093739790423</v>
       </c>
     </row>
     <row r="503">
@@ -4466,7 +4466,7 @@
         <v>3.583690987124463</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.01373174659285096</v>
+        <v>-0.004457413727986997</v>
       </c>
     </row>
     <row r="504">
@@ -4474,7 +4474,7 @@
         <v>3.590844062947067</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.005695706522210596</v>
+        <v>-0.007304282369229349</v>
       </c>
     </row>
     <row r="505">
@@ -4482,7 +4482,7 @@
         <v>3.597997138769671</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.01449256407401514</v>
+        <v>0.001377037723773541</v>
       </c>
     </row>
     <row r="506">
@@ -4490,7 +4490,7 @@
         <v>3.605150214592275</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.001488945163652921</v>
+        <v>-0.00805631659660167</v>
       </c>
     </row>
     <row r="507">
@@ -4498,7 +4498,7 @@
         <v>3.612303290414878</v>
       </c>
       <c r="B507" t="n">
-        <v>0.006613908504760037</v>
+        <v>0.01211917519909818</v>
       </c>
     </row>
     <row r="508">
@@ -4506,7 +4506,7 @@
         <v>3.619456366237482</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.00866280873463331</v>
+        <v>0.01699652599080191</v>
       </c>
     </row>
     <row r="509">
@@ -4514,7 +4514,7 @@
         <v>3.626609442060086</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.0006617782393999811</v>
+        <v>-0.009682053336418885</v>
       </c>
     </row>
     <row r="510">
@@ -4522,7 +4522,7 @@
         <v>3.63376251788269</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.00807041716282164</v>
+        <v>0.003138868895206901</v>
       </c>
     </row>
     <row r="511">
@@ -4530,7 +4530,7 @@
         <v>3.640915593705293</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.005686659567414851</v>
+        <v>9.934502177713416e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4538,7 +4538,7 @@
         <v>3.648068669527897</v>
       </c>
       <c r="B512" t="n">
-        <v>0.02416315932409767</v>
+        <v>0.01659105824945812</v>
       </c>
     </row>
     <row r="513">
@@ -4546,7 +4546,7 @@
         <v>3.6552217453505</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.001872200753112463</v>
+        <v>-0.005653834755649747</v>
       </c>
     </row>
     <row r="514">
@@ -4554,7 +4554,7 @@
         <v>3.662374821173104</v>
       </c>
       <c r="B514" t="n">
-        <v>0.01123408498008993</v>
+        <v>0.001404385003184269</v>
       </c>
     </row>
     <row r="515">
@@ -4562,7 +4562,7 @@
         <v>3.669527896995708</v>
       </c>
       <c r="B515" t="n">
-        <v>0.01068550816131025</v>
+        <v>0.005338034505344895</v>
       </c>
     </row>
     <row r="516">
@@ -4570,7 +4570,7 @@
         <v>3.676680972818312</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.002363740262338985</v>
+        <v>-0.0008842464648108174</v>
       </c>
     </row>
     <row r="517">
@@ -4578,7 +4578,7 @@
         <v>3.683834048640916</v>
       </c>
       <c r="B517" t="n">
-        <v>0.003773236243332212</v>
+        <v>0.004964889061115179</v>
       </c>
     </row>
     <row r="518">
@@ -4586,7 +4586,7 @@
         <v>3.690987124463519</v>
       </c>
       <c r="B518" t="n">
-        <v>0.003938882041241758</v>
+        <v>0.00699423049065065</v>
       </c>
     </row>
     <row r="519">
@@ -4594,7 +4594,7 @@
         <v>3.698140200286123</v>
       </c>
       <c r="B519" t="n">
-        <v>0.009092941052884615</v>
+        <v>0.0019434285047798</v>
       </c>
     </row>
     <row r="520">
@@ -4602,7 +4602,7 @@
         <v>3.705293276108727</v>
       </c>
       <c r="B520" t="n">
-        <v>0.001419882879548669</v>
+        <v>0.009007027791753728</v>
       </c>
     </row>
     <row r="521">
@@ -4610,7 +4610,7 @@
         <v>3.712446351931331</v>
       </c>
       <c r="B521" t="n">
-        <v>0.001036935185973273</v>
+        <v>0.01258889102552485</v>
       </c>
     </row>
     <row r="522">
@@ -4618,7 +4618,7 @@
         <v>3.719599427753934</v>
       </c>
       <c r="B522" t="n">
-        <v>0.0006452402278459086</v>
+        <v>0.01237342644857873</v>
       </c>
     </row>
     <row r="523">
@@ -4626,7 +4626,7 @@
         <v>3.726752503576538</v>
       </c>
       <c r="B523" t="n">
-        <v>0.002058644958660747</v>
+        <v>-0.0001266222993760316</v>
       </c>
     </row>
     <row r="524">
@@ -4634,7 +4634,7 @@
         <v>3.733905579399142</v>
       </c>
       <c r="B524" t="n">
-        <v>0.005069899278618463</v>
+        <v>0.006109120315111907</v>
       </c>
     </row>
     <row r="525">
@@ -4642,7 +4642,7 @@
         <v>3.741058655221746</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.001584747932102093</v>
+        <v>0.01321947539014385</v>
       </c>
     </row>
     <row r="526">
@@ -4650,7 +4650,7 @@
         <v>3.748211731044349</v>
       </c>
       <c r="B526" t="n">
-        <v>0.00564870208867041</v>
+        <v>-0.00437940601308502</v>
       </c>
     </row>
     <row r="527">
@@ -4658,7 +4658,7 @@
         <v>3.755364806866953</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.006033611531009207</v>
+        <v>0.0001674417876668289</v>
       </c>
     </row>
     <row r="528">
@@ -4666,7 +4666,7 @@
         <v>3.762517882689556</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.02382089916566719</v>
+        <v>-0.007696261207816671</v>
       </c>
     </row>
     <row r="529">
@@ -4674,7 +4674,7 @@
         <v>3.76967095851216</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.003253919552381565</v>
+        <v>0.004309558073709603</v>
       </c>
     </row>
     <row r="530">
@@ -4682,7 +4682,7 @@
         <v>3.776824034334764</v>
       </c>
       <c r="B530" t="n">
-        <v>0.009038632399186243</v>
+        <v>-0.01786856594693133</v>
       </c>
     </row>
     <row r="531">
@@ -4690,7 +4690,7 @@
         <v>3.783977110157368</v>
       </c>
       <c r="B531" t="n">
-        <v>0.01631258882231139</v>
+        <v>0.0206592142133805</v>
       </c>
     </row>
     <row r="532">
@@ -4698,7 +4698,7 @@
         <v>3.791130185979971</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.00669638579335645</v>
+        <v>-0.006835303344808937</v>
       </c>
     </row>
     <row r="533">
@@ -4706,7 +4706,7 @@
         <v>3.798283261802575</v>
       </c>
       <c r="B533" t="n">
-        <v>0.0004932200167629641</v>
+        <v>0.005803806448535106</v>
       </c>
     </row>
     <row r="534">
@@ -4714,7 +4714,7 @@
         <v>3.805436337625179</v>
       </c>
       <c r="B534" t="n">
-        <v>0.004549709245256785</v>
+        <v>0.001412692690362971</v>
       </c>
     </row>
     <row r="535">
@@ -4722,7 +4722,7 @@
         <v>3.812589413447783</v>
       </c>
       <c r="B535" t="n">
-        <v>0.0001604961198902148</v>
+        <v>0.01035743049998043</v>
       </c>
     </row>
     <row r="536">
@@ -4730,7 +4730,7 @@
         <v>3.819742489270386</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.005935919812934136</v>
+        <v>-0.005992401054576317</v>
       </c>
     </row>
     <row r="537">
@@ -4738,7 +4738,7 @@
         <v>3.82689556509299</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.001092089490085337</v>
+        <v>-0.01194740880805977</v>
       </c>
     </row>
     <row r="538">
@@ -4746,7 +4746,7 @@
         <v>3.834048640915594</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.008779107278854087</v>
+        <v>-0.009435957663903424</v>
       </c>
     </row>
     <row r="539">
@@ -4754,7 +4754,7 @@
         <v>3.841201716738198</v>
       </c>
       <c r="B539" t="n">
-        <v>0.002871172949650365</v>
+        <v>0.016505455925556</v>
       </c>
     </row>
     <row r="540">
@@ -4762,7 +4762,7 @@
         <v>3.848354792560801</v>
       </c>
       <c r="B540" t="n">
-        <v>0.02186460207606944</v>
+        <v>0.00906562670289132</v>
       </c>
     </row>
     <row r="541">
@@ -4770,7 +4770,7 @@
         <v>3.855507868383405</v>
       </c>
       <c r="B541" t="n">
-        <v>0.01195618015343227</v>
+        <v>-0.009784313098857959</v>
       </c>
     </row>
     <row r="542">
@@ -4778,7 +4778,7 @@
         <v>3.862660944206008</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.01121440859435546</v>
+        <v>-0.004797337459109817</v>
       </c>
     </row>
     <row r="543">
@@ -4786,7 +4786,7 @@
         <v>3.869814020028612</v>
       </c>
       <c r="B543" t="n">
-        <v>0.006515777689579464</v>
+        <v>0.009866542353455146</v>
       </c>
     </row>
     <row r="544">
@@ -4794,7 +4794,7 @@
         <v>3.876967095851216</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.01472759845440431</v>
+        <v>0.01731411507912492</v>
       </c>
     </row>
     <row r="545">
@@ -4802,7 +4802,7 @@
         <v>3.88412017167382</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.009020490571389103</v>
+        <v>0.01502163311322001</v>
       </c>
     </row>
     <row r="546">
@@ -4810,7 +4810,7 @@
         <v>3.891273247496423</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.01135091124563717</v>
+        <v>-0.001824208941739171</v>
       </c>
     </row>
     <row r="547">
@@ -4818,7 +4818,7 @@
         <v>3.898426323319027</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.01674724149906719</v>
+        <v>-0.008245023409116684</v>
       </c>
     </row>
     <row r="548">
@@ -4826,7 +4826,7 @@
         <v>3.905579399141631</v>
       </c>
       <c r="B548" t="n">
-        <v>0.003824523447788007</v>
+        <v>0.0006218569835104049</v>
       </c>
     </row>
     <row r="549">
@@ -4834,7 +4834,7 @@
         <v>3.912732474964235</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.01762614759080993</v>
+        <v>-0.002646008591641522</v>
       </c>
     </row>
     <row r="550">
@@ -4842,7 +4842,7 @@
         <v>3.919885550786838</v>
       </c>
       <c r="B550" t="n">
-        <v>0.01156179633491542</v>
+        <v>-0.005804655662748974</v>
       </c>
     </row>
     <row r="551">
@@ -4850,7 +4850,7 @@
         <v>3.927038626609442</v>
       </c>
       <c r="B551" t="n">
-        <v>0.009144898816606852</v>
+        <v>0.004196293570577402</v>
       </c>
     </row>
     <row r="552">
@@ -4858,7 +4858,7 @@
         <v>3.934191702432046</v>
       </c>
       <c r="B552" t="n">
-        <v>0.006156036055816614</v>
+        <v>-0.01148521841146539</v>
       </c>
     </row>
     <row r="553">
@@ -4866,7 +4866,7 @@
         <v>3.94134477825465</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.001963415085135539</v>
+        <v>0.004434126006923043</v>
       </c>
     </row>
     <row r="554">
@@ -4874,7 +4874,7 @@
         <v>3.948497854077253</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.003745690547756029</v>
+        <v>0.01448544973871527</v>
       </c>
     </row>
     <row r="555">
@@ -4882,7 +4882,7 @@
         <v>3.955650929899857</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.01170510034691678</v>
+        <v>-0.004971198760880167</v>
       </c>
     </row>
     <row r="556">
@@ -4890,7 +4890,7 @@
         <v>3.96280400572246</v>
       </c>
       <c r="B556" t="n">
-        <v>0.01353907928742404</v>
+        <v>0.01266729100894727</v>
       </c>
     </row>
     <row r="557">
@@ -4898,7 +4898,7 @@
         <v>3.969957081545064</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.007550327747775502</v>
+        <v>0.008091652311061286</v>
       </c>
     </row>
     <row r="558">
@@ -4906,7 +4906,7 @@
         <v>3.977110157367668</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.002419050810972313</v>
+        <v>0.006993173224905894</v>
       </c>
     </row>
     <row r="559">
@@ -4914,7 +4914,7 @@
         <v>3.984263233190272</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.002176253961432479</v>
+        <v>-0.004208542213155707</v>
       </c>
     </row>
     <row r="560">
@@ -4922,7 +4922,7 @@
         <v>3.991416309012875</v>
       </c>
       <c r="B560" t="n">
-        <v>0.0062703974123817</v>
+        <v>-0.01783954770030564</v>
       </c>
     </row>
     <row r="561">
@@ -4930,7 +4930,7 @@
         <v>3.998569384835479</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.0003660830839885043</v>
+        <v>0.001885927418165538</v>
       </c>
     </row>
     <row r="562">
@@ -4938,7 +4938,7 @@
         <v>4.005722460658083</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.003700660662554553</v>
+        <v>-0.00266280531182828</v>
       </c>
     </row>
     <row r="563">
@@ -4946,7 +4946,7 @@
         <v>4.012875536480687</v>
       </c>
       <c r="B563" t="n">
-        <v>0.01660693168945482</v>
+        <v>0.03725060309306211</v>
       </c>
     </row>
     <row r="564">
@@ -4954,7 +4954,7 @@
         <v>4.020028612303291</v>
       </c>
       <c r="B564" t="n">
-        <v>0.07808527304266544</v>
+        <v>0.06743535511367064</v>
       </c>
     </row>
     <row r="565">
@@ -4962,7 +4962,7 @@
         <v>4.027181688125894</v>
       </c>
       <c r="B565" t="n">
-        <v>0.09913852631818076</v>
+        <v>0.08586912957726393</v>
       </c>
     </row>
     <row r="566">
@@ -4970,7 +4970,7 @@
         <v>4.034334763948498</v>
       </c>
       <c r="B566" t="n">
-        <v>0.102048315241432</v>
+        <v>0.08939159184854979</v>
       </c>
     </row>
     <row r="567">
@@ -4978,7 +4978,7 @@
         <v>4.041487839771102</v>
       </c>
       <c r="B567" t="n">
-        <v>0.06211103268861105</v>
+        <v>0.08212042838032454</v>
       </c>
     </row>
     <row r="568">
@@ -4986,7 +4986,7 @@
         <v>4.048640915593706</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05399793457713637</v>
+        <v>0.03844684098710496</v>
       </c>
     </row>
     <row r="569">
@@ -4994,7 +4994,7 @@
         <v>4.055793991416309</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.007708530558556411</v>
+        <v>-0.002243881044721929</v>
       </c>
     </row>
     <row r="570">
@@ -5002,7 +5002,7 @@
         <v>4.062947067238913</v>
       </c>
       <c r="B570" t="n">
-        <v>0.006425454796822576</v>
+        <v>-0.009724196218469405</v>
       </c>
     </row>
     <row r="571">
@@ -5010,7 +5010,7 @@
         <v>4.070100143061516</v>
       </c>
       <c r="B571" t="n">
-        <v>0.006659617304423548</v>
+        <v>-0.019808591786096</v>
       </c>
     </row>
     <row r="572">
@@ -5018,7 +5018,7 @@
         <v>4.07725321888412</v>
       </c>
       <c r="B572" t="n">
-        <v>0.01264366124415373</v>
+        <v>0.01028829293179815</v>
       </c>
     </row>
     <row r="573">
@@ -5026,7 +5026,7 @@
         <v>4.084406294706723</v>
       </c>
       <c r="B573" t="n">
-        <v>0.008084218583594139</v>
+        <v>0.009399703433106045</v>
       </c>
     </row>
     <row r="574">
@@ -5034,7 +5034,7 @@
         <v>4.091559370529327</v>
       </c>
       <c r="B574" t="n">
-        <v>0.008049361092602327</v>
+        <v>-0.005886422632524122</v>
       </c>
     </row>
     <row r="575">
@@ -5042,7 +5042,7 @@
         <v>4.098712446351931</v>
       </c>
       <c r="B575" t="n">
-        <v>0.004397100599936627</v>
+        <v>0.004525137744442027</v>
       </c>
     </row>
     <row r="576">
@@ -5050,7 +5050,7 @@
         <v>4.105865522174535</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.001334506564175909</v>
+        <v>-0.0198001141810426</v>
       </c>
     </row>
     <row r="577">
@@ -5058,7 +5058,7 @@
         <v>4.113018597997138</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.001766849496065869</v>
+        <v>0.001191553541448995</v>
       </c>
     </row>
     <row r="578">
@@ -5066,7 +5066,7 @@
         <v>4.120171673819742</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.01168777261686244</v>
+        <v>0.003133884802151804</v>
       </c>
     </row>
     <row r="579">
@@ -5074,7 +5074,7 @@
         <v>4.127324749642346</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.01248342816597009</v>
+        <v>0.005855791767101961</v>
       </c>
     </row>
     <row r="580">
@@ -5082,7 +5082,7 @@
         <v>4.13447782546495</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.006710448817423972</v>
+        <v>0.005881190690593515</v>
       </c>
     </row>
     <row r="581">
@@ -5090,7 +5090,7 @@
         <v>4.141630901287554</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.02425771130585782</v>
+        <v>0.007458830216761743</v>
       </c>
     </row>
     <row r="582">
@@ -5098,7 +5098,7 @@
         <v>4.148783977110157</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.007297659402759459</v>
+        <v>0.01847856575654039</v>
       </c>
     </row>
     <row r="583">
@@ -5106,7 +5106,7 @@
         <v>4.155937052932761</v>
       </c>
       <c r="B583" t="n">
-        <v>0.004426580636559705</v>
+        <v>-0.001527405957141987</v>
       </c>
     </row>
     <row r="584">
@@ -5114,7 +5114,7 @@
         <v>4.163090128755365</v>
       </c>
       <c r="B584" t="n">
-        <v>0.003511209799468843</v>
+        <v>-0.00755682573698165</v>
       </c>
     </row>
     <row r="585">
@@ -5122,7 +5122,7 @@
         <v>4.170243204577969</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.001225611460323884</v>
+        <v>-0.01654787316020762</v>
       </c>
     </row>
     <row r="586">
@@ -5130,7 +5130,7 @@
         <v>4.177396280400572</v>
       </c>
       <c r="B586" t="n">
-        <v>0.007403190212638039</v>
+        <v>0.01511385128267075</v>
       </c>
     </row>
     <row r="587">
@@ -5138,7 +5138,7 @@
         <v>4.184549356223176</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.01341629850398668</v>
+        <v>-0.01264539116749325</v>
       </c>
     </row>
     <row r="588">
@@ -5146,7 +5146,7 @@
         <v>4.19170243204578</v>
       </c>
       <c r="B588" t="n">
-        <v>0.001999875268265654</v>
+        <v>0.004005028823960526</v>
       </c>
     </row>
     <row r="589">
@@ -5154,7 +5154,7 @@
         <v>4.198855507868384</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.0002638538501556733</v>
+        <v>-0.01196527793151663</v>
       </c>
     </row>
     <row r="590">
@@ -5162,7 +5162,7 @@
         <v>4.206008583690987</v>
       </c>
       <c r="B590" t="n">
-        <v>0.00191980026089378</v>
+        <v>-0.001657040346377406</v>
       </c>
     </row>
     <row r="591">
@@ -5170,7 +5170,7 @@
         <v>4.213161659513591</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.01238589167980495</v>
+        <v>-0.01518357280455302</v>
       </c>
     </row>
     <row r="592">
@@ -5178,7 +5178,7 @@
         <v>4.220314735336195</v>
       </c>
       <c r="B592" t="n">
-        <v>0.4773221689409464</v>
+        <v>0.4871661870380879</v>
       </c>
     </row>
     <row r="593">
@@ -5186,7 +5186,7 @@
         <v>4.227467811158799</v>
       </c>
       <c r="B593" t="n">
-        <v>0.5322186521074213</v>
+        <v>0.5208430994113382</v>
       </c>
     </row>
     <row r="594">
@@ -5194,7 +5194,7 @@
         <v>4.234620886981402</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.01895592605147361</v>
+        <v>-0.01186684128167791</v>
       </c>
     </row>
     <row r="595">
@@ -5202,7 +5202,7 @@
         <v>4.241773962804006</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1784397007729231</v>
+        <v>-0.1732758127195315</v>
       </c>
     </row>
     <row r="596">
@@ -5210,7 +5210,7 @@
         <v>4.24892703862661</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.1600598938169442</v>
+        <v>-0.148006131349516</v>
       </c>
     </row>
     <row r="597">
@@ -5218,7 +5218,7 @@
         <v>4.256080114449214</v>
       </c>
       <c r="B597" t="n">
-        <v>0.01217205815149749</v>
+        <v>0.0137315038655904</v>
       </c>
     </row>
     <row r="598">
@@ -5226,7 +5226,7 @@
         <v>4.263233190271817</v>
       </c>
       <c r="B598" t="n">
-        <v>0.08108300669785483</v>
+        <v>0.07749586565695532</v>
       </c>
     </row>
     <row r="599">
@@ -5234,7 +5234,7 @@
         <v>4.270386266094421</v>
       </c>
       <c r="B599" t="n">
-        <v>0.1177379859382539</v>
+        <v>0.1362445429993711</v>
       </c>
     </row>
     <row r="600">
@@ -5242,7 +5242,7 @@
         <v>4.277539341917024</v>
       </c>
       <c r="B600" t="n">
-        <v>0.1559234004002531</v>
+        <v>0.1790254244731372</v>
       </c>
     </row>
     <row r="601">
@@ -5250,7 +5250,7 @@
         <v>4.284692417739628</v>
       </c>
       <c r="B601" t="n">
-        <v>0.2001854604220361</v>
+        <v>0.1799125787059092</v>
       </c>
     </row>
     <row r="602">
@@ -5258,7 +5258,7 @@
         <v>4.291845493562231</v>
       </c>
       <c r="B602" t="n">
-        <v>0.2002888393198662</v>
+        <v>0.2028667925218331</v>
       </c>
     </row>
     <row r="603">
@@ -5266,7 +5266,7 @@
         <v>4.298998569384835</v>
       </c>
       <c r="B603" t="n">
-        <v>0.1776066237476872</v>
+        <v>0.1750350277657448</v>
       </c>
     </row>
     <row r="604">
@@ -5274,7 +5274,7 @@
         <v>4.306151645207439</v>
       </c>
       <c r="B604" t="n">
-        <v>0.1396805634792133</v>
+        <v>0.131247148398998</v>
       </c>
     </row>
     <row r="605">
@@ -5282,7 +5282,7 @@
         <v>4.313304721030043</v>
       </c>
       <c r="B605" t="n">
-        <v>0.0897429917026587</v>
+        <v>0.09887900697738213</v>
       </c>
     </row>
     <row r="606">
@@ -5290,7 +5290,7 @@
         <v>4.320457796852646</v>
       </c>
       <c r="B606" t="n">
-        <v>0.03563246345383224</v>
+        <v>0.02072788806424024</v>
       </c>
     </row>
     <row r="607">
@@ -5298,7 +5298,7 @@
         <v>4.32761087267525</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.006975498541126601</v>
+        <v>0.007253545195407249</v>
       </c>
     </row>
     <row r="608">
@@ -5306,7 +5306,7 @@
         <v>4.334763948497854</v>
       </c>
       <c r="B608" t="n">
-        <v>0.002746566745293064</v>
+        <v>-0.004461780319965753</v>
       </c>
     </row>
     <row r="609">
@@ -5314,7 +5314,7 @@
         <v>4.341917024320458</v>
       </c>
       <c r="B609" t="n">
-        <v>0.0001359624479816834</v>
+        <v>0.005841365473224739</v>
       </c>
     </row>
     <row r="610">
@@ -5322,7 +5322,7 @@
         <v>4.349070100143061</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.004864964247900722</v>
+        <v>0.01421997112125075</v>
       </c>
     </row>
     <row r="611">
@@ -5330,7 +5330,7 @@
         <v>4.356223175965665</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.002938144607380946</v>
+        <v>-0.009767030887206049</v>
       </c>
     </row>
     <row r="612">
@@ -5338,7 +5338,7 @@
         <v>4.363376251788269</v>
       </c>
       <c r="B612" t="n">
-        <v>0.0001729926576698456</v>
+        <v>0.01336656731558463</v>
       </c>
     </row>
     <row r="613">
@@ -5346,7 +5346,7 @@
         <v>4.370529327610873</v>
       </c>
       <c r="B613" t="n">
-        <v>0.0144690541049121</v>
+        <v>-0.001971513151648269</v>
       </c>
     </row>
     <row r="614">
@@ -5354,7 +5354,7 @@
         <v>4.377682403433476</v>
       </c>
       <c r="B614" t="n">
-        <v>0.005427097376767004</v>
+        <v>0.01299672128343668</v>
       </c>
     </row>
     <row r="615">
@@ -5362,7 +5362,7 @@
         <v>4.38483547925608</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.003186888254159591</v>
+        <v>-0.001232403117733985</v>
       </c>
     </row>
     <row r="616">
@@ -5370,7 +5370,7 @@
         <v>4.391988555078684</v>
       </c>
       <c r="B616" t="n">
-        <v>0.004500522188060275</v>
+        <v>-0.007143684005059794</v>
       </c>
     </row>
     <row r="617">
@@ -5378,7 +5378,7 @@
         <v>4.399141630901288</v>
       </c>
       <c r="B617" t="n">
-        <v>0.006465442440440622</v>
+        <v>0.003324173342414432</v>
       </c>
     </row>
     <row r="618">
@@ -5386,7 +5386,7 @@
         <v>4.406294706723891</v>
       </c>
       <c r="B618" t="n">
-        <v>0.01001185797002421</v>
+        <v>-0.001476050227180726</v>
       </c>
     </row>
     <row r="619">
@@ -5394,7 +5394,7 @@
         <v>4.413447782546495</v>
       </c>
       <c r="B619" t="n">
-        <v>0.007763039448797728</v>
+        <v>-0.001022395411781915</v>
       </c>
     </row>
     <row r="620">
@@ -5402,7 +5402,7 @@
         <v>4.420600858369099</v>
       </c>
       <c r="B620" t="n">
-        <v>0.0140624870005179</v>
+        <v>0.02141964464946038</v>
       </c>
     </row>
     <row r="621">
@@ -5410,7 +5410,7 @@
         <v>4.427753934191703</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.001065854717236687</v>
+        <v>0.012653706597761</v>
       </c>
     </row>
     <row r="622">
@@ -5418,7 +5418,7 @@
         <v>4.434907010014306</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.007239781666539097</v>
+        <v>0.006835299952707608</v>
       </c>
     </row>
     <row r="623">
@@ -5426,7 +5426,7 @@
         <v>4.44206008583691</v>
       </c>
       <c r="B623" t="n">
-        <v>0.0008213209390543693</v>
+        <v>-0.009585457908945888</v>
       </c>
     </row>
     <row r="624">
@@ -5434,7 +5434,7 @@
         <v>4.449213161659514</v>
       </c>
       <c r="B624" t="n">
-        <v>0.01582634231926048</v>
+        <v>-0.02230425930297602</v>
       </c>
     </row>
     <row r="625">
@@ -5442,7 +5442,7 @@
         <v>4.456366237482118</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.006589383687668659</v>
+        <v>-0.0128963058605777</v>
       </c>
     </row>
     <row r="626">
@@ -5450,7 +5450,7 @@
         <v>4.463519313304721</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.01214796266843197</v>
+        <v>0.001212919378912691</v>
       </c>
     </row>
     <row r="627">
@@ -5458,7 +5458,7 @@
         <v>4.470672389127325</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.01182138555788685</v>
+        <v>-0.001686822593602655</v>
       </c>
     </row>
     <row r="628">
@@ -5466,7 +5466,7 @@
         <v>4.477825464949929</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.01450154573956994</v>
+        <v>-0.005583105818360606</v>
       </c>
     </row>
     <row r="629">
@@ -5474,7 +5474,7 @@
         <v>4.484978540772532</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.009799051789883918</v>
+        <v>-0.008014815930723219</v>
       </c>
     </row>
     <row r="630">
@@ -5482,7 +5482,7 @@
         <v>4.492131616595135</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.01068596776022429</v>
+        <v>0.008926508083940151</v>
       </c>
     </row>
     <row r="631">
@@ -5490,7 +5490,7 @@
         <v>4.499284692417739</v>
       </c>
       <c r="B631" t="n">
-        <v>0.007767128535016693</v>
+        <v>-0.01136503375608534</v>
       </c>
     </row>
     <row r="632">
@@ -5498,7 +5498,7 @@
         <v>4.506437768240343</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.00392427470256802</v>
+        <v>0.01683444392631001</v>
       </c>
     </row>
     <row r="633">
@@ -5506,7 +5506,7 @@
         <v>4.513590844062947</v>
       </c>
       <c r="B633" t="n">
-        <v>0.006699212989117948</v>
+        <v>0.001763258351853747</v>
       </c>
     </row>
     <row r="634">
@@ -5514,7 +5514,7 @@
         <v>4.52074391988555</v>
       </c>
       <c r="B634" t="n">
-        <v>0.007259099919020829</v>
+        <v>-0.009078751448516579</v>
       </c>
     </row>
     <row r="635">
@@ -5522,7 +5522,7 @@
         <v>4.527896995708154</v>
       </c>
       <c r="B635" t="n">
-        <v>0.01101430759800777</v>
+        <v>0.007835456966121845</v>
       </c>
     </row>
     <row r="636">
@@ -5530,7 +5530,7 @@
         <v>4.535050071530758</v>
       </c>
       <c r="B636" t="n">
-        <v>0.003205791208129261</v>
+        <v>0.005792732017843818</v>
       </c>
     </row>
     <row r="637">
@@ -5538,7 +5538,7 @@
         <v>4.542203147353362</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.007510717924121829</v>
+        <v>-0.0007064697713483318</v>
       </c>
     </row>
     <row r="638">
@@ -5546,7 +5546,7 @@
         <v>4.549356223175965</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.009375460950085747</v>
+        <v>0.003920861145516019</v>
       </c>
     </row>
     <row r="639">
@@ -5554,7 +5554,7 @@
         <v>4.556509298998569</v>
       </c>
       <c r="B639" t="n">
-        <v>0.002229593383588151</v>
+        <v>-0.006784456528815853</v>
       </c>
     </row>
     <row r="640">
@@ -5562,7 +5562,7 @@
         <v>4.563662374821173</v>
       </c>
       <c r="B640" t="n">
-        <v>0.008975343367836971</v>
+        <v>-0.01343293717932255</v>
       </c>
     </row>
     <row r="641">
@@ -5570,7 +5570,7 @@
         <v>4.570815450643777</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.02609870891004499</v>
+        <v>-0.005227896950732482</v>
       </c>
     </row>
     <row r="642">
@@ -5578,7 +5578,7 @@
         <v>4.57796852646638</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.003367667214398997</v>
+        <v>0.0002117093739790423</v>
       </c>
     </row>
     <row r="643">
@@ -5586,7 +5586,7 @@
         <v>4.585121602288984</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.01373174659285096</v>
+        <v>-0.004457413727986997</v>
       </c>
     </row>
     <row r="644">
@@ -5594,7 +5594,7 @@
         <v>4.592274678111588</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.005695706522210596</v>
+        <v>-0.007304282369229349</v>
       </c>
     </row>
     <row r="645">
@@ -5602,7 +5602,7 @@
         <v>4.599427753934192</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.01449256407401514</v>
+        <v>0.001377037723773541</v>
       </c>
     </row>
     <row r="646">
@@ -5610,7 +5610,7 @@
         <v>4.606580829756796</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.001488945163652921</v>
+        <v>-0.00805631659660167</v>
       </c>
     </row>
     <row r="647">
@@ -5618,7 +5618,7 @@
         <v>4.613733905579399</v>
       </c>
       <c r="B647" t="n">
-        <v>0.006613908504760037</v>
+        <v>0.01211917519909818</v>
       </c>
     </row>
     <row r="648">
@@ -5626,7 +5626,7 @@
         <v>4.620886981402003</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.00866280873463331</v>
+        <v>0.01699652599080191</v>
       </c>
     </row>
     <row r="649">
@@ -5634,7 +5634,7 @@
         <v>4.628040057224607</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.0006617782393999811</v>
+        <v>-0.009682053336418885</v>
       </c>
     </row>
     <row r="650">
@@ -5642,7 +5642,7 @@
         <v>4.635193133047211</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.00807041716282164</v>
+        <v>0.003138868895206901</v>
       </c>
     </row>
     <row r="651">
@@ -5650,7 +5650,7 @@
         <v>4.642346208869814</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.005686659567414851</v>
+        <v>9.934502177713416e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5658,7 +5658,7 @@
         <v>4.649499284692418</v>
       </c>
       <c r="B652" t="n">
-        <v>0.02416315932409767</v>
+        <v>0.01659105824945812</v>
       </c>
     </row>
     <row r="653">
@@ -5666,7 +5666,7 @@
         <v>4.656652360515022</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.001872200753112463</v>
+        <v>-0.005653834755649747</v>
       </c>
     </row>
     <row r="654">
@@ -5674,7 +5674,7 @@
         <v>4.663805436337626</v>
       </c>
       <c r="B654" t="n">
-        <v>0.01123408498008993</v>
+        <v>0.001404385003184269</v>
       </c>
     </row>
     <row r="655">
@@ -5682,7 +5682,7 @@
         <v>4.670958512160229</v>
       </c>
       <c r="B655" t="n">
-        <v>0.01068550816131025</v>
+        <v>0.005338034505344895</v>
       </c>
     </row>
     <row r="656">
@@ -5690,7 +5690,7 @@
         <v>4.678111587982833</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.002363740262338985</v>
+        <v>-0.0008842464648108174</v>
       </c>
     </row>
     <row r="657">
@@ -5698,7 +5698,7 @@
         <v>4.685264663805436</v>
       </c>
       <c r="B657" t="n">
-        <v>0.003773236243332212</v>
+        <v>0.004964889061115179</v>
       </c>
     </row>
     <row r="658">
@@ -5706,7 +5706,7 @@
         <v>4.69241773962804</v>
       </c>
       <c r="B658" t="n">
-        <v>0.003938882041241758</v>
+        <v>0.00699423049065065</v>
       </c>
     </row>
     <row r="659">
@@ -5714,7 +5714,7 @@
         <v>4.699570815450643</v>
       </c>
       <c r="B659" t="n">
-        <v>0.009092941052884615</v>
+        <v>0.0019434285047798</v>
       </c>
     </row>
     <row r="660">
@@ -5722,7 +5722,7 @@
         <v>4.706723891273247</v>
       </c>
       <c r="B660" t="n">
-        <v>0.001419882879548669</v>
+        <v>0.009007027791753728</v>
       </c>
     </row>
     <row r="661">
@@ -5730,7 +5730,7 @@
         <v>4.713876967095851</v>
       </c>
       <c r="B661" t="n">
-        <v>0.001036935185973273</v>
+        <v>0.01258889102552485</v>
       </c>
     </row>
     <row r="662">
@@ -5738,7 +5738,7 @@
         <v>4.721030042918455</v>
       </c>
       <c r="B662" t="n">
-        <v>0.0006452402278459086</v>
+        <v>0.01237342644857873</v>
       </c>
     </row>
     <row r="663">
@@ -5746,7 +5746,7 @@
         <v>4.728183118741058</v>
       </c>
       <c r="B663" t="n">
-        <v>0.002058644958660747</v>
+        <v>-0.0001266222993760316</v>
       </c>
     </row>
     <row r="664">
@@ -5754,7 +5754,7 @@
         <v>4.735336194563662</v>
       </c>
       <c r="B664" t="n">
-        <v>0.005069899278618463</v>
+        <v>0.006109120315111907</v>
       </c>
     </row>
     <row r="665">
@@ -5762,7 +5762,7 @@
         <v>4.742489270386266</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.001584747932102093</v>
+        <v>0.01321947539014385</v>
       </c>
     </row>
     <row r="666">
@@ -5770,7 +5770,7 @@
         <v>4.74964234620887</v>
       </c>
       <c r="B666" t="n">
-        <v>0.00564870208867041</v>
+        <v>-0.00437940601308502</v>
       </c>
     </row>
     <row r="667">
@@ -5778,7 +5778,7 @@
         <v>4.756795422031473</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.006033611531009207</v>
+        <v>0.0001674417876668289</v>
       </c>
     </row>
     <row r="668">
@@ -5786,7 +5786,7 @@
         <v>4.763948497854077</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.02382089916566719</v>
+        <v>-0.007696261207816671</v>
       </c>
     </row>
     <row r="669">
@@ -5794,7 +5794,7 @@
         <v>4.771101573676681</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.003253919552381565</v>
+        <v>0.004309558073709603</v>
       </c>
     </row>
     <row r="670">
@@ -5802,7 +5802,7 @@
         <v>4.778254649499285</v>
       </c>
       <c r="B670" t="n">
-        <v>0.009038632399186243</v>
+        <v>-0.01786856594693133</v>
       </c>
     </row>
     <row r="671">
@@ -5810,7 +5810,7 @@
         <v>4.785407725321888</v>
       </c>
       <c r="B671" t="n">
-        <v>0.01631258882231139</v>
+        <v>0.0206592142133805</v>
       </c>
     </row>
     <row r="672">
@@ -5818,7 +5818,7 @@
         <v>4.792560801144492</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.00669638579335645</v>
+        <v>-0.006835303344808937</v>
       </c>
     </row>
     <row r="673">
@@ -5826,7 +5826,7 @@
         <v>4.799713876967096</v>
       </c>
       <c r="B673" t="n">
-        <v>0.0004932200167629641</v>
+        <v>0.005803806448535106</v>
       </c>
     </row>
     <row r="674">
@@ -5834,7 +5834,7 @@
         <v>4.8068669527897</v>
       </c>
       <c r="B674" t="n">
-        <v>0.004549709245256785</v>
+        <v>0.001412692690362971</v>
       </c>
     </row>
     <row r="675">
@@ -5842,7 +5842,7 @@
         <v>4.814020028612303</v>
       </c>
       <c r="B675" t="n">
-        <v>0.0001604961198902148</v>
+        <v>0.01035743049998043</v>
       </c>
     </row>
     <row r="676">
@@ -5850,7 +5850,7 @@
         <v>4.821173104434907</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.005935919812934136</v>
+        <v>-0.005992401054576317</v>
       </c>
     </row>
     <row r="677">
@@ -5858,7 +5858,7 @@
         <v>4.828326180257511</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.001092089490085337</v>
+        <v>-0.01194740880805977</v>
       </c>
     </row>
     <row r="678">
@@ -5866,7 +5866,7 @@
         <v>4.835479256080115</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.008779107278854087</v>
+        <v>-0.009435957663903424</v>
       </c>
     </row>
     <row r="679">
@@ -5874,7 +5874,7 @@
         <v>4.842632331902718</v>
       </c>
       <c r="B679" t="n">
-        <v>0.002871172949650365</v>
+        <v>0.016505455925556</v>
       </c>
     </row>
     <row r="680">
@@ -5882,7 +5882,7 @@
         <v>4.849785407725322</v>
       </c>
       <c r="B680" t="n">
-        <v>0.02186460207606944</v>
+        <v>0.00906562670289132</v>
       </c>
     </row>
     <row r="681">
@@ -5890,7 +5890,7 @@
         <v>4.856938483547926</v>
       </c>
       <c r="B681" t="n">
-        <v>0.01195618015343227</v>
+        <v>-0.009784313098857959</v>
       </c>
     </row>
     <row r="682">
@@ -5898,7 +5898,7 @@
         <v>4.86409155937053</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.01121440859435546</v>
+        <v>-0.004797337459109817</v>
       </c>
     </row>
     <row r="683">
@@ -5906,7 +5906,7 @@
         <v>4.871244635193133</v>
       </c>
       <c r="B683" t="n">
-        <v>0.006515777689579464</v>
+        <v>0.009866542353455146</v>
       </c>
     </row>
     <row r="684">
@@ -5914,7 +5914,7 @@
         <v>4.878397711015737</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.01472759845440431</v>
+        <v>0.01731411507912492</v>
       </c>
     </row>
     <row r="685">
@@ -5922,7 +5922,7 @@
         <v>4.885550786838341</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.009020490571389103</v>
+        <v>0.01502163311322001</v>
       </c>
     </row>
     <row r="686">
@@ -5930,7 +5930,7 @@
         <v>4.892703862660944</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.01135091124563717</v>
+        <v>-0.001824208941739171</v>
       </c>
     </row>
     <row r="687">
@@ -5938,7 +5938,7 @@
         <v>4.899856938483548</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.01674724149906719</v>
+        <v>-0.008245023409116684</v>
       </c>
     </row>
     <row r="688">
@@ -5946,7 +5946,7 @@
         <v>4.907010014306151</v>
       </c>
       <c r="B688" t="n">
-        <v>0.003824523447788007</v>
+        <v>0.0006218569835104049</v>
       </c>
     </row>
     <row r="689">
@@ -5954,7 +5954,7 @@
         <v>4.914163090128755</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.01762614759080993</v>
+        <v>-0.002646008591641522</v>
       </c>
     </row>
     <row r="690">
@@ -5962,7 +5962,7 @@
         <v>4.921316165951359</v>
       </c>
       <c r="B690" t="n">
-        <v>0.01156179633491542</v>
+        <v>-0.005804655662748974</v>
       </c>
     </row>
     <row r="691">
@@ -5970,7 +5970,7 @@
         <v>4.928469241773962</v>
       </c>
       <c r="B691" t="n">
-        <v>0.009144898816606852</v>
+        <v>0.004196293570577402</v>
       </c>
     </row>
     <row r="692">
@@ -5978,7 +5978,7 @@
         <v>4.935622317596566</v>
       </c>
       <c r="B692" t="n">
-        <v>0.006156036055816614</v>
+        <v>-0.01148521841146539</v>
       </c>
     </row>
     <row r="693">
@@ -5986,7 +5986,7 @@
         <v>4.94277539341917</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.001963415085135539</v>
+        <v>0.004434126006923043</v>
       </c>
     </row>
     <row r="694">
@@ -5994,7 +5994,7 @@
         <v>4.949928469241774</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.003745690547756029</v>
+        <v>0.01448544973871527</v>
       </c>
     </row>
     <row r="695">
@@ -6002,7 +6002,7 @@
         <v>4.957081545064377</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.01170510034691678</v>
+        <v>-0.004971198760880167</v>
       </c>
     </row>
     <row r="696">
@@ -6010,7 +6010,7 @@
         <v>4.964234620886981</v>
       </c>
       <c r="B696" t="n">
-        <v>0.01353907928742404</v>
+        <v>0.01266729100894727</v>
       </c>
     </row>
     <row r="697">
@@ -6018,7 +6018,7 @@
         <v>4.971387696709585</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.007550327747775502</v>
+        <v>0.008091652311061286</v>
       </c>
     </row>
     <row r="698">
@@ -6026,7 +6026,7 @@
         <v>4.978540772532189</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.002419050810972313</v>
+        <v>0.006993173224905894</v>
       </c>
     </row>
     <row r="699">
@@ -6034,7 +6034,7 @@
         <v>4.985693848354792</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.002176253961432479</v>
+        <v>-0.004208542213155707</v>
       </c>
     </row>
     <row r="700">
@@ -6042,7 +6042,7 @@
         <v>4.992846924177396</v>
       </c>
       <c r="B700" t="n">
-        <v>0.0062703974123817</v>
+        <v>-0.01783954770030564</v>
       </c>
     </row>
     <row r="701">
@@ -6050,7 +6050,7 @@
         <v>5</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.0003660830839885043</v>
+        <v>0.001885927418165538</v>
       </c>
     </row>
   </sheetData>
